--- a/SponGIS_Template/SponGIS_Template.xlsx
+++ b/SponGIS_Template/SponGIS_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewdavies_mbp/Andy's Documents/Websites and comittees/SponGIS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewdavies_mbp/Andy's Documents/Websites and comittees/SponGIS/Github/SponGIS/SponGIS_Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="584">
   <si>
     <t>Class</t>
   </si>
@@ -1816,6 +1816,9 @@
   </si>
   <si>
     <t>Embargoed</t>
+  </si>
+  <si>
+    <t>The species schema standardises specific measurement data.</t>
   </si>
 </sst>
 </file>
@@ -2917,7 +2920,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3407,6 +3410,21 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3419,21 +3437,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3456,9 +3459,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4929,7 +4929,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="96.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4946,10 +4946,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="237" t="s">
         <v>389</v>
       </c>
-      <c r="B1" s="239"/>
+      <c r="B1" s="237"/>
       <c r="D1" s="20" t="s">
         <v>163</v>
       </c>
@@ -4971,7 +4971,7 @@
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="236" t="s">
-        <v>216</v>
+        <v>583</v>
       </c>
       <c r="B3" s="236"/>
       <c r="C3" s="236"/>
@@ -6143,8 +6143,8 @@
       <c r="A8" s="100" t="s">
         <v>452</v>
       </c>
-      <c r="B8" s="228"/>
-      <c r="C8" s="228"/>
+      <c r="B8" s="222"/>
+      <c r="C8" s="222"/>
       <c r="D8" s="118"/>
       <c r="E8" s="179" t="s">
         <v>580</v>
@@ -6163,8 +6163,8 @@
       <c r="A9" s="114" t="s">
         <v>454</v>
       </c>
-      <c r="B9" s="228"/>
-      <c r="C9" s="228"/>
+      <c r="B9" s="222"/>
+      <c r="C9" s="222"/>
       <c r="D9" s="118"/>
       <c r="E9" s="179" t="s">
         <v>579</v>
@@ -6179,11 +6179,11 @@
       <c r="A10" s="102" t="s">
         <v>461</v>
       </c>
-      <c r="B10" s="226"/>
-      <c r="C10" s="226"/>
-      <c r="D10" s="226"/>
-      <c r="E10" s="226"/>
-      <c r="F10" s="227"/>
+      <c r="B10" s="223"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="224"/>
       <c r="G10" s="101" t="s">
         <v>471</v>
       </c>
@@ -6193,11 +6193,11 @@
       <c r="A11" s="114" t="s">
         <v>460</v>
       </c>
-      <c r="B11" s="229"/>
-      <c r="C11" s="229"/>
-      <c r="D11" s="229"/>
-      <c r="E11" s="229"/>
-      <c r="F11" s="230"/>
+      <c r="B11" s="225"/>
+      <c r="C11" s="225"/>
+      <c r="D11" s="225"/>
+      <c r="E11" s="225"/>
+      <c r="F11" s="226"/>
       <c r="G11" s="101" t="s">
         <v>472</v>
       </c>
@@ -6207,11 +6207,11 @@
       <c r="A12" s="102" t="s">
         <v>458</v>
       </c>
-      <c r="B12" s="226"/>
-      <c r="C12" s="226"/>
-      <c r="D12" s="226"/>
-      <c r="E12" s="226"/>
-      <c r="F12" s="227"/>
+      <c r="B12" s="223"/>
+      <c r="C12" s="223"/>
+      <c r="D12" s="223"/>
+      <c r="E12" s="223"/>
+      <c r="F12" s="224"/>
       <c r="G12" s="101" t="s">
         <v>473</v>
       </c>
@@ -6221,11 +6221,11 @@
       <c r="A13" s="102" t="s">
         <v>457</v>
       </c>
-      <c r="B13" s="224"/>
-      <c r="C13" s="224"/>
-      <c r="D13" s="224"/>
-      <c r="E13" s="224"/>
-      <c r="F13" s="225"/>
+      <c r="B13" s="229"/>
+      <c r="C13" s="229"/>
+      <c r="D13" s="229"/>
+      <c r="E13" s="229"/>
+      <c r="F13" s="230"/>
       <c r="G13" s="101" t="s">
         <v>474</v>
       </c>
@@ -6233,11 +6233,11 @@
     </row>
     <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="102"/>
-      <c r="B14" s="224"/>
-      <c r="C14" s="224"/>
-      <c r="D14" s="224"/>
-      <c r="E14" s="224"/>
-      <c r="F14" s="225"/>
+      <c r="B14" s="229"/>
+      <c r="C14" s="229"/>
+      <c r="D14" s="229"/>
+      <c r="E14" s="229"/>
+      <c r="F14" s="230"/>
       <c r="G14" s="113" t="s">
         <v>475</v>
       </c>
@@ -6247,31 +6247,31 @@
       <c r="A15" s="117" t="s">
         <v>456</v>
       </c>
-      <c r="B15" s="224"/>
-      <c r="C15" s="224"/>
-      <c r="D15" s="224"/>
-      <c r="E15" s="224"/>
-      <c r="F15" s="225"/>
+      <c r="B15" s="229"/>
+      <c r="C15" s="229"/>
+      <c r="D15" s="229"/>
+      <c r="E15" s="229"/>
+      <c r="F15" s="230"/>
       <c r="G15" s="121"/>
       <c r="H15" s="119"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="117"/>
-      <c r="B16" s="224"/>
-      <c r="C16" s="224"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="224"/>
-      <c r="F16" s="225"/>
+      <c r="B16" s="229"/>
+      <c r="C16" s="229"/>
+      <c r="D16" s="229"/>
+      <c r="E16" s="229"/>
+      <c r="F16" s="230"/>
       <c r="G16" s="121"/>
       <c r="H16" s="119"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="117"/>
-      <c r="B17" s="224"/>
-      <c r="C17" s="224"/>
-      <c r="D17" s="224"/>
-      <c r="E17" s="224"/>
-      <c r="F17" s="225"/>
+      <c r="B17" s="229"/>
+      <c r="C17" s="229"/>
+      <c r="D17" s="229"/>
+      <c r="E17" s="229"/>
+      <c r="F17" s="230"/>
       <c r="G17" s="121"/>
       <c r="H17" s="119"/>
     </row>
@@ -6279,11 +6279,11 @@
       <c r="A18" s="103" t="s">
         <v>455</v>
       </c>
-      <c r="B18" s="222"/>
-      <c r="C18" s="222"/>
-      <c r="D18" s="222"/>
-      <c r="E18" s="222"/>
-      <c r="F18" s="223"/>
+      <c r="B18" s="227"/>
+      <c r="C18" s="227"/>
+      <c r="D18" s="227"/>
+      <c r="E18" s="227"/>
+      <c r="F18" s="228"/>
       <c r="G18" s="122"/>
       <c r="H18" s="120"/>
     </row>
@@ -6465,11 +6465,11 @@
       <c r="A8" s="102" t="s">
         <v>463</v>
       </c>
-      <c r="B8" s="224"/>
-      <c r="C8" s="224"/>
-      <c r="D8" s="224"/>
-      <c r="E8" s="224"/>
-      <c r="F8" s="224"/>
+      <c r="B8" s="229"/>
+      <c r="C8" s="229"/>
+      <c r="D8" s="229"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="229"/>
       <c r="G8" s="132"/>
       <c r="H8" s="44" t="s">
         <v>406</v>

--- a/SponGIS_Template/SponGIS_Template.xlsx
+++ b/SponGIS_Template/SponGIS_Template.xlsx
@@ -9,23 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="540" windowWidth="24520" windowHeight="16660" tabRatio="500"/>
+    <workbookView xWindow="6360" yWindow="2180" windowWidth="24520" windowHeight="16660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="13" r:id="rId1"/>
     <sheet name="1 Dataset Details" sheetId="14" r:id="rId2"/>
     <sheet name="2 Taxon Details" sheetId="18" r:id="rId3"/>
-    <sheet name="3 Event Details" sheetId="20" r:id="rId4"/>
-    <sheet name="Helpful-Additions" sheetId="21" r:id="rId5"/>
-    <sheet name="Help- Dataset" sheetId="8" r:id="rId6"/>
-    <sheet name="Help- Taxon" sheetId="10" r:id="rId7"/>
-    <sheet name="Help- Event" sheetId="9" r:id="rId8"/>
-    <sheet name="Help- ExtendedOccurrence" sheetId="11" r:id="rId9"/>
-    <sheet name="Help- ExtendedMeasurementOrFact" sheetId="12" r:id="rId10"/>
-    <sheet name="ContextDependents" sheetId="16" state="hidden" r:id="rId11"/>
+    <sheet name="3 Event Details Normal" sheetId="20" r:id="rId4"/>
+    <sheet name="3 Event Details Advanced" sheetId="22" r:id="rId5"/>
+    <sheet name="Helpful-Additions" sheetId="21" r:id="rId6"/>
+    <sheet name="Help- Dataset" sheetId="8" r:id="rId7"/>
+    <sheet name="Help- Taxon" sheetId="10" r:id="rId8"/>
+    <sheet name="Help- Event" sheetId="9" r:id="rId9"/>
+    <sheet name="Help- ExtendedOccurrence" sheetId="11" r:id="rId10"/>
+    <sheet name="Help- ExtendedMeasurementOrFact" sheetId="12" r:id="rId11"/>
+    <sheet name="ContextDependents" sheetId="16" state="hidden" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="CC">[1]Vocabularies!$G$2:$G$6</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="589">
   <si>
     <t>Class</t>
   </si>
@@ -1819,6 +1820,21 @@
   </si>
   <si>
     <t>The species schema standardises specific measurement data.</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>dataGeneralisations</t>
+  </si>
+  <si>
+    <t>fill in the advanced version of sheet</t>
+  </si>
+  <si>
+    <t>3, if not, then use the normal version.</t>
+  </si>
+  <si>
+    <t>If you feel confident with the terms,</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="75">
     <border>
       <left/>
       <right/>
@@ -2809,6 +2825,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2920,7 +3114,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="276">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3290,6 +3484,36 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3322,33 +3546,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3437,18 +3634,18 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3461,6 +3658,78 @@
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="69" xfId="107" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="108">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4069,7 +4338,7 @@
   <dimension ref="A1:AZ260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4098,16 +4367,16 @@
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
-      <c r="E2" s="195" t="s">
+      <c r="E2" s="185" t="s">
         <v>435</v>
       </c>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
       <c r="M2" s="36"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -4115,14 +4384,14 @@
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="195"/>
-      <c r="L3" s="195"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
       <c r="M3" s="36"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -4162,16 +4431,16 @@
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
-      <c r="E6" s="196" t="s">
+      <c r="E6" s="186" t="s">
         <v>437</v>
       </c>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="196"/>
-      <c r="L6" s="196"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="186"/>
+      <c r="L6" s="186"/>
       <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -4179,14 +4448,14 @@
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="196"/>
-      <c r="J7" s="196"/>
-      <c r="K7" s="196"/>
-      <c r="L7" s="196"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="186"/>
+      <c r="K7" s="186"/>
+      <c r="L7" s="186"/>
       <c r="M7" s="36"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -4194,14 +4463,14 @@
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="196"/>
-      <c r="K8" s="196"/>
-      <c r="L8" s="196"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="186"/>
+      <c r="L8" s="186"/>
       <c r="M8" s="36"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -4357,19 +4626,19 @@
     <row r="18" spans="1:13" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
-      <c r="C18" s="197" t="str">
+      <c r="C18" s="187" t="str">
         <f>IF(L17="Yes", "Enter the data ID to the box to the right, you can search for the value if you don't already have it at www.spongis.org/data-search/",IF(L17="No","Obtain a new data ID from, https://www.guidgenerator.com, no braces or hyphens please. Enter the value in the box to the right",""))</f>
         <v/>
       </c>
-      <c r="D18" s="198"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="198"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="198"/>
-      <c r="I18" s="198"/>
-      <c r="J18" s="199"/>
-      <c r="K18" s="200"/>
-      <c r="L18" s="201"/>
+      <c r="D18" s="188"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="189"/>
+      <c r="K18" s="190"/>
+      <c r="L18" s="191"/>
       <c r="M18" s="92"/>
     </row>
     <row r="19" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4407,17 +4676,17 @@
       <c r="B21" s="104" t="s">
         <v>440</v>
       </c>
-      <c r="C21" s="190" t="s">
+      <c r="C21" s="200" t="s">
         <v>449</v>
       </c>
-      <c r="D21" s="190"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="190"/>
-      <c r="H21" s="190"/>
-      <c r="I21" s="190"/>
-      <c r="J21" s="190"/>
-      <c r="K21" s="191"/>
+      <c r="D21" s="200"/>
+      <c r="E21" s="200"/>
+      <c r="F21" s="200"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="200"/>
+      <c r="J21" s="200"/>
+      <c r="K21" s="201"/>
       <c r="L21" s="105"/>
       <c r="M21" s="92">
         <f>IF(L21="Yes", 0.2,IF(L21="No",0.1,0))</f>
@@ -4469,8 +4738,8 @@
       <c r="H24" s="106"/>
       <c r="I24" s="106"/>
       <c r="J24" s="106"/>
-      <c r="K24" s="202"/>
-      <c r="L24" s="203"/>
+      <c r="K24" s="192"/>
+      <c r="L24" s="193"/>
       <c r="M24" s="92">
         <f>IF(K24="Species Occurrences", 10,IF(K24="Environmental data",20,IF(K24="Both",30,0)))</f>
         <v>0</v>
@@ -4520,12 +4789,12 @@
       <c r="G27" s="84"/>
       <c r="H27" s="84"/>
       <c r="I27" s="84"/>
-      <c r="J27" s="192" t="str">
+      <c r="J27" s="202" t="str">
         <f>IF(SUM(M17:M24)&gt;11,IF(M17=2,"1 - Dataset Details",IF(M17=1,"","")),"")</f>
         <v/>
       </c>
-      <c r="K27" s="193"/>
-      <c r="L27" s="194"/>
+      <c r="K27" s="203"/>
+      <c r="L27" s="204"/>
       <c r="M27" s="36"/>
     </row>
     <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.2">
@@ -4538,12 +4807,12 @@
       <c r="G28" s="86"/>
       <c r="H28" s="86"/>
       <c r="I28" s="86"/>
-      <c r="J28" s="184" t="str">
+      <c r="J28" s="194" t="str">
         <f>IF(SUM(M17:M24)&gt;11,IF(M21=0.1,"2 - Taxon Details",IF(M21=0.2,"","")),"")</f>
         <v/>
       </c>
-      <c r="K28" s="185"/>
-      <c r="L28" s="186"/>
+      <c r="K28" s="195"/>
+      <c r="L28" s="196"/>
       <c r="M28" s="36"/>
     </row>
     <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.2">
@@ -4553,15 +4822,17 @@
       <c r="D29" s="86"/>
       <c r="E29" s="86"/>
       <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
+      <c r="G29" s="275" t="s">
+        <v>588</v>
+      </c>
       <c r="H29" s="86"/>
       <c r="I29" s="86"/>
-      <c r="J29" s="184" t="str">
+      <c r="J29" s="194" t="str">
         <f>IF(SUM(M17:M24)&gt;11.1,"3 - Event Details","")</f>
         <v/>
       </c>
-      <c r="K29" s="185"/>
-      <c r="L29" s="186"/>
+      <c r="K29" s="195"/>
+      <c r="L29" s="196"/>
       <c r="M29" s="36"/>
     </row>
     <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.2">
@@ -4571,15 +4842,17 @@
       <c r="D30" s="86"/>
       <c r="E30" s="86"/>
       <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
+      <c r="G30" s="275" t="s">
+        <v>586</v>
+      </c>
       <c r="H30" s="86"/>
       <c r="I30" s="86"/>
-      <c r="J30" s="184" t="str">
+      <c r="J30" s="194" t="str">
         <f>IF(SUM(M17:M24)&gt;10.1,IF(M24=10,"3a - Occurrence Details",IF(M24=30,"3a - Occurrence Details","")),"")</f>
         <v/>
       </c>
-      <c r="K30" s="185"/>
-      <c r="L30" s="186"/>
+      <c r="K30" s="195"/>
+      <c r="L30" s="196"/>
       <c r="M30" s="36"/>
     </row>
     <row r="31" spans="1:13" ht="22" thickBot="1" x14ac:dyDescent="0.25">
@@ -4589,15 +4862,17 @@
       <c r="D31" s="86"/>
       <c r="E31" s="86"/>
       <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
+      <c r="G31" s="275" t="s">
+        <v>587</v>
+      </c>
       <c r="H31" s="86"/>
       <c r="I31" s="86"/>
-      <c r="J31" s="187" t="str">
+      <c r="J31" s="197" t="str">
         <f>IF(SUM(M18:M26)&gt;10.1,IF(M24=20,"3b - Environmental Details",IF(M24=30,"3b - Environmmental Details","")),"")</f>
         <v/>
       </c>
-      <c r="K31" s="188"/>
-      <c r="L31" s="189"/>
+      <c r="K31" s="198"/>
+      <c r="L31" s="199"/>
       <c r="M31" s="36"/>
     </row>
     <row r="32" spans="1:13" ht="24" x14ac:dyDescent="0.3">
@@ -4879,17 +5154,17 @@
     <row r="260" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E2:L3"/>
-    <mergeCell ref="E6:L8"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="K24:L24"/>
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="J31:L31"/>
     <mergeCell ref="C21:K21"/>
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="J28:L28"/>
     <mergeCell ref="J29:L29"/>
+    <mergeCell ref="E2:L3"/>
+    <mergeCell ref="E6:L8"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="K24:L24"/>
   </mergeCells>
   <conditionalFormatting sqref="J18:L18">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -4926,10 +5201,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="96.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4946,10 +5221,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="237" t="s">
-        <v>389</v>
-      </c>
-      <c r="B1" s="237"/>
+      <c r="A1" s="238" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="238"/>
       <c r="D1" s="20" t="s">
         <v>163</v>
       </c>
@@ -4970,15 +5245,15 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="236" t="s">
-        <v>583</v>
-      </c>
-      <c r="B3" s="236"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
+      <c r="A3" s="237" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
@@ -5017,9 +5292,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="13" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>217</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>128</v>
@@ -5029,227 +5304,576 @@
       <c r="E6" s="31"/>
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" spans="1:10" ht="80" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="21">
-        <v>1000</v>
-      </c>
+      <c r="H6" s="34"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>296</v>
+      <c r="A8" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>401</v>
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>162</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>296</v>
+        <v>112</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>391</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="E9" s="18"/>
       <c r="F9" s="9" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>296</v>
+        <v>7</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>146</v>
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>344</v>
+      </c>
       <c r="F10" s="9" t="s">
         <v>162</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="H10" s="21" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>296</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="E11" s="18"/>
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="E11" s="10"/>
       <c r="F11" s="9" t="s">
         <v>162</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="H11" s="21" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>296</v>
+      <c r="A12" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>396</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="H12" s="21" t="s">
-        <v>397</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>296</v>
+      <c r="A13" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>296</v>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>149</v>
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>348</v>
+      </c>
       <c r="F14" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="H14" s="21" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>296</v>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>152</v>
+        <v>58</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>404</v>
+        <v>350</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="H15" s="21" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="H15" s="21">
+        <v>2008.1333999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>387</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5261,6 +5885,342 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="96.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12" style="9" customWidth="1"/>
+    <col min="7" max="7" width="66" style="1" customWidth="1"/>
+    <col min="8" max="8" width="76.33203125" style="21" customWidth="1"/>
+    <col min="9" max="16384" width="96.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="238" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" s="238"/>
+      <c r="D1" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="237" t="s">
+        <v>583</v>
+      </c>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="13" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -5426,11 +6386,11 @@
       <c r="G4" s="53"/>
       <c r="H4" s="54"/>
       <c r="I4" s="55"/>
-      <c r="J4" s="208" t="s">
+      <c r="J4" s="209" t="s">
         <v>427</v>
       </c>
-      <c r="K4" s="209"/>
-      <c r="L4" s="210"/>
+      <c r="K4" s="210"/>
+      <c r="L4" s="211"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="62"/>
@@ -5442,23 +6402,23 @@
       <c r="G5" s="40"/>
       <c r="H5" s="56"/>
       <c r="I5" s="50"/>
-      <c r="J5" s="211"/>
-      <c r="K5" s="212"/>
-      <c r="L5" s="213"/>
+      <c r="J5" s="212"/>
+      <c r="K5" s="213"/>
+      <c r="L5" s="214"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="111" t="s">
         <v>425</v>
       </c>
-      <c r="B6" s="218">
+      <c r="B6" s="219">
         <f>Instructions!J18</f>
         <v>0</v>
       </c>
-      <c r="C6" s="218"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="218"/>
-      <c r="F6" s="218"/>
-      <c r="G6" s="219"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="219"/>
+      <c r="G6" s="220"/>
       <c r="H6" s="56"/>
       <c r="I6" s="50"/>
       <c r="J6" s="58" t="s">
@@ -5475,12 +6435,12 @@
       <c r="A7" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="B7" s="214"/>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="215"/>
+      <c r="B7" s="215"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="215"/>
+      <c r="E7" s="215"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="216"/>
       <c r="H7" s="56"/>
       <c r="I7" s="50"/>
       <c r="J7" s="59" t="s">
@@ -5493,12 +6453,12 @@
       <c r="A8" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="B8" s="220"/>
-      <c r="C8" s="220"/>
-      <c r="D8" s="220"/>
-      <c r="E8" s="220"/>
-      <c r="F8" s="220"/>
-      <c r="G8" s="221"/>
+      <c r="B8" s="221"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="222"/>
       <c r="H8" s="56"/>
       <c r="I8" s="50"/>
       <c r="J8" s="60" t="s">
@@ -5511,12 +6471,12 @@
       <c r="A9" s="64" t="s">
         <v>433</v>
       </c>
-      <c r="B9" s="214"/>
-      <c r="C9" s="214"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="215"/>
+      <c r="B9" s="215"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="215"/>
+      <c r="E9" s="215"/>
+      <c r="F9" s="215"/>
+      <c r="G9" s="216"/>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
       <c r="J9" s="56"/>
@@ -5528,34 +6488,34 @@
       <c r="A10" s="68" t="s">
         <v>434</v>
       </c>
-      <c r="B10" s="216"/>
-      <c r="C10" s="216"/>
-      <c r="D10" s="216"/>
-      <c r="E10" s="216"/>
-      <c r="F10" s="216"/>
-      <c r="G10" s="217"/>
+      <c r="B10" s="217"/>
+      <c r="C10" s="217"/>
+      <c r="D10" s="217"/>
+      <c r="E10" s="217"/>
+      <c r="F10" s="217"/>
+      <c r="G10" s="218"/>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
       <c r="J10" s="127" t="s">
         <v>480</v>
       </c>
-      <c r="K10" s="204" t="str">
+      <c r="K10" s="205" t="str">
         <f>CONCATENATE("POLYGON ((",L8,", ",L7,", ",K7,", ",K8,"))")</f>
         <v>POLYGON ((, , , ))</v>
       </c>
-      <c r="L10" s="205"/>
+      <c r="L10" s="206"/>
       <c r="M10" s="38"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="174" t="s">
         <v>581</v>
       </c>
-      <c r="B11" s="206"/>
-      <c r="C11" s="206"/>
-      <c r="D11" s="206"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="206"/>
-      <c r="G11" s="207"/>
+      <c r="B11" s="207"/>
+      <c r="C11" s="207"/>
+      <c r="D11" s="207"/>
+      <c r="E11" s="207"/>
+      <c r="F11" s="207"/>
+      <c r="G11" s="208"/>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
@@ -6143,8 +7103,8 @@
       <c r="A8" s="100" t="s">
         <v>452</v>
       </c>
-      <c r="B8" s="222"/>
-      <c r="C8" s="222"/>
+      <c r="B8" s="223"/>
+      <c r="C8" s="223"/>
       <c r="D8" s="118"/>
       <c r="E8" s="179" t="s">
         <v>580</v>
@@ -6163,8 +7123,8 @@
       <c r="A9" s="114" t="s">
         <v>454</v>
       </c>
-      <c r="B9" s="222"/>
-      <c r="C9" s="222"/>
+      <c r="B9" s="223"/>
+      <c r="C9" s="223"/>
       <c r="D9" s="118"/>
       <c r="E9" s="179" t="s">
         <v>579</v>
@@ -6179,11 +7139,11 @@
       <c r="A10" s="102" t="s">
         <v>461</v>
       </c>
-      <c r="B10" s="223"/>
-      <c r="C10" s="223"/>
-      <c r="D10" s="223"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="224"/>
+      <c r="B10" s="224"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="225"/>
       <c r="G10" s="101" t="s">
         <v>471</v>
       </c>
@@ -6193,11 +7153,11 @@
       <c r="A11" s="114" t="s">
         <v>460</v>
       </c>
-      <c r="B11" s="225"/>
-      <c r="C11" s="225"/>
-      <c r="D11" s="225"/>
-      <c r="E11" s="225"/>
-      <c r="F11" s="226"/>
+      <c r="B11" s="226"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="227"/>
       <c r="G11" s="101" t="s">
         <v>472</v>
       </c>
@@ -6207,11 +7167,11 @@
       <c r="A12" s="102" t="s">
         <v>458</v>
       </c>
-      <c r="B12" s="223"/>
-      <c r="C12" s="223"/>
-      <c r="D12" s="223"/>
-      <c r="E12" s="223"/>
-      <c r="F12" s="224"/>
+      <c r="B12" s="224"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="225"/>
       <c r="G12" s="101" t="s">
         <v>473</v>
       </c>
@@ -6221,11 +7181,11 @@
       <c r="A13" s="102" t="s">
         <v>457</v>
       </c>
-      <c r="B13" s="229"/>
-      <c r="C13" s="229"/>
-      <c r="D13" s="229"/>
-      <c r="E13" s="229"/>
-      <c r="F13" s="230"/>
+      <c r="B13" s="230"/>
+      <c r="C13" s="230"/>
+      <c r="D13" s="230"/>
+      <c r="E13" s="230"/>
+      <c r="F13" s="231"/>
       <c r="G13" s="101" t="s">
         <v>474</v>
       </c>
@@ -6233,11 +7193,11 @@
     </row>
     <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="102"/>
-      <c r="B14" s="229"/>
-      <c r="C14" s="229"/>
-      <c r="D14" s="229"/>
-      <c r="E14" s="229"/>
-      <c r="F14" s="230"/>
+      <c r="B14" s="230"/>
+      <c r="C14" s="230"/>
+      <c r="D14" s="230"/>
+      <c r="E14" s="230"/>
+      <c r="F14" s="231"/>
       <c r="G14" s="113" t="s">
         <v>475</v>
       </c>
@@ -6247,31 +7207,31 @@
       <c r="A15" s="117" t="s">
         <v>456</v>
       </c>
-      <c r="B15" s="229"/>
-      <c r="C15" s="229"/>
-      <c r="D15" s="229"/>
-      <c r="E15" s="229"/>
-      <c r="F15" s="230"/>
+      <c r="B15" s="230"/>
+      <c r="C15" s="230"/>
+      <c r="D15" s="230"/>
+      <c r="E15" s="230"/>
+      <c r="F15" s="231"/>
       <c r="G15" s="121"/>
       <c r="H15" s="119"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="117"/>
-      <c r="B16" s="229"/>
-      <c r="C16" s="229"/>
-      <c r="D16" s="229"/>
-      <c r="E16" s="229"/>
-      <c r="F16" s="230"/>
+      <c r="B16" s="230"/>
+      <c r="C16" s="230"/>
+      <c r="D16" s="230"/>
+      <c r="E16" s="230"/>
+      <c r="F16" s="231"/>
       <c r="G16" s="121"/>
       <c r="H16" s="119"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="117"/>
-      <c r="B17" s="229"/>
-      <c r="C17" s="229"/>
-      <c r="D17" s="229"/>
-      <c r="E17" s="229"/>
-      <c r="F17" s="230"/>
+      <c r="B17" s="230"/>
+      <c r="C17" s="230"/>
+      <c r="D17" s="230"/>
+      <c r="E17" s="230"/>
+      <c r="F17" s="231"/>
       <c r="G17" s="121"/>
       <c r="H17" s="119"/>
     </row>
@@ -6279,11 +7239,11 @@
       <c r="A18" s="103" t="s">
         <v>455</v>
       </c>
-      <c r="B18" s="227"/>
-      <c r="C18" s="227"/>
-      <c r="D18" s="227"/>
-      <c r="E18" s="227"/>
-      <c r="F18" s="228"/>
+      <c r="B18" s="228"/>
+      <c r="C18" s="228"/>
+      <c r="D18" s="228"/>
+      <c r="E18" s="228"/>
+      <c r="F18" s="229"/>
       <c r="G18" s="122"/>
       <c r="H18" s="120"/>
     </row>
@@ -6346,7 +7306,7 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6428,14 +7388,14 @@
       <c r="A6" s="115" t="s">
         <v>462</v>
       </c>
-      <c r="B6" s="231">
+      <c r="B6" s="234">
         <f>'1 Dataset Details'!$B$6:$G$6</f>
         <v>0</v>
       </c>
-      <c r="C6" s="231"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="231"/>
-      <c r="F6" s="231"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="234"/>
       <c r="G6" s="147" t="s">
         <v>502</v>
       </c>
@@ -6449,11 +7409,11 @@
       <c r="A7" s="114" t="s">
         <v>429</v>
       </c>
-      <c r="B7" s="232"/>
-      <c r="C7" s="232"/>
-      <c r="D7" s="232"/>
-      <c r="E7" s="232"/>
-      <c r="F7" s="232"/>
+      <c r="B7" s="235"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="235"/>
+      <c r="E7" s="235"/>
+      <c r="F7" s="235"/>
       <c r="G7" s="132"/>
       <c r="H7" s="44" t="s">
         <v>505</v>
@@ -6465,11 +7425,11 @@
       <c r="A8" s="102" t="s">
         <v>463</v>
       </c>
-      <c r="B8" s="229"/>
-      <c r="C8" s="229"/>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229"/>
+      <c r="B8" s="230"/>
+      <c r="C8" s="230"/>
+      <c r="D8" s="230"/>
+      <c r="E8" s="230"/>
+      <c r="F8" s="230"/>
       <c r="G8" s="132"/>
       <c r="H8" s="44" t="s">
         <v>406</v>
@@ -6481,9 +7441,9 @@
       <c r="A9" s="123" t="s">
         <v>476</v>
       </c>
-      <c r="B9" s="233"/>
-      <c r="C9" s="233"/>
-      <c r="D9" s="233"/>
+      <c r="B9" s="232"/>
+      <c r="C9" s="232"/>
+      <c r="D9" s="232"/>
       <c r="E9" s="131"/>
       <c r="F9" s="131"/>
       <c r="G9" s="149"/>
@@ -6497,11 +7457,11 @@
       <c r="A10" s="101" t="s">
         <v>497</v>
       </c>
-      <c r="B10" s="233"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="233"/>
-      <c r="F10" s="233"/>
+      <c r="B10" s="232"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="232"/>
+      <c r="E10" s="232"/>
+      <c r="F10" s="232"/>
       <c r="G10" s="145" t="s">
         <v>466</v>
       </c>
@@ -6515,11 +7475,11 @@
       <c r="A11" s="101" t="s">
         <v>499</v>
       </c>
-      <c r="B11" s="233"/>
-      <c r="C11" s="233"/>
-      <c r="D11" s="233"/>
-      <c r="E11" s="233"/>
-      <c r="F11" s="233"/>
+      <c r="B11" s="232"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="232"/>
+      <c r="E11" s="232"/>
+      <c r="F11" s="232"/>
       <c r="G11" s="132"/>
       <c r="H11" s="44" t="s">
         <v>507</v>
@@ -6531,11 +7491,11 @@
       <c r="A12" s="101" t="s">
         <v>500</v>
       </c>
-      <c r="B12" s="233"/>
-      <c r="C12" s="233"/>
-      <c r="D12" s="233"/>
-      <c r="E12" s="233"/>
-      <c r="F12" s="233"/>
+      <c r="B12" s="232"/>
+      <c r="C12" s="232"/>
+      <c r="D12" s="232"/>
+      <c r="E12" s="232"/>
+      <c r="F12" s="232"/>
       <c r="G12" s="176" t="s">
         <v>576</v>
       </c>
@@ -6549,11 +7509,11 @@
       <c r="A13" s="101" t="s">
         <v>498</v>
       </c>
-      <c r="B13" s="233"/>
-      <c r="C13" s="233"/>
-      <c r="D13" s="233"/>
-      <c r="E13" s="233"/>
-      <c r="F13" s="233"/>
+      <c r="B13" s="232"/>
+      <c r="C13" s="232"/>
+      <c r="D13" s="232"/>
+      <c r="E13" s="232"/>
+      <c r="F13" s="232"/>
       <c r="G13" s="132"/>
       <c r="H13" s="126" t="s">
         <v>41</v>
@@ -6565,11 +7525,11 @@
       <c r="A14" s="101" t="s">
         <v>501</v>
       </c>
-      <c r="B14" s="233"/>
-      <c r="C14" s="233"/>
-      <c r="D14" s="233"/>
-      <c r="E14" s="233"/>
-      <c r="F14" s="233"/>
+      <c r="B14" s="232"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="232"/>
+      <c r="E14" s="232"/>
+      <c r="F14" s="232"/>
       <c r="G14" s="132"/>
       <c r="H14" s="44" t="s">
         <v>509</v>
@@ -6579,11 +7539,11 @@
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="101"/>
-      <c r="B15" s="233"/>
-      <c r="C15" s="233"/>
-      <c r="D15" s="233"/>
-      <c r="E15" s="233"/>
-      <c r="F15" s="233"/>
+      <c r="B15" s="232"/>
+      <c r="C15" s="232"/>
+      <c r="D15" s="232"/>
+      <c r="E15" s="232"/>
+      <c r="F15" s="232"/>
       <c r="G15" s="149"/>
       <c r="H15" s="125" t="s">
         <v>510</v>
@@ -6595,11 +7555,11 @@
       <c r="A16" s="101" t="s">
         <v>520</v>
       </c>
-      <c r="B16" s="234"/>
-      <c r="C16" s="234"/>
-      <c r="D16" s="234"/>
-      <c r="E16" s="234"/>
-      <c r="F16" s="234"/>
+      <c r="B16" s="233"/>
+      <c r="C16" s="233"/>
+      <c r="D16" s="233"/>
+      <c r="E16" s="233"/>
+      <c r="F16" s="233"/>
       <c r="G16" s="132" t="s">
         <v>467</v>
       </c>
@@ -6611,11 +7571,11 @@
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="160"/>
-      <c r="B17" s="234"/>
-      <c r="C17" s="234"/>
-      <c r="D17" s="234"/>
-      <c r="E17" s="234"/>
-      <c r="F17" s="234"/>
+      <c r="B17" s="233"/>
+      <c r="C17" s="233"/>
+      <c r="D17" s="233"/>
+      <c r="E17" s="233"/>
+      <c r="F17" s="233"/>
       <c r="G17" s="132"/>
       <c r="H17" s="44" t="s">
         <v>511</v>
@@ -6625,11 +7585,11 @@
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="112"/>
-      <c r="B18" s="234"/>
-      <c r="C18" s="234"/>
-      <c r="D18" s="234"/>
-      <c r="E18" s="234"/>
-      <c r="F18" s="234"/>
+      <c r="B18" s="233"/>
+      <c r="C18" s="233"/>
+      <c r="D18" s="233"/>
+      <c r="E18" s="233"/>
+      <c r="F18" s="233"/>
       <c r="G18" s="132"/>
       <c r="H18" s="44" t="s">
         <v>513</v>
@@ -7179,16 +8139,16 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="10">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B14:F15"/>
     <mergeCell ref="B16:F18"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
   </mergeCells>
   <dataValidations count="56">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="eventID" prompt="An identifier for the set of information associated with an Event (something that occurs at a place and time)." sqref="B7:F7"/>
@@ -7276,6 +8236,535 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="1" tint="4.9989318521683403E-2"/>
+  </sheetPr>
+  <dimension ref="A1:BG7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="16.83203125" style="38" customWidth="1"/>
+    <col min="3" max="58" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:59" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="109" t="s">
+        <v>524</v>
+      </c>
+      <c r="E1" s="110" t="s">
+        <v>486</v>
+      </c>
+      <c r="J1" s="161" t="s">
+        <v>465</v>
+      </c>
+      <c r="K1" s="258"/>
+      <c r="L1" s="258"/>
+      <c r="M1" s="258"/>
+      <c r="N1" s="258"/>
+      <c r="O1" s="258"/>
+      <c r="P1" s="258"/>
+      <c r="Q1" s="258"/>
+      <c r="R1" s="258"/>
+      <c r="S1" s="258"/>
+      <c r="T1" s="258"/>
+      <c r="U1" s="258"/>
+      <c r="V1" s="258"/>
+      <c r="W1" s="258"/>
+      <c r="X1" s="262" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y1" s="260"/>
+      <c r="Z1" s="260"/>
+      <c r="AA1" s="260"/>
+      <c r="AB1" s="260"/>
+      <c r="AC1" s="260"/>
+      <c r="AD1" s="260"/>
+      <c r="AE1" s="260"/>
+      <c r="AF1" s="260"/>
+      <c r="AG1" s="260"/>
+      <c r="AH1" s="260"/>
+      <c r="AI1" s="260"/>
+      <c r="AJ1" s="260"/>
+      <c r="AK1" s="260"/>
+      <c r="AL1" s="260"/>
+      <c r="AM1" s="260"/>
+      <c r="AN1" s="260"/>
+      <c r="AO1" s="260"/>
+      <c r="AP1" s="260"/>
+      <c r="AQ1" s="260"/>
+      <c r="AR1" s="260"/>
+      <c r="AS1" s="260"/>
+      <c r="AT1" s="260"/>
+      <c r="AU1" s="260"/>
+      <c r="AV1" s="260"/>
+      <c r="AW1" s="260"/>
+      <c r="AX1" s="262" t="s">
+        <v>558</v>
+      </c>
+      <c r="AY1" s="260"/>
+      <c r="AZ1" s="260"/>
+      <c r="BA1" s="260"/>
+      <c r="BB1" s="260"/>
+      <c r="BC1" s="260"/>
+      <c r="BD1" s="260"/>
+      <c r="BE1" s="260"/>
+      <c r="BF1" s="261"/>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A2" s="243" t="s">
+        <v>464</v>
+      </c>
+      <c r="B2" s="244"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="245"/>
+      <c r="F2" s="245"/>
+      <c r="G2" s="245"/>
+      <c r="H2" s="245"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="254" t="s">
+        <v>468</v>
+      </c>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="253" t="s">
+        <v>466</v>
+      </c>
+      <c r="P2" s="257" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q2" s="255"/>
+      <c r="R2" s="255"/>
+      <c r="S2" s="255"/>
+      <c r="T2" s="256"/>
+      <c r="U2" s="259" t="s">
+        <v>467</v>
+      </c>
+      <c r="V2" s="260"/>
+      <c r="W2" s="260"/>
+      <c r="X2" s="263"/>
+      <c r="Y2" s="264"/>
+      <c r="Z2" s="264"/>
+      <c r="AA2" s="264"/>
+      <c r="AB2" s="264"/>
+      <c r="AC2" s="264"/>
+      <c r="AD2" s="264"/>
+      <c r="AE2" s="264"/>
+      <c r="AF2" s="264"/>
+      <c r="AG2" s="264"/>
+      <c r="AH2" s="264"/>
+      <c r="AI2" s="264"/>
+      <c r="AJ2" s="264"/>
+      <c r="AK2" s="264"/>
+      <c r="AL2" s="264"/>
+      <c r="AM2" s="264"/>
+      <c r="AN2" s="264"/>
+      <c r="AO2" s="264"/>
+      <c r="AP2" s="264"/>
+      <c r="AQ2" s="264"/>
+      <c r="AR2" s="264"/>
+      <c r="AS2" s="264"/>
+      <c r="AT2" s="264"/>
+      <c r="AU2" s="264"/>
+      <c r="AV2" s="264"/>
+      <c r="AW2" s="264"/>
+      <c r="AX2" s="263"/>
+      <c r="AY2" s="264"/>
+      <c r="AZ2" s="264"/>
+      <c r="BA2" s="264"/>
+      <c r="BB2" s="264"/>
+      <c r="BC2" s="264"/>
+      <c r="BD2" s="264"/>
+      <c r="BE2" s="264"/>
+      <c r="BF2" s="265"/>
+    </row>
+    <row r="3" spans="1:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="246" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="247" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="248" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="247" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="247" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="247" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="247" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="247" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="250" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="269" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="247" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="247" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="247" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="250" t="s">
+        <v>133</v>
+      </c>
+      <c r="O3" s="269" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="247" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="270" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="270" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="247" t="s">
+        <v>103</v>
+      </c>
+      <c r="T3" s="249" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="269" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="247" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="250" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="271" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y3" s="267" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" s="267" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="267" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB3" s="267" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC3" s="267" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD3" s="267" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE3" s="267" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF3" s="267" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG3" s="267" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH3" s="267" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI3" s="267" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ3" s="267" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK3" s="267" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL3" s="267" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM3" s="267" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN3" s="272" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO3" s="267" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP3" s="267" t="s">
+        <v>584</v>
+      </c>
+      <c r="AQ3" s="267" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR3" s="267" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS3" s="267" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT3" s="267" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU3" s="272" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV3" s="273" t="s">
+        <v>585</v>
+      </c>
+      <c r="AW3" s="274" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX3" s="266" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY3" s="267" t="s">
+        <v>142</v>
+      </c>
+      <c r="AZ3" s="267" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA3" s="267" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB3" s="267" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC3" s="267" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD3" s="267" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE3" s="267" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF3" s="268" t="s">
+        <v>143</v>
+      </c>
+      <c r="BG3" s="50"/>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A4" s="240"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="242"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="251"/>
+      <c r="L4" s="251"/>
+      <c r="M4" s="251"/>
+      <c r="N4" s="251"/>
+      <c r="O4" s="251"/>
+      <c r="P4" s="251"/>
+      <c r="Q4" s="251"/>
+      <c r="R4" s="251"/>
+      <c r="S4" s="251"/>
+      <c r="T4" s="251"/>
+      <c r="U4" s="251"/>
+      <c r="V4" s="251"/>
+      <c r="W4" s="251"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="47"/>
+      <c r="AK4" s="47"/>
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="47"/>
+      <c r="AS4" s="47"/>
+      <c r="AT4" s="47"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="47"/>
+      <c r="AW4" s="47"/>
+      <c r="AX4" s="47"/>
+      <c r="AY4" s="47"/>
+      <c r="AZ4" s="47"/>
+      <c r="BA4" s="47"/>
+      <c r="BB4" s="47"/>
+      <c r="BC4" s="47"/>
+      <c r="BD4" s="47"/>
+      <c r="BE4" s="47"/>
+      <c r="BF4" s="47"/>
+      <c r="BG4" s="50"/>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="50"/>
+      <c r="BA5" s="50"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="50"/>
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="50"/>
+      <c r="BF5" s="50"/>
+      <c r="BG5" s="50"/>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <dataValidations count="56">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementRemarks" prompt="Comments or notes accompanying the MeasurementOrFact, including if valid a link to the Pangaea archive for this dataset. Separate entries with ( | )." sqref="BF4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="dynamicProperties" prompt="A list (if more than one, separated with | ) of additional measurements, facts, characteristics, or assertions about the record. Meant to provide a mechanism for structured content such as key-value pairs (eg: &quot;{temperaturedegC:5} | {salinitypss:35}&quot;" sqref="AW4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="dataGeneralizations" prompt="Actions taken to make the shared data less specific or complete than in its original form. Suggests that alternative data of higher quality may be available on request." sqref="AV4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="collectionCode" prompt="The name, acronym, coden, or initialism identifying the collection or data set from which the record was derived." sqref="AT4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="modified" prompt="The most recent date-time on which the resource was changed." sqref="AS4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="associatedSequences" prompt="A list (concatenated and separated) of identifiers (publication, global unique identifier, URI) of genetic sequence information associated with the Occurrence." sqref="AR4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="associatedReferences" prompt="A list (concatenated and separated) of identifiers (publication, bibliographic reference, global unique identifier, URI) of literature associated with the Occurrence." sqref="AQ4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="associatedMedia" prompt="A list (concatenated and separated) of identifiers (publication, global unique identifier, URI) of media associated with the Occurrence." sqref="AP4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="preparations" prompt="A list (concatenated and separated) of preparations and preservation methods for a specimen." sqref="AO4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="establishmentMeans" prompt="The process by which the biological individual(s) represented in the Occurrence became established at the location." sqref="AM4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="lifeStage" prompt="The age class or life stage of the biological individual(s) at the time the Occurrence was recorded." sqref="AL4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="sex" prompt="The sex of the biological individual(s) represented in the Occurrence. " sqref="AK4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="organismQuantityType" prompt="The type of quantification system used for the quantity of organisms." sqref="AJ4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="organismQuantity" prompt="A number or enumeration value for the quantity of organisms." sqref="AI4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="recordedBy" prompt="A list (concatenated and separated) of names of people, groups, or organizations responsible for recording the original Occurrence. The primary collector or observer, especially one who applies a personal identifier (recordNumber), should be listed first" sqref="AH4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="occurrenceRemarks" prompt="Comments or notes about the Occurrence." sqref="AG4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="catalogNumber" prompt="An identifier (preferably unique) for the record within the data set or collection. Mostly for museum collections." sqref="AF4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="occurrenceID" prompt="An identifier for the Occurrence (as opposed to a particular digital record of the occurrence). In the absence of a persistent global unique identifier, construct one from a combination of identifiers in the record that will most closely make the occurren" sqref="Y4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="typeStatus" prompt="A list (if more than one, separated with | ) of nomenclatural types (type status, typified scientific name, publication) applied to the subject." sqref="AE4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identificationQualifier" prompt="A brief phrase or a standard term (&quot;cf.&quot;, &quot;aff.&quot;) to express the determiner's doubts about the Identification." sqref="AD4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identificationReferences" prompt="A list (if more than one separated with | ) of references (publication, global unique identifier, URI) used in the Identification." sqref="AB4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identificationRemarks" prompt="Comments or notes about the Identification." sqref="AC4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="dateIdentified_x0009_" prompt="The date on which the subject was identified as representing the Taxon." sqref="AA4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identifiedBy" prompt="A list (if more than one, separated with | ) of names of people, groups, or organizations who assigned the Taxon to the subject." sqref="Z4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonID" prompt="An identifier for the set of taxon information (data associated with the Taxon class). May be a global unique identifier or an identifier specific to the data set. If possible match with OBIS." sqref="X4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementDeterminedBy" prompt="A list (if more than one, separated with | ) of names of people, groups, or organizations who determined the value of the MeasurementOrFact. " sqref="BE4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementDeterminedDate" prompt="The date on which the MeasurementOrFact was made. Recommended best practice is to use an encoding scheme, such as ISO 8601:2004(E)." sqref="BD4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementUnit" prompt="The units associated with the measurementValue. Recommended best practice is to use the International System of Units (SI). " sqref="BC4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementAccuracy" prompt="The description of the potential error associated with the measurementValue." sqref="BB4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementValue" prompt="The value of the measurement, fact, characteristic, or assertion." sqref="BA4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementType" prompt="The nature of the measurement, fact, characteristic, or assertion. e.g. &quot;Sea Surface Temperature&quot;." sqref="AZ4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementMethod" prompt="A description of or reference to (publication, URI) the method or protocol used to determine the measurement, fact, characteristic, or assertion._x000a_measurementType_x0009_The nature of the measurement, fact, characteristic, or assertion." sqref="AY4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementID" prompt="An identifier for the MeasurementOrFact (information pertaining to measurements, facts, characteristics, or assertions). May be a global unique identifier or an identifier specific to the data set." sqref="AX4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="footprintWKT" prompt="Provide a shapefile name that will be converted into a Well-Known Text (WKT) representation of the shape (footprint, geometry) that defines the Location." sqref="W4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="locationRemarks" prompt="Comments or notes about the Location." sqref="V4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="locationAccordingTo" prompt="Information about the source of this Location information. Could be a publication (gazetteer), institution, or team of individuals. Likely Marine Regions." sqref="U4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="geodeticDatum" prompt="Spatial reference system (SRS) upon which the geographic coordinates given in decimalLatitude and decimalLongitude as based. Likely WGS 1984." sqref="T4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="coordinateUncertaintyInMeters" prompt="The horizontal distance (in meters) from the given decimalLatitude and decimalLongitude describing the smallest circle containing the whole of the Location." sqref="S4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="decimalLongitude" prompt="The geographic longitude (in decimal degrees, using the spatial reference system given in geodeticDatum) of the geographic center of a Location." sqref="R4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="decimalLatitude" prompt="The geographic latitude (in decimal degrees, using the spatial reference system given in geodeticDatum) of the geographic center of a Location." sqref="Q4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="maximumDepthInMeters" prompt="The greater depth of a range of depth below the local surface, in meters. If only 1 value provided, same for both min and max." sqref="P4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="minimumDepthInMeters" prompt="The lesser depth of a range of depth below the local surface, in meters. If only 1 value provided, same for both min and max." sqref="O4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="locality" prompt="The specific description or name of the place." sqref="N4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="country" prompt="The name of the country or major administrative unit in which the Location occurs." sqref="M4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="waterBody" prompt="The name of the water body in which the Location occurs." sqref="L4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="continent" prompt="The name of the continent in which the Location occurs." sqref="K4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="locationID" prompt="An identifier for the set of location information." sqref="J4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="habitat" prompt="A category or description of the habitat in which the Event occurred." sqref="I4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="eventRemarks" prompt="Comments or notes about the Event." sqref="H4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="samplingEffort" prompt="The amount of effort expended during an Event." sqref="G4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="sampleSizeUnit" prompt="The unit of measurement of the size (time duration, length, area, or volume) of a sample in a sampling event." sqref="F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="sampleSizeValue" prompt="A numeric value for a measurement of the size (time duration, length, area, or volume) of a sample in a sampling event." sqref="E4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="samplingProtocol" prompt="The name of, reference to, or description of the method or protocol used during an Event." sqref="D4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="eventDate" prompt="The date-time or interval during which an Event occurred. For occurrences, this is the date-time when the event was recorded." sqref="C4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="parentEventID" prompt="An identifier for the broader Event that groups this and potentially other Events. I.E. Could be a Cruise as a previous event, and then that becomes a Parent Event. Events do not need to have Occurrences or Measurements." sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="eventID" prompt="An identifier for the set of information associated with an Event (something that occurs at a place and time)." sqref="A4"/>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="P2" location="'Helpful-Additions'!A1" display="Coord Converter"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="basisOfRecord" prompt="The specific nature of the data record. Select from Vocabulary">
+          <x14:formula1>
+            <xm:f>ContextDependents!$O$1:$O$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>AU4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="occurrenceStatus" prompt="A statement about the presence or absence of a Taxon at a Location.">
+          <x14:formula1>
+            <xm:f>ContextDependents!$M$1:$M$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>AN4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7415,7 +8904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -7437,10 +8926,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="236" t="s">
         <v>568</v>
       </c>
-      <c r="B1" s="235"/>
+      <c r="B1" s="236"/>
       <c r="C1" s="28"/>
       <c r="D1" s="20" t="s">
         <v>163</v>
@@ -7459,15 +8948,15 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="237" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="236"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
@@ -7745,12 +9234,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="96.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7767,10 +9256,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="238" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="237"/>
+      <c r="B1" s="238"/>
       <c r="D1" s="20" t="s">
         <v>163</v>
       </c>
@@ -7791,15 +9280,15 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="237" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="236"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
@@ -8193,7 +9682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
@@ -8215,10 +9704,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="238"/>
+      <c r="B1" s="239"/>
       <c r="D1" s="20" t="s">
         <v>163</v>
       </c>
@@ -8239,15 +9728,15 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="237" t="s">
         <v>262</v>
       </c>
-      <c r="B3" s="236"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
@@ -8850,691 +10339,6 @@
       </c>
       <c r="H29" s="21" t="s">
         <v>331</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:G3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="96.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12" style="9" customWidth="1"/>
-    <col min="7" max="7" width="66" style="1" customWidth="1"/>
-    <col min="8" max="8" width="76.33203125" style="21" customWidth="1"/>
-    <col min="9" max="16384" width="96.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="237" t="s">
-        <v>388</v>
-      </c>
-      <c r="B1" s="237"/>
-      <c r="D1" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="236" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" s="236"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="34"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34"/>
-    </row>
-    <row r="8" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="80" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="96" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="H15" s="21">
-        <v>2008.1333999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="96" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="112" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="144" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="96" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="80" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/SponGIS_Template/SponGIS_Template.xlsx
+++ b/SponGIS_Template/SponGIS_Template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="2180" windowWidth="24520" windowHeight="16660" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="440" windowWidth="33600" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="13" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="600">
   <si>
     <t>Class</t>
   </si>
@@ -479,9 +479,6 @@
     <t>measurementDeterminedBy</t>
   </si>
   <si>
-    <t>measurementMethod</t>
-  </si>
-  <si>
     <t>measurementRemarks</t>
   </si>
   <si>
@@ -506,9 +503,6 @@
     <t>The date on which the MeasurementOrFact was made. Recommended best practice is to use an encoding scheme, such as ISO 8601:2004(E).</t>
   </si>
   <si>
-    <t>A description of or reference to (publication, URI) the method or protocol used to determine the measurement, fact, characteristic, or assertion.</t>
-  </si>
-  <si>
     <t>Comments or notes accompanying the MeasurementOrFact. </t>
   </si>
   <si>
@@ -1254,15 +1248,6 @@
   </si>
   <si>
     <t>http://rs.tdwg.org/dwc/terms/index.htm#measurementDeterminedDate</t>
-  </si>
-  <si>
-    <t>http://rs.tdwg.org/dwc/terms/index.htm#measurementMethod</t>
-  </si>
-  <si>
-    <t>Recommended best practice is to use a controlled vocabulary, plus a description of or reference to (publication, URI) the method or protocol used to determine the measurement, fact, characteristic, or assertion.</t>
-  </si>
-  <si>
-    <t>"rov | Hans Tore Rapp Paper", "ctd", "ship-based multibeam"</t>
   </si>
   <si>
     <t>http://rs.tdwg.org/dwc/terms/index.htm#measurementRemarks</t>
@@ -1654,9 +1639,6 @@
     <t>Measurement ID</t>
   </si>
   <si>
-    <t>Measurement Method</t>
-  </si>
-  <si>
     <t>Measurement Type</t>
   </si>
   <si>
@@ -1835,6 +1817,57 @@
   </si>
   <si>
     <t>If you feel confident with the terms,</t>
+  </si>
+  <si>
+    <t>measurementTypeID</t>
+  </si>
+  <si>
+    <t>measurementValueID</t>
+  </si>
+  <si>
+    <t>measurementUnitID</t>
+  </si>
+  <si>
+    <t>An identifier for the measurementType (global unique identifier, URI). The identifier should reference the measurementType in a vocabulary.</t>
+  </si>
+  <si>
+    <t>http://rs.gbif.org/extension/obis/extended_measurement_or_fact.xml</t>
+  </si>
+  <si>
+    <t>Must use BODC vocabularly</t>
+  </si>
+  <si>
+    <t>Examples: "http://vocab.nerc.ac.uk/collection/P01/current/ODRYBM01/"</t>
+  </si>
+  <si>
+    <t>An identifier for facts stored in the column measurementValue (global unique identifier, URI). This identifier can reference a controlled vocabulary (e.g. for sampling instrument names, methodologies, life stages) or reference a methodology paper with a DOI. When the measurementValue refers to a value and not to a fact, the measurementvalueID has no meaning and should remain empty.</t>
+  </si>
+  <si>
+    <t>Examples: "http://vocab.nerc.ac.uk/collection/L22/current/TOOL0653/", "http://vocab.nerc.ac.uk/collection/B07/current/NDT023/", "http://vocab.nerc.ac.uk/collection/S11/current/S1116/"</t>
+  </si>
+  <si>
+    <t>Should use BODC vocab, leave blank if using a value.</t>
+  </si>
+  <si>
+    <t>An identifier for the measurementUnit (global unique identifier, URI). The identifier should reference the measurementUnit in a vocabulary.</t>
+  </si>
+  <si>
+    <t>Examples: "http://vocab.nerc.ac.uk/collection/P06/current/UMSQ/", “http://vocab.nerc.ac.uk/collection/P06/current/UCPL/”, “http://vocab.nerc.ac.uk/collection/P06/current/CMCM/”</t>
+  </si>
+  <si>
+    <t>Measurement Type ID</t>
+  </si>
+  <si>
+    <t>Measurement Value ID</t>
+  </si>
+  <si>
+    <t>Measurement Unit ID</t>
+  </si>
+  <si>
+    <t>measurementDate</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -1844,7 +1877,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="##.00"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2048,6 +2081,12 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -3114,7 +3153,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="276">
+  <cellXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3487,177 +3526,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3702,15 +3570,9 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="19" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3730,6 +3592,184 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="108">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4335,7 +4375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ260"/>
+  <dimension ref="A1:M260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N32" sqref="N32"/>
@@ -4344,7 +4384,6 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="10" max="10" width="11.83203125" customWidth="1"/>
-    <col min="14" max="52" width="10.83203125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -4367,16 +4406,16 @@
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
-      <c r="E2" s="185" t="s">
-        <v>435</v>
-      </c>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
+      <c r="E2" s="235" t="s">
+        <v>430</v>
+      </c>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
       <c r="M2" s="36"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -4384,14 +4423,14 @@
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="185"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
       <c r="M3" s="36"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -4415,7 +4454,7 @@
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="80" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
@@ -4431,16 +4470,16 @@
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
-      <c r="E6" s="186" t="s">
-        <v>437</v>
-      </c>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
-      <c r="J6" s="186"/>
-      <c r="K6" s="186"/>
-      <c r="L6" s="186"/>
+      <c r="E6" s="236" t="s">
+        <v>432</v>
+      </c>
+      <c r="F6" s="236"/>
+      <c r="G6" s="236"/>
+      <c r="H6" s="236"/>
+      <c r="I6" s="236"/>
+      <c r="J6" s="236"/>
+      <c r="K6" s="236"/>
+      <c r="L6" s="236"/>
       <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -4448,14 +4487,14 @@
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="186"/>
-      <c r="K7" s="186"/>
-      <c r="L7" s="186"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="236"/>
+      <c r="G7" s="236"/>
+      <c r="H7" s="236"/>
+      <c r="I7" s="236"/>
+      <c r="J7" s="236"/>
+      <c r="K7" s="236"/>
+      <c r="L7" s="236"/>
       <c r="M7" s="36"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -4463,14 +4502,14 @@
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
-      <c r="E8" s="186"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="186"/>
-      <c r="K8" s="186"/>
-      <c r="L8" s="186"/>
+      <c r="E8" s="236"/>
+      <c r="F8" s="236"/>
+      <c r="G8" s="236"/>
+      <c r="H8" s="236"/>
+      <c r="I8" s="236"/>
+      <c r="J8" s="236"/>
+      <c r="K8" s="236"/>
+      <c r="L8" s="236"/>
       <c r="M8" s="36"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -4506,7 +4545,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="36"/>
       <c r="B11" s="36" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
@@ -4523,7 +4562,7 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
@@ -4540,7 +4579,7 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="36" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -4572,7 +4611,7 @@
     <row r="15" spans="1:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36"/>
       <c r="B15" s="90" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C15" s="83"/>
       <c r="D15" s="83"/>
@@ -4604,10 +4643,10 @@
     <row r="17" spans="1:13" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="B17" s="104" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C17" s="107" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D17" s="84"/>
       <c r="E17" s="84"/>
@@ -4626,19 +4665,19 @@
     <row r="18" spans="1:13" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
-      <c r="C18" s="187" t="str">
+      <c r="C18" s="237" t="str">
         <f>IF(L17="Yes", "Enter the data ID to the box to the right, you can search for the value if you don't already have it at www.spongis.org/data-search/",IF(L17="No","Obtain a new data ID from, https://www.guidgenerator.com, no braces or hyphens please. Enter the value in the box to the right",""))</f>
         <v/>
       </c>
-      <c r="D18" s="188"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="188"/>
-      <c r="J18" s="189"/>
-      <c r="K18" s="190"/>
-      <c r="L18" s="191"/>
+      <c r="D18" s="238"/>
+      <c r="E18" s="238"/>
+      <c r="F18" s="238"/>
+      <c r="G18" s="238"/>
+      <c r="H18" s="238"/>
+      <c r="I18" s="238"/>
+      <c r="J18" s="239"/>
+      <c r="K18" s="240"/>
+      <c r="L18" s="241"/>
       <c r="M18" s="92"/>
     </row>
     <row r="19" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -4674,19 +4713,19 @@
     <row r="21" spans="1:13" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="104" t="s">
-        <v>440</v>
-      </c>
-      <c r="C21" s="200" t="s">
-        <v>449</v>
-      </c>
-      <c r="D21" s="200"/>
-      <c r="E21" s="200"/>
-      <c r="F21" s="200"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="200"/>
-      <c r="I21" s="200"/>
-      <c r="J21" s="200"/>
-      <c r="K21" s="201"/>
+        <v>435</v>
+      </c>
+      <c r="C21" s="230" t="s">
+        <v>444</v>
+      </c>
+      <c r="D21" s="230"/>
+      <c r="E21" s="230"/>
+      <c r="F21" s="230"/>
+      <c r="G21" s="230"/>
+      <c r="H21" s="230"/>
+      <c r="I21" s="230"/>
+      <c r="J21" s="230"/>
+      <c r="K21" s="231"/>
       <c r="L21" s="105"/>
       <c r="M21" s="92">
         <f>IF(L21="Yes", 0.2,IF(L21="No",0.1,0))</f>
@@ -4726,10 +4765,10 @@
     <row r="24" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="104" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C24" s="106" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D24" s="106"/>
       <c r="E24" s="106"/>
@@ -4738,8 +4777,8 @@
       <c r="H24" s="106"/>
       <c r="I24" s="106"/>
       <c r="J24" s="106"/>
-      <c r="K24" s="192"/>
-      <c r="L24" s="193"/>
+      <c r="K24" s="242"/>
+      <c r="L24" s="243"/>
       <c r="M24" s="92">
         <f>IF(K24="Species Occurrences", 10,IF(K24="Environmental data",20,IF(K24="Both",30,0)))</f>
         <v>0</v>
@@ -4778,10 +4817,10 @@
     <row r="27" spans="1:13" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
       <c r="B27" s="93" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C27" s="84" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D27" s="84"/>
       <c r="E27" s="84"/>
@@ -4789,12 +4828,12 @@
       <c r="G27" s="84"/>
       <c r="H27" s="84"/>
       <c r="I27" s="84"/>
-      <c r="J27" s="202" t="str">
+      <c r="J27" s="232" t="str">
         <f>IF(SUM(M17:M24)&gt;11,IF(M17=2,"1 - Dataset Details",IF(M17=1,"","")),"")</f>
         <v/>
       </c>
-      <c r="K27" s="203"/>
-      <c r="L27" s="204"/>
+      <c r="K27" s="233"/>
+      <c r="L27" s="234"/>
       <c r="M27" s="36"/>
     </row>
     <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.2">
@@ -4807,12 +4846,12 @@
       <c r="G28" s="86"/>
       <c r="H28" s="86"/>
       <c r="I28" s="86"/>
-      <c r="J28" s="194" t="str">
+      <c r="J28" s="224" t="str">
         <f>IF(SUM(M17:M24)&gt;11,IF(M21=0.1,"2 - Taxon Details",IF(M21=0.2,"","")),"")</f>
         <v/>
       </c>
-      <c r="K28" s="195"/>
-      <c r="L28" s="196"/>
+      <c r="K28" s="225"/>
+      <c r="L28" s="226"/>
       <c r="M28" s="36"/>
     </row>
     <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.2">
@@ -4822,17 +4861,17 @@
       <c r="D29" s="86"/>
       <c r="E29" s="86"/>
       <c r="F29" s="86"/>
-      <c r="G29" s="275" t="s">
-        <v>588</v>
+      <c r="G29" s="218" t="s">
+        <v>582</v>
       </c>
       <c r="H29" s="86"/>
       <c r="I29" s="86"/>
-      <c r="J29" s="194" t="str">
+      <c r="J29" s="224" t="str">
         <f>IF(SUM(M17:M24)&gt;11.1,"3 - Event Details","")</f>
         <v/>
       </c>
-      <c r="K29" s="195"/>
-      <c r="L29" s="196"/>
+      <c r="K29" s="225"/>
+      <c r="L29" s="226"/>
       <c r="M29" s="36"/>
     </row>
     <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.2">
@@ -4842,17 +4881,17 @@
       <c r="D30" s="86"/>
       <c r="E30" s="86"/>
       <c r="F30" s="86"/>
-      <c r="G30" s="275" t="s">
-        <v>586</v>
+      <c r="G30" s="218" t="s">
+        <v>580</v>
       </c>
       <c r="H30" s="86"/>
       <c r="I30" s="86"/>
-      <c r="J30" s="194" t="str">
+      <c r="J30" s="224" t="str">
         <f>IF(SUM(M17:M24)&gt;10.1,IF(M24=10,"3a - Occurrence Details",IF(M24=30,"3a - Occurrence Details","")),"")</f>
         <v/>
       </c>
-      <c r="K30" s="195"/>
-      <c r="L30" s="196"/>
+      <c r="K30" s="225"/>
+      <c r="L30" s="226"/>
       <c r="M30" s="36"/>
     </row>
     <row r="31" spans="1:13" ht="22" thickBot="1" x14ac:dyDescent="0.25">
@@ -4862,17 +4901,17 @@
       <c r="D31" s="86"/>
       <c r="E31" s="86"/>
       <c r="F31" s="86"/>
-      <c r="G31" s="275" t="s">
-        <v>587</v>
+      <c r="G31" s="218" t="s">
+        <v>581</v>
       </c>
       <c r="H31" s="86"/>
       <c r="I31" s="86"/>
-      <c r="J31" s="197" t="str">
+      <c r="J31" s="227" t="str">
         <f>IF(SUM(M18:M26)&gt;10.1,IF(M24=20,"3b - Environmental Details",IF(M24=30,"3b - Environmmental Details","")),"")</f>
         <v/>
       </c>
-      <c r="K31" s="198"/>
-      <c r="L31" s="199"/>
+      <c r="K31" s="228"/>
+      <c r="L31" s="229"/>
       <c r="M31" s="36"/>
     </row>
     <row r="32" spans="1:13" ht="24" x14ac:dyDescent="0.3">
@@ -4908,10 +4947,10 @@
     <row r="34" spans="1:13" s="36" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="86"/>
       <c r="B34" s="93" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C34" s="84" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D34" s="84"/>
       <c r="E34" s="84"/>
@@ -4920,7 +4959,7 @@
       <c r="H34" s="84"/>
       <c r="I34" s="84"/>
       <c r="J34" s="129" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="K34" s="128"/>
       <c r="L34" s="94"/>
@@ -5154,17 +5193,17 @@
     <row r="260" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E2:L3"/>
+    <mergeCell ref="E6:L8"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="K24:L24"/>
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="J31:L31"/>
     <mergeCell ref="C21:K21"/>
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="J28:L28"/>
     <mergeCell ref="J29:L29"/>
-    <mergeCell ref="E2:L3"/>
-    <mergeCell ref="E6:L8"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="K24:L24"/>
   </mergeCells>
   <conditionalFormatting sqref="J18:L18">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -5204,7 +5243,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="96.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5221,19 +5260,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="238" t="s">
-        <v>388</v>
-      </c>
-      <c r="B1" s="238"/>
+      <c r="A1" s="277" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1" s="277"/>
       <c r="D1" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5245,15 +5284,15 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="237" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="237"/>
-      <c r="F3" s="237"/>
-      <c r="G3" s="237"/>
+      <c r="A3" s="276" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="276"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
@@ -5274,27 +5313,27 @@
         <v>2</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>127</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>128</v>
@@ -5308,7 +5347,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>83</v>
@@ -5331,19 +5370,19 @@
         <v>12</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>112</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -5357,17 +5396,17 @@
         <v>14</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.2">
@@ -5381,16 +5420,16 @@
         <v>16</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="80" x14ac:dyDescent="0.2">
@@ -5404,17 +5443,17 @@
         <v>19</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>113</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="48" x14ac:dyDescent="0.2">
@@ -5428,14 +5467,14 @@
         <v>102</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="48" x14ac:dyDescent="0.2">
@@ -5449,14 +5488,14 @@
         <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="96" x14ac:dyDescent="0.2">
@@ -5470,13 +5509,13 @@
         <v>123</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -5490,10 +5529,10 @@
         <v>122</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H15" s="21">
         <v>2008.1333999999999</v>
@@ -5510,13 +5549,13 @@
         <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="96" x14ac:dyDescent="0.2">
@@ -5530,13 +5569,13 @@
         <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="112" x14ac:dyDescent="0.2">
@@ -5550,16 +5589,16 @@
         <v>106</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>121</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="144" x14ac:dyDescent="0.2">
@@ -5573,16 +5612,16 @@
         <v>108</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>120</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -5593,19 +5632,19 @@
         <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -5616,19 +5655,19 @@
         <v>54</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="21" t="s">
         <v>363</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -5639,19 +5678,19 @@
         <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -5662,16 +5701,16 @@
         <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>134</v>
@@ -5688,13 +5727,13 @@
         <v>59</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -5708,13 +5747,13 @@
         <v>61</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -5728,16 +5767,16 @@
         <v>63</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H26" s="21" t="s">
         <v>375</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -5751,16 +5790,16 @@
         <v>65</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -5774,16 +5813,16 @@
         <v>69</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="96" x14ac:dyDescent="0.2">
@@ -5797,16 +5836,16 @@
         <v>78</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>124</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="80" x14ac:dyDescent="0.2">
@@ -5820,16 +5859,16 @@
         <v>81</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>125</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -5843,13 +5882,13 @@
         <v>79</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -5863,16 +5902,16 @@
         <v>84</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>126</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -5886,10 +5925,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="96.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5906,19 +5945,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="238" t="s">
-        <v>389</v>
-      </c>
-      <c r="B1" s="238"/>
+      <c r="A1" s="277" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1" s="277"/>
       <c r="D1" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5930,15 +5969,15 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="237" t="s">
-        <v>583</v>
-      </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="237"/>
-      <c r="F3" s="237"/>
-      <c r="G3" s="237"/>
+      <c r="A3" s="276" t="s">
+        <v>577</v>
+      </c>
+      <c r="B3" s="276"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
@@ -5959,22 +5998,22 @@
         <v>2</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>127</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="13" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -5991,225 +6030,308 @@
       <c r="G6" s="31"/>
       <c r="H6" s="35"/>
     </row>
-    <row r="7" spans="1:10" ht="80" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:10" s="13" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="35"/>
+    </row>
+    <row r="8" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="21">
+      <c r="C8" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="21">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C9" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D11" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" ht="144" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>139</v>
+        <v>584</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>148</v>
+        <v>590</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>396</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>398</v>
+        <v>592</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>397</v>
+        <v>591</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="1" t="s">
-        <v>166</v>
+        <v>147</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>7</v>
+        <v>396</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>260</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>141</v>
+        <v>585</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>399</v>
+        <v>593</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>587</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>376</v>
+        <v>588</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>342</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>404</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E15" s="18"/>
       <c r="F15" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="219"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="219"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="219"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="219"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="219"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="219"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6235,97 +6357,97 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="H1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="J1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="K1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="M1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="O1" s="172" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="K2" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="M2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="O2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C3" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="H3" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="O3" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="O4" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H5" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="O5" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H6" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -6344,7 +6466,7 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:G11"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6359,25 +6481,25 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="109" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B1" s="110" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="108"/>
       <c r="B2" s="110" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="61" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
@@ -6386,11 +6508,11 @@
       <c r="G4" s="53"/>
       <c r="H4" s="54"/>
       <c r="I4" s="55"/>
-      <c r="J4" s="209" t="s">
-        <v>427</v>
-      </c>
-      <c r="K4" s="210"/>
-      <c r="L4" s="211"/>
+      <c r="J4" s="248" t="s">
+        <v>422</v>
+      </c>
+      <c r="K4" s="249"/>
+      <c r="L4" s="250"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="62"/>
@@ -6402,81 +6524,81 @@
       <c r="G5" s="40"/>
       <c r="H5" s="56"/>
       <c r="I5" s="50"/>
-      <c r="J5" s="212"/>
-      <c r="K5" s="213"/>
-      <c r="L5" s="214"/>
+      <c r="J5" s="251"/>
+      <c r="K5" s="252"/>
+      <c r="L5" s="253"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="111" t="s">
-        <v>425</v>
-      </c>
-      <c r="B6" s="219">
+        <v>420</v>
+      </c>
+      <c r="B6" s="258">
         <f>Instructions!J18</f>
         <v>0</v>
       </c>
-      <c r="C6" s="219"/>
-      <c r="D6" s="219"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="220"/>
+      <c r="C6" s="258"/>
+      <c r="D6" s="258"/>
+      <c r="E6" s="258"/>
+      <c r="F6" s="258"/>
+      <c r="G6" s="259"/>
       <c r="H6" s="56"/>
       <c r="I6" s="50"/>
       <c r="J6" s="58" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K6" s="48" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="L6" s="63" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="64" t="s">
-        <v>431</v>
-      </c>
-      <c r="B7" s="215"/>
-      <c r="C7" s="215"/>
-      <c r="D7" s="215"/>
-      <c r="E7" s="215"/>
-      <c r="F7" s="215"/>
-      <c r="G7" s="216"/>
+        <v>426</v>
+      </c>
+      <c r="B7" s="254"/>
+      <c r="C7" s="254"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="255"/>
       <c r="H7" s="56"/>
       <c r="I7" s="50"/>
       <c r="J7" s="59" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="K7" s="49"/>
       <c r="L7" s="65"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
-        <v>432</v>
-      </c>
-      <c r="B8" s="221"/>
-      <c r="C8" s="221"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="222"/>
+        <v>427</v>
+      </c>
+      <c r="B8" s="260"/>
+      <c r="C8" s="260"/>
+      <c r="D8" s="260"/>
+      <c r="E8" s="260"/>
+      <c r="F8" s="260"/>
+      <c r="G8" s="261"/>
       <c r="H8" s="56"/>
       <c r="I8" s="50"/>
       <c r="J8" s="60" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="K8" s="57"/>
       <c r="L8" s="66"/>
     </row>
     <row r="9" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="64" t="s">
-        <v>433</v>
-      </c>
-      <c r="B9" s="215"/>
-      <c r="C9" s="215"/>
-      <c r="D9" s="215"/>
-      <c r="E9" s="215"/>
-      <c r="F9" s="215"/>
-      <c r="G9" s="216"/>
+        <v>428</v>
+      </c>
+      <c r="B9" s="254"/>
+      <c r="C9" s="254"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="255"/>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
       <c r="J9" s="56"/>
@@ -6486,36 +6608,36 @@
     </row>
     <row r="10" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="68" t="s">
-        <v>434</v>
-      </c>
-      <c r="B10" s="217"/>
-      <c r="C10" s="217"/>
-      <c r="D10" s="217"/>
-      <c r="E10" s="217"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="218"/>
+        <v>429</v>
+      </c>
+      <c r="B10" s="256"/>
+      <c r="C10" s="256"/>
+      <c r="D10" s="256"/>
+      <c r="E10" s="256"/>
+      <c r="F10" s="256"/>
+      <c r="G10" s="257"/>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
       <c r="J10" s="127" t="s">
-        <v>480</v>
-      </c>
-      <c r="K10" s="205" t="str">
+        <v>475</v>
+      </c>
+      <c r="K10" s="244" t="str">
         <f>CONCATENATE("POLYGON ((",L8,", ",L7,", ",K7,", ",K8,"))")</f>
         <v>POLYGON ((, , , ))</v>
       </c>
-      <c r="L10" s="206"/>
+      <c r="L10" s="245"/>
       <c r="M10" s="38"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="174" t="s">
-        <v>581</v>
-      </c>
-      <c r="B11" s="207"/>
-      <c r="C11" s="207"/>
-      <c r="D11" s="207"/>
-      <c r="E11" s="207"/>
-      <c r="F11" s="207"/>
-      <c r="G11" s="208"/>
+        <v>575</v>
+      </c>
+      <c r="B11" s="246"/>
+      <c r="C11" s="246"/>
+      <c r="D11" s="246"/>
+      <c r="E11" s="246"/>
+      <c r="F11" s="246"/>
+      <c r="G11" s="247"/>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
@@ -6540,7 +6662,7 @@
     </row>
     <row r="13" spans="1:13" s="43" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="70" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -6558,43 +6680,43 @@
     <row r="14" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="72"/>
       <c r="B14" s="44" t="s">
+        <v>402</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>403</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>406</v>
+      </c>
+      <c r="G14" s="44" t="s">
         <v>407</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="H14" s="44" t="s">
         <v>408</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="I14" s="44" t="s">
         <v>409</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="J14" s="44" t="s">
         <v>410</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="K14" s="44" t="s">
         <v>411</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="L14" s="73" t="s">
         <v>412</v>
-      </c>
-      <c r="H14" s="44" t="s">
-        <v>413</v>
-      </c>
-      <c r="I14" s="44" t="s">
-        <v>414</v>
-      </c>
-      <c r="J14" s="44" t="s">
-        <v>415</v>
-      </c>
-      <c r="K14" s="44" t="s">
-        <v>416</v>
-      </c>
-      <c r="L14" s="73" t="s">
-        <v>417</v>
       </c>
       <c r="M14" s="42"/>
     </row>
     <row r="15" spans="1:13" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="74" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B15" s="45"/>
       <c r="C15" s="45"/>
@@ -6611,7 +6733,7 @@
     </row>
     <row r="16" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="76" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B16" s="77"/>
       <c r="C16" s="77"/>
@@ -7037,7 +7159,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7051,37 +7173,37 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="109" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B1" s="110" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="108"/>
       <c r="B2" s="110" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="110" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="96" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B6" s="97" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C6" s="98"/>
       <c r="D6" s="98"/>
       <c r="E6" s="98"/>
       <c r="F6" s="98"/>
       <c r="G6" s="96" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="H6" s="116"/>
     </row>
@@ -7093,41 +7215,41 @@
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="101" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H7" s="119" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="100" t="s">
-        <v>452</v>
-      </c>
-      <c r="B8" s="223"/>
-      <c r="C8" s="223"/>
+        <v>447</v>
+      </c>
+      <c r="B8" s="262"/>
+      <c r="C8" s="262"/>
       <c r="D8" s="118"/>
       <c r="E8" s="179" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="F8" s="180" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="G8" s="101" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="H8" s="119" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="114" t="s">
-        <v>454</v>
-      </c>
-      <c r="B9" s="223"/>
-      <c r="C9" s="223"/>
+        <v>449</v>
+      </c>
+      <c r="B9" s="262"/>
+      <c r="C9" s="262"/>
       <c r="D9" s="118"/>
       <c r="E9" s="179" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F9" s="178"/>
       <c r="G9" s="101" t="s">
@@ -7137,113 +7259,113 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="102" t="s">
-        <v>461</v>
-      </c>
-      <c r="B10" s="224"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="224"/>
-      <c r="F10" s="225"/>
+        <v>456</v>
+      </c>
+      <c r="B10" s="263"/>
+      <c r="C10" s="263"/>
+      <c r="D10" s="263"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="264"/>
       <c r="G10" s="101" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H10" s="119"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="114" t="s">
-        <v>460</v>
-      </c>
-      <c r="B11" s="226"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="227"/>
+        <v>455</v>
+      </c>
+      <c r="B11" s="265"/>
+      <c r="C11" s="265"/>
+      <c r="D11" s="265"/>
+      <c r="E11" s="265"/>
+      <c r="F11" s="266"/>
       <c r="G11" s="101" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H11" s="119"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="102" t="s">
-        <v>458</v>
-      </c>
-      <c r="B12" s="224"/>
-      <c r="C12" s="224"/>
-      <c r="D12" s="224"/>
-      <c r="E12" s="224"/>
-      <c r="F12" s="225"/>
+        <v>453</v>
+      </c>
+      <c r="B12" s="263"/>
+      <c r="C12" s="263"/>
+      <c r="D12" s="263"/>
+      <c r="E12" s="263"/>
+      <c r="F12" s="264"/>
       <c r="G12" s="101" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="H12" s="119"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="102" t="s">
-        <v>457</v>
-      </c>
-      <c r="B13" s="230"/>
-      <c r="C13" s="230"/>
-      <c r="D13" s="230"/>
-      <c r="E13" s="230"/>
-      <c r="F13" s="231"/>
+        <v>452</v>
+      </c>
+      <c r="B13" s="269"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="269"/>
+      <c r="F13" s="270"/>
       <c r="G13" s="101" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="H13" s="119"/>
     </row>
     <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="102"/>
-      <c r="B14" s="230"/>
-      <c r="C14" s="230"/>
-      <c r="D14" s="230"/>
-      <c r="E14" s="230"/>
-      <c r="F14" s="231"/>
+      <c r="B14" s="269"/>
+      <c r="C14" s="269"/>
+      <c r="D14" s="269"/>
+      <c r="E14" s="269"/>
+      <c r="F14" s="270"/>
       <c r="G14" s="113" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H14" s="120"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="117" t="s">
-        <v>456</v>
-      </c>
-      <c r="B15" s="230"/>
-      <c r="C15" s="230"/>
-      <c r="D15" s="230"/>
-      <c r="E15" s="230"/>
-      <c r="F15" s="231"/>
+        <v>451</v>
+      </c>
+      <c r="B15" s="269"/>
+      <c r="C15" s="269"/>
+      <c r="D15" s="269"/>
+      <c r="E15" s="269"/>
+      <c r="F15" s="270"/>
       <c r="G15" s="121"/>
       <c r="H15" s="119"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="117"/>
-      <c r="B16" s="230"/>
-      <c r="C16" s="230"/>
-      <c r="D16" s="230"/>
-      <c r="E16" s="230"/>
-      <c r="F16" s="231"/>
+      <c r="B16" s="269"/>
+      <c r="C16" s="269"/>
+      <c r="D16" s="269"/>
+      <c r="E16" s="269"/>
+      <c r="F16" s="270"/>
       <c r="G16" s="121"/>
       <c r="H16" s="119"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="117"/>
-      <c r="B17" s="230"/>
-      <c r="C17" s="230"/>
-      <c r="D17" s="230"/>
-      <c r="E17" s="230"/>
-      <c r="F17" s="231"/>
+      <c r="B17" s="269"/>
+      <c r="C17" s="269"/>
+      <c r="D17" s="269"/>
+      <c r="E17" s="269"/>
+      <c r="F17" s="270"/>
       <c r="G17" s="121"/>
       <c r="H17" s="119"/>
     </row>
     <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="103" t="s">
-        <v>455</v>
-      </c>
-      <c r="B18" s="228"/>
-      <c r="C18" s="228"/>
-      <c r="D18" s="228"/>
-      <c r="E18" s="228"/>
-      <c r="F18" s="229"/>
+        <v>450</v>
+      </c>
+      <c r="B18" s="267"/>
+      <c r="C18" s="267"/>
+      <c r="D18" s="267"/>
+      <c r="E18" s="267"/>
+      <c r="F18" s="268"/>
       <c r="G18" s="122"/>
       <c r="H18" s="120"/>
     </row>
@@ -7303,10 +7425,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7324,19 +7446,19 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="109" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C1" s="110" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="I1" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="108"/>
       <c r="C2" s="110" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -7352,17 +7474,17 @@
     </row>
     <row r="4" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="96" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B4" s="97" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C4" s="98"/>
       <c r="D4" s="98"/>
       <c r="E4" s="98"/>
       <c r="F4" s="98"/>
       <c r="G4" s="142" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H4" s="143"/>
       <c r="I4" s="144"/>
@@ -7376,128 +7498,128 @@
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="145" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H5" s="124" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="I5" s="146"/>
       <c r="J5" s="50"/>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="115" t="s">
-        <v>462</v>
-      </c>
-      <c r="B6" s="234">
+        <v>457</v>
+      </c>
+      <c r="B6" s="271">
         <f>'1 Dataset Details'!$B$6:$G$6</f>
         <v>0</v>
       </c>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
-      <c r="E6" s="234"/>
-      <c r="F6" s="234"/>
+      <c r="C6" s="271"/>
+      <c r="D6" s="271"/>
+      <c r="E6" s="271"/>
+      <c r="F6" s="271"/>
       <c r="G6" s="147" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="I6" s="148"/>
       <c r="J6" s="50"/>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="114" t="s">
-        <v>429</v>
-      </c>
-      <c r="B7" s="235"/>
-      <c r="C7" s="235"/>
-      <c r="D7" s="235"/>
-      <c r="E7" s="235"/>
-      <c r="F7" s="235"/>
+        <v>424</v>
+      </c>
+      <c r="B7" s="272"/>
+      <c r="C7" s="272"/>
+      <c r="D7" s="272"/>
+      <c r="E7" s="272"/>
+      <c r="F7" s="272"/>
       <c r="G7" s="132"/>
       <c r="H7" s="44" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I7" s="148"/>
       <c r="J7" s="50"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="102" t="s">
-        <v>463</v>
-      </c>
-      <c r="B8" s="230"/>
-      <c r="C8" s="230"/>
-      <c r="D8" s="230"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="230"/>
+        <v>458</v>
+      </c>
+      <c r="B8" s="269"/>
+      <c r="C8" s="269"/>
+      <c r="D8" s="269"/>
+      <c r="E8" s="269"/>
+      <c r="F8" s="269"/>
       <c r="G8" s="132"/>
       <c r="H8" s="44" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="I8" s="148"/>
       <c r="J8" s="50"/>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="123" t="s">
-        <v>476</v>
-      </c>
-      <c r="B9" s="232"/>
-      <c r="C9" s="232"/>
-      <c r="D9" s="232"/>
+        <v>471</v>
+      </c>
+      <c r="B9" s="273"/>
+      <c r="C9" s="273"/>
+      <c r="D9" s="273"/>
       <c r="E9" s="131"/>
       <c r="F9" s="131"/>
       <c r="G9" s="149"/>
       <c r="H9" s="125" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I9" s="150"/>
       <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="101" t="s">
-        <v>497</v>
-      </c>
-      <c r="B10" s="232"/>
-      <c r="C10" s="232"/>
-      <c r="D10" s="232"/>
-      <c r="E10" s="232"/>
-      <c r="F10" s="232"/>
+        <v>492</v>
+      </c>
+      <c r="B10" s="273"/>
+      <c r="C10" s="273"/>
+      <c r="D10" s="273"/>
+      <c r="E10" s="273"/>
+      <c r="F10" s="273"/>
       <c r="G10" s="145" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H10" s="124" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="I10" s="146"/>
       <c r="J10" s="50"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="101" t="s">
-        <v>499</v>
-      </c>
-      <c r="B11" s="232"/>
-      <c r="C11" s="232"/>
-      <c r="D11" s="232"/>
-      <c r="E11" s="232"/>
-      <c r="F11" s="232"/>
+        <v>494</v>
+      </c>
+      <c r="B11" s="273"/>
+      <c r="C11" s="273"/>
+      <c r="D11" s="273"/>
+      <c r="E11" s="273"/>
+      <c r="F11" s="273"/>
       <c r="G11" s="132"/>
       <c r="H11" s="44" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I11" s="148"/>
       <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="101" t="s">
-        <v>500</v>
-      </c>
-      <c r="B12" s="232"/>
-      <c r="C12" s="232"/>
-      <c r="D12" s="232"/>
-      <c r="E12" s="232"/>
-      <c r="F12" s="232"/>
+        <v>495</v>
+      </c>
+      <c r="B12" s="273"/>
+      <c r="C12" s="273"/>
+      <c r="D12" s="273"/>
+      <c r="E12" s="273"/>
+      <c r="F12" s="273"/>
       <c r="G12" s="176" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="H12" s="126" t="s">
         <v>39</v>
@@ -7507,13 +7629,13 @@
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="101" t="s">
-        <v>498</v>
-      </c>
-      <c r="B13" s="232"/>
-      <c r="C13" s="232"/>
-      <c r="D13" s="232"/>
-      <c r="E13" s="232"/>
-      <c r="F13" s="232"/>
+        <v>493</v>
+      </c>
+      <c r="B13" s="273"/>
+      <c r="C13" s="273"/>
+      <c r="D13" s="273"/>
+      <c r="E13" s="273"/>
+      <c r="F13" s="273"/>
       <c r="G13" s="132"/>
       <c r="H13" s="126" t="s">
         <v>41</v>
@@ -7523,86 +7645,86 @@
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="101" t="s">
-        <v>501</v>
-      </c>
-      <c r="B14" s="232"/>
-      <c r="C14" s="232"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="232"/>
-      <c r="F14" s="232"/>
+        <v>496</v>
+      </c>
+      <c r="B14" s="273"/>
+      <c r="C14" s="273"/>
+      <c r="D14" s="273"/>
+      <c r="E14" s="273"/>
+      <c r="F14" s="273"/>
       <c r="G14" s="132"/>
       <c r="H14" s="44" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="I14" s="148"/>
       <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="101"/>
-      <c r="B15" s="232"/>
-      <c r="C15" s="232"/>
-      <c r="D15" s="232"/>
-      <c r="E15" s="232"/>
-      <c r="F15" s="232"/>
+      <c r="B15" s="273"/>
+      <c r="C15" s="273"/>
+      <c r="D15" s="273"/>
+      <c r="E15" s="273"/>
+      <c r="F15" s="273"/>
       <c r="G15" s="149"/>
       <c r="H15" s="125" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="I15" s="150"/>
       <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="101" t="s">
-        <v>520</v>
-      </c>
-      <c r="B16" s="233"/>
-      <c r="C16" s="233"/>
-      <c r="D16" s="233"/>
-      <c r="E16" s="233"/>
-      <c r="F16" s="233"/>
+        <v>515</v>
+      </c>
+      <c r="B16" s="274"/>
+      <c r="C16" s="274"/>
+      <c r="D16" s="274"/>
+      <c r="E16" s="274"/>
+      <c r="F16" s="274"/>
       <c r="G16" s="132" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="I16" s="148"/>
       <c r="J16" s="50"/>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="160"/>
-      <c r="B17" s="233"/>
-      <c r="C17" s="233"/>
-      <c r="D17" s="233"/>
-      <c r="E17" s="233"/>
-      <c r="F17" s="233"/>
+      <c r="B17" s="274"/>
+      <c r="C17" s="274"/>
+      <c r="D17" s="274"/>
+      <c r="E17" s="274"/>
+      <c r="F17" s="274"/>
       <c r="G17" s="132"/>
       <c r="H17" s="44" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I17" s="148"/>
       <c r="J17" s="50"/>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="112"/>
-      <c r="B18" s="233"/>
-      <c r="C18" s="233"/>
-      <c r="D18" s="233"/>
-      <c r="E18" s="233"/>
-      <c r="F18" s="233"/>
+      <c r="B18" s="274"/>
+      <c r="C18" s="274"/>
+      <c r="D18" s="274"/>
+      <c r="E18" s="274"/>
+      <c r="F18" s="274"/>
       <c r="G18" s="132"/>
       <c r="H18" s="44" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="I18" s="148"/>
       <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A19" s="161" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B19" s="162" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C19" s="163"/>
       <c r="D19" s="163"/>
@@ -7614,7 +7736,7 @@
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="159" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B20" s="151">
         <f>$B7</f>
@@ -7642,346 +7764,347 @@
     </row>
     <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="157" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B21" s="47"/>
-      <c r="C21" s="153"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
       <c r="G21" s="153"/>
       <c r="H21" s="153"/>
       <c r="I21" s="154"/>
     </row>
     <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="165" t="s">
-        <v>541</v>
-      </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
+        <v>535</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
       <c r="G22" s="153"/>
       <c r="H22" s="153"/>
       <c r="I22" s="154"/>
     </row>
     <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="165" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B23" s="47"/>
-      <c r="C23" s="153"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
       <c r="G23" s="153"/>
       <c r="H23" s="153"/>
       <c r="I23" s="154"/>
     </row>
     <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="165" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B24" s="47"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="153"/>
       <c r="H24" s="153"/>
       <c r="I24" s="154"/>
     </row>
     <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="165" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B25" s="47"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
       <c r="G25" s="153"/>
       <c r="H25" s="153"/>
       <c r="I25" s="154"/>
     </row>
     <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="165" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B26" s="47"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
       <c r="G26" s="153"/>
       <c r="H26" s="153"/>
       <c r="I26" s="154"/>
     </row>
     <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="165" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B27" s="47"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="153"/>
       <c r="H27" s="153"/>
       <c r="I27" s="154"/>
     </row>
     <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="165" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B28" s="47"/>
-      <c r="C28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
       <c r="G28" s="153"/>
       <c r="H28" s="153"/>
       <c r="I28" s="154"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="165" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B29" s="47"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
       <c r="G29" s="153"/>
       <c r="H29" s="153"/>
       <c r="I29" s="154"/>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="165" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B30" s="47"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
       <c r="G30" s="153"/>
       <c r="H30" s="153"/>
       <c r="I30" s="154"/>
     </row>
     <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="165" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B31" s="47"/>
-      <c r="C31" s="153"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="153"/>
       <c r="H31" s="153"/>
       <c r="I31" s="154"/>
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="165" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B32" s="47"/>
-      <c r="C32" s="153"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="153"/>
       <c r="H32" s="153"/>
       <c r="I32" s="154"/>
     </row>
     <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="165" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B33" s="47"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="153"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
       <c r="G33" s="153"/>
       <c r="H33" s="153"/>
       <c r="I33" s="154"/>
     </row>
     <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="165" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B34" s="47"/>
-      <c r="C34" s="153"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
       <c r="G34" s="153"/>
       <c r="H34" s="153"/>
       <c r="I34" s="154"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="165" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B35" s="47"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
       <c r="G35" s="153"/>
       <c r="H35" s="153"/>
       <c r="I35" s="154"/>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="165" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B36" s="47"/>
-      <c r="C36" s="153"/>
-      <c r="D36" s="153"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="153"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
       <c r="G36" s="153"/>
       <c r="H36" s="153"/>
       <c r="I36" s="154"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="158" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B37" s="47"/>
-      <c r="C37" s="153"/>
-      <c r="D37" s="153"/>
-      <c r="E37" s="153"/>
-      <c r="F37" s="153"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
       <c r="G37" s="153"/>
       <c r="H37" s="153"/>
       <c r="I37" s="154"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="165" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B38" s="47"/>
-      <c r="C38" s="153"/>
-      <c r="D38" s="153"/>
-      <c r="E38" s="153"/>
-      <c r="F38" s="153"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
       <c r="G38" s="153"/>
       <c r="H38" s="153"/>
       <c r="I38" s="154"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="165" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B39" s="47"/>
-      <c r="C39" s="153"/>
-      <c r="D39" s="153"/>
-      <c r="E39" s="153"/>
-      <c r="F39" s="153"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
       <c r="G39" s="153"/>
       <c r="H39" s="153"/>
       <c r="I39" s="154"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="165" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B40" s="47"/>
-      <c r="C40" s="153"/>
-      <c r="D40" s="153"/>
-      <c r="E40" s="153"/>
-      <c r="F40" s="153"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
       <c r="G40" s="153"/>
       <c r="H40" s="153"/>
       <c r="I40" s="154"/>
     </row>
     <row r="41" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="165" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B41" s="47"/>
-      <c r="C41" s="153"/>
-      <c r="D41" s="153"/>
-      <c r="E41" s="153"/>
-      <c r="F41" s="153"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
       <c r="G41" s="153"/>
       <c r="H41" s="153"/>
       <c r="I41" s="154"/>
     </row>
     <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="165" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B42" s="47"/>
-      <c r="C42" s="153"/>
-      <c r="D42" s="153"/>
-      <c r="E42" s="153"/>
-      <c r="F42" s="153"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
       <c r="G42" s="153"/>
       <c r="H42" s="153"/>
       <c r="I42" s="154"/>
     </row>
     <row r="43" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B43" s="47"/>
-      <c r="C43" s="153"/>
-      <c r="D43" s="153"/>
-      <c r="E43" s="153"/>
-      <c r="F43" s="153"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
       <c r="G43" s="153"/>
       <c r="H43" s="153"/>
       <c r="I43" s="154"/>
     </row>
     <row r="44" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="158" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B44" s="47"/>
-      <c r="C44" s="153"/>
-      <c r="D44" s="153"/>
-      <c r="E44" s="153"/>
-      <c r="F44" s="153"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
       <c r="G44" s="153"/>
       <c r="H44" s="153"/>
       <c r="I44" s="154"/>
     </row>
     <row r="45" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="166" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B45" s="47"/>
-      <c r="C45" s="153"/>
-      <c r="D45" s="153"/>
-      <c r="E45" s="153"/>
-      <c r="F45" s="153"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
       <c r="G45" s="153"/>
       <c r="H45" s="153"/>
       <c r="I45" s="154"/>
     </row>
     <row r="46" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="167" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B46" s="152"/>
-      <c r="C46" s="155"/>
-      <c r="D46" s="155"/>
-      <c r="E46" s="155"/>
-      <c r="F46" s="155"/>
+      <c r="C46" s="152"/>
+      <c r="D46" s="152"/>
+      <c r="E46" s="152"/>
+      <c r="F46" s="152"/>
       <c r="G46" s="155"/>
       <c r="H46" s="155"/>
       <c r="I46" s="156"/>
     </row>
     <row r="47" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A47" s="161" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B47" s="168" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C47" s="169"/>
       <c r="D47" s="169"/>
@@ -7993,7 +8116,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="171" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B48" s="151">
         <f>$B7</f>
@@ -8019,22 +8142,21 @@
       <c r="H48" s="153"/>
       <c r="I48" s="154"/>
     </row>
-    <row r="49" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="165" t="s">
-        <v>527</v>
-      </c>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
+        <v>535</v>
+      </c>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
       <c r="G49" s="153"/>
       <c r="H49" s="153"/>
       <c r="I49" s="154"/>
     </row>
     <row r="50" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="165" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B50" s="47"/>
       <c r="C50" s="47"/>
@@ -8047,7 +8169,7 @@
     </row>
     <row r="51" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="165" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B51" s="47"/>
       <c r="C51" s="47"/>
@@ -8060,7 +8182,7 @@
     </row>
     <row r="52" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="165" t="s">
-        <v>530</v>
+        <v>595</v>
       </c>
       <c r="B52" s="47"/>
       <c r="C52" s="47"/>
@@ -8073,7 +8195,7 @@
     </row>
     <row r="53" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="165" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B53" s="47"/>
       <c r="C53" s="47"/>
@@ -8086,7 +8208,7 @@
     </row>
     <row r="54" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="165" t="s">
-        <v>532</v>
+        <v>596</v>
       </c>
       <c r="B54" s="47"/>
       <c r="C54" s="47"/>
@@ -8099,7 +8221,7 @@
     </row>
     <row r="55" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="165" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B55" s="47"/>
       <c r="C55" s="47"/>
@@ -8112,7 +8234,7 @@
     </row>
     <row r="56" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="165" t="s">
-        <v>534</v>
+        <v>597</v>
       </c>
       <c r="B56" s="47"/>
       <c r="C56" s="47"/>
@@ -8123,34 +8245,73 @@
       <c r="H56" s="153"/>
       <c r="I56" s="154"/>
     </row>
-    <row r="57" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="167" t="s">
-        <v>572</v>
-      </c>
-      <c r="B57" s="152"/>
-      <c r="C57" s="152"/>
-      <c r="D57" s="152"/>
-      <c r="E57" s="152"/>
-      <c r="F57" s="152"/>
-      <c r="G57" s="155"/>
-      <c r="H57" s="155"/>
-      <c r="I57" s="156"/>
+    <row r="57" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="165" t="s">
+        <v>525</v>
+      </c>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="153"/>
+      <c r="H57" s="153"/>
+      <c r="I57" s="154"/>
+    </row>
+    <row r="58" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="165" t="s">
+        <v>527</v>
+      </c>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="153"/>
+      <c r="H58" s="153"/>
+      <c r="I58" s="154"/>
+    </row>
+    <row r="59" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="165" t="s">
+        <v>528</v>
+      </c>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="153"/>
+      <c r="H59" s="153"/>
+      <c r="I59" s="154"/>
+    </row>
+    <row r="60" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="167" t="s">
+        <v>566</v>
+      </c>
+      <c r="B60" s="152"/>
+      <c r="C60" s="152"/>
+      <c r="D60" s="152"/>
+      <c r="E60" s="152"/>
+      <c r="F60" s="152"/>
+      <c r="G60" s="155"/>
+      <c r="H60" s="155"/>
+      <c r="I60" s="156"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="10">
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="B16:F18"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="B16:F18"/>
   </mergeCells>
-  <dataValidations count="56">
+  <dataValidations count="58">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="eventID" prompt="An identifier for the set of information associated with an Event (something that occurs at a place and time)." sqref="B7:F7"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="parentEventID" prompt="An identifier for the broader Event that groups this and potentially other Events. I.E. Could be a Cruise as a previous event, and then that becomes a Parent Event. Events do not need to have Occurrences or Measurements." sqref="B8:F8"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="eventDate" prompt="The date-time or interval during which an Event occurred. For occurrences, this is the date-time when the event was recorded." sqref="B9:D9"/>
@@ -8174,39 +8335,41 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="locationAccordingTo" prompt="Information about the source of this Location information. Could be a publication (gazetteer), institution, or team of individuals. Likely Marine Regions." sqref="I16"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="locationRemarks" prompt="Comments or notes about the Location." sqref="I17"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="footprintWKT" prompt="Provide a shapefile name that will be converted into a Well-Known Text (WKT) representation of the shape (footprint, geometry) that defines the Location." sqref="I18"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementID" prompt="An identifier for the MeasurementOrFact (information pertaining to measurements, facts, characteristics, or assertions). May be a global unique identifier or an identifier specific to the data set." sqref="B49:F49"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementMethod" prompt="A description of or reference to (publication, URI) the method or protocol used to determine the measurement, fact, characteristic, or assertion._x000a_measurementType_x0009_The nature of the measurement, fact, characteristic, or assertion." sqref="B50:F50"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementType" prompt="The nature of the measurement, fact, characteristic, or assertion. e.g. &quot;Sea Surface Temperature&quot;." sqref="B51:F51"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementValue" prompt="The value of the measurement, fact, characteristic, or assertion." sqref="B52:F52"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementAccuracy" prompt="The description of the potential error associated with the measurementValue." sqref="B53:F53"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementUnit" prompt="The units associated with the measurementValue. Recommended best practice is to use the International System of Units (SI). " sqref="B54:F54"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementDeterminedDate" prompt="The date on which the MeasurementOrFact was made. Recommended best practice is to use an encoding scheme, such as ISO 8601:2004(E)." sqref="B55:F55"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementDeterminedBy" prompt="A list (if more than one, separated with | ) of names of people, groups, or organizations who determined the value of the MeasurementOrFact. " sqref="B56:F56"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonID" prompt="An identifier for the set of taxon information (data associated with the Taxon class). May be a global unique identifier or an identifier specific to the data set. If possible match with OBIS." sqref="B21"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identifiedBy" prompt="A list (if more than one, separated with | ) of names of people, groups, or organizations who assigned the Taxon to the subject." sqref="B23"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="dateIdentified_x0009_" prompt="The date on which the subject was identified as representing the Taxon." sqref="B24"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identificationRemarks" prompt="Comments or notes about the Identification." sqref="B26"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identificationReferences" prompt="A list (if more than one separated with | ) of references (publication, global unique identifier, URI) used in the Identification." sqref="B25"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identificationQualifier" prompt="A brief phrase or a standard term (&quot;cf.&quot;, &quot;aff.&quot;) to express the determiner's doubts about the Identification." sqref="B27"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="typeStatus" prompt="A list (if more than one, separated with | ) of nomenclatural types (type status, typified scientific name, publication) applied to the subject." sqref="B28"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="occurrenceID" prompt="An identifier for the Occurrence (as opposed to a particular digital record of the occurrence). In the absence of a persistent global unique identifier, construct one from a combination of identifiers in the record that will most closely make the occurren" sqref="B22"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="catalogNumber" prompt="An identifier (preferably unique) for the record within the data set or collection. Mostly for museum collections." sqref="B29"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="occurrenceRemarks" prompt="Comments or notes about the Occurrence." sqref="B30"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="recordedBy" prompt="A list (concatenated and separated) of names of people, groups, or organizations responsible for recording the original Occurrence. The primary collector or observer, especially one who applies a personal identifier (recordNumber), should be listed first" sqref="B31"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="organismQuantity" prompt="A number or enumeration value for the quantity of organisms." sqref="B32"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="organismQuantityType" prompt="The type of quantification system used for the quantity of organisms." sqref="B33"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="sex" prompt="The sex of the biological individual(s) represented in the Occurrence. " sqref="B34"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="lifeStage" prompt="The age class or life stage of the biological individual(s) at the time the Occurrence was recorded." sqref="B35"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="establishmentMeans" prompt="The process by which the biological individual(s) represented in the Occurrence became established at the location." sqref="B36"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="preparations" prompt="A list (concatenated and separated) of preparations and preservation methods for a specimen." sqref="B38"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="associatedMedia" prompt="A list (concatenated and separated) of identifiers (publication, global unique identifier, URI) of media associated with the Occurrence." sqref="B39"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="associatedReferences" prompt="A list (concatenated and separated) of identifiers (publication, bibliographic reference, global unique identifier, URI) of literature associated with the Occurrence." sqref="B40"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="associatedSequences" prompt="A list (concatenated and separated) of identifiers (publication, global unique identifier, URI) of genetic sequence information associated with the Occurrence." sqref="B41"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="modified" prompt="The most recent date-time on which the resource was changed." sqref="B42"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="collectionCode" prompt="The name, acronym, coden, or initialism identifying the collection or data set from which the record was derived." sqref="B43"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="dataGeneralizations" prompt="Actions taken to make the shared data less specific or complete than in its original form. Suggests that alternative data of higher quality may be available on request." sqref="B45"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="dynamicProperties" prompt="A list (if more than one, separated with | ) of additional measurements, facts, characteristics, or assertions about the record. Meant to provide a mechanism for structured content such as key-value pairs (eg: &quot;{temperaturedegC:5} | {salinitypss:35}&quot;" sqref="B46"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementRemarks" prompt="Comments or notes accompanying the MeasurementOrFact, including if valid a link to the Pangaea archive for this dataset. Separate entries with ( | )." sqref="B57:F57"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementID" prompt="An identifier for the MeasurementOrFact (information pertaining to measurements, facts, characteristics, or assertions). May be a global unique identifier or an identifier specific to the data set." sqref="B50:F50"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementType" prompt="The nature of the measurement, fact, characteristic, or assertion. e.g. &quot;Sea Surface Temperature&quot;." sqref="C51:F52 B51"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementValue" prompt="The value of the measurement, fact, characteristic, or assertion." sqref="C53:F54 B53"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementAccuracy" prompt="The description of the potential error associated with the measurementValue." sqref="B57:F57"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementUnit" prompt="The units associated with the measurementValue. Recommended best practice is to use the International System of Units (SI). " sqref="B55 C55:F56"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementDeterminedDate" prompt="The date on which the MeasurementOrFact was made. Recommended best practice is to use an encoding scheme, such as ISO 8601:2004(E)." sqref="B58:F58"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementDeterminedBy" prompt="A list (if more than one, separated with | ) of names of people, groups, or organizations who determined the value of the MeasurementOrFact. " sqref="B59:F59"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonID" prompt="An identifier for the set of taxon information (data associated with the Taxon class). May be a global unique identifier or an identifier specific to the data set. If possible match with OBIS." sqref="B21:F21"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identifiedBy" prompt="A list (if more than one, separated with | ) of names of people, groups, or organizations who assigned the Taxon to the subject." sqref="B23:F23"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="dateIdentified_x0009_" prompt="The date on which the subject was identified as representing the Taxon." sqref="B24:F24"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identificationRemarks" prompt="Comments or notes about the Identification." sqref="B26:F26"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identificationReferences" prompt="A list (if more than one separated with | ) of references (publication, global unique identifier, URI) used in the Identification." sqref="B25:F25"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identificationQualifier" prompt="A brief phrase or a standard term (&quot;cf.&quot;, &quot;aff.&quot;) to express the determiner's doubts about the Identification." sqref="B27:F27"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="typeStatus" prompt="A list (if more than one, separated with | ) of nomenclatural types (type status, typified scientific name, publication) applied to the subject." sqref="B28:F28"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="occurrenceID" prompt="An identifier for the Occurrence (as opposed to a particular digital record of the occurrence). In the absence of a persistent global unique identifier, construct one from a combination of identifiers in the record that will most closely make the occurren" sqref="B49:F49 B22:F22"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="catalogNumber" prompt="An identifier (preferably unique) for the record within the data set or collection. Mostly for museum collections." sqref="B29:F29"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="occurrenceRemarks" prompt="Comments or notes about the Occurrence." sqref="B30:F30"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="recordedBy" prompt="A list (concatenated and separated) of names of people, groups, or organizations responsible for recording the original Occurrence. The primary collector or observer, especially one who applies a personal identifier (recordNumber), should be listed first" sqref="B31:F31"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="organismQuantity" prompt="A number or enumeration value for the quantity of organisms." sqref="B32:F32"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="organismQuantityType" prompt="The type of quantification system used for the quantity of organisms." sqref="B33:F33"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="sex" prompt="The sex of the biological individual(s) represented in the Occurrence. " sqref="B34:F34"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="lifeStage" prompt="The age class or life stage of the biological individual(s) at the time the Occurrence was recorded." sqref="B35:F35"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="establishmentMeans" prompt="The process by which the biological individual(s) represented in the Occurrence became established at the location." sqref="B36:F36"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="preparations" prompt="A list (concatenated and separated) of preparations and preservation methods for a specimen." sqref="B38:F38"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="associatedMedia" prompt="A list (concatenated and separated) of identifiers (publication, global unique identifier, URI) of media associated with the Occurrence." sqref="B39:F39"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="associatedReferences" prompt="A list (concatenated and separated) of identifiers (publication, bibliographic reference, global unique identifier, URI) of literature associated with the Occurrence." sqref="B40:F40"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="associatedSequences" prompt="A list (concatenated and separated) of identifiers (publication, global unique identifier, URI) of genetic sequence information associated with the Occurrence." sqref="B41:F41"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="modified" prompt="The most recent date-time on which the resource was changed." sqref="B42:F42"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="collectionCode" prompt="The name, acronym, coden, or initialism identifying the collection or data set from which the record was derived." sqref="B43:F43"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="dataGeneralizations" prompt="Actions taken to make the shared data less specific or complete than in its original form. Suggests that alternative data of higher quality may be available on request." sqref="B45:F45"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="dynamicProperties" prompt="A list (if more than one, separated with | ) of additional measurements, facts, characteristics, or assertions about the record. Meant to provide a mechanism for structured content such as key-value pairs (eg: &quot;{temperaturedegC:5} | {salinitypss:35}&quot;" sqref="B46:F46"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementRemarks" prompt="Comments or notes accompanying the MeasurementOrFact, including if valid a link to the Pangaea archive for this dataset. Separate entries with ( | )." sqref="B60:F60"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementType" prompt="An identifier for the measurement, must use the BODC vocabularly." sqref="B52"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementValueID" prompt="An identifier for the value in Measurement Value. Does not need to be filled in if the value is actually a value. Otherwise use BODC vocabularly." sqref="B54"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementUnitID" prompt="An identifier for the measurementUnit (global unique identifier, URI). The identifier should reference the measurementUnit in a vocabulary." sqref="B56"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="G6" r:id="rId1"/>
@@ -8220,13 +8383,13 @@
           <x14:formula1>
             <xm:f>ContextDependents!$M$1:$M$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B37</xm:sqref>
+          <xm:sqref>B37:F37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="basisOfRecord" prompt="The specific nature of the data record. Select from Vocabulary">
           <x14:formula1>
             <xm:f>ContextDependents!$O$1:$O$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B44</xm:sqref>
+          <xm:sqref>B44:F44</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8239,352 +8402,370 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:BG7"/>
+  <dimension ref="A1:BJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="16.83203125" style="38" customWidth="1"/>
-    <col min="3" max="58" width="16.83203125" customWidth="1"/>
+    <col min="3" max="49" width="16.83203125" customWidth="1"/>
+    <col min="50" max="61" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="109" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E1" s="110" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="J1" s="161" t="s">
-        <v>465</v>
-      </c>
-      <c r="K1" s="258"/>
-      <c r="L1" s="258"/>
-      <c r="M1" s="258"/>
-      <c r="N1" s="258"/>
-      <c r="O1" s="258"/>
-      <c r="P1" s="258"/>
-      <c r="Q1" s="258"/>
-      <c r="R1" s="258"/>
-      <c r="S1" s="258"/>
-      <c r="T1" s="258"/>
-      <c r="U1" s="258"/>
-      <c r="V1" s="258"/>
-      <c r="W1" s="258"/>
-      <c r="X1" s="262" t="s">
-        <v>521</v>
-      </c>
-      <c r="Y1" s="260"/>
-      <c r="Z1" s="260"/>
-      <c r="AA1" s="260"/>
-      <c r="AB1" s="260"/>
-      <c r="AC1" s="260"/>
-      <c r="AD1" s="260"/>
-      <c r="AE1" s="260"/>
-      <c r="AF1" s="260"/>
-      <c r="AG1" s="260"/>
-      <c r="AH1" s="260"/>
-      <c r="AI1" s="260"/>
-      <c r="AJ1" s="260"/>
-      <c r="AK1" s="260"/>
-      <c r="AL1" s="260"/>
-      <c r="AM1" s="260"/>
-      <c r="AN1" s="260"/>
-      <c r="AO1" s="260"/>
-      <c r="AP1" s="260"/>
-      <c r="AQ1" s="260"/>
-      <c r="AR1" s="260"/>
-      <c r="AS1" s="260"/>
-      <c r="AT1" s="260"/>
-      <c r="AU1" s="260"/>
-      <c r="AV1" s="260"/>
-      <c r="AW1" s="260"/>
-      <c r="AX1" s="262" t="s">
-        <v>558</v>
-      </c>
-      <c r="AY1" s="260"/>
-      <c r="AZ1" s="260"/>
-      <c r="BA1" s="260"/>
-      <c r="BB1" s="260"/>
-      <c r="BC1" s="260"/>
-      <c r="BD1" s="260"/>
-      <c r="BE1" s="260"/>
-      <c r="BF1" s="261"/>
-    </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A2" s="243" t="s">
-        <v>464</v>
-      </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="245"/>
-      <c r="E2" s="245"/>
-      <c r="F2" s="245"/>
-      <c r="G2" s="245"/>
-      <c r="H2" s="245"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="254" t="s">
-        <v>468</v>
-      </c>
-      <c r="K2" s="255"/>
-      <c r="L2" s="255"/>
-      <c r="M2" s="255"/>
-      <c r="N2" s="255"/>
-      <c r="O2" s="253" t="s">
-        <v>466</v>
-      </c>
-      <c r="P2" s="257" t="s">
-        <v>576</v>
-      </c>
-      <c r="Q2" s="255"/>
-      <c r="R2" s="255"/>
-      <c r="S2" s="255"/>
-      <c r="T2" s="256"/>
-      <c r="U2" s="259" t="s">
-        <v>467</v>
-      </c>
-      <c r="V2" s="260"/>
-      <c r="W2" s="260"/>
-      <c r="X2" s="263"/>
-      <c r="Y2" s="264"/>
-      <c r="Z2" s="264"/>
-      <c r="AA2" s="264"/>
-      <c r="AB2" s="264"/>
-      <c r="AC2" s="264"/>
-      <c r="AD2" s="264"/>
-      <c r="AE2" s="264"/>
-      <c r="AF2" s="264"/>
-      <c r="AG2" s="264"/>
-      <c r="AH2" s="264"/>
-      <c r="AI2" s="264"/>
-      <c r="AJ2" s="264"/>
-      <c r="AK2" s="264"/>
-      <c r="AL2" s="264"/>
-      <c r="AM2" s="264"/>
-      <c r="AN2" s="264"/>
-      <c r="AO2" s="264"/>
-      <c r="AP2" s="264"/>
-      <c r="AQ2" s="264"/>
-      <c r="AR2" s="264"/>
-      <c r="AS2" s="264"/>
-      <c r="AT2" s="264"/>
-      <c r="AU2" s="264"/>
-      <c r="AV2" s="264"/>
-      <c r="AW2" s="264"/>
-      <c r="AX2" s="263"/>
-      <c r="AY2" s="264"/>
-      <c r="AZ2" s="264"/>
-      <c r="BA2" s="264"/>
-      <c r="BB2" s="264"/>
-      <c r="BC2" s="264"/>
-      <c r="BD2" s="264"/>
-      <c r="BE2" s="264"/>
-      <c r="BF2" s="265"/>
-    </row>
-    <row r="3" spans="1:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="246" t="s">
+        <v>460</v>
+      </c>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="203"/>
+      <c r="P1" s="203"/>
+      <c r="Q1" s="203"/>
+      <c r="R1" s="203"/>
+      <c r="S1" s="203"/>
+      <c r="T1" s="203"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="203"/>
+      <c r="W1" s="203"/>
+      <c r="X1" s="207" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y1" s="205"/>
+      <c r="Z1" s="205"/>
+      <c r="AA1" s="205"/>
+      <c r="AB1" s="205"/>
+      <c r="AC1" s="205"/>
+      <c r="AD1" s="205"/>
+      <c r="AE1" s="205"/>
+      <c r="AF1" s="205"/>
+      <c r="AG1" s="205"/>
+      <c r="AH1" s="205"/>
+      <c r="AI1" s="205"/>
+      <c r="AJ1" s="205"/>
+      <c r="AK1" s="205"/>
+      <c r="AL1" s="205"/>
+      <c r="AM1" s="205"/>
+      <c r="AN1" s="205"/>
+      <c r="AO1" s="205"/>
+      <c r="AP1" s="205"/>
+      <c r="AQ1" s="205"/>
+      <c r="AR1" s="205"/>
+      <c r="AS1" s="205"/>
+      <c r="AT1" s="205"/>
+      <c r="AU1" s="205"/>
+      <c r="AV1" s="205"/>
+      <c r="AW1" s="205"/>
+      <c r="AX1" s="207" t="s">
+        <v>552</v>
+      </c>
+      <c r="AY1" s="205"/>
+      <c r="AZ1" s="205"/>
+      <c r="BA1" s="205"/>
+      <c r="BB1" s="205"/>
+      <c r="BC1" s="205"/>
+      <c r="BD1" s="205"/>
+      <c r="BE1" s="205"/>
+      <c r="BF1" s="205"/>
+      <c r="BG1" s="205"/>
+      <c r="BH1" s="205"/>
+      <c r="BI1" s="206"/>
+    </row>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A2" s="188" t="s">
+        <v>459</v>
+      </c>
+      <c r="B2" s="189"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="199" t="s">
+        <v>463</v>
+      </c>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="198" t="s">
+        <v>461</v>
+      </c>
+      <c r="P2" s="202" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q2" s="200"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="200"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="204" t="s">
+        <v>462</v>
+      </c>
+      <c r="V2" s="205"/>
+      <c r="W2" s="205"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="209"/>
+      <c r="Z2" s="209"/>
+      <c r="AA2" s="209"/>
+      <c r="AB2" s="209"/>
+      <c r="AC2" s="209"/>
+      <c r="AD2" s="209"/>
+      <c r="AE2" s="209"/>
+      <c r="AF2" s="209"/>
+      <c r="AG2" s="209"/>
+      <c r="AH2" s="209"/>
+      <c r="AI2" s="209"/>
+      <c r="AJ2" s="209"/>
+      <c r="AK2" s="209"/>
+      <c r="AL2" s="209"/>
+      <c r="AM2" s="209"/>
+      <c r="AN2" s="209"/>
+      <c r="AO2" s="209"/>
+      <c r="AP2" s="209"/>
+      <c r="AQ2" s="209"/>
+      <c r="AR2" s="209"/>
+      <c r="AS2" s="209"/>
+      <c r="AT2" s="209"/>
+      <c r="AU2" s="209"/>
+      <c r="AV2" s="209"/>
+      <c r="AW2" s="209"/>
+      <c r="AX2" s="208"/>
+      <c r="AY2" s="209"/>
+      <c r="AZ2" s="209"/>
+      <c r="BA2" s="209"/>
+      <c r="BB2" s="209"/>
+      <c r="BC2" s="209"/>
+      <c r="BD2" s="209"/>
+      <c r="BE2" s="209"/>
+      <c r="BF2" s="209"/>
+      <c r="BG2" s="209"/>
+      <c r="BH2" s="209"/>
+      <c r="BI2" s="210"/>
+    </row>
+    <row r="3" spans="1:62" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="191" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="247" t="s">
-        <v>307</v>
-      </c>
-      <c r="C3" s="248" t="s">
+      <c r="B3" s="192" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="247" t="s">
+      <c r="D3" s="192" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="247" t="s">
+      <c r="E3" s="192" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="247" t="s">
+      <c r="F3" s="192" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="247" t="s">
+      <c r="G3" s="192" t="s">
         <v>132</v>
       </c>
-      <c r="H3" s="247" t="s">
+      <c r="H3" s="192" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="250" t="s">
+      <c r="I3" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="269" t="s">
+      <c r="J3" s="212" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="247" t="s">
+      <c r="K3" s="192" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="247" t="s">
+      <c r="L3" s="192" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="247" t="s">
+      <c r="M3" s="192" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="250" t="s">
+      <c r="N3" s="195" t="s">
         <v>133</v>
       </c>
-      <c r="O3" s="269" t="s">
+      <c r="O3" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="247" t="s">
+      <c r="P3" s="192" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="270" t="s">
+      <c r="Q3" s="213" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="270" t="s">
+      <c r="R3" s="213" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="247" t="s">
+      <c r="S3" s="192" t="s">
         <v>103</v>
       </c>
-      <c r="T3" s="249" t="s">
+      <c r="T3" s="194" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="269" t="s">
+      <c r="U3" s="212" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="247" t="s">
+      <c r="V3" s="192" t="s">
         <v>37</v>
       </c>
-      <c r="W3" s="250" t="s">
+      <c r="W3" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="X3" s="271" t="s">
+      <c r="X3" s="214" t="s">
         <v>83</v>
       </c>
-      <c r="Y3" s="267" t="s">
+      <c r="Y3" s="211" t="s">
         <v>48</v>
       </c>
-      <c r="Z3" s="267" t="s">
+      <c r="Z3" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="267" t="s">
+      <c r="AA3" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="AB3" s="267" t="s">
+      <c r="AB3" s="211" t="s">
         <v>15</v>
       </c>
-      <c r="AC3" s="267" t="s">
+      <c r="AC3" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="AD3" s="267" t="s">
+      <c r="AD3" s="211" t="s">
         <v>101</v>
       </c>
-      <c r="AE3" s="267" t="s">
+      <c r="AE3" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="AF3" s="267" t="s">
+      <c r="AF3" s="211" t="s">
         <v>58</v>
       </c>
-      <c r="AG3" s="267" t="s">
+      <c r="AG3" s="211" t="s">
         <v>49</v>
       </c>
-      <c r="AH3" s="267" t="s">
+      <c r="AH3" s="211" t="s">
         <v>51</v>
       </c>
-      <c r="AI3" s="267" t="s">
+      <c r="AI3" s="211" t="s">
         <v>105</v>
       </c>
-      <c r="AJ3" s="267" t="s">
+      <c r="AJ3" s="211" t="s">
         <v>107</v>
       </c>
-      <c r="AK3" s="267" t="s">
+      <c r="AK3" s="211" t="s">
         <v>53</v>
       </c>
-      <c r="AL3" s="267" t="s">
+      <c r="AL3" s="211" t="s">
         <v>54</v>
       </c>
-      <c r="AM3" s="267" t="s">
+      <c r="AM3" s="211" t="s">
         <v>55</v>
       </c>
-      <c r="AN3" s="272" t="s">
+      <c r="AN3" s="215" t="s">
         <v>56</v>
       </c>
-      <c r="AO3" s="267" t="s">
+      <c r="AO3" s="211" t="s">
         <v>57</v>
       </c>
-      <c r="AP3" s="267" t="s">
+      <c r="AP3" s="211" t="s">
+        <v>578</v>
+      </c>
+      <c r="AQ3" s="211" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR3" s="211" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS3" s="211" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT3" s="211" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU3" s="215" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV3" s="216" t="s">
+        <v>579</v>
+      </c>
+      <c r="AW3" s="217" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX3" s="220" t="s">
+        <v>535</v>
+      </c>
+      <c r="AY3" s="221" t="s">
+        <v>135</v>
+      </c>
+      <c r="AZ3" s="221" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA3" s="221" t="s">
+        <v>583</v>
+      </c>
+      <c r="BB3" s="221" t="s">
+        <v>137</v>
+      </c>
+      <c r="BC3" s="221" t="s">
         <v>584</v>
       </c>
-      <c r="AQ3" s="267" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR3" s="267" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS3" s="267" t="s">
-        <v>68</v>
-      </c>
-      <c r="AT3" s="267" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU3" s="272" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV3" s="273" t="s">
+      <c r="BD3" s="221" t="s">
+        <v>139</v>
+      </c>
+      <c r="BE3" s="221" t="s">
         <v>585</v>
       </c>
-      <c r="AW3" s="274" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX3" s="266" t="s">
-        <v>135</v>
-      </c>
-      <c r="AY3" s="267" t="s">
+      <c r="BF3" s="221" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG3" s="221" t="s">
+        <v>598</v>
+      </c>
+      <c r="BH3" s="221" t="s">
+        <v>141</v>
+      </c>
+      <c r="BI3" s="222" t="s">
         <v>142</v>
       </c>
-      <c r="AZ3" s="267" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA3" s="267" t="s">
-        <v>137</v>
-      </c>
-      <c r="BB3" s="267" t="s">
-        <v>138</v>
-      </c>
-      <c r="BC3" s="267" t="s">
-        <v>139</v>
-      </c>
-      <c r="BD3" s="267" t="s">
-        <v>140</v>
-      </c>
-      <c r="BE3" s="267" t="s">
-        <v>141</v>
-      </c>
-      <c r="BF3" s="268" t="s">
-        <v>143</v>
-      </c>
-      <c r="BG3" s="50"/>
-    </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A4" s="240"/>
+      <c r="BJ3" s="223" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A4" s="185"/>
       <c r="B4" s="184"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="241"/>
-      <c r="F4" s="241"/>
-      <c r="G4" s="241"/>
-      <c r="H4" s="241"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="251"/>
-      <c r="L4" s="251"/>
-      <c r="M4" s="251"/>
-      <c r="N4" s="251"/>
-      <c r="O4" s="251"/>
-      <c r="P4" s="251"/>
-      <c r="Q4" s="251"/>
-      <c r="R4" s="251"/>
-      <c r="S4" s="251"/>
-      <c r="T4" s="251"/>
-      <c r="U4" s="251"/>
-      <c r="V4" s="251"/>
-      <c r="W4" s="251"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="186"/>
+      <c r="H4" s="186"/>
+      <c r="I4" s="187"/>
+      <c r="J4" s="196"/>
+      <c r="K4" s="196"/>
+      <c r="L4" s="196"/>
+      <c r="M4" s="196"/>
+      <c r="N4" s="196"/>
+      <c r="O4" s="196"/>
+      <c r="P4" s="196"/>
+      <c r="Q4" s="196"/>
+      <c r="R4" s="196"/>
+      <c r="S4" s="196"/>
+      <c r="T4" s="196"/>
+      <c r="U4" s="196"/>
+      <c r="V4" s="196"/>
+      <c r="W4" s="196"/>
       <c r="X4" s="47"/>
       <c r="Y4" s="38"/>
       <c r="Z4" s="47"/>
@@ -8611,18 +8792,8 @@
       <c r="AU4" s="47"/>
       <c r="AV4" s="47"/>
       <c r="AW4" s="47"/>
-      <c r="AX4" s="47"/>
-      <c r="AY4" s="47"/>
-      <c r="AZ4" s="47"/>
-      <c r="BA4" s="47"/>
-      <c r="BB4" s="47"/>
-      <c r="BC4" s="47"/>
-      <c r="BD4" s="47"/>
-      <c r="BE4" s="47"/>
-      <c r="BF4" s="47"/>
-      <c r="BG4" s="50"/>
-    </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="J5" s="50"/>
       <c r="K5" s="50"/>
       <c r="L5" s="50"/>
@@ -8639,18 +8810,8 @@
       <c r="W5" s="50"/>
       <c r="X5" s="50"/>
       <c r="AW5" s="50"/>
-      <c r="AX5" s="50"/>
-      <c r="AY5" s="50"/>
-      <c r="AZ5" s="50"/>
-      <c r="BA5" s="50"/>
-      <c r="BB5" s="50"/>
-      <c r="BC5" s="50"/>
-      <c r="BD5" s="50"/>
-      <c r="BE5" s="50"/>
-      <c r="BF5" s="50"/>
-      <c r="BG5" s="50"/>
-    </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="J6" s="50"/>
       <c r="K6" s="50"/>
       <c r="L6" s="50"/>
@@ -8667,7 +8828,7 @@
       <c r="W6" s="50"/>
       <c r="X6" s="50"/>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
       <c r="L7" s="50"/>
@@ -8680,8 +8841,7 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="56">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementRemarks" prompt="Comments or notes accompanying the MeasurementOrFact, including if valid a link to the Pangaea archive for this dataset. Separate entries with ( | )." sqref="BF4"/>
+  <dataValidations count="47">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="dynamicProperties" prompt="A list (if more than one, separated with | ) of additional measurements, facts, characteristics, or assertions about the record. Meant to provide a mechanism for structured content such as key-value pairs (eg: &quot;{temperaturedegC:5} | {salinitypss:35}&quot;" sqref="AW4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="dataGeneralizations" prompt="Actions taken to make the shared data less specific or complete than in its original form. Suggests that alternative data of higher quality may be available on request." sqref="AV4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="collectionCode" prompt="The name, acronym, coden, or initialism identifying the collection or data set from which the record was derived." sqref="AT4"/>
@@ -8706,14 +8866,6 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="dateIdentified_x0009_" prompt="The date on which the subject was identified as representing the Taxon." sqref="AA4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identifiedBy" prompt="A list (if more than one, separated with | ) of names of people, groups, or organizations who assigned the Taxon to the subject." sqref="Z4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonID" prompt="An identifier for the set of taxon information (data associated with the Taxon class). May be a global unique identifier or an identifier specific to the data set. If possible match with OBIS." sqref="X4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementDeterminedBy" prompt="A list (if more than one, separated with | ) of names of people, groups, or organizations who determined the value of the MeasurementOrFact. " sqref="BE4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementDeterminedDate" prompt="The date on which the MeasurementOrFact was made. Recommended best practice is to use an encoding scheme, such as ISO 8601:2004(E)." sqref="BD4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementUnit" prompt="The units associated with the measurementValue. Recommended best practice is to use the International System of Units (SI). " sqref="BC4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementAccuracy" prompt="The description of the potential error associated with the measurementValue." sqref="BB4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementValue" prompt="The value of the measurement, fact, characteristic, or assertion." sqref="BA4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementType" prompt="The nature of the measurement, fact, characteristic, or assertion. e.g. &quot;Sea Surface Temperature&quot;." sqref="AZ4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementMethod" prompt="A description of or reference to (publication, URI) the method or protocol used to determine the measurement, fact, characteristic, or assertion._x000a_measurementType_x0009_The nature of the measurement, fact, characteristic, or assertion." sqref="AY4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="measurementID" prompt="An identifier for the MeasurementOrFact (information pertaining to measurements, facts, characteristics, or assertions). May be a global unique identifier or an identifier specific to the data set." sqref="AX4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="footprintWKT" prompt="Provide a shapefile name that will be converted into a Well-Known Text (WKT) representation of the shape (footprint, geometry) that defines the Location." sqref="W4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="locationRemarks" prompt="Comments or notes about the Location." sqref="V4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="locationAccordingTo" prompt="Information about the source of this Location information. Could be a publication (gazetteer), institution, or team of individuals. Likely Marine Regions." sqref="U4"/>
@@ -8779,33 +8931,33 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="130" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="139" t="s">
+        <v>482</v>
+      </c>
+      <c r="C4" s="136" t="s">
         <v>487</v>
       </c>
-      <c r="C4" s="136" t="s">
-        <v>492</v>
-      </c>
       <c r="D4" s="137" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E4" s="137" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F4" s="137" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G4" s="138" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="134" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
@@ -8818,7 +8970,7 @@
     </row>
     <row r="6" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="134" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="50"/>
@@ -8831,25 +8983,25 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="139" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C7" s="136" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D7" s="137" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E7" s="137" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F7" s="137"/>
       <c r="G7" s="138" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="134" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C8" s="50"/>
       <c r="D8" s="50"/>
@@ -8862,7 +9014,7 @@
     </row>
     <row r="9" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="135" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C9" s="133"/>
       <c r="D9" s="133"/>
@@ -8875,7 +9027,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G11" s="177" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -8926,16 +9078,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="236" t="s">
-        <v>568</v>
-      </c>
-      <c r="B1" s="236"/>
+      <c r="A1" s="275" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1" s="275"/>
       <c r="C1" s="28"/>
       <c r="D1" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F1" s="8"/>
     </row>
@@ -8948,15 +9100,15 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="237" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="237"/>
-      <c r="F3" s="237"/>
-      <c r="G3" s="237"/>
+      <c r="A3" s="276" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="276"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
@@ -8977,86 +9129,86 @@
         <v>2</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>127</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="H6" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="H8" s="23">
         <v>42376</v>
@@ -9064,92 +9216,92 @@
     </row>
     <row r="9" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="21" t="s">
         <v>175</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="F12" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H12" s="21" t="s">
         <v>222</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="48" x14ac:dyDescent="0.2">
@@ -9160,19 +9312,19 @@
         <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="80" x14ac:dyDescent="0.2">
@@ -9186,19 +9338,19 @@
         <v>72</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E14" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H14" s="21" t="s">
         <v>230</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
@@ -9212,16 +9364,16 @@
         <v>76</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="H15" s="21" t="s">
         <v>234</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -9256,19 +9408,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="277" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="238"/>
+      <c r="B1" s="277"/>
       <c r="D1" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -9280,15 +9432,15 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="237" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="237"/>
-      <c r="F3" s="237"/>
-      <c r="G3" s="237"/>
+      <c r="A3" s="276" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="276"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
@@ -9309,45 +9461,45 @@
         <v>2</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>127</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>335</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H6" s="21">
         <v>1000</v>
@@ -9355,7 +9507,7 @@
     </row>
     <row r="7" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>86</v>
@@ -9364,24 +9516,24 @@
         <v>87</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>88</v>
@@ -9390,16 +9542,16 @@
         <v>89</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>90</v>
@@ -9408,22 +9560,22 @@
         <v>100</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>92</v>
@@ -9432,24 +9584,24 @@
         <v>96</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>270</v>
-      </c>
       <c r="F10" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="21" t="s">
         <v>269</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>97</v>
@@ -9458,138 +9610,138 @@
         <v>98</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>91</v>
@@ -9598,21 +9750,21 @@
         <v>95</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="H18" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>93</v>
@@ -9621,56 +9773,56 @@
         <v>94</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H19" s="21" t="s">
         <v>288</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -9704,19 +9856,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="278" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="239"/>
+      <c r="B1" s="278"/>
       <c r="D1" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -9728,15 +9880,15 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="237" t="s">
-        <v>262</v>
-      </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="237"/>
-      <c r="F3" s="237"/>
-      <c r="G3" s="237"/>
+      <c r="A3" s="276" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="276"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
@@ -9757,48 +9909,48 @@
         <v>2</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>127</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>128</v>
@@ -9807,92 +9959,92 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" s="21" t="s">
         <v>310</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H8" s="21" t="s">
         <v>307</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>129</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="F9" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>130</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H10" s="21">
         <v>50</v>
@@ -9900,30 +10052,30 @@
     </row>
     <row r="11" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>131</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>132</v>
@@ -9932,72 +10084,72 @@
         <v>5</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>111</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>258</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>110</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>8</v>
@@ -10006,19 +10158,19 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
@@ -10027,21 +10179,21 @@
         <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
@@ -10050,21 +10202,21 @@
         <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
@@ -10073,21 +10225,21 @@
         <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>29</v>
@@ -10096,21 +10248,21 @@
         <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>133</v>
@@ -10119,21 +10271,21 @@
         <v>109</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>114</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>31</v>
@@ -10142,13 +10294,13 @@
         <v>32</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>115</v>
@@ -10159,7 +10311,7 @@
     </row>
     <row r="22" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>33</v>
@@ -10168,13 +10320,13 @@
         <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>115</v>
@@ -10185,7 +10337,7 @@
     </row>
     <row r="23" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>35</v>
@@ -10194,21 +10346,21 @@
         <v>36</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>37</v>
@@ -10217,18 +10369,18 @@
         <v>38</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>39</v>
@@ -10237,10 +10389,10 @@
         <v>40</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>116</v>
@@ -10251,7 +10403,7 @@
     </row>
     <row r="26" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>41</v>
@@ -10260,10 +10412,10 @@
         <v>42</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>117</v>
@@ -10274,7 +10426,7 @@
     </row>
     <row r="27" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>103</v>
@@ -10283,10 +10435,10 @@
         <v>104</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>118</v>
@@ -10297,7 +10449,7 @@
     </row>
     <row r="28" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>43</v>
@@ -10306,21 +10458,21 @@
         <v>44</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>119</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>45</v>
@@ -10329,16 +10481,16 @@
         <v>46</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/SponGIS_Template/SponGIS_Template.xlsx
+++ b/SponGIS_Template/SponGIS_Template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="440" windowWidth="31180" windowHeight="16040" tabRatio="500"/>
+    <workbookView xWindow="600" yWindow="440" windowWidth="17340" windowHeight="12500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="13" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="486">
   <si>
     <t>Class</t>
   </si>
@@ -1194,18 +1194,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Section 1</t>
-  </si>
-  <si>
-    <t>Section 2</t>
-  </si>
-  <si>
-    <t>Section 3</t>
-  </si>
-  <si>
-    <t>What kind of data are you wishing to add to SponGIS?</t>
-  </si>
-  <si>
     <t>Species occurrences</t>
   </si>
   <si>
@@ -1215,18 +1203,6 @@
     <t>Both</t>
   </si>
   <si>
-    <t>First please answer the questions below to set up the template with the required datafields (indicated by):</t>
-  </si>
-  <si>
-    <t>Section 4</t>
-  </si>
-  <si>
-    <t>Is this dataset already entered into SponGIS? You may be updating or adding new occurrences or revisions.</t>
-  </si>
-  <si>
-    <t>Are all the species you want to add entered into SponGIS? Use www.spongis.org/data-search/ to check. Note the taxon ID's as you will need them for the occurrence sheet.</t>
-  </si>
-  <si>
     <t>2 - Taxon Details</t>
   </si>
   <si>
@@ -1299,9 +1275,6 @@
     <t>Don't know</t>
   </si>
   <si>
-    <t>Section 5</t>
-  </si>
-  <si>
     <t>submissions@spongis.org</t>
   </si>
   <si>
@@ -1363,9 +1336,6 @@
   </si>
   <si>
     <t>3a - Occurrence Details</t>
-  </si>
-  <si>
-    <t>You need to complete the following Spreadsheets/subsections (ANSWER ALL ABOVE FIRST):</t>
   </si>
   <si>
     <t>Present</t>
@@ -1555,7 +1525,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1629,13 +1599,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
@@ -1671,20 +1634,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1694,20 +1643,6 @@
     <font>
       <i/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14.3"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -1757,7 +1692,7 @@
       <name val="Optima Regular"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1856,12 +1791,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1885,7 +1814,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1915,21 +1844,6 @@
       <left style="medium">
         <color theme="8" tint="-0.249977111117893"/>
       </left>
-      <right style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </left>
       <right/>
       <top style="medium">
         <color auto="1"/>
@@ -1943,114 +1857,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="8" tint="-0.249977111117893"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -2667,7 +2473,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2772,87 +2578,50 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="11" xfId="107" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2861,337 +2630,275 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="107" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="107" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="39" xfId="107" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="28" xfId="107" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="107" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="107" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="17" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="17" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="18" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="18" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" xfId="107" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="108">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3303,28 +3010,7 @@
     <cellStyle name="Hyperlink" xfId="107" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
@@ -3800,7 +3486,7 @@
   <dimension ref="A1:M260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3809,7 +3495,7 @@
     <col min="13" max="13" width="10.83203125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -3823,37 +3509,37 @@
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
-      <c r="E2" s="187" t="s">
+      <c r="E2" s="167" t="s">
         <v>373</v>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -3867,7 +3553,7 @@
       <c r="K4" s="35"/>
       <c r="L4" s="35"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -3883,127 +3569,127 @@
       <c r="K5" s="35"/>
       <c r="L5" s="35"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
-      <c r="E6" s="188" t="s">
+      <c r="E6" s="168" t="s">
         <v>375</v>
       </c>
-      <c r="F6" s="188"/>
-      <c r="G6" s="188"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="188"/>
-      <c r="K6" s="188"/>
-      <c r="L6" s="188"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="188"/>
-      <c r="J7" s="188"/>
-      <c r="K7" s="188"/>
-      <c r="L7" s="188"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="168"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="188"/>
-      <c r="J8" s="188"/>
-      <c r="K8" s="188"/>
-      <c r="L8" s="188"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="168"/>
+      <c r="K8" s="168"/>
+      <c r="L8" s="168"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
       <c r="B11" s="35" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="35" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
       <c r="B13" s="35" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-    </row>
-    <row r="14" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -4017,92 +3703,82 @@
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
     </row>
-    <row r="15" spans="1:12" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="55" t="s">
-        <v>384</v>
-      </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="35"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
       <c r="L15" s="46"/>
-    </row>
-    <row r="16" spans="1:12" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-    </row>
-    <row r="17" spans="1:13" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="46"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="198" t="s">
+        <v>404</v>
+      </c>
+      <c r="J16" s="106"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
-      <c r="B17" s="68" t="s">
-        <v>377</v>
-      </c>
-      <c r="C17" s="71" t="s">
-        <v>386</v>
-      </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="57">
-        <f>IF(L17="Yes", 1,IF(L17="No",2,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="189" t="str">
-        <f>IF(L17="Yes", "Enter the short title to the box to the right, you can search for the value if you don't already have it at www.spongis.org/data-search/",IF(L17="No","Please complete the dataset details on the sheet '1 Dataset Details'",""))</f>
-        <v/>
-      </c>
-      <c r="D18" s="190"/>
-      <c r="E18" s="190"/>
-      <c r="F18" s="190"/>
-      <c r="G18" s="190"/>
-      <c r="H18" s="190"/>
-      <c r="I18" s="190"/>
-      <c r="J18" s="191"/>
-      <c r="K18" s="192"/>
-      <c r="L18" s="193"/>
-      <c r="M18" s="57"/>
-    </row>
-    <row r="19" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="57"/>
-    </row>
-    <row r="20" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -4115,31 +3791,22 @@
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
-      <c r="M20" s="57"/>
-    </row>
-    <row r="21" spans="1:13" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
-      <c r="B21" s="68" t="s">
-        <v>378</v>
-      </c>
-      <c r="C21" s="202" t="s">
-        <v>387</v>
-      </c>
-      <c r="D21" s="202"/>
-      <c r="E21" s="202"/>
-      <c r="F21" s="202"/>
-      <c r="G21" s="202"/>
-      <c r="H21" s="202"/>
-      <c r="I21" s="202"/>
-      <c r="J21" s="202"/>
-      <c r="K21" s="203"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="57">
-        <f>IF(L21="Yes", 0.2,IF(L21="No",0.1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -4152,9 +3819,8 @@
       <c r="J22" s="35"/>
       <c r="K22" s="35"/>
       <c r="L22" s="35"/>
-      <c r="M22" s="57"/>
-    </row>
-    <row r="23" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -4167,213 +3833,162 @@
       <c r="J23" s="35"/>
       <c r="K23" s="35"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="57"/>
-    </row>
-    <row r="24" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
-      <c r="B24" s="68" t="s">
-        <v>379</v>
-      </c>
-      <c r="C24" s="70" t="s">
-        <v>380</v>
-      </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="194"/>
-      <c r="L24" s="195"/>
-      <c r="M24" s="57">
-        <f>IF(K24="Species Occurrences", 10,IF(K24="Environmental data",20,IF(K24="Both",30,0)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+    </row>
+    <row r="25" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="57"/>
-    </row>
-    <row r="26" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+    </row>
+    <row r="26" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
       <c r="K26" s="35"/>
       <c r="L26" s="35"/>
     </row>
-    <row r="27" spans="1:13" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="35"/>
-      <c r="B27" s="58" t="s">
-        <v>385</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>434</v>
-      </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="204" t="str">
-        <f>IF(SUM(M17:M24)&gt;11,IF(M17=2,"1 - Dataset Details",IF(M17=1,"","")),"")</f>
-        <v/>
-      </c>
-      <c r="K27" s="205"/>
-      <c r="L27" s="206"/>
-    </row>
-    <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="196" t="str">
-        <f>IF(SUM(M17:M24)&gt;11,IF(M21=0.1,"2 - Taxon Details",IF(M21=0.2,"","")),"")</f>
-        <v/>
-      </c>
-      <c r="K28" s="197"/>
-      <c r="L28" s="198"/>
-    </row>
-    <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="196" t="str">
-        <f>IF(SUM(M17:M24)&gt;11.1,"3 - Event Details","")</f>
-        <v/>
-      </c>
-      <c r="K29" s="197"/>
-      <c r="L29" s="198"/>
-    </row>
-    <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="196" t="str">
-        <f>IF(SUM(M17:M24)&gt;10.1,IF(M24=10,"3a - Occurrence Details",IF(M24=30,"3a - Occurrence Details","")),"")</f>
-        <v/>
-      </c>
-      <c r="K30" s="197"/>
-      <c r="L30" s="198"/>
-    </row>
-    <row r="31" spans="1:13" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="199" t="str">
-        <f>IF(SUM(M18:M26)&gt;10.1,IF(M24=20,"3b - Measurement Details",IF(M24=30,"3b - Measurement Details","")),"")</f>
-        <v/>
-      </c>
-      <c r="K31" s="200"/>
-      <c r="L31" s="201"/>
-    </row>
-    <row r="32" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="51"/>
-    </row>
-    <row r="33" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-    </row>
-    <row r="34" spans="1:13" s="35" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>414</v>
-      </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="82" t="s">
-        <v>413</v>
-      </c>
-      <c r="K34" s="81"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="51"/>
-    </row>
-    <row r="35" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+    </row>
+    <row r="34" spans="1:12" s="35" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="49" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="50" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="51" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -4566,70 +4181,272 @@
     <row r="238" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="239" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="240" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="241" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="242" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="243" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="244" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="245" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="246" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="247" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="248" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="249" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="250" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="251" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="252" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="253" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="254" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="255" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="256" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="257" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="258" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="259" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="260" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B242"/>
+    </row>
+    <row r="243" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A243"/>
+      <c r="B243"/>
+      <c r="C243"/>
+      <c r="D243"/>
+      <c r="E243"/>
+      <c r="F243"/>
+      <c r="G243"/>
+      <c r="H243"/>
+      <c r="I243"/>
+      <c r="J243"/>
+      <c r="K243"/>
+      <c r="L243"/>
+    </row>
+    <row r="244" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A244"/>
+      <c r="B244"/>
+      <c r="C244"/>
+      <c r="D244"/>
+      <c r="E244"/>
+      <c r="F244"/>
+      <c r="G244"/>
+      <c r="H244"/>
+      <c r="I244"/>
+      <c r="J244"/>
+      <c r="K244"/>
+      <c r="L244"/>
+    </row>
+    <row r="245" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A245"/>
+      <c r="B245"/>
+      <c r="C245"/>
+      <c r="D245"/>
+      <c r="E245"/>
+      <c r="F245"/>
+      <c r="G245"/>
+      <c r="H245"/>
+      <c r="I245"/>
+      <c r="J245"/>
+      <c r="K245"/>
+      <c r="L245"/>
+    </row>
+    <row r="246" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A246"/>
+      <c r="B246"/>
+      <c r="C246"/>
+      <c r="D246"/>
+      <c r="E246"/>
+      <c r="F246"/>
+      <c r="G246"/>
+      <c r="H246"/>
+      <c r="I246"/>
+      <c r="J246"/>
+      <c r="K246"/>
+      <c r="L246"/>
+    </row>
+    <row r="247" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A247"/>
+      <c r="B247"/>
+      <c r="C247"/>
+      <c r="D247"/>
+      <c r="E247"/>
+      <c r="F247"/>
+      <c r="G247"/>
+      <c r="H247"/>
+      <c r="I247"/>
+      <c r="J247"/>
+      <c r="K247"/>
+      <c r="L247"/>
+    </row>
+    <row r="248" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A248"/>
+      <c r="B248"/>
+      <c r="C248"/>
+      <c r="D248"/>
+      <c r="E248"/>
+      <c r="F248"/>
+      <c r="G248"/>
+      <c r="H248"/>
+      <c r="I248"/>
+      <c r="J248"/>
+      <c r="K248"/>
+      <c r="L248"/>
+    </row>
+    <row r="249" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A249"/>
+      <c r="B249"/>
+      <c r="C249"/>
+      <c r="D249"/>
+      <c r="E249"/>
+      <c r="F249"/>
+      <c r="G249"/>
+      <c r="H249"/>
+      <c r="I249"/>
+      <c r="J249"/>
+      <c r="K249"/>
+      <c r="L249"/>
+    </row>
+    <row r="250" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A250"/>
+      <c r="B250"/>
+      <c r="C250"/>
+      <c r="D250"/>
+      <c r="E250"/>
+      <c r="F250"/>
+      <c r="G250"/>
+      <c r="H250"/>
+      <c r="I250"/>
+      <c r="J250"/>
+      <c r="K250"/>
+      <c r="L250"/>
+    </row>
+    <row r="251" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A251"/>
+      <c r="B251"/>
+      <c r="C251"/>
+      <c r="D251"/>
+      <c r="E251"/>
+      <c r="F251"/>
+      <c r="G251"/>
+      <c r="H251"/>
+      <c r="I251"/>
+      <c r="J251"/>
+      <c r="K251"/>
+      <c r="L251"/>
+    </row>
+    <row r="252" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A252"/>
+      <c r="B252"/>
+      <c r="C252"/>
+      <c r="D252"/>
+      <c r="E252"/>
+      <c r="F252"/>
+      <c r="G252"/>
+      <c r="H252"/>
+      <c r="I252"/>
+      <c r="J252"/>
+      <c r="K252"/>
+      <c r="L252"/>
+    </row>
+    <row r="253" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A253"/>
+      <c r="B253"/>
+      <c r="C253"/>
+      <c r="D253"/>
+      <c r="E253"/>
+      <c r="F253"/>
+      <c r="G253"/>
+      <c r="H253"/>
+      <c r="I253"/>
+      <c r="J253"/>
+      <c r="K253"/>
+      <c r="L253"/>
+    </row>
+    <row r="254" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A254"/>
+      <c r="B254"/>
+      <c r="C254"/>
+      <c r="D254"/>
+      <c r="E254"/>
+      <c r="F254"/>
+      <c r="G254"/>
+      <c r="H254"/>
+      <c r="I254"/>
+      <c r="J254"/>
+      <c r="K254"/>
+      <c r="L254"/>
+    </row>
+    <row r="255" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A255"/>
+      <c r="B255"/>
+      <c r="C255"/>
+      <c r="D255"/>
+      <c r="E255"/>
+      <c r="F255"/>
+      <c r="G255"/>
+      <c r="H255"/>
+      <c r="I255"/>
+      <c r="J255"/>
+      <c r="K255"/>
+      <c r="L255"/>
+    </row>
+    <row r="256" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A256"/>
+      <c r="B256"/>
+      <c r="C256"/>
+      <c r="D256"/>
+      <c r="E256"/>
+      <c r="F256"/>
+      <c r="G256"/>
+      <c r="H256"/>
+      <c r="I256"/>
+      <c r="J256"/>
+      <c r="K256"/>
+      <c r="L256"/>
+    </row>
+    <row r="257" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A257"/>
+      <c r="B257"/>
+      <c r="C257"/>
+      <c r="D257"/>
+      <c r="E257"/>
+      <c r="F257"/>
+      <c r="G257"/>
+      <c r="H257"/>
+      <c r="I257"/>
+      <c r="J257"/>
+      <c r="K257"/>
+      <c r="L257"/>
+    </row>
+    <row r="258" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A258"/>
+      <c r="B258"/>
+      <c r="C258"/>
+      <c r="D258"/>
+      <c r="E258"/>
+      <c r="F258"/>
+      <c r="G258"/>
+      <c r="H258"/>
+      <c r="I258"/>
+      <c r="J258"/>
+      <c r="K258"/>
+      <c r="L258"/>
+    </row>
+    <row r="259" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A259"/>
+      <c r="B259"/>
+      <c r="C259"/>
+      <c r="D259"/>
+      <c r="E259"/>
+      <c r="F259"/>
+      <c r="G259"/>
+      <c r="H259"/>
+      <c r="I259"/>
+      <c r="J259"/>
+      <c r="K259"/>
+      <c r="L259"/>
+    </row>
+    <row r="260" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A260"/>
+      <c r="B260"/>
+      <c r="C260"/>
+      <c r="D260"/>
+      <c r="E260"/>
+      <c r="F260"/>
+      <c r="G260"/>
+      <c r="H260"/>
+      <c r="I260"/>
+      <c r="J260"/>
+      <c r="K260"/>
+      <c r="L260"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J29:L29"/>
+  <mergeCells count="2">
     <mergeCell ref="E2:L3"/>
     <mergeCell ref="E6:L8"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="K24:L24"/>
   </mergeCells>
-  <conditionalFormatting sqref="J18:L18">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISBLANK(L17)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>L17="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L17 L21">
-      <formula1>[0]!YesNo</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J34" r:id="rId1"/>
+    <hyperlink ref="I16" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>ContextDependents!$B$1:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>K24:L25</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4655,10 +4472,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="235" t="s">
+      <c r="A1" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="235"/>
+      <c r="B1" s="197"/>
       <c r="D1" s="19" t="s">
         <v>145</v>
       </c>
@@ -4679,15 +4496,15 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="233" t="s">
+      <c r="A3" s="195" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="233"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="233"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
@@ -5226,10 +5043,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="196" t="s">
         <v>339</v>
       </c>
-      <c r="B1" s="234"/>
+      <c r="B1" s="196"/>
       <c r="D1" s="19" t="s">
         <v>145</v>
       </c>
@@ -5250,15 +5067,15 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="233" t="s">
+      <c r="A3" s="195" t="s">
         <v>197</v>
       </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="233"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="233"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
@@ -5315,7 +5132,7 @@
       <c r="A7" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="237" t="s">
+      <c r="B7" s="166" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="32"/>
@@ -5492,16 +5309,16 @@
         <v>85</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>144</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="48" x14ac:dyDescent="0.2">
@@ -5515,13 +5332,13 @@
         <v>236</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>144</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -5532,16 +5349,16 @@
         <v>86</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>144</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -5856,10 +5673,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="196" t="s">
         <v>340</v>
       </c>
-      <c r="B1" s="234"/>
+      <c r="B1" s="196"/>
       <c r="D1" s="19" t="s">
         <v>145</v>
       </c>
@@ -5880,15 +5697,15 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="233" t="s">
-        <v>451</v>
-      </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="233"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="233"/>
+      <c r="A3" s="195" t="s">
+        <v>441</v>
+      </c>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
@@ -6004,22 +5821,22 @@
         <v>263</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>144</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -6048,23 +5865,23 @@
         <v>263</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="9" t="s">
         <v>144</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="48" x14ac:dyDescent="0.2">
@@ -6095,23 +5912,23 @@
         <v>263</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="9" t="s">
         <v>144</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
@@ -6224,25 +6041,25 @@
       <c r="J20" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="129"/>
+      <c r="B22" s="107"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="129"/>
+      <c r="B23" s="107"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="129"/>
+      <c r="B24" s="107"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="129"/>
+      <c r="B25" s="107"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="129"/>
+      <c r="B26" s="107"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="129"/>
+      <c r="B27" s="107"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="129"/>
+      <c r="B28" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6271,25 +6088,25 @@
         <v>365</v>
       </c>
       <c r="B1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="H1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="J1" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="K1" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="M1" t="s">
-        <v>435</v>
-      </c>
-      <c r="O1" s="87" t="s">
-        <v>437</v>
+        <v>425</v>
+      </c>
+      <c r="O1" s="68" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -6297,63 +6114,63 @@
         <v>376</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="K2" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="M2" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="O2" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C3" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="H3" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="O3" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H4" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="O4" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H5" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="O5" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H6" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -6389,11 +6206,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="176" t="s">
-        <v>446</v>
-      </c>
-      <c r="B1" s="177" t="s">
-        <v>417</v>
+      <c r="A1" s="154" t="s">
+        <v>436</v>
+      </c>
+      <c r="B1" s="155" t="s">
+        <v>408</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
@@ -6414,8 +6231,8 @@
       <c r="S1" s="35"/>
     </row>
     <row r="2" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="178"/>
-      <c r="B2" s="171"/>
+      <c r="A2" s="156"/>
+      <c r="B2" s="149"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -6435,14 +6252,14 @@
       <c r="S2" s="35"/>
     </row>
     <row r="3" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="171"/>
-      <c r="B3" s="171"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
-      <c r="H3" s="51"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="35"/>
       <c r="J3" s="35"/>
       <c r="K3" s="35"/>
@@ -6456,8 +6273,8 @@
       <c r="S3" s="35"/>
     </row>
     <row r="4" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="156" t="s">
-        <v>415</v>
+      <c r="A4" s="134" t="s">
+        <v>406</v>
       </c>
       <c r="B4" s="43" t="s">
         <v>368</v>
@@ -6466,8 +6283,8 @@
       <c r="D4" s="44"/>
       <c r="E4" s="44"/>
       <c r="F4" s="44"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="56"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="35"/>
       <c r="J4" s="35"/>
       <c r="K4" s="35"/>
@@ -6481,14 +6298,14 @@
       <c r="S4" s="35"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="158"/>
+      <c r="A5" s="136"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="56"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="47"/>
       <c r="I5" s="35"/>
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
@@ -6502,16 +6319,16 @@
       <c r="S5" s="35"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="183" t="s">
-        <v>483</v>
-      </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="213"/>
-      <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
-      <c r="F6" s="213"/>
-      <c r="G6" s="214"/>
-      <c r="H6" s="56"/>
+      <c r="A6" s="161" t="s">
+        <v>473</v>
+      </c>
+      <c r="B6" s="175"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="35"/>
       <c r="J6" s="35"/>
       <c r="K6" s="35"/>
@@ -6525,16 +6342,16 @@
       <c r="S6" s="35"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="184" t="s">
+      <c r="A7" s="162" t="s">
         <v>369</v>
       </c>
-      <c r="B7" s="209"/>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="56"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="35"/>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
@@ -6548,16 +6365,16 @@
       <c r="S7" s="35"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="184" t="s">
+      <c r="A8" s="162" t="s">
         <v>370</v>
       </c>
-      <c r="B8" s="215"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="216"/>
-      <c r="H8" s="56"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="47"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
@@ -6571,16 +6388,16 @@
       <c r="S8" s="35"/>
     </row>
     <row r="9" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="162" t="s">
         <v>371</v>
       </c>
-      <c r="B9" s="209"/>
-      <c r="C9" s="209"/>
-      <c r="D9" s="209"/>
-      <c r="E9" s="209"/>
-      <c r="F9" s="209"/>
-      <c r="G9" s="210"/>
-      <c r="H9" s="56"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="47"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
@@ -6594,16 +6411,16 @@
       <c r="S9" s="35"/>
     </row>
     <row r="10" spans="1:19" ht="273" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="185" t="s">
+      <c r="A10" s="163" t="s">
         <v>372</v>
       </c>
-      <c r="B10" s="211"/>
-      <c r="C10" s="211"/>
-      <c r="D10" s="211"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="212"/>
-      <c r="H10" s="56"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
@@ -6617,21 +6434,21 @@
       <c r="S10" s="35"/>
     </row>
     <row r="11" spans="1:19" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="186" t="s">
-        <v>449</v>
-      </c>
-      <c r="B11" s="207"/>
-      <c r="C11" s="207"/>
-      <c r="D11" s="207"/>
-      <c r="E11" s="207"/>
-      <c r="F11" s="207"/>
-      <c r="G11" s="208"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="171"/>
+      <c r="A11" s="164" t="s">
+        <v>439</v>
+      </c>
+      <c r="B11" s="169"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="149"/>
       <c r="N11" s="35"/>
       <c r="O11" s="35"/>
       <c r="P11" s="35"/>
@@ -6640,19 +6457,19 @@
       <c r="S11" s="35"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="174"/>
-      <c r="B12" s="175"/>
-      <c r="C12" s="175"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="171"/>
+      <c r="A12" s="152"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="153"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="149"/>
       <c r="N12" s="35"/>
       <c r="O12" s="35"/>
       <c r="P12" s="35"/>
@@ -6661,7 +6478,7 @@
       <c r="S12" s="35"/>
     </row>
     <row r="13" spans="1:19" s="38" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="156" t="s">
+      <c r="A13" s="134" t="s">
         <v>366</v>
       </c>
       <c r="B13" s="44"/>
@@ -6674,9 +6491,9 @@
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
-      <c r="L13" s="157"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="51"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="46"/>
       <c r="O13" s="35"/>
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
@@ -6684,42 +6501,42 @@
       <c r="S13" s="35"/>
     </row>
     <row r="14" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="162"/>
-      <c r="B14" s="161" t="s">
+      <c r="A14" s="140"/>
+      <c r="B14" s="139" t="s">
         <v>354</v>
       </c>
-      <c r="C14" s="161" t="s">
+      <c r="C14" s="139" t="s">
         <v>355</v>
       </c>
-      <c r="D14" s="161" t="s">
+      <c r="D14" s="139" t="s">
         <v>356</v>
       </c>
-      <c r="E14" s="161" t="s">
+      <c r="E14" s="139" t="s">
         <v>357</v>
       </c>
-      <c r="F14" s="161" t="s">
+      <c r="F14" s="139" t="s">
         <v>358</v>
       </c>
-      <c r="G14" s="161" t="s">
+      <c r="G14" s="139" t="s">
         <v>359</v>
       </c>
-      <c r="H14" s="161" t="s">
+      <c r="H14" s="139" t="s">
         <v>360</v>
       </c>
-      <c r="I14" s="161" t="s">
+      <c r="I14" s="139" t="s">
         <v>361</v>
       </c>
-      <c r="J14" s="161" t="s">
+      <c r="J14" s="139" t="s">
         <v>362</v>
       </c>
-      <c r="K14" s="161" t="s">
+      <c r="K14" s="139" t="s">
         <v>363</v>
       </c>
-      <c r="L14" s="163" t="s">
+      <c r="L14" s="141" t="s">
         <v>364</v>
       </c>
-      <c r="M14" s="56"/>
-      <c r="N14" s="51"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="46"/>
       <c r="O14" s="35"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
@@ -6727,22 +6544,22 @@
       <c r="S14" s="35"/>
     </row>
     <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="164" t="s">
+      <c r="A15" s="142" t="s">
         <v>367</v>
       </c>
-      <c r="B15" s="155"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="155"/>
-      <c r="K15" s="155"/>
-      <c r="L15" s="165"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="51"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="46"/>
       <c r="O15" s="35"/>
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
@@ -6750,22 +6567,22 @@
       <c r="S15" s="35"/>
     </row>
     <row r="16" spans="1:19" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="160" t="s">
-        <v>484</v>
+      <c r="A16" s="138" t="s">
+        <v>474</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
-      <c r="F16" s="89"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
       <c r="J16" s="40"/>
       <c r="K16" s="40"/>
-      <c r="L16" s="166"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="51"/>
+      <c r="L16" s="144"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="46"/>
       <c r="O16" s="35"/>
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
@@ -6773,22 +6590,22 @@
       <c r="S16" s="35"/>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="164" t="s">
-        <v>485</v>
+      <c r="A17" s="142" t="s">
+        <v>475</v>
       </c>
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
-      <c r="F17" s="89"/>
+      <c r="F17" s="70"/>
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
       <c r="I17" s="40"/>
       <c r="J17" s="40"/>
       <c r="K17" s="40"/>
-      <c r="L17" s="166"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
       <c r="O17" s="35"/>
       <c r="P17" s="35"/>
       <c r="Q17" s="35"/>
@@ -6796,22 +6613,22 @@
       <c r="S17" s="35"/>
     </row>
     <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="164" t="s">
-        <v>486</v>
+      <c r="A18" s="142" t="s">
+        <v>476</v>
       </c>
       <c r="B18" s="40"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
-      <c r="F18" s="89"/>
+      <c r="F18" s="70"/>
       <c r="G18" s="40"/>
       <c r="H18" s="40"/>
       <c r="I18" s="40"/>
       <c r="J18" s="40"/>
       <c r="K18" s="40"/>
-      <c r="L18" s="166"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="51"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="46"/>
       <c r="O18" s="35"/>
       <c r="P18" s="35"/>
       <c r="Q18" s="35"/>
@@ -6819,22 +6636,22 @@
       <c r="S18" s="35"/>
     </row>
     <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="164" t="s">
-        <v>487</v>
+      <c r="A19" s="142" t="s">
+        <v>477</v>
       </c>
       <c r="B19" s="40"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
-      <c r="F19" s="89"/>
+      <c r="F19" s="70"/>
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
       <c r="I19" s="40"/>
       <c r="J19" s="40"/>
       <c r="K19" s="40"/>
-      <c r="L19" s="166"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="51"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="46"/>
       <c r="O19" s="35"/>
       <c r="P19" s="35"/>
       <c r="Q19" s="35"/>
@@ -6842,231 +6659,231 @@
       <c r="S19" s="35"/>
     </row>
     <row r="20" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="167" t="s">
-        <v>488</v>
-      </c>
-      <c r="B20" s="168"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="168"/>
-      <c r="J20" s="168"/>
-      <c r="K20" s="168"/>
-      <c r="L20" s="170"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
+      <c r="A20" s="145" t="s">
+        <v>478</v>
+      </c>
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
       <c r="S20" s="35"/>
     </row>
     <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="171"/>
-      <c r="B21" s="171"/>
+      <c r="A21" s="149"/>
+      <c r="B21" s="149"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="172"/>
-      <c r="K21" s="172"/>
-      <c r="L21" s="172"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="150"/>
+      <c r="L21" s="150"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
       <c r="S21" s="35"/>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="171"/>
-      <c r="B22" s="171"/>
+      <c r="A22" s="149"/>
+      <c r="B22" s="149"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
       <c r="G22" s="35"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="172"/>
-      <c r="K22" s="172"/>
-      <c r="L22" s="172"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="150"/>
+      <c r="K22" s="150"/>
+      <c r="L22" s="150"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
       <c r="S22" s="35"/>
     </row>
     <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="171"/>
-      <c r="B23" s="171"/>
+      <c r="A23" s="149"/>
+      <c r="B23" s="149"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="172"/>
-      <c r="K23" s="172"/>
-      <c r="L23" s="172"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="150"/>
+      <c r="L23" s="150"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
       <c r="S23" s="35"/>
     </row>
     <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="171"/>
-      <c r="B24" s="171"/>
+      <c r="A24" s="149"/>
+      <c r="B24" s="149"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="172"/>
-      <c r="K24" s="172"/>
-      <c r="L24" s="172"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="150"/>
+      <c r="J24" s="150"/>
+      <c r="K24" s="150"/>
+      <c r="L24" s="150"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
       <c r="S24" s="35"/>
     </row>
     <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="171"/>
-      <c r="B25" s="171"/>
+      <c r="A25" s="149"/>
+      <c r="B25" s="149"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="172"/>
-      <c r="K25" s="172"/>
-      <c r="L25" s="172"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="150"/>
+      <c r="L25" s="150"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
       <c r="S25" s="35"/>
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="171"/>
-      <c r="B26" s="171"/>
+      <c r="A26" s="149"/>
+      <c r="B26" s="149"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="172"/>
-      <c r="K26" s="172"/>
-      <c r="L26" s="172"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
       <c r="S26" s="35"/>
     </row>
     <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="171"/>
-      <c r="B27" s="171"/>
+      <c r="A27" s="149"/>
+      <c r="B27" s="149"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="172"/>
-      <c r="K27" s="172"/>
-      <c r="L27" s="172"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
       <c r="S27" s="35"/>
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="171"/>
-      <c r="B28" s="171"/>
+      <c r="A28" s="149"/>
+      <c r="B28" s="149"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="172"/>
-      <c r="K28" s="172"/>
-      <c r="L28" s="172"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
       <c r="S28" s="35"/>
     </row>
     <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="171"/>
-      <c r="B29" s="171"/>
+      <c r="A29" s="149"/>
+      <c r="B29" s="149"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="172"/>
-      <c r="K29" s="172"/>
-      <c r="L29" s="172"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
       <c r="S29" s="35"/>
     </row>
     <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="171"/>
-      <c r="B30" s="171"/>
+      <c r="A30" s="149"/>
+      <c r="B30" s="149"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
-      <c r="H30" s="172"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="172"/>
-      <c r="K30" s="172"/>
-      <c r="L30" s="172"/>
-      <c r="M30" s="171"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="149"/>
       <c r="N30" s="35"/>
       <c r="O30" s="35"/>
       <c r="P30" s="35"/>
@@ -7075,19 +6892,19 @@
       <c r="S30" s="35"/>
     </row>
     <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="171"/>
-      <c r="B31" s="171"/>
+      <c r="A31" s="149"/>
+      <c r="B31" s="149"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
-      <c r="H31" s="172"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="172"/>
-      <c r="K31" s="172"/>
-      <c r="L31" s="172"/>
-      <c r="M31" s="171"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="149"/>
       <c r="N31" s="35"/>
       <c r="O31" s="35"/>
       <c r="P31" s="35"/>
@@ -7096,19 +6913,19 @@
       <c r="S31" s="35"/>
     </row>
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="171"/>
-      <c r="B32" s="171"/>
+      <c r="A32" s="149"/>
+      <c r="B32" s="149"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
-      <c r="H32" s="172"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="172"/>
-      <c r="K32" s="172"/>
-      <c r="L32" s="172"/>
-      <c r="M32" s="171"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="149"/>
       <c r="N32" s="35"/>
       <c r="O32" s="35"/>
       <c r="P32" s="35"/>
@@ -7117,19 +6934,19 @@
       <c r="S32" s="35"/>
     </row>
     <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="171"/>
-      <c r="B33" s="171"/>
+      <c r="A33" s="149"/>
+      <c r="B33" s="149"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="172"/>
-      <c r="K33" s="172"/>
-      <c r="L33" s="172"/>
-      <c r="M33" s="171"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="149"/>
       <c r="N33" s="35"/>
       <c r="O33" s="35"/>
       <c r="P33" s="35"/>
@@ -7138,19 +6955,19 @@
       <c r="S33" s="35"/>
     </row>
     <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="171"/>
-      <c r="B34" s="171"/>
+      <c r="A34" s="149"/>
+      <c r="B34" s="149"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="172"/>
-      <c r="K34" s="172"/>
-      <c r="L34" s="172"/>
-      <c r="M34" s="171"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="149"/>
       <c r="N34" s="35"/>
       <c r="O34" s="35"/>
       <c r="P34" s="35"/>
@@ -7159,19 +6976,19 @@
       <c r="S34" s="35"/>
     </row>
     <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="171"/>
-      <c r="B35" s="171"/>
+      <c r="A35" s="149"/>
+      <c r="B35" s="149"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="172"/>
-      <c r="K35" s="172"/>
-      <c r="L35" s="172"/>
-      <c r="M35" s="171"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="149"/>
       <c r="N35" s="35"/>
       <c r="O35" s="35"/>
       <c r="P35" s="35"/>
@@ -7180,19 +6997,19 @@
       <c r="S35" s="35"/>
     </row>
     <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="171"/>
-      <c r="B36" s="171"/>
+      <c r="A36" s="149"/>
+      <c r="B36" s="149"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="172"/>
-      <c r="K36" s="172"/>
-      <c r="L36" s="172"/>
-      <c r="M36" s="171"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="149"/>
       <c r="N36" s="35"/>
       <c r="O36" s="35"/>
       <c r="P36" s="35"/>
@@ -7201,19 +7018,19 @@
       <c r="S36" s="35"/>
     </row>
     <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="171"/>
-      <c r="B37" s="171"/>
+      <c r="A37" s="149"/>
+      <c r="B37" s="149"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="172"/>
-      <c r="K37" s="172"/>
-      <c r="L37" s="172"/>
-      <c r="M37" s="171"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="149"/>
       <c r="N37" s="35"/>
       <c r="O37" s="35"/>
       <c r="P37" s="35"/>
@@ -7222,19 +7039,19 @@
       <c r="S37" s="35"/>
     </row>
     <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="171"/>
-      <c r="B38" s="171"/>
+      <c r="A38" s="149"/>
+      <c r="B38" s="149"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
-      <c r="H38" s="172"/>
-      <c r="I38" s="172"/>
-      <c r="J38" s="172"/>
-      <c r="K38" s="172"/>
-      <c r="L38" s="172"/>
-      <c r="M38" s="171"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="149"/>
       <c r="N38" s="35"/>
       <c r="O38" s="35"/>
       <c r="P38" s="35"/>
@@ -7243,19 +7060,19 @@
       <c r="S38" s="35"/>
     </row>
     <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="171"/>
-      <c r="B39" s="171"/>
+      <c r="A39" s="149"/>
+      <c r="B39" s="149"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
       <c r="F39" s="35"/>
       <c r="G39" s="35"/>
-      <c r="H39" s="172"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="172"/>
-      <c r="K39" s="172"/>
-      <c r="L39" s="172"/>
-      <c r="M39" s="171"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="149"/>
       <c r="N39" s="35"/>
       <c r="O39" s="35"/>
       <c r="P39" s="35"/>
@@ -7264,19 +7081,19 @@
       <c r="S39" s="35"/>
     </row>
     <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="171"/>
-      <c r="B40" s="171"/>
+      <c r="A40" s="149"/>
+      <c r="B40" s="149"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
-      <c r="H40" s="172"/>
-      <c r="I40" s="172"/>
-      <c r="J40" s="172"/>
-      <c r="K40" s="172"/>
-      <c r="L40" s="172"/>
-      <c r="M40" s="171"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="149"/>
       <c r="N40" s="35"/>
       <c r="O40" s="35"/>
       <c r="P40" s="35"/>
@@ -7285,19 +7102,19 @@
       <c r="S40" s="35"/>
     </row>
     <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="171"/>
-      <c r="B41" s="171"/>
+      <c r="A41" s="149"/>
+      <c r="B41" s="149"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="172"/>
-      <c r="I41" s="172"/>
-      <c r="J41" s="172"/>
-      <c r="K41" s="172"/>
-      <c r="L41" s="172"/>
-      <c r="M41" s="171"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="149"/>
       <c r="N41" s="35"/>
       <c r="O41" s="35"/>
       <c r="P41" s="35"/>
@@ -7306,19 +7123,19 @@
       <c r="S41" s="35"/>
     </row>
     <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="171"/>
-      <c r="B42" s="171"/>
+      <c r="A42" s="149"/>
+      <c r="B42" s="149"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="172"/>
-      <c r="I42" s="172"/>
-      <c r="J42" s="172"/>
-      <c r="K42" s="172"/>
-      <c r="L42" s="172"/>
-      <c r="M42" s="171"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="149"/>
       <c r="N42" s="35"/>
       <c r="O42" s="35"/>
       <c r="P42" s="35"/>
@@ -7327,19 +7144,19 @@
       <c r="S42" s="35"/>
     </row>
     <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="171"/>
-      <c r="B43" s="171"/>
+      <c r="A43" s="149"/>
+      <c r="B43" s="149"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
-      <c r="H43" s="172"/>
-      <c r="I43" s="172"/>
-      <c r="J43" s="172"/>
-      <c r="K43" s="172"/>
-      <c r="L43" s="172"/>
-      <c r="M43" s="171"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="149"/>
       <c r="N43" s="35"/>
       <c r="O43" s="35"/>
       <c r="P43" s="35"/>
@@ -7348,19 +7165,19 @@
       <c r="S43" s="35"/>
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="171"/>
-      <c r="B44" s="171"/>
+      <c r="A44" s="149"/>
+      <c r="B44" s="149"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
-      <c r="H44" s="172"/>
-      <c r="I44" s="172"/>
-      <c r="J44" s="172"/>
-      <c r="K44" s="172"/>
-      <c r="L44" s="172"/>
-      <c r="M44" s="171"/>
+      <c r="H44" s="150"/>
+      <c r="I44" s="150"/>
+      <c r="J44" s="150"/>
+      <c r="K44" s="150"/>
+      <c r="L44" s="150"/>
+      <c r="M44" s="149"/>
       <c r="N44" s="35"/>
       <c r="O44" s="35"/>
       <c r="P44" s="35"/>
@@ -7369,19 +7186,19 @@
       <c r="S44" s="35"/>
     </row>
     <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="171"/>
-      <c r="B45" s="171"/>
+      <c r="A45" s="149"/>
+      <c r="B45" s="149"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
-      <c r="H45" s="172"/>
-      <c r="I45" s="172"/>
-      <c r="J45" s="172"/>
-      <c r="K45" s="172"/>
-      <c r="L45" s="172"/>
-      <c r="M45" s="171"/>
+      <c r="H45" s="150"/>
+      <c r="I45" s="150"/>
+      <c r="J45" s="150"/>
+      <c r="K45" s="150"/>
+      <c r="L45" s="150"/>
+      <c r="M45" s="149"/>
       <c r="N45" s="35"/>
       <c r="O45" s="35"/>
       <c r="P45" s="35"/>
@@ -7390,19 +7207,19 @@
       <c r="S45" s="35"/>
     </row>
     <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="171"/>
-      <c r="B46" s="171"/>
+      <c r="A46" s="149"/>
+      <c r="B46" s="149"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
-      <c r="H46" s="172"/>
-      <c r="I46" s="172"/>
-      <c r="J46" s="172"/>
-      <c r="K46" s="172"/>
-      <c r="L46" s="172"/>
-      <c r="M46" s="171"/>
+      <c r="H46" s="150"/>
+      <c r="I46" s="150"/>
+      <c r="J46" s="150"/>
+      <c r="K46" s="150"/>
+      <c r="L46" s="150"/>
+      <c r="M46" s="149"/>
       <c r="N46" s="35"/>
       <c r="O46" s="35"/>
       <c r="P46" s="35"/>
@@ -7411,19 +7228,19 @@
       <c r="S46" s="35"/>
     </row>
     <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="171"/>
-      <c r="B47" s="171"/>
+      <c r="A47" s="149"/>
+      <c r="B47" s="149"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
-      <c r="H47" s="172"/>
-      <c r="I47" s="172"/>
-      <c r="J47" s="172"/>
-      <c r="K47" s="172"/>
-      <c r="L47" s="172"/>
-      <c r="M47" s="171"/>
+      <c r="H47" s="150"/>
+      <c r="I47" s="150"/>
+      <c r="J47" s="150"/>
+      <c r="K47" s="150"/>
+      <c r="L47" s="150"/>
+      <c r="M47" s="149"/>
       <c r="N47" s="35"/>
       <c r="O47" s="35"/>
       <c r="P47" s="35"/>
@@ -7432,19 +7249,19 @@
       <c r="S47" s="35"/>
     </row>
     <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="171"/>
-      <c r="B48" s="171"/>
+      <c r="A48" s="149"/>
+      <c r="B48" s="149"/>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
-      <c r="H48" s="172"/>
-      <c r="I48" s="172"/>
-      <c r="J48" s="172"/>
-      <c r="K48" s="172"/>
-      <c r="L48" s="172"/>
-      <c r="M48" s="171"/>
+      <c r="H48" s="150"/>
+      <c r="I48" s="150"/>
+      <c r="J48" s="150"/>
+      <c r="K48" s="150"/>
+      <c r="L48" s="150"/>
+      <c r="M48" s="149"/>
       <c r="N48" s="35"/>
       <c r="O48" s="35"/>
       <c r="P48" s="35"/>
@@ -7453,19 +7270,19 @@
       <c r="S48" s="35"/>
     </row>
     <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="171"/>
-      <c r="B49" s="171"/>
+      <c r="A49" s="149"/>
+      <c r="B49" s="149"/>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
       <c r="F49" s="35"/>
       <c r="G49" s="35"/>
-      <c r="H49" s="172"/>
-      <c r="I49" s="172"/>
-      <c r="J49" s="172"/>
-      <c r="K49" s="172"/>
-      <c r="L49" s="172"/>
-      <c r="M49" s="171"/>
+      <c r="H49" s="150"/>
+      <c r="I49" s="150"/>
+      <c r="J49" s="150"/>
+      <c r="K49" s="150"/>
+      <c r="L49" s="150"/>
+      <c r="M49" s="149"/>
       <c r="N49" s="35"/>
       <c r="O49" s="35"/>
       <c r="P49" s="35"/>
@@ -7474,19 +7291,19 @@
       <c r="S49" s="35"/>
     </row>
     <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="171"/>
-      <c r="B50" s="171"/>
+      <c r="A50" s="149"/>
+      <c r="B50" s="149"/>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
       <c r="E50" s="35"/>
       <c r="F50" s="35"/>
       <c r="G50" s="35"/>
-      <c r="H50" s="172"/>
-      <c r="I50" s="172"/>
-      <c r="J50" s="172"/>
-      <c r="K50" s="172"/>
-      <c r="L50" s="172"/>
-      <c r="M50" s="171"/>
+      <c r="H50" s="150"/>
+      <c r="I50" s="150"/>
+      <c r="J50" s="150"/>
+      <c r="K50" s="150"/>
+      <c r="L50" s="150"/>
+      <c r="M50" s="149"/>
       <c r="N50" s="35"/>
       <c r="O50" s="35"/>
       <c r="P50" s="35"/>
@@ -7495,19 +7312,19 @@
       <c r="S50" s="35"/>
     </row>
     <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="171"/>
-      <c r="B51" s="171"/>
+      <c r="A51" s="149"/>
+      <c r="B51" s="149"/>
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
       <c r="F51" s="35"/>
       <c r="G51" s="35"/>
-      <c r="H51" s="172"/>
-      <c r="I51" s="172"/>
-      <c r="J51" s="172"/>
-      <c r="K51" s="172"/>
-      <c r="L51" s="172"/>
-      <c r="M51" s="171"/>
+      <c r="H51" s="150"/>
+      <c r="I51" s="150"/>
+      <c r="J51" s="150"/>
+      <c r="K51" s="150"/>
+      <c r="L51" s="150"/>
+      <c r="M51" s="149"/>
       <c r="N51" s="35"/>
       <c r="O51" s="35"/>
       <c r="P51" s="35"/>
@@ -7516,19 +7333,19 @@
       <c r="S51" s="35"/>
     </row>
     <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="171"/>
-      <c r="B52" s="171"/>
+      <c r="A52" s="149"/>
+      <c r="B52" s="149"/>
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
-      <c r="H52" s="172"/>
-      <c r="I52" s="172"/>
-      <c r="J52" s="172"/>
-      <c r="K52" s="172"/>
-      <c r="L52" s="172"/>
-      <c r="M52" s="171"/>
+      <c r="H52" s="150"/>
+      <c r="I52" s="150"/>
+      <c r="J52" s="150"/>
+      <c r="K52" s="150"/>
+      <c r="L52" s="150"/>
+      <c r="M52" s="149"/>
       <c r="N52" s="35"/>
       <c r="O52" s="35"/>
       <c r="P52" s="35"/>
@@ -7537,19 +7354,19 @@
       <c r="S52" s="35"/>
     </row>
     <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="173"/>
-      <c r="B53" s="172"/>
-      <c r="C53" s="172"/>
-      <c r="D53" s="172"/>
-      <c r="E53" s="172"/>
-      <c r="F53" s="172"/>
-      <c r="G53" s="172"/>
-      <c r="H53" s="172"/>
-      <c r="I53" s="172"/>
-      <c r="J53" s="172"/>
-      <c r="K53" s="172"/>
-      <c r="L53" s="172"/>
-      <c r="M53" s="171"/>
+      <c r="A53" s="151"/>
+      <c r="B53" s="150"/>
+      <c r="C53" s="150"/>
+      <c r="D53" s="150"/>
+      <c r="E53" s="150"/>
+      <c r="F53" s="150"/>
+      <c r="G53" s="150"/>
+      <c r="H53" s="150"/>
+      <c r="I53" s="150"/>
+      <c r="J53" s="150"/>
+      <c r="K53" s="150"/>
+      <c r="L53" s="150"/>
+      <c r="M53" s="149"/>
       <c r="N53" s="35"/>
       <c r="O53" s="35"/>
       <c r="P53" s="35"/>
@@ -7558,19 +7375,19 @@
       <c r="S53" s="35"/>
     </row>
     <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="173"/>
-      <c r="B54" s="172"/>
-      <c r="C54" s="172"/>
-      <c r="D54" s="172"/>
-      <c r="E54" s="172"/>
-      <c r="F54" s="172"/>
-      <c r="G54" s="172"/>
-      <c r="H54" s="172"/>
-      <c r="I54" s="172"/>
-      <c r="J54" s="172"/>
-      <c r="K54" s="172"/>
-      <c r="L54" s="172"/>
-      <c r="M54" s="171"/>
+      <c r="A54" s="151"/>
+      <c r="B54" s="150"/>
+      <c r="C54" s="150"/>
+      <c r="D54" s="150"/>
+      <c r="E54" s="150"/>
+      <c r="F54" s="150"/>
+      <c r="G54" s="150"/>
+      <c r="H54" s="150"/>
+      <c r="I54" s="150"/>
+      <c r="J54" s="150"/>
+      <c r="K54" s="150"/>
+      <c r="L54" s="150"/>
+      <c r="M54" s="149"/>
       <c r="N54" s="35"/>
       <c r="O54" s="35"/>
       <c r="P54" s="35"/>
@@ -7579,8 +7396,8 @@
       <c r="S54" s="35"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55" s="171"/>
-      <c r="B55" s="171"/>
+      <c r="A55" s="149"/>
+      <c r="B55" s="149"/>
       <c r="C55" s="35"/>
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
@@ -7600,8 +7417,8 @@
       <c r="S55" s="35"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56" s="171"/>
-      <c r="B56" s="171"/>
+      <c r="A56" s="149"/>
+      <c r="B56" s="149"/>
       <c r="C56" s="35"/>
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
@@ -7621,8 +7438,8 @@
       <c r="S56" s="35"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57" s="171"/>
-      <c r="B57" s="171"/>
+      <c r="A57" s="149"/>
+      <c r="B57" s="149"/>
       <c r="C57" s="35"/>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
@@ -7642,8 +7459,8 @@
       <c r="S57" s="35"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="171"/>
-      <c r="B58" s="171"/>
+      <c r="A58" s="149"/>
+      <c r="B58" s="149"/>
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
@@ -7663,8 +7480,8 @@
       <c r="S58" s="35"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A59" s="171"/>
-      <c r="B59" s="171"/>
+      <c r="A59" s="149"/>
+      <c r="B59" s="149"/>
       <c r="C59" s="35"/>
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
@@ -7684,8 +7501,8 @@
       <c r="S59" s="35"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60" s="171"/>
-      <c r="B60" s="171"/>
+      <c r="A60" s="149"/>
+      <c r="B60" s="149"/>
       <c r="C60" s="35"/>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
@@ -7705,8 +7522,8 @@
       <c r="S60" s="35"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A61" s="171"/>
-      <c r="B61" s="171"/>
+      <c r="A61" s="149"/>
+      <c r="B61" s="149"/>
       <c r="C61" s="35"/>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
@@ -7726,8 +7543,8 @@
       <c r="S61" s="35"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A62" s="171"/>
-      <c r="B62" s="171"/>
+      <c r="A62" s="149"/>
+      <c r="B62" s="149"/>
       <c r="C62" s="35"/>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
@@ -7747,8 +7564,8 @@
       <c r="S62" s="35"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A63" s="171"/>
-      <c r="B63" s="171"/>
+      <c r="A63" s="149"/>
+      <c r="B63" s="149"/>
       <c r="C63" s="35"/>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
@@ -7768,8 +7585,8 @@
       <c r="S63" s="35"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A64" s="171"/>
-      <c r="B64" s="171"/>
+      <c r="A64" s="149"/>
+      <c r="B64" s="149"/>
       <c r="C64" s="35"/>
       <c r="D64" s="35"/>
       <c r="E64" s="35"/>
@@ -7789,8 +7606,8 @@
       <c r="S64" s="35"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A65" s="171"/>
-      <c r="B65" s="171"/>
+      <c r="A65" s="149"/>
+      <c r="B65" s="149"/>
       <c r="C65" s="35"/>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
@@ -7810,8 +7627,8 @@
       <c r="S65" s="35"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A66" s="171"/>
-      <c r="B66" s="171"/>
+      <c r="A66" s="149"/>
+      <c r="B66" s="149"/>
       <c r="C66" s="35"/>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
@@ -7831,8 +7648,8 @@
       <c r="S66" s="35"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="171"/>
-      <c r="B67" s="171"/>
+      <c r="A67" s="149"/>
+      <c r="B67" s="149"/>
       <c r="C67" s="35"/>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
@@ -7852,8 +7669,8 @@
       <c r="S67" s="35"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A68" s="171"/>
-      <c r="B68" s="171"/>
+      <c r="A68" s="149"/>
+      <c r="B68" s="149"/>
       <c r="C68" s="35"/>
       <c r="D68" s="35"/>
       <c r="E68" s="35"/>
@@ -7873,8 +7690,8 @@
       <c r="S68" s="35"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A69" s="171"/>
-      <c r="B69" s="171"/>
+      <c r="A69" s="149"/>
+      <c r="B69" s="149"/>
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -7894,8 +7711,8 @@
       <c r="S69" s="35"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A70" s="171"/>
-      <c r="B70" s="171"/>
+      <c r="A70" s="149"/>
+      <c r="B70" s="149"/>
       <c r="C70" s="35"/>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -7915,8 +7732,8 @@
       <c r="S70" s="35"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A71" s="171"/>
-      <c r="B71" s="171"/>
+      <c r="A71" s="149"/>
+      <c r="B71" s="149"/>
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
       <c r="E71" s="35"/>
@@ -7936,8 +7753,8 @@
       <c r="S71" s="35"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A72" s="171"/>
-      <c r="B72" s="171"/>
+      <c r="A72" s="149"/>
+      <c r="B72" s="149"/>
       <c r="C72" s="35"/>
       <c r="D72" s="35"/>
       <c r="E72" s="35"/>
@@ -7957,8 +7774,8 @@
       <c r="S72" s="35"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A73" s="171"/>
-      <c r="B73" s="171"/>
+      <c r="A73" s="149"/>
+      <c r="B73" s="149"/>
       <c r="C73" s="35"/>
       <c r="D73" s="35"/>
       <c r="E73" s="35"/>
@@ -7978,8 +7795,8 @@
       <c r="S73" s="35"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A74" s="171"/>
-      <c r="B74" s="171"/>
+      <c r="A74" s="149"/>
+      <c r="B74" s="149"/>
       <c r="C74" s="35"/>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
@@ -7999,8 +7816,8 @@
       <c r="S74" s="35"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A75" s="171"/>
-      <c r="B75" s="171"/>
+      <c r="A75" s="149"/>
+      <c r="B75" s="149"/>
       <c r="C75" s="35"/>
       <c r="D75" s="35"/>
       <c r="E75" s="35"/>
@@ -8020,8 +7837,8 @@
       <c r="S75" s="35"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A76" s="171"/>
-      <c r="B76" s="171"/>
+      <c r="A76" s="149"/>
+      <c r="B76" s="149"/>
       <c r="C76" s="35"/>
       <c r="D76" s="35"/>
       <c r="E76" s="35"/>
@@ -8041,8 +7858,8 @@
       <c r="S76" s="35"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A77" s="171"/>
-      <c r="B77" s="171"/>
+      <c r="A77" s="149"/>
+      <c r="B77" s="149"/>
       <c r="C77" s="35"/>
       <c r="D77" s="35"/>
       <c r="E77" s="35"/>
@@ -8062,8 +7879,8 @@
       <c r="S77" s="35"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A78" s="171"/>
-      <c r="B78" s="171"/>
+      <c r="A78" s="149"/>
+      <c r="B78" s="149"/>
       <c r="C78" s="35"/>
       <c r="D78" s="35"/>
       <c r="E78" s="35"/>
@@ -8083,8 +7900,8 @@
       <c r="S78" s="35"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A79" s="171"/>
-      <c r="B79" s="171"/>
+      <c r="A79" s="149"/>
+      <c r="B79" s="149"/>
       <c r="C79" s="35"/>
       <c r="D79" s="35"/>
       <c r="E79" s="35"/>
@@ -8104,8 +7921,8 @@
       <c r="S79" s="35"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A80" s="171"/>
-      <c r="B80" s="171"/>
+      <c r="A80" s="149"/>
+      <c r="B80" s="149"/>
       <c r="C80" s="35"/>
       <c r="D80" s="35"/>
       <c r="E80" s="35"/>
@@ -8125,8 +7942,8 @@
       <c r="S80" s="35"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A81" s="171"/>
-      <c r="B81" s="171"/>
+      <c r="A81" s="149"/>
+      <c r="B81" s="149"/>
       <c r="C81" s="35"/>
       <c r="D81" s="35"/>
       <c r="E81" s="35"/>
@@ -8146,8 +7963,8 @@
       <c r="S81" s="35"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A82" s="171"/>
-      <c r="B82" s="171"/>
+      <c r="A82" s="149"/>
+      <c r="B82" s="149"/>
       <c r="C82" s="35"/>
       <c r="D82" s="35"/>
       <c r="E82" s="35"/>
@@ -8167,8 +7984,8 @@
       <c r="S82" s="35"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A83" s="171"/>
-      <c r="B83" s="171"/>
+      <c r="A83" s="149"/>
+      <c r="B83" s="149"/>
       <c r="C83" s="35"/>
       <c r="D83" s="35"/>
       <c r="E83" s="35"/>
@@ -8188,8 +8005,8 @@
       <c r="S83" s="35"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A84" s="171"/>
-      <c r="B84" s="171"/>
+      <c r="A84" s="149"/>
+      <c r="B84" s="149"/>
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
       <c r="E84" s="35"/>
@@ -8209,8 +8026,8 @@
       <c r="S84" s="35"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A85" s="171"/>
-      <c r="B85" s="171"/>
+      <c r="A85" s="149"/>
+      <c r="B85" s="149"/>
       <c r="C85" s="35"/>
       <c r="D85" s="35"/>
       <c r="E85" s="35"/>
@@ -8230,8 +8047,8 @@
       <c r="S85" s="35"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A86" s="171"/>
-      <c r="B86" s="171"/>
+      <c r="A86" s="149"/>
+      <c r="B86" s="149"/>
       <c r="C86" s="35"/>
       <c r="D86" s="35"/>
       <c r="E86" s="35"/>
@@ -8251,8 +8068,8 @@
       <c r="S86" s="35"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A87" s="171"/>
-      <c r="B87" s="171"/>
+      <c r="A87" s="149"/>
+      <c r="B87" s="149"/>
       <c r="C87" s="35"/>
       <c r="D87" s="35"/>
       <c r="E87" s="35"/>
@@ -8272,8 +8089,8 @@
       <c r="S87" s="35"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A88" s="171"/>
-      <c r="B88" s="171"/>
+      <c r="A88" s="149"/>
+      <c r="B88" s="149"/>
       <c r="C88" s="35"/>
       <c r="D88" s="35"/>
       <c r="E88" s="35"/>
@@ -8293,8 +8110,8 @@
       <c r="S88" s="35"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A89" s="171"/>
-      <c r="B89" s="171"/>
+      <c r="A89" s="149"/>
+      <c r="B89" s="149"/>
       <c r="C89" s="35"/>
       <c r="D89" s="35"/>
       <c r="E89" s="35"/>
@@ -8314,8 +8131,8 @@
       <c r="S89" s="35"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A90" s="171"/>
-      <c r="B90" s="171"/>
+      <c r="A90" s="149"/>
+      <c r="B90" s="149"/>
       <c r="C90" s="35"/>
       <c r="D90" s="35"/>
       <c r="E90" s="35"/>
@@ -8335,8 +8152,8 @@
       <c r="S90" s="35"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A91" s="171"/>
-      <c r="B91" s="171"/>
+      <c r="A91" s="149"/>
+      <c r="B91" s="149"/>
       <c r="C91" s="35"/>
       <c r="D91" s="35"/>
       <c r="E91" s="35"/>
@@ -8356,8 +8173,8 @@
       <c r="S91" s="35"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A92" s="171"/>
-      <c r="B92" s="171"/>
+      <c r="A92" s="149"/>
+      <c r="B92" s="149"/>
       <c r="C92" s="35"/>
       <c r="D92" s="35"/>
       <c r="E92" s="35"/>
@@ -8377,8 +8194,8 @@
       <c r="S92" s="35"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A93" s="171"/>
-      <c r="B93" s="171"/>
+      <c r="A93" s="149"/>
+      <c r="B93" s="149"/>
       <c r="C93" s="35"/>
       <c r="D93" s="35"/>
       <c r="E93" s="35"/>
@@ -8398,8 +8215,8 @@
       <c r="S93" s="35"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A94" s="171"/>
-      <c r="B94" s="171"/>
+      <c r="A94" s="149"/>
+      <c r="B94" s="149"/>
       <c r="C94" s="35"/>
       <c r="D94" s="35"/>
       <c r="E94" s="35"/>
@@ -8419,8 +8236,8 @@
       <c r="S94" s="35"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A95" s="171"/>
-      <c r="B95" s="171"/>
+      <c r="A95" s="149"/>
+      <c r="B95" s="149"/>
       <c r="C95" s="35"/>
       <c r="D95" s="35"/>
       <c r="E95" s="35"/>
@@ -8440,8 +8257,8 @@
       <c r="S95" s="35"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A96" s="171"/>
-      <c r="B96" s="171"/>
+      <c r="A96" s="149"/>
+      <c r="B96" s="149"/>
       <c r="C96" s="35"/>
       <c r="D96" s="35"/>
       <c r="E96" s="35"/>
@@ -8461,8 +8278,8 @@
       <c r="S96" s="35"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A97" s="171"/>
-      <c r="B97" s="171"/>
+      <c r="A97" s="149"/>
+      <c r="B97" s="149"/>
       <c r="C97" s="35"/>
       <c r="D97" s="35"/>
       <c r="E97" s="35"/>
@@ -8482,8 +8299,8 @@
       <c r="S97" s="35"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A98" s="171"/>
-      <c r="B98" s="171"/>
+      <c r="A98" s="149"/>
+      <c r="B98" s="149"/>
       <c r="C98" s="35"/>
       <c r="D98" s="35"/>
       <c r="E98" s="35"/>
@@ -8503,8 +8320,8 @@
       <c r="S98" s="35"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A99" s="171"/>
-      <c r="B99" s="171"/>
+      <c r="A99" s="149"/>
+      <c r="B99" s="149"/>
       <c r="C99" s="35"/>
       <c r="D99" s="35"/>
       <c r="E99" s="35"/>
@@ -8524,8 +8341,8 @@
       <c r="S99" s="35"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A100" s="171"/>
-      <c r="B100" s="171"/>
+      <c r="A100" s="149"/>
+      <c r="B100" s="149"/>
       <c r="C100" s="35"/>
       <c r="D100" s="35"/>
       <c r="E100" s="35"/>
@@ -8545,8 +8362,8 @@
       <c r="S100" s="35"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A101" s="171"/>
-      <c r="B101" s="171"/>
+      <c r="A101" s="149"/>
+      <c r="B101" s="149"/>
       <c r="C101" s="35"/>
       <c r="D101" s="35"/>
       <c r="E101" s="35"/>
@@ -8566,8 +8383,8 @@
       <c r="S101" s="35"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A102" s="171"/>
-      <c r="B102" s="171"/>
+      <c r="A102" s="149"/>
+      <c r="B102" s="149"/>
       <c r="C102" s="35"/>
       <c r="D102" s="35"/>
       <c r="E102" s="35"/>
@@ -8587,8 +8404,8 @@
       <c r="S102" s="35"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A103" s="171"/>
-      <c r="B103" s="171"/>
+      <c r="A103" s="149"/>
+      <c r="B103" s="149"/>
       <c r="C103" s="35"/>
       <c r="D103" s="35"/>
       <c r="E103" s="35"/>
@@ -8608,8 +8425,8 @@
       <c r="S103" s="35"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A104" s="171"/>
-      <c r="B104" s="171"/>
+      <c r="A104" s="149"/>
+      <c r="B104" s="149"/>
       <c r="C104" s="35"/>
       <c r="D104" s="35"/>
       <c r="E104" s="35"/>
@@ -8680,11 +8497,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="176" t="s">
-        <v>388</v>
-      </c>
-      <c r="B1" s="177" t="s">
-        <v>389</v>
+      <c r="A1" s="154" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" s="155" t="s">
+        <v>381</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
@@ -8694,9 +8511,9 @@
       <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="178"/>
-      <c r="B2" s="177" t="s">
-        <v>417</v>
+      <c r="A2" s="156"/>
+      <c r="B2" s="155" t="s">
+        <v>408</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -8706,9 +8523,9 @@
       <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="171"/>
-      <c r="B3" s="177" t="s">
-        <v>481</v>
+      <c r="A3" s="149"/>
+      <c r="B3" s="155" t="s">
+        <v>471</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
@@ -8718,8 +8535,8 @@
       <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="171"/>
-      <c r="B4" s="171"/>
+      <c r="A4" s="149"/>
+      <c r="B4" s="149"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -8728,8 +8545,8 @@
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="171"/>
-      <c r="B5" s="171"/>
+      <c r="A5" s="149"/>
+      <c r="B5" s="149"/>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
@@ -8738,180 +8555,180 @@
       <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61" t="s">
-        <v>416</v>
-      </c>
-      <c r="B6" s="62" t="s">
+      <c r="A6" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="B6" s="49" t="s">
         <v>368</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="61" t="s">
-        <v>394</v>
-      </c>
-      <c r="H6" s="74"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="64"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="65" t="s">
-        <v>402</v>
-      </c>
-      <c r="H7" s="77" t="s">
+      <c r="G7" s="52" t="s">
+        <v>394</v>
+      </c>
+      <c r="H7" s="60" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="73" t="s">
-        <v>495</v>
-      </c>
-      <c r="B8" s="217"/>
-      <c r="C8" s="217"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="92" t="s">
-        <v>448</v>
-      </c>
-      <c r="F8" s="91"/>
-      <c r="G8" s="65" t="s">
-        <v>403</v>
-      </c>
-      <c r="H8" s="77" t="s">
+      <c r="A8" s="56" t="s">
+        <v>485</v>
+      </c>
+      <c r="B8" s="187"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="73" t="s">
+        <v>438</v>
+      </c>
+      <c r="F8" s="72"/>
+      <c r="G8" s="52" t="s">
+        <v>395</v>
+      </c>
+      <c r="H8" s="60" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="53" t="s">
+        <v>388</v>
+      </c>
+      <c r="B9" s="179"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="60"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="56" t="s">
+        <v>387</v>
+      </c>
+      <c r="B10" s="181"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="B9" s="218"/>
-      <c r="C9" s="218"/>
-      <c r="D9" s="218"/>
-      <c r="E9" s="218"/>
-      <c r="F9" s="219"/>
-      <c r="G9" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="77"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
-        <v>395</v>
-      </c>
-      <c r="B10" s="220"/>
-      <c r="C10" s="220"/>
-      <c r="D10" s="220"/>
-      <c r="E10" s="220"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="65" t="s">
-        <v>404</v>
-      </c>
-      <c r="H10" s="77"/>
+      <c r="H10" s="60"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="66" t="s">
-        <v>393</v>
-      </c>
-      <c r="B11" s="218"/>
-      <c r="C11" s="218"/>
-      <c r="D11" s="218"/>
-      <c r="E11" s="218"/>
-      <c r="F11" s="219"/>
-      <c r="G11" s="65" t="s">
-        <v>405</v>
-      </c>
-      <c r="H11" s="77"/>
+      <c r="A11" s="53" t="s">
+        <v>385</v>
+      </c>
+      <c r="B11" s="179"/>
+      <c r="C11" s="179"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="52" t="s">
+        <v>397</v>
+      </c>
+      <c r="H11" s="60"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="66" t="s">
-        <v>392</v>
-      </c>
-      <c r="B12" s="224"/>
-      <c r="C12" s="224"/>
-      <c r="D12" s="224"/>
-      <c r="E12" s="224"/>
-      <c r="F12" s="225"/>
-      <c r="G12" s="65" t="s">
-        <v>406</v>
-      </c>
-      <c r="H12" s="77"/>
+      <c r="A12" s="53" t="s">
+        <v>384</v>
+      </c>
+      <c r="B12" s="185"/>
+      <c r="C12" s="185"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="52" t="s">
+        <v>398</v>
+      </c>
+      <c r="H12" s="60"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="66"/>
-      <c r="B13" s="224"/>
-      <c r="C13" s="224"/>
-      <c r="D13" s="224"/>
-      <c r="E13" s="224"/>
-      <c r="F13" s="225"/>
-      <c r="G13" s="65" t="s">
-        <v>407</v>
-      </c>
-      <c r="H13" s="77"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="52" t="s">
+        <v>399</v>
+      </c>
+      <c r="H13" s="60"/>
     </row>
     <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
-        <v>391</v>
-      </c>
-      <c r="B14" s="224"/>
-      <c r="C14" s="224"/>
-      <c r="D14" s="224"/>
-      <c r="E14" s="224"/>
-      <c r="F14" s="225"/>
-      <c r="G14" s="72" t="s">
-        <v>408</v>
-      </c>
-      <c r="H14" s="78"/>
+      <c r="A14" s="58" t="s">
+        <v>383</v>
+      </c>
+      <c r="B14" s="185"/>
+      <c r="C14" s="185"/>
+      <c r="D14" s="185"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="55" t="s">
+        <v>400</v>
+      </c>
+      <c r="H14" s="61"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="75"/>
-      <c r="B15" s="224"/>
-      <c r="C15" s="224"/>
-      <c r="D15" s="224"/>
-      <c r="E15" s="224"/>
-      <c r="F15" s="225"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="77"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="185"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="60"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="75"/>
-      <c r="B16" s="224"/>
-      <c r="C16" s="224"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="224"/>
-      <c r="F16" s="225"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="77"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="185"/>
+      <c r="C16" s="185"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="60"/>
     </row>
     <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="B17" s="222"/>
-      <c r="C17" s="222"/>
-      <c r="D17" s="222"/>
-      <c r="E17" s="222"/>
-      <c r="F17" s="223"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="78"/>
+      <c r="A17" s="54" t="s">
+        <v>382</v>
+      </c>
+      <c r="B17" s="183"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="184"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="61"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H18" s="83"/>
+      <c r="H18" s="64"/>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B14:F16"/>
     <mergeCell ref="B12:F13"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <dataValidations count="14">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificNameID" prompt="An identifier for the nomenclatural (not taxonomic) details of a scientific name. Match with WoRMS Aphia ID." sqref="B8:C8"/>
@@ -8967,140 +8784,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="179" t="s">
-        <v>482</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="154" t="s">
-        <v>398</v>
-      </c>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="117"/>
+      <c r="A1" s="157" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1" s="158"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="132" t="s">
+        <v>390</v>
+      </c>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="95"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
-        <v>397</v>
-      </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="111" t="s">
-        <v>401</v>
-      </c>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="110" t="s">
-        <v>399</v>
-      </c>
-      <c r="L2" s="114" t="s">
-        <v>447</v>
-      </c>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="115" t="s">
-        <v>400</v>
-      </c>
-      <c r="R2" s="116"/>
-      <c r="S2" s="117"/>
+      <c r="A2" s="78" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="89" t="s">
+        <v>393</v>
+      </c>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="88" t="s">
+        <v>391</v>
+      </c>
+      <c r="L2" s="92" t="s">
+        <v>437</v>
+      </c>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="93" t="s">
+        <v>392</v>
+      </c>
+      <c r="R2" s="94"/>
+      <c r="S2" s="95"/>
     </row>
     <row r="3" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="82" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="123" t="s">
+      <c r="F3" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="104" t="s">
+      <c r="G3" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="104" t="s">
+      <c r="H3" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="104" t="s">
+      <c r="I3" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="107" t="s">
+      <c r="J3" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="123" t="s">
+      <c r="K3" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="104" t="s">
+      <c r="L3" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="124" t="s">
+      <c r="M3" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="124" t="s">
+      <c r="N3" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="104" t="s">
+      <c r="O3" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="P3" s="106" t="s">
+      <c r="P3" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="123" t="s">
+      <c r="Q3" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="104" t="s">
+      <c r="R3" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="106" t="s">
+      <c r="S3" s="84" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="97"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F5" s="42"/>
@@ -9195,143 +9012,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="118" t="s">
-        <v>433</v>
-      </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="116"/>
-      <c r="W1" s="116"/>
-      <c r="X1" s="116"/>
-      <c r="Y1" s="117"/>
+      <c r="A1" s="96" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="95"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="119"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="121"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="99"/>
     </row>
     <row r="3" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="122" t="s">
+      <c r="C3" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="126" t="s">
+      <c r="E3" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="126" t="s">
+      <c r="F3" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="122" t="s">
+      <c r="G3" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="122" t="s">
+      <c r="H3" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="122" t="s">
+      <c r="I3" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="122" t="s">
+      <c r="J3" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="122" t="s">
+      <c r="K3" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="122" t="s">
+      <c r="L3" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="122" t="s">
+      <c r="M3" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="122" t="s">
+      <c r="N3" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="122" t="s">
+      <c r="O3" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="126" t="s">
+      <c r="P3" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" s="122" t="s">
+      <c r="Q3" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="122" t="s">
-        <v>452</v>
-      </c>
-      <c r="S3" s="122" t="s">
+      <c r="R3" s="100" t="s">
+        <v>442</v>
+      </c>
+      <c r="S3" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="122" t="s">
+      <c r="T3" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="122" t="s">
+      <c r="U3" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="V3" s="122" t="s">
+      <c r="V3" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="126" t="s">
+      <c r="W3" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="X3" s="127" t="s">
-        <v>453</v>
-      </c>
-      <c r="Y3" s="134" t="s">
+      <c r="X3" s="105" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y3" s="112" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="97"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="41"/>
-      <c r="C4" s="236"/>
-      <c r="D4" s="236"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
       <c r="E4" s="38"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
@@ -9357,7 +9174,7 @@
       <c r="A5" s="42"/>
       <c r="B5" s="42"/>
       <c r="C5" s="38"/>
-      <c r="D5" s="236"/>
+      <c r="D5" s="165"/>
       <c r="E5" s="38"/>
       <c r="Y5" s="42"/>
     </row>
@@ -9365,1117 +9182,1117 @@
       <c r="A6" s="42"/>
       <c r="B6" s="42"/>
       <c r="C6" s="38"/>
-      <c r="D6" s="236"/>
+      <c r="D6" s="165"/>
       <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="38"/>
-      <c r="D7" s="236"/>
+      <c r="D7" s="165"/>
       <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="38"/>
-      <c r="D8" s="236"/>
+      <c r="D8" s="165"/>
       <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="38"/>
-      <c r="D9" s="236"/>
+      <c r="D9" s="165"/>
       <c r="E9" s="38"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="38"/>
-      <c r="D10" s="236"/>
+      <c r="D10" s="165"/>
       <c r="E10" s="38"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="38"/>
-      <c r="D11" s="236"/>
+      <c r="D11" s="165"/>
       <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="38"/>
-      <c r="D12" s="236"/>
+      <c r="D12" s="165"/>
       <c r="E12" s="38"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="38"/>
-      <c r="D13" s="236"/>
+      <c r="D13" s="165"/>
       <c r="E13" s="38"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="38"/>
-      <c r="D14" s="236"/>
+      <c r="D14" s="165"/>
       <c r="E14" s="38"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="38"/>
-      <c r="D15" s="236"/>
+      <c r="D15" s="165"/>
       <c r="E15" s="38"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C16" s="38"/>
-      <c r="D16" s="236"/>
+      <c r="D16" s="165"/>
       <c r="E16" s="38"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" s="38"/>
-      <c r="D17" s="236"/>
+      <c r="D17" s="165"/>
       <c r="E17" s="38"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="38"/>
-      <c r="D18" s="236"/>
+      <c r="D18" s="165"/>
       <c r="E18" s="38"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" s="38"/>
-      <c r="D19" s="236"/>
+      <c r="D19" s="165"/>
       <c r="E19" s="38"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" s="38"/>
-      <c r="D20" s="236"/>
+      <c r="D20" s="165"/>
       <c r="E20" s="38"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" s="38"/>
-      <c r="D21" s="236"/>
+      <c r="D21" s="165"/>
       <c r="E21" s="38"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" s="38"/>
-      <c r="D22" s="236"/>
+      <c r="D22" s="165"/>
       <c r="E22" s="38"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" s="38"/>
-      <c r="D23" s="236"/>
+      <c r="D23" s="165"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" s="38"/>
-      <c r="D24" s="236"/>
+      <c r="D24" s="165"/>
       <c r="E24" s="38"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C25" s="38"/>
-      <c r="D25" s="236"/>
+      <c r="D25" s="165"/>
       <c r="E25" s="38"/>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C26" s="38"/>
-      <c r="D26" s="236"/>
+      <c r="D26" s="165"/>
       <c r="E26" s="38"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C27" s="38"/>
-      <c r="D27" s="236"/>
+      <c r="D27" s="165"/>
       <c r="E27" s="38"/>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" s="38"/>
-      <c r="D28" s="236"/>
+      <c r="D28" s="165"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" s="38"/>
-      <c r="D29" s="236"/>
+      <c r="D29" s="165"/>
       <c r="E29" s="38"/>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" s="38"/>
-      <c r="D30" s="236"/>
+      <c r="D30" s="165"/>
       <c r="E30" s="38"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" s="38"/>
-      <c r="D31" s="236"/>
+      <c r="D31" s="165"/>
       <c r="E31" s="38"/>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" s="38"/>
-      <c r="D32" s="236"/>
+      <c r="D32" s="165"/>
       <c r="E32" s="38"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" s="38"/>
-      <c r="D33" s="236"/>
+      <c r="D33" s="165"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" s="38"/>
-      <c r="D34" s="236"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="38"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" s="38"/>
-      <c r="D35" s="236"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="38"/>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" s="38"/>
-      <c r="D36" s="236"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="38"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" s="38"/>
-      <c r="D37" s="236"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="38"/>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38" s="38"/>
-      <c r="D38" s="236"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C39" s="38"/>
-      <c r="D39" s="236"/>
+      <c r="D39" s="165"/>
       <c r="E39" s="38"/>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C40" s="38"/>
-      <c r="D40" s="236"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="38"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C41" s="38"/>
-      <c r="D41" s="236"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="38"/>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C42" s="38"/>
-      <c r="D42" s="236"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="38"/>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C43" s="38"/>
-      <c r="D43" s="236"/>
+      <c r="D43" s="165"/>
       <c r="E43" s="38"/>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C44" s="38"/>
-      <c r="D44" s="236"/>
+      <c r="D44" s="165"/>
       <c r="E44" s="38"/>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C45" s="38"/>
-      <c r="D45" s="236"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C46" s="38"/>
-      <c r="D46" s="236"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="38"/>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C47" s="38"/>
-      <c r="D47" s="236"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="38"/>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C48" s="38"/>
-      <c r="D48" s="236"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="38"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C49" s="38"/>
-      <c r="D49" s="236"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="38"/>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C50" s="38"/>
-      <c r="D50" s="236"/>
+      <c r="D50" s="165"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C51" s="38"/>
-      <c r="D51" s="236"/>
+      <c r="D51" s="165"/>
       <c r="E51" s="38"/>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C52" s="38"/>
-      <c r="D52" s="236"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="38"/>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C53" s="38"/>
-      <c r="D53" s="236"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="38"/>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C54" s="38"/>
-      <c r="D54" s="236"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="38"/>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" s="38"/>
-      <c r="D55" s="236"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C56" s="38"/>
-      <c r="D56" s="236"/>
+      <c r="D56" s="165"/>
       <c r="E56" s="38"/>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C57" s="38"/>
-      <c r="D57" s="236"/>
+      <c r="D57" s="165"/>
       <c r="E57" s="38"/>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C58" s="38"/>
-      <c r="D58" s="236"/>
+      <c r="D58" s="165"/>
       <c r="E58" s="38"/>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C59" s="38"/>
-      <c r="D59" s="236"/>
+      <c r="D59" s="165"/>
       <c r="E59" s="38"/>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C60" s="38"/>
-      <c r="D60" s="236"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C61" s="38"/>
-      <c r="D61" s="236"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="38"/>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C62" s="38"/>
-      <c r="D62" s="236"/>
+      <c r="D62" s="165"/>
       <c r="E62" s="38"/>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C63" s="38"/>
-      <c r="D63" s="236"/>
+      <c r="D63" s="165"/>
       <c r="E63" s="38"/>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C64" s="38"/>
-      <c r="D64" s="236"/>
+      <c r="D64" s="165"/>
       <c r="E64" s="38"/>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C65" s="38"/>
-      <c r="D65" s="236"/>
+      <c r="D65" s="165"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C66" s="38"/>
-      <c r="D66" s="236"/>
+      <c r="D66" s="165"/>
       <c r="E66" s="38"/>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C67" s="38"/>
-      <c r="D67" s="236"/>
+      <c r="D67" s="165"/>
       <c r="E67" s="38"/>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C68" s="38"/>
-      <c r="D68" s="236"/>
+      <c r="D68" s="165"/>
       <c r="E68" s="38"/>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C69" s="38"/>
-      <c r="D69" s="236"/>
+      <c r="D69" s="165"/>
       <c r="E69" s="38"/>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C70" s="38"/>
-      <c r="D70" s="236"/>
+      <c r="D70" s="165"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C71" s="38"/>
-      <c r="D71" s="236"/>
+      <c r="D71" s="165"/>
       <c r="E71" s="38"/>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C72" s="38"/>
-      <c r="D72" s="236"/>
+      <c r="D72" s="165"/>
       <c r="E72" s="38"/>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C73" s="38"/>
-      <c r="D73" s="236"/>
+      <c r="D73" s="165"/>
       <c r="E73" s="38"/>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C74" s="38"/>
-      <c r="D74" s="236"/>
+      <c r="D74" s="165"/>
       <c r="E74" s="38"/>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C75" s="38"/>
-      <c r="D75" s="236"/>
+      <c r="D75" s="165"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C76" s="38"/>
-      <c r="D76" s="236"/>
+      <c r="D76" s="165"/>
       <c r="E76" s="38"/>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C77" s="38"/>
-      <c r="D77" s="236"/>
+      <c r="D77" s="165"/>
       <c r="E77" s="38"/>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C78" s="38"/>
-      <c r="D78" s="236"/>
+      <c r="D78" s="165"/>
       <c r="E78" s="38"/>
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C79" s="38"/>
-      <c r="D79" s="236"/>
+      <c r="D79" s="165"/>
       <c r="E79" s="38"/>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C80" s="38"/>
-      <c r="D80" s="236"/>
+      <c r="D80" s="165"/>
       <c r="E80" s="38"/>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C81" s="38"/>
-      <c r="D81" s="236"/>
+      <c r="D81" s="165"/>
       <c r="E81" s="38"/>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C82" s="38"/>
-      <c r="D82" s="236"/>
+      <c r="D82" s="165"/>
       <c r="E82" s="38"/>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C83" s="38"/>
-      <c r="D83" s="236"/>
+      <c r="D83" s="165"/>
       <c r="E83" s="38"/>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C84" s="38"/>
-      <c r="D84" s="236"/>
+      <c r="D84" s="165"/>
       <c r="E84" s="38"/>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C85" s="38"/>
-      <c r="D85" s="236"/>
+      <c r="D85" s="165"/>
       <c r="E85" s="38"/>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C86" s="38"/>
-      <c r="D86" s="236"/>
+      <c r="D86" s="165"/>
       <c r="E86" s="38"/>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C87" s="38"/>
-      <c r="D87" s="236"/>
+      <c r="D87" s="165"/>
       <c r="E87" s="38"/>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C88" s="38"/>
-      <c r="D88" s="236"/>
+      <c r="D88" s="165"/>
       <c r="E88" s="38"/>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C89" s="38"/>
-      <c r="D89" s="236"/>
+      <c r="D89" s="165"/>
       <c r="E89" s="38"/>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C90" s="38"/>
-      <c r="D90" s="236"/>
+      <c r="D90" s="165"/>
       <c r="E90" s="38"/>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C91" s="38"/>
-      <c r="D91" s="236"/>
+      <c r="D91" s="165"/>
       <c r="E91" s="38"/>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C92" s="38"/>
-      <c r="D92" s="236"/>
+      <c r="D92" s="165"/>
       <c r="E92" s="38"/>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C93" s="38"/>
-      <c r="D93" s="236"/>
+      <c r="D93" s="165"/>
       <c r="E93" s="38"/>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C94" s="38"/>
-      <c r="D94" s="236"/>
+      <c r="D94" s="165"/>
       <c r="E94" s="38"/>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C95" s="38"/>
-      <c r="D95" s="236"/>
+      <c r="D95" s="165"/>
       <c r="E95" s="38"/>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C96" s="38"/>
-      <c r="D96" s="236"/>
+      <c r="D96" s="165"/>
       <c r="E96" s="38"/>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C97" s="38"/>
-      <c r="D97" s="236"/>
+      <c r="D97" s="165"/>
       <c r="E97" s="38"/>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C98" s="38"/>
-      <c r="D98" s="236"/>
+      <c r="D98" s="165"/>
       <c r="E98" s="38"/>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C99" s="38"/>
-      <c r="D99" s="236"/>
+      <c r="D99" s="165"/>
       <c r="E99" s="38"/>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C100" s="38"/>
-      <c r="D100" s="236"/>
+      <c r="D100" s="165"/>
       <c r="E100" s="38"/>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C101" s="38"/>
-      <c r="D101" s="236"/>
+      <c r="D101" s="165"/>
       <c r="E101" s="38"/>
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C102" s="38"/>
-      <c r="D102" s="236"/>
+      <c r="D102" s="165"/>
       <c r="E102" s="38"/>
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C103" s="38"/>
-      <c r="D103" s="236"/>
+      <c r="D103" s="165"/>
       <c r="E103" s="38"/>
     </row>
     <row r="104" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C104" s="38"/>
-      <c r="D104" s="236"/>
+      <c r="D104" s="165"/>
       <c r="E104" s="38"/>
     </row>
     <row r="105" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C105" s="38"/>
-      <c r="D105" s="236"/>
+      <c r="D105" s="165"/>
       <c r="E105" s="38"/>
     </row>
     <row r="106" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C106" s="38"/>
-      <c r="D106" s="236"/>
+      <c r="D106" s="165"/>
       <c r="E106" s="38"/>
     </row>
     <row r="107" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C107" s="38"/>
-      <c r="D107" s="236"/>
+      <c r="D107" s="165"/>
       <c r="E107" s="38"/>
     </row>
     <row r="108" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C108" s="38"/>
-      <c r="D108" s="236"/>
+      <c r="D108" s="165"/>
       <c r="E108" s="38"/>
     </row>
     <row r="109" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C109" s="38"/>
-      <c r="D109" s="236"/>
+      <c r="D109" s="165"/>
       <c r="E109" s="38"/>
     </row>
     <row r="110" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C110" s="38"/>
-      <c r="D110" s="236"/>
+      <c r="D110" s="165"/>
       <c r="E110" s="38"/>
     </row>
     <row r="111" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C111" s="38"/>
-      <c r="D111" s="236"/>
+      <c r="D111" s="165"/>
       <c r="E111" s="38"/>
     </row>
     <row r="112" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C112" s="38"/>
-      <c r="D112" s="236"/>
+      <c r="D112" s="165"/>
       <c r="E112" s="38"/>
     </row>
     <row r="113" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C113" s="38"/>
-      <c r="D113" s="236"/>
+      <c r="D113" s="165"/>
       <c r="E113" s="38"/>
     </row>
     <row r="114" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C114" s="38"/>
-      <c r="D114" s="236"/>
+      <c r="D114" s="165"/>
       <c r="E114" s="38"/>
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C115" s="38"/>
-      <c r="D115" s="236"/>
+      <c r="D115" s="165"/>
       <c r="E115" s="38"/>
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C116" s="38"/>
-      <c r="D116" s="236"/>
+      <c r="D116" s="165"/>
       <c r="E116" s="38"/>
     </row>
     <row r="117" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C117" s="38"/>
-      <c r="D117" s="236"/>
+      <c r="D117" s="165"/>
       <c r="E117" s="38"/>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C118" s="38"/>
-      <c r="D118" s="236"/>
+      <c r="D118" s="165"/>
       <c r="E118" s="38"/>
     </row>
     <row r="119" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C119" s="38"/>
-      <c r="D119" s="236"/>
+      <c r="D119" s="165"/>
       <c r="E119" s="38"/>
     </row>
     <row r="120" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C120" s="38"/>
-      <c r="D120" s="236"/>
+      <c r="D120" s="165"/>
       <c r="E120" s="38"/>
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C121" s="38"/>
-      <c r="D121" s="236"/>
+      <c r="D121" s="165"/>
       <c r="E121" s="38"/>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C122" s="38"/>
-      <c r="D122" s="236"/>
+      <c r="D122" s="165"/>
       <c r="E122" s="38"/>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C123" s="38"/>
-      <c r="D123" s="236"/>
+      <c r="D123" s="165"/>
       <c r="E123" s="38"/>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C124" s="38"/>
-      <c r="D124" s="236"/>
+      <c r="D124" s="165"/>
       <c r="E124" s="38"/>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C125" s="38"/>
-      <c r="D125" s="236"/>
+      <c r="D125" s="165"/>
       <c r="E125" s="38"/>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C126" s="38"/>
-      <c r="D126" s="236"/>
+      <c r="D126" s="165"/>
       <c r="E126" s="38"/>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C127" s="38"/>
-      <c r="D127" s="236"/>
+      <c r="D127" s="165"/>
       <c r="E127" s="38"/>
     </row>
     <row r="128" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C128" s="38"/>
-      <c r="D128" s="236"/>
+      <c r="D128" s="165"/>
       <c r="E128" s="38"/>
     </row>
     <row r="129" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C129" s="38"/>
-      <c r="D129" s="236"/>
+      <c r="D129" s="165"/>
       <c r="E129" s="38"/>
     </row>
     <row r="130" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C130" s="38"/>
-      <c r="D130" s="236"/>
+      <c r="D130" s="165"/>
       <c r="E130" s="38"/>
     </row>
     <row r="131" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C131" s="38"/>
-      <c r="D131" s="236"/>
+      <c r="D131" s="165"/>
       <c r="E131" s="38"/>
     </row>
     <row r="132" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C132" s="38"/>
-      <c r="D132" s="236"/>
+      <c r="D132" s="165"/>
       <c r="E132" s="38"/>
     </row>
     <row r="133" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C133" s="38"/>
-      <c r="D133" s="236"/>
+      <c r="D133" s="165"/>
       <c r="E133" s="38"/>
     </row>
     <row r="134" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C134" s="38"/>
-      <c r="D134" s="236"/>
+      <c r="D134" s="165"/>
       <c r="E134" s="38"/>
     </row>
     <row r="135" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C135" s="38"/>
-      <c r="D135" s="236"/>
+      <c r="D135" s="165"/>
       <c r="E135" s="38"/>
     </row>
     <row r="136" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C136" s="38"/>
-      <c r="D136" s="236"/>
+      <c r="D136" s="165"/>
       <c r="E136" s="38"/>
     </row>
     <row r="137" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C137" s="38"/>
-      <c r="D137" s="236"/>
+      <c r="D137" s="165"/>
       <c r="E137" s="38"/>
     </row>
     <row r="138" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C138" s="38"/>
-      <c r="D138" s="236"/>
+      <c r="D138" s="165"/>
       <c r="E138" s="38"/>
     </row>
     <row r="139" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C139" s="38"/>
-      <c r="D139" s="236"/>
+      <c r="D139" s="165"/>
       <c r="E139" s="38"/>
     </row>
     <row r="140" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C140" s="38"/>
-      <c r="D140" s="236"/>
+      <c r="D140" s="165"/>
       <c r="E140" s="38"/>
     </row>
     <row r="141" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C141" s="38"/>
-      <c r="D141" s="236"/>
+      <c r="D141" s="165"/>
       <c r="E141" s="38"/>
     </row>
     <row r="142" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C142" s="38"/>
-      <c r="D142" s="236"/>
+      <c r="D142" s="165"/>
       <c r="E142" s="38"/>
     </row>
     <row r="143" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C143" s="38"/>
-      <c r="D143" s="236"/>
+      <c r="D143" s="165"/>
       <c r="E143" s="38"/>
     </row>
     <row r="144" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C144" s="38"/>
-      <c r="D144" s="236"/>
+      <c r="D144" s="165"/>
       <c r="E144" s="38"/>
     </row>
     <row r="145" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C145" s="38"/>
-      <c r="D145" s="236"/>
+      <c r="D145" s="165"/>
       <c r="E145" s="38"/>
     </row>
     <row r="146" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C146" s="38"/>
-      <c r="D146" s="236"/>
+      <c r="D146" s="165"/>
       <c r="E146" s="38"/>
     </row>
     <row r="147" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C147" s="38"/>
-      <c r="D147" s="236"/>
+      <c r="D147" s="165"/>
       <c r="E147" s="38"/>
     </row>
     <row r="148" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C148" s="38"/>
-      <c r="D148" s="236"/>
+      <c r="D148" s="165"/>
       <c r="E148" s="38"/>
     </row>
     <row r="149" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C149" s="38"/>
-      <c r="D149" s="236"/>
+      <c r="D149" s="165"/>
       <c r="E149" s="38"/>
     </row>
     <row r="150" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C150" s="38"/>
-      <c r="D150" s="236"/>
+      <c r="D150" s="165"/>
       <c r="E150" s="38"/>
     </row>
     <row r="151" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C151" s="38"/>
-      <c r="D151" s="236"/>
+      <c r="D151" s="165"/>
       <c r="E151" s="38"/>
     </row>
     <row r="152" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C152" s="38"/>
-      <c r="D152" s="236"/>
+      <c r="D152" s="165"/>
       <c r="E152" s="38"/>
     </row>
     <row r="153" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C153" s="38"/>
-      <c r="D153" s="236"/>
+      <c r="D153" s="165"/>
       <c r="E153" s="38"/>
     </row>
     <row r="154" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C154" s="38"/>
-      <c r="D154" s="236"/>
+      <c r="D154" s="165"/>
       <c r="E154" s="38"/>
     </row>
     <row r="155" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C155" s="38"/>
-      <c r="D155" s="236"/>
+      <c r="D155" s="165"/>
       <c r="E155" s="38"/>
     </row>
     <row r="156" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C156" s="38"/>
-      <c r="D156" s="236"/>
+      <c r="D156" s="165"/>
       <c r="E156" s="38"/>
     </row>
     <row r="157" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C157" s="38"/>
-      <c r="D157" s="236"/>
+      <c r="D157" s="165"/>
       <c r="E157" s="38"/>
     </row>
     <row r="158" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C158" s="38"/>
-      <c r="D158" s="236"/>
+      <c r="D158" s="165"/>
       <c r="E158" s="38"/>
     </row>
     <row r="159" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C159" s="38"/>
-      <c r="D159" s="236"/>
+      <c r="D159" s="165"/>
       <c r="E159" s="38"/>
     </row>
     <row r="160" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C160" s="38"/>
-      <c r="D160" s="236"/>
+      <c r="D160" s="165"/>
       <c r="E160" s="38"/>
     </row>
     <row r="161" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C161" s="38"/>
-      <c r="D161" s="236"/>
+      <c r="D161" s="165"/>
       <c r="E161" s="38"/>
     </row>
     <row r="162" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C162" s="38"/>
-      <c r="D162" s="236"/>
+      <c r="D162" s="165"/>
       <c r="E162" s="38"/>
     </row>
     <row r="163" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C163" s="38"/>
-      <c r="D163" s="236"/>
+      <c r="D163" s="165"/>
       <c r="E163" s="38"/>
     </row>
     <row r="164" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C164" s="38"/>
-      <c r="D164" s="236"/>
+      <c r="D164" s="165"/>
       <c r="E164" s="38"/>
     </row>
     <row r="165" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C165" s="38"/>
-      <c r="D165" s="236"/>
+      <c r="D165" s="165"/>
       <c r="E165" s="38"/>
     </row>
     <row r="166" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C166" s="38"/>
-      <c r="D166" s="236"/>
+      <c r="D166" s="165"/>
       <c r="E166" s="38"/>
     </row>
     <row r="167" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C167" s="38"/>
-      <c r="D167" s="236"/>
+      <c r="D167" s="165"/>
       <c r="E167" s="38"/>
     </row>
     <row r="168" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C168" s="38"/>
-      <c r="D168" s="236"/>
+      <c r="D168" s="165"/>
       <c r="E168" s="38"/>
     </row>
     <row r="169" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C169" s="38"/>
-      <c r="D169" s="236"/>
+      <c r="D169" s="165"/>
       <c r="E169" s="38"/>
     </row>
     <row r="170" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C170" s="38"/>
-      <c r="D170" s="236"/>
+      <c r="D170" s="165"/>
       <c r="E170" s="38"/>
     </row>
     <row r="171" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C171" s="38"/>
-      <c r="D171" s="236"/>
+      <c r="D171" s="165"/>
       <c r="E171" s="38"/>
     </row>
     <row r="172" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C172" s="38"/>
-      <c r="D172" s="236"/>
+      <c r="D172" s="165"/>
       <c r="E172" s="38"/>
     </row>
     <row r="173" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C173" s="38"/>
-      <c r="D173" s="236"/>
+      <c r="D173" s="165"/>
       <c r="E173" s="38"/>
     </row>
     <row r="174" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C174" s="38"/>
-      <c r="D174" s="236"/>
+      <c r="D174" s="165"/>
       <c r="E174" s="38"/>
     </row>
     <row r="175" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C175" s="38"/>
-      <c r="D175" s="236"/>
+      <c r="D175" s="165"/>
       <c r="E175" s="38"/>
     </row>
     <row r="176" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C176" s="38"/>
-      <c r="D176" s="236"/>
+      <c r="D176" s="165"/>
       <c r="E176" s="38"/>
     </row>
     <row r="177" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C177" s="38"/>
-      <c r="D177" s="236"/>
+      <c r="D177" s="165"/>
       <c r="E177" s="38"/>
     </row>
     <row r="178" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C178" s="38"/>
-      <c r="D178" s="236"/>
+      <c r="D178" s="165"/>
       <c r="E178" s="38"/>
     </row>
     <row r="179" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C179" s="38"/>
-      <c r="D179" s="236"/>
+      <c r="D179" s="165"/>
       <c r="E179" s="38"/>
     </row>
     <row r="180" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C180" s="38"/>
-      <c r="D180" s="236"/>
+      <c r="D180" s="165"/>
       <c r="E180" s="38"/>
     </row>
     <row r="181" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C181" s="38"/>
-      <c r="D181" s="236"/>
+      <c r="D181" s="165"/>
       <c r="E181" s="38"/>
     </row>
     <row r="182" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C182" s="38"/>
-      <c r="D182" s="236"/>
+      <c r="D182" s="165"/>
       <c r="E182" s="38"/>
     </row>
     <row r="183" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C183" s="38"/>
-      <c r="D183" s="236"/>
+      <c r="D183" s="165"/>
       <c r="E183" s="38"/>
     </row>
     <row r="184" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C184" s="38"/>
-      <c r="D184" s="236"/>
+      <c r="D184" s="165"/>
       <c r="E184" s="38"/>
     </row>
     <row r="185" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C185" s="38"/>
-      <c r="D185" s="236"/>
+      <c r="D185" s="165"/>
       <c r="E185" s="38"/>
     </row>
     <row r="186" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C186" s="38"/>
-      <c r="D186" s="236"/>
+      <c r="D186" s="165"/>
       <c r="E186" s="38"/>
     </row>
     <row r="187" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C187" s="38"/>
-      <c r="D187" s="236"/>
+      <c r="D187" s="165"/>
       <c r="E187" s="38"/>
     </row>
     <row r="188" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C188" s="38"/>
-      <c r="D188" s="236"/>
+      <c r="D188" s="165"/>
       <c r="E188" s="38"/>
     </row>
     <row r="189" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C189" s="38"/>
-      <c r="D189" s="236"/>
+      <c r="D189" s="165"/>
       <c r="E189" s="38"/>
     </row>
     <row r="190" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C190" s="38"/>
-      <c r="D190" s="236"/>
+      <c r="D190" s="165"/>
       <c r="E190" s="38"/>
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C191" s="38"/>
-      <c r="D191" s="236"/>
+      <c r="D191" s="165"/>
       <c r="E191" s="38"/>
     </row>
     <row r="192" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C192" s="38"/>
-      <c r="D192" s="236"/>
+      <c r="D192" s="165"/>
       <c r="E192" s="38"/>
     </row>
     <row r="193" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C193" s="38"/>
-      <c r="D193" s="236"/>
+      <c r="D193" s="165"/>
       <c r="E193" s="38"/>
     </row>
     <row r="194" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C194" s="38"/>
-      <c r="D194" s="236"/>
+      <c r="D194" s="165"/>
       <c r="E194" s="38"/>
     </row>
     <row r="195" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C195" s="38"/>
-      <c r="D195" s="236"/>
+      <c r="D195" s="165"/>
       <c r="E195" s="38"/>
     </row>
     <row r="196" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C196" s="38"/>
-      <c r="D196" s="236"/>
+      <c r="D196" s="165"/>
       <c r="E196" s="38"/>
     </row>
     <row r="197" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C197" s="38"/>
-      <c r="D197" s="236"/>
+      <c r="D197" s="165"/>
       <c r="E197" s="38"/>
     </row>
     <row r="198" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C198" s="38"/>
-      <c r="D198" s="236"/>
+      <c r="D198" s="165"/>
       <c r="E198" s="38"/>
     </row>
     <row r="199" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C199" s="38"/>
-      <c r="D199" s="236"/>
+      <c r="D199" s="165"/>
       <c r="E199" s="38"/>
     </row>
     <row r="200" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C200" s="38"/>
-      <c r="D200" s="236"/>
+      <c r="D200" s="165"/>
       <c r="E200" s="38"/>
     </row>
     <row r="201" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C201" s="38"/>
-      <c r="D201" s="236"/>
+      <c r="D201" s="165"/>
       <c r="E201" s="38"/>
     </row>
     <row r="202" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C202" s="38"/>
-      <c r="D202" s="236"/>
+      <c r="D202" s="165"/>
       <c r="E202" s="38"/>
     </row>
     <row r="203" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C203" s="38"/>
-      <c r="D203" s="236"/>
+      <c r="D203" s="165"/>
       <c r="E203" s="38"/>
     </row>
     <row r="204" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C204" s="38"/>
-      <c r="D204" s="236"/>
+      <c r="D204" s="165"/>
       <c r="E204" s="38"/>
     </row>
     <row r="205" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C205" s="38"/>
-      <c r="D205" s="236"/>
+      <c r="D205" s="165"/>
       <c r="E205" s="38"/>
     </row>
     <row r="206" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C206" s="38"/>
-      <c r="D206" s="236"/>
+      <c r="D206" s="165"/>
       <c r="E206" s="38"/>
     </row>
     <row r="207" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C207" s="38"/>
-      <c r="D207" s="236"/>
+      <c r="D207" s="165"/>
       <c r="E207" s="38"/>
     </row>
     <row r="208" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C208" s="38"/>
-      <c r="D208" s="236"/>
+      <c r="D208" s="165"/>
       <c r="E208" s="38"/>
     </row>
     <row r="209" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C209" s="38"/>
-      <c r="D209" s="236"/>
+      <c r="D209" s="165"/>
       <c r="E209" s="38"/>
     </row>
     <row r="210" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C210" s="38"/>
-      <c r="D210" s="236"/>
+      <c r="D210" s="165"/>
       <c r="E210" s="38"/>
     </row>
     <row r="211" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C211" s="38"/>
-      <c r="D211" s="236"/>
+      <c r="D211" s="165"/>
       <c r="E211" s="38"/>
     </row>
     <row r="212" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C212" s="38"/>
-      <c r="D212" s="236"/>
+      <c r="D212" s="165"/>
       <c r="E212" s="38"/>
     </row>
     <row r="213" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C213" s="38"/>
-      <c r="D213" s="236"/>
+      <c r="D213" s="165"/>
       <c r="E213" s="38"/>
     </row>
     <row r="214" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C214" s="38"/>
-      <c r="D214" s="236"/>
+      <c r="D214" s="165"/>
       <c r="E214" s="38"/>
     </row>
     <row r="215" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C215" s="38"/>
-      <c r="D215" s="236"/>
+      <c r="D215" s="165"/>
       <c r="E215" s="38"/>
     </row>
     <row r="216" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C216" s="38"/>
-      <c r="D216" s="236"/>
+      <c r="D216" s="165"/>
       <c r="E216" s="38"/>
     </row>
     <row r="217" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C217" s="38"/>
-      <c r="D217" s="236"/>
+      <c r="D217" s="165"/>
       <c r="E217" s="38"/>
     </row>
     <row r="218" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C218" s="38"/>
-      <c r="D218" s="236"/>
+      <c r="D218" s="165"/>
       <c r="E218" s="38"/>
     </row>
     <row r="219" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C219" s="38"/>
-      <c r="D219" s="236"/>
+      <c r="D219" s="165"/>
       <c r="E219" s="38"/>
     </row>
     <row r="220" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C220" s="38"/>
-      <c r="D220" s="236"/>
+      <c r="D220" s="165"/>
       <c r="E220" s="38"/>
     </row>
     <row r="221" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C221" s="38"/>
-      <c r="D221" s="236"/>
+      <c r="D221" s="165"/>
       <c r="E221" s="38"/>
     </row>
     <row r="222" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C222" s="38"/>
-      <c r="D222" s="236"/>
+      <c r="D222" s="165"/>
       <c r="E222" s="38"/>
     </row>
     <row r="223" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C223" s="38"/>
-      <c r="D223" s="236"/>
+      <c r="D223" s="165"/>
       <c r="E223" s="38"/>
     </row>
     <row r="224" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C224" s="38"/>
-      <c r="D224" s="236"/>
+      <c r="D224" s="165"/>
       <c r="E224" s="38"/>
     </row>
     <row r="225" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C225" s="38"/>
-      <c r="D225" s="236"/>
+      <c r="D225" s="165"/>
       <c r="E225" s="38"/>
     </row>
     <row r="226" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C226" s="38"/>
-      <c r="D226" s="236"/>
+      <c r="D226" s="165"/>
       <c r="E226" s="38"/>
     </row>
     <row r="227" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C227" s="38"/>
-      <c r="D227" s="236"/>
+      <c r="D227" s="165"/>
       <c r="E227" s="38"/>
     </row>
     <row r="228" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C228" s="38"/>
-      <c r="D228" s="236"/>
+      <c r="D228" s="165"/>
       <c r="E228" s="38"/>
     </row>
     <row r="229" spans="3:5" x14ac:dyDescent="0.2">
@@ -10941,85 +10758,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="118" t="s">
-        <v>468</v>
-      </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="117"/>
+      <c r="A1" s="96" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="95"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="119"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="121"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="99"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="131" t="s">
+      <c r="D3" s="109" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="131" t="s">
-        <v>454</v>
-      </c>
-      <c r="F3" s="131" t="s">
+      <c r="E3" s="109" t="s">
+        <v>444</v>
+      </c>
+      <c r="F3" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="131" t="s">
-        <v>455</v>
-      </c>
-      <c r="H3" s="131" t="s">
+      <c r="G3" s="109" t="s">
+        <v>445</v>
+      </c>
+      <c r="H3" s="109" t="s">
         <v>123</v>
       </c>
-      <c r="I3" s="131" t="s">
+      <c r="I3" s="109" t="s">
+        <v>446</v>
+      </c>
+      <c r="J3" s="109" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="109" t="s">
         <v>456</v>
       </c>
-      <c r="J3" s="131" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3" s="131" t="s">
-        <v>466</v>
-      </c>
-      <c r="L3" s="131" t="s">
+      <c r="L3" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="M3" s="132" t="s">
+      <c r="M3" s="110" t="s">
         <v>126</v>
       </c>
-      <c r="N3" s="182" t="s">
-        <v>467</v>
+      <c r="N3" s="160" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="97"/>
+      <c r="A4" s="75"/>
       <c r="N4" s="35" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -11046,183 +10863,183 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
-        <v>432</v>
+      <c r="B2" s="64" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="67" t="s">
+        <v>409</v>
+      </c>
+      <c r="C4" s="122" t="s">
+        <v>414</v>
+      </c>
+      <c r="D4" s="123" t="s">
+        <v>412</v>
+      </c>
+      <c r="E4" s="123" t="s">
+        <v>413</v>
+      </c>
+      <c r="F4" s="123" t="s">
         <v>418</v>
       </c>
-      <c r="C4" s="144" t="s">
-        <v>423</v>
-      </c>
-      <c r="D4" s="145" t="s">
-        <v>421</v>
-      </c>
-      <c r="E4" s="145" t="s">
-        <v>422</v>
-      </c>
-      <c r="F4" s="145" t="s">
-        <v>427</v>
-      </c>
-      <c r="G4" s="85" t="s">
-        <v>425</v>
+      <c r="G4" s="66" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="84" t="s">
-        <v>420</v>
-      </c>
-      <c r="C5" s="146"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="143">
+      <c r="B5" s="65" t="s">
+        <v>411</v>
+      </c>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="121">
         <f>(C5+(D5/60)+(E5/3600))*IF(F5="S",-1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="84" t="s">
-        <v>424</v>
-      </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="143">
+      <c r="B6" s="65" t="s">
+        <v>415</v>
+      </c>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="121">
         <f>(C6+(D6/60)+(E6/3600))*IF(F6="W",-1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="86" t="s">
-        <v>419</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>423</v>
+      <c r="B7" s="67" t="s">
+        <v>410</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>414</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="F7" s="39"/>
-      <c r="G7" s="85" t="s">
-        <v>425</v>
+      <c r="G7" s="66" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="84" t="s">
-        <v>420</v>
-      </c>
-      <c r="C8" s="146"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="143">
+      <c r="B8" s="65" t="s">
+        <v>411</v>
+      </c>
+      <c r="C8" s="124"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="121">
         <f>(C8+(D8/60))*IF(E8="S",-1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="152" t="s">
-        <v>424</v>
-      </c>
-      <c r="C9" s="149"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="153">
+      <c r="B9" s="130" t="s">
+        <v>415</v>
+      </c>
+      <c r="C9" s="127"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="131">
         <f>(C9+(D9/60))*IF(E9="W",-1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G11" s="90"/>
+      <c r="G11" s="71"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="83" t="s">
-        <v>469</v>
+      <c r="B13" s="64" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="135" t="s">
+      <c r="B15" s="113" t="s">
+        <v>460</v>
+      </c>
+      <c r="C15" s="114" t="s">
+        <v>461</v>
+      </c>
+      <c r="D15" s="114" t="s">
+        <v>462</v>
+      </c>
+      <c r="E15" s="115" t="s">
+        <v>463</v>
+      </c>
+      <c r="F15" s="192" t="s">
         <v>470</v>
       </c>
-      <c r="C15" s="136" t="s">
-        <v>471</v>
-      </c>
-      <c r="D15" s="136" t="s">
-        <v>472</v>
-      </c>
-      <c r="E15" s="137" t="s">
-        <v>473</v>
-      </c>
-      <c r="F15" s="230" t="s">
-        <v>480</v>
-      </c>
-      <c r="G15" s="135" t="s">
-        <v>474</v>
-      </c>
-      <c r="H15" s="136" t="s">
-        <v>475</v>
-      </c>
-      <c r="I15" s="137" t="s">
-        <v>476</v>
+      <c r="G15" s="113" t="s">
+        <v>464</v>
+      </c>
+      <c r="H15" s="114" t="s">
+        <v>465</v>
+      </c>
+      <c r="I15" s="115" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="149"/>
-      <c r="C16" s="150"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="231"/>
-      <c r="G16" s="138" t="str">
+      <c r="B16" s="127"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="116" t="str">
         <f>IF(ISBLANK(B16),"",AVERAGE(B16,D16))</f>
         <v/>
       </c>
-      <c r="H16" s="139" t="str">
+      <c r="H16" s="117" t="str">
         <f>IF(ISBLANK(C16),"",AVERAGE(C16,E16))</f>
         <v/>
       </c>
-      <c r="I16" s="140" t="str">
+      <c r="I16" s="118" t="str">
         <f>IF(ISBLANK(E16),"",CONCATENATE("LINESTRING(",C16," ",B16,", ",E16," ", D16,")"))</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="83" t="s">
-        <v>479</v>
+      <c r="B20" s="64" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="141" t="s">
-        <v>477</v>
-      </c>
-      <c r="C22" s="142"/>
-      <c r="D22" s="230" t="s">
-        <v>480</v>
-      </c>
-      <c r="E22" s="141" t="s">
-        <v>478</v>
-      </c>
-      <c r="F22" s="142"/>
+      <c r="B22" s="119" t="s">
+        <v>467</v>
+      </c>
+      <c r="C22" s="120"/>
+      <c r="D22" s="192" t="s">
+        <v>470</v>
+      </c>
+      <c r="E22" s="119" t="s">
+        <v>468</v>
+      </c>
+      <c r="F22" s="120"/>
     </row>
     <row r="23" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="226"/>
-      <c r="C23" s="227"/>
-      <c r="D23" s="231"/>
-      <c r="E23" s="228" t="str">
+      <c r="B23" s="188"/>
+      <c r="C23" s="189"/>
+      <c r="D23" s="193"/>
+      <c r="E23" s="190" t="str">
         <f>IF(ISBLANK(B23),"",B23*1.8288)</f>
         <v/>
       </c>
-      <c r="F23" s="229"/>
+      <c r="F23" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11275,10 +11092,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="232" t="s">
-        <v>442</v>
-      </c>
-      <c r="B1" s="232"/>
+      <c r="A1" s="194" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="194"/>
       <c r="C1" s="27"/>
       <c r="D1" s="19" t="s">
         <v>145</v>
@@ -11297,15 +11114,15 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="233" t="s">
+      <c r="A3" s="195" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="233"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="233"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
@@ -11605,10 +11422,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="196" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="234"/>
+      <c r="B1" s="196"/>
       <c r="D1" s="19" t="s">
         <v>145</v>
       </c>
@@ -11629,15 +11446,15 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="233" t="s">
+      <c r="A3" s="195" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="233"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="233"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>

--- a/SponGIS_Template/SponGIS_Template.xlsx
+++ b/SponGIS_Template/SponGIS_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="440" windowWidth="17340" windowHeight="12500" tabRatio="500"/>
+    <workbookView xWindow="11780" yWindow="440" windowWidth="26060" windowHeight="17680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="13" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="485">
   <si>
     <t>Class</t>
   </si>
@@ -1365,12 +1365,6 @@
     <t>You should fill in as many fields as you can, if you don’t know what the terms are, or want to know more, then you can look at the Help-XXX</t>
   </si>
   <si>
-    <t>sheets, these include examples, links to the definition of the term, descriptors and so on. First though, complete the simple table below</t>
-  </si>
-  <si>
-    <t>which will help you know whch of the sheets within this document that you need to complete in order to submit your spreadsheet to SponGIS.</t>
-  </si>
-  <si>
     <t>1 - Dataset Details</t>
   </si>
   <si>
@@ -1519,6 +1513,9 @@
   </si>
   <si>
     <t>WoRMS Aphia ID (aka scientificNameID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sheets, these include examples, links to the definition of the term, descriptors and so on. </t>
   </si>
 </sst>
 </file>
@@ -2805,6 +2802,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" xfId="107" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2847,6 +2845,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2864,9 +2865,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2898,7 +2896,6 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" xfId="107" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="108">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3071,9 +3068,9 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Vocabularies"/>
       <sheetName val="Readme"/>
       <sheetName val="Metadata"/>
-      <sheetName val="Vocabularies"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3082,77 +3079,6 @@
         <row r="2">
           <cell r="E2" t="str">
             <v>Originator</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>Yes</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>cc0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3" t="str">
-            <v>Content Provider</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>No</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>publicdomain</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4" t="str">
-            <v>Principal Investigator</v>
-          </cell>
-          <cell r="G4" t="str">
-            <v>by</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5" t="str">
-            <v>Editor</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v>by-nc-sa</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6" t="str">
-            <v>Publisher</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>by-sa</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7" t="str">
-            <v>Processor</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8" t="str">
-            <v>Custodian/Steward</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9" t="str">
-            <v>Author</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10" t="str">
-            <v>Metadata Provider</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11" t="str">
-            <v>Distributor</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12" t="str">
-            <v>User</v>
           </cell>
         </row>
       </sheetData>
@@ -3483,10 +3409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M260"/>
+  <dimension ref="A1:M259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3514,30 +3440,30 @@
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
-      <c r="E2" s="167" t="s">
+      <c r="E2" s="168" t="s">
         <v>373</v>
       </c>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
@@ -3574,44 +3500,44 @@
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
-      <c r="E6" s="168" t="s">
+      <c r="E6" s="169" t="s">
         <v>375</v>
       </c>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="168"/>
-      <c r="K6" s="168"/>
-      <c r="L6" s="168"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="169"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="168"/>
-      <c r="K7" s="168"/>
-      <c r="L7" s="168"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="168"/>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="169"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
@@ -3660,7 +3586,7 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="35" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
@@ -3675,9 +3601,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
-      <c r="B13" s="35" t="s">
-        <v>435</v>
-      </c>
+      <c r="B13" s="35"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
       <c r="E13" s="69"/>
@@ -3690,53 +3614,53 @@
       <c r="L13" s="69"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
+      <c r="B15" s="46" t="s">
+        <v>405</v>
+      </c>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
       <c r="G15" s="46"/>
       <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
+      <c r="I15" s="167" t="s">
+        <v>404</v>
+      </c>
+      <c r="J15" s="106"/>
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46" t="s">
-        <v>405</v>
-      </c>
+    </row>
+    <row r="16" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
       <c r="F16" s="46"/>
       <c r="G16" s="46"/>
       <c r="H16" s="46"/>
-      <c r="I16" s="198" t="s">
-        <v>404</v>
-      </c>
-      <c r="J16" s="106"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
       <c r="K16" s="46"/>
       <c r="L16" s="46"/>
     </row>
-    <row r="17" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -3750,21 +3674,21 @@
       <c r="K17" s="46"/>
       <c r="L17" s="46"/>
     </row>
-    <row r="18" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-    </row>
-    <row r="19" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -3778,7 +3702,7 @@
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -3792,7 +3716,7 @@
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
     </row>
-    <row r="21" spans="1:12" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -3820,7 +3744,7 @@
       <c r="K22" s="35"/>
       <c r="L22" s="35"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -3834,7 +3758,7 @@
       <c r="K23" s="35"/>
       <c r="L23" s="35"/>
     </row>
-    <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -3862,7 +3786,7 @@
       <c r="K25" s="35"/>
       <c r="L25" s="35"/>
     </row>
-    <row r="26" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -3960,35 +3884,22 @@
       <c r="K32" s="35"/>
       <c r="L32" s="35"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-    </row>
-    <row r="34" spans="1:12" s="35" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="35" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="49" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="50" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="51" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -4181,9 +4092,22 @@
     <row r="238" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="239" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="240" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="241" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B241"/>
+    </row>
     <row r="242" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A242"/>
       <c r="B242"/>
+      <c r="C242"/>
+      <c r="D242"/>
+      <c r="E242"/>
+      <c r="F242"/>
+      <c r="G242"/>
+      <c r="H242"/>
+      <c r="I242"/>
+      <c r="J242"/>
+      <c r="K242"/>
+      <c r="L242"/>
     </row>
     <row r="243" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243"/>
@@ -4423,27 +4347,13 @@
       <c r="K259"/>
       <c r="L259"/>
     </row>
-    <row r="260" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A260"/>
-      <c r="B260"/>
-      <c r="C260"/>
-      <c r="D260"/>
-      <c r="E260"/>
-      <c r="F260"/>
-      <c r="G260"/>
-      <c r="H260"/>
-      <c r="I260"/>
-      <c r="J260"/>
-      <c r="K260"/>
-      <c r="L260"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E2:L3"/>
     <mergeCell ref="E6:L8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I16" r:id="rId1"/>
+    <hyperlink ref="I15" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -4472,10 +4382,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="197"/>
+      <c r="B1" s="198"/>
       <c r="D1" s="19" t="s">
         <v>145</v>
       </c>
@@ -4496,15 +4406,15 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="196" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
@@ -5026,7 +4936,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="96.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5043,10 +4953,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="197" t="s">
         <v>339</v>
       </c>
-      <c r="B1" s="196"/>
+      <c r="B1" s="197"/>
       <c r="D1" s="19" t="s">
         <v>145</v>
       </c>
@@ -5067,15 +4977,15 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="196" t="s">
         <v>197</v>
       </c>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
@@ -5309,16 +5219,16 @@
         <v>85</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>144</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="48" x14ac:dyDescent="0.2">
@@ -5332,13 +5242,13 @@
         <v>236</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>144</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -5349,16 +5259,16 @@
         <v>86</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>144</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -5673,10 +5583,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="197" t="s">
         <v>340</v>
       </c>
-      <c r="B1" s="196"/>
+      <c r="B1" s="197"/>
       <c r="D1" s="19" t="s">
         <v>145</v>
       </c>
@@ -5697,15 +5607,15 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="195" t="s">
-        <v>441</v>
-      </c>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
+      <c r="A3" s="196" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
@@ -5821,22 +5731,22 @@
         <v>263</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>144</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -5865,23 +5775,23 @@
         <v>263</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="9" t="s">
         <v>144</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="48" x14ac:dyDescent="0.2">
@@ -5912,23 +5822,23 @@
         <v>263</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>446</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>454</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>448</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="9" t="s">
         <v>144</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
@@ -6140,7 +6050,7 @@
         <v>379</v>
       </c>
       <c r="C3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H3" t="s">
         <v>396</v>
@@ -6207,7 +6117,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="154" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B1" s="155" t="s">
         <v>408</v>
@@ -6320,14 +6230,14 @@
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="161" t="s">
-        <v>473</v>
-      </c>
-      <c r="B6" s="175"/>
-      <c r="C6" s="175"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="176"/>
+        <v>471</v>
+      </c>
+      <c r="B6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="177"/>
       <c r="H6" s="47"/>
       <c r="I6" s="35"/>
       <c r="J6" s="35"/>
@@ -6345,12 +6255,12 @@
       <c r="A7" s="162" t="s">
         <v>369</v>
       </c>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="172"/>
+      <c r="B7" s="172"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="173"/>
       <c r="H7" s="47"/>
       <c r="I7" s="35"/>
       <c r="J7" s="35"/>
@@ -6368,12 +6278,12 @@
       <c r="A8" s="162" t="s">
         <v>370</v>
       </c>
-      <c r="B8" s="177"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="178"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="179"/>
       <c r="H8" s="47"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
@@ -6391,12 +6301,12 @@
       <c r="A9" s="162" t="s">
         <v>371</v>
       </c>
-      <c r="B9" s="171"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="172"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="173"/>
       <c r="H9" s="47"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
@@ -6414,12 +6324,12 @@
       <c r="A10" s="163" t="s">
         <v>372</v>
       </c>
-      <c r="B10" s="173"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="174"/>
+      <c r="B10" s="174"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="175"/>
       <c r="H10" s="47"/>
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
@@ -6435,14 +6345,14 @@
     </row>
     <row r="11" spans="1:19" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="164" t="s">
-        <v>439</v>
-      </c>
-      <c r="B11" s="169"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="169"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="170"/>
+        <v>437</v>
+      </c>
+      <c r="B11" s="170"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="171"/>
       <c r="H11" s="47"/>
       <c r="I11" s="47"/>
       <c r="J11" s="47"/>
@@ -6568,7 +6478,7 @@
     </row>
     <row r="16" spans="1:19" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="138" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
@@ -6591,7 +6501,7 @@
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="142" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
@@ -6614,7 +6524,7 @@
     </row>
     <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="142" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B18" s="40"/>
       <c r="C18" s="40"/>
@@ -6637,7 +6547,7 @@
     </row>
     <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="142" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B19" s="40"/>
       <c r="C19" s="40"/>
@@ -6660,7 +6570,7 @@
     </row>
     <row r="20" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="145" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B20" s="146"/>
       <c r="C20" s="146"/>
@@ -8525,7 +8435,7 @@
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="149"/>
       <c r="B3" s="155" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
@@ -8586,13 +8496,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="56" t="s">
-        <v>485</v>
-      </c>
-      <c r="B8" s="187"/>
-      <c r="C8" s="187"/>
+        <v>483</v>
+      </c>
+      <c r="B8" s="182"/>
+      <c r="C8" s="182"/>
       <c r="D8" s="59"/>
       <c r="E8" s="73" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F8" s="72"/>
       <c r="G8" s="52" t="s">
@@ -8606,11 +8516,11 @@
       <c r="A9" s="53" t="s">
         <v>388</v>
       </c>
-      <c r="B9" s="179"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="180"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="181"/>
       <c r="G9" s="52" t="s">
         <v>0</v>
       </c>
@@ -8620,11 +8530,11 @@
       <c r="A10" s="56" t="s">
         <v>387</v>
       </c>
-      <c r="B10" s="181"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="182"/>
+      <c r="B10" s="183"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="184"/>
       <c r="G10" s="52" t="s">
         <v>396</v>
       </c>
@@ -8634,11 +8544,11 @@
       <c r="A11" s="53" t="s">
         <v>385</v>
       </c>
-      <c r="B11" s="179"/>
-      <c r="C11" s="179"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="180"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="181"/>
       <c r="G11" s="52" t="s">
         <v>397</v>
       </c>
@@ -8648,11 +8558,11 @@
       <c r="A12" s="53" t="s">
         <v>384</v>
       </c>
-      <c r="B12" s="185"/>
-      <c r="C12" s="185"/>
-      <c r="D12" s="185"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="186"/>
+      <c r="B12" s="187"/>
+      <c r="C12" s="187"/>
+      <c r="D12" s="187"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="188"/>
       <c r="G12" s="52" t="s">
         <v>398</v>
       </c>
@@ -8660,11 +8570,11 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="53"/>
-      <c r="B13" s="185"/>
-      <c r="C13" s="185"/>
-      <c r="D13" s="185"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="186"/>
+      <c r="B13" s="187"/>
+      <c r="C13" s="187"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="188"/>
       <c r="G13" s="52" t="s">
         <v>399</v>
       </c>
@@ -8674,11 +8584,11 @@
       <c r="A14" s="58" t="s">
         <v>383</v>
       </c>
-      <c r="B14" s="185"/>
-      <c r="C14" s="185"/>
-      <c r="D14" s="185"/>
-      <c r="E14" s="185"/>
-      <c r="F14" s="186"/>
+      <c r="B14" s="187"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="187"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="188"/>
       <c r="G14" s="55" t="s">
         <v>400</v>
       </c>
@@ -8686,21 +8596,21 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="58"/>
-      <c r="B15" s="185"/>
-      <c r="C15" s="185"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="186"/>
+      <c r="B15" s="187"/>
+      <c r="C15" s="187"/>
+      <c r="D15" s="187"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="188"/>
       <c r="G15" s="62"/>
       <c r="H15" s="60"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="58"/>
-      <c r="B16" s="185"/>
-      <c r="C16" s="185"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="186"/>
+      <c r="B16" s="187"/>
+      <c r="C16" s="187"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="188"/>
       <c r="G16" s="62"/>
       <c r="H16" s="60"/>
     </row>
@@ -8708,11 +8618,11 @@
       <c r="A17" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="B17" s="183"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="184"/>
+      <c r="B17" s="185"/>
+      <c r="C17" s="185"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="186"/>
       <c r="G17" s="63"/>
       <c r="H17" s="61"/>
     </row>
@@ -8785,7 +8695,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="157" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B1" s="158"/>
       <c r="C1" s="159"/>
@@ -8827,7 +8737,7 @@
         <v>391</v>
       </c>
       <c r="L2" s="92" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M2" s="90"/>
       <c r="N2" s="90"/>
@@ -9120,7 +9030,7 @@
         <v>53</v>
       </c>
       <c r="R3" s="100" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="S3" s="100" t="s">
         <v>58</v>
@@ -9138,7 +9048,7 @@
         <v>70</v>
       </c>
       <c r="X3" s="105" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Y3" s="112" t="s">
         <v>78</v>
@@ -10759,7 +10669,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="96" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="94"/>
@@ -10803,25 +10713,25 @@
         <v>120</v>
       </c>
       <c r="E3" s="109" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F3" s="109" t="s">
         <v>121</v>
       </c>
       <c r="G3" s="109" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H3" s="109" t="s">
         <v>123</v>
       </c>
       <c r="I3" s="109" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J3" s="109" t="s">
         <v>122</v>
       </c>
       <c r="K3" s="109" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L3" s="109" t="s">
         <v>125</v>
@@ -10830,13 +10740,13 @@
         <v>126</v>
       </c>
       <c r="N3" s="160" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="75"/>
       <c r="N4" s="35" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -10963,34 +10873,34 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="64" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="113" t="s">
+        <v>458</v>
+      </c>
+      <c r="C15" s="114" t="s">
+        <v>459</v>
+      </c>
+      <c r="D15" s="114" t="s">
         <v>460</v>
       </c>
-      <c r="C15" s="114" t="s">
+      <c r="E15" s="115" t="s">
         <v>461</v>
       </c>
-      <c r="D15" s="114" t="s">
+      <c r="F15" s="193" t="s">
+        <v>468</v>
+      </c>
+      <c r="G15" s="113" t="s">
         <v>462</v>
       </c>
-      <c r="E15" s="115" t="s">
+      <c r="H15" s="114" t="s">
         <v>463</v>
       </c>
-      <c r="F15" s="192" t="s">
-        <v>470</v>
-      </c>
-      <c r="G15" s="113" t="s">
+      <c r="I15" s="115" t="s">
         <v>464</v>
-      </c>
-      <c r="H15" s="114" t="s">
-        <v>465</v>
-      </c>
-      <c r="I15" s="115" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -10998,7 +10908,7 @@
       <c r="C16" s="128"/>
       <c r="D16" s="128"/>
       <c r="E16" s="129"/>
-      <c r="F16" s="193"/>
+      <c r="F16" s="194"/>
       <c r="G16" s="116" t="str">
         <f>IF(ISBLANK(B16),"",AVERAGE(B16,D16))</f>
         <v/>
@@ -11014,32 +10924,32 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="64" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="119" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C22" s="120"/>
-      <c r="D22" s="192" t="s">
-        <v>470</v>
+      <c r="D22" s="193" t="s">
+        <v>468</v>
       </c>
       <c r="E22" s="119" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F22" s="120"/>
     </row>
     <row r="23" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="188"/>
-      <c r="C23" s="189"/>
-      <c r="D23" s="193"/>
-      <c r="E23" s="190" t="str">
+      <c r="B23" s="189"/>
+      <c r="C23" s="190"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="191" t="str">
         <f>IF(ISBLANK(B23),"",B23*1.8288)</f>
         <v/>
       </c>
-      <c r="F23" s="191"/>
+      <c r="F23" s="192"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11092,10 +11002,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="195" t="s">
         <v>432</v>
       </c>
-      <c r="B1" s="194"/>
+      <c r="B1" s="195"/>
       <c r="C1" s="27"/>
       <c r="D1" s="19" t="s">
         <v>145</v>
@@ -11114,15 +11024,15 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="196" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
@@ -11422,10 +11332,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="197" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="196"/>
+      <c r="B1" s="197"/>
       <c r="D1" s="19" t="s">
         <v>145</v>
       </c>
@@ -11446,15 +11356,15 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="196" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>

--- a/SponGIS_Template/SponGIS_Template.xlsx
+++ b/SponGIS_Template/SponGIS_Template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11780" yWindow="440" windowWidth="26060" windowHeight="17680" tabRatio="500"/>
+    <workbookView xWindow="-31940" yWindow="840" windowWidth="28400" windowHeight="18600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="13" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="469">
   <si>
     <t>Class</t>
   </si>
@@ -318,19 +318,10 @@
     <t>taxonRemarks</t>
   </si>
   <si>
-    <t>Comments or notes about the taxon or name</t>
-  </si>
-  <si>
     <t>The taxonomic rank of the most specific name in the scientificName</t>
   </si>
   <si>
     <t>The authorship information for the scientificName formatted according to the conventions of the applicable nomenclaturalCode</t>
-  </si>
-  <si>
-    <t>kingdom</t>
-  </si>
-  <si>
-    <t>The full scientific name of the kingdom in which the taxon is classified</t>
   </si>
   <si>
     <t>When forming part of an Identification, this should be the name in lowest level taxonomic rank that can be determined. This term should not contain identification qualifications, which should instead be supplied in the IdentificationQualifier term</t>
@@ -583,45 +574,6 @@
     <t>Boreal Sponge Ground</t>
   </si>
   <si>
-    <t>phylum</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>genus</t>
-  </si>
-  <si>
-    <t>subgenus</t>
-  </si>
-  <si>
-    <t>http://rs.tdwg.org/dwc/terms/index.htm#kingdom</t>
-  </si>
-  <si>
-    <t>http://rs.tdwg.org/dwc/terms/index.htm#phylum</t>
-  </si>
-  <si>
-    <t>http://rs.tdwg.org/dwc/terms/index.htm#class</t>
-  </si>
-  <si>
-    <t>http://rs.tdwg.org/dwc/terms/index.htm#order</t>
-  </si>
-  <si>
-    <t>http://rs.tdwg.org/dwc/terms/index.htm#family</t>
-  </si>
-  <si>
-    <t>http://rs.tdwg.org/dwc/terms/index.htm#genus</t>
-  </si>
-  <si>
-    <t>http://rs.tdwg.org/dwc/terms/index.htm#subgenus</t>
-  </si>
-  <si>
     <t>taxonDescription</t>
   </si>
   <si>
@@ -631,9 +583,6 @@
     <t>taxonImage</t>
   </si>
   <si>
-    <t>Image of the taxon</t>
-  </si>
-  <si>
     <t>DC Taxon</t>
   </si>
   <si>
@@ -773,39 +722,6 @@
   </si>
   <si>
     <t>Animalia</t>
-  </si>
-  <si>
-    <t>Porifera</t>
-  </si>
-  <si>
-    <t>Hexactinellida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amphidiscosida </t>
-  </si>
-  <si>
-    <t>Pheronematidae</t>
-  </si>
-  <si>
-    <t>Pheronema</t>
-  </si>
-  <si>
-    <t>The full scientific name of the phylum in which the taxon is classified</t>
-  </si>
-  <si>
-    <t>The full scientific name of the class in which the taxon is classified</t>
-  </si>
-  <si>
-    <t>The full scientific name of the order in which the taxon is classified</t>
-  </si>
-  <si>
-    <t>The full scientific name of the family in which the taxon is classified</t>
-  </si>
-  <si>
-    <t>The full scientific name of the genus in which the taxon is classified</t>
-  </si>
-  <si>
-    <t>The full scientific name of the subgenus in which the taxon is classified</t>
   </si>
   <si>
     <t>http://rs.tdwg.org/dwc/terms/index.htm#taxonRank</t>
@@ -1209,27 +1125,15 @@
     <t>ONLY FILL THIS IN IF THE SPECIES YOU ARE ENTERING ARE NOT ALREADY IN SPONGIS</t>
   </si>
   <si>
-    <t>Filename of any images supplied.</t>
-  </si>
-  <si>
     <t>Brief description of the taxa suitable web:</t>
   </si>
   <si>
     <t>Comments about the taxon name:</t>
   </si>
   <si>
-    <t>The authorship information for the name:</t>
-  </si>
-  <si>
-    <t>Taxonomy</t>
-  </si>
-  <si>
     <t>Full Scientific Name:</t>
   </si>
   <si>
-    <t>Additional Name ID</t>
-  </si>
-  <si>
     <t>Event entry</t>
   </si>
   <si>
@@ -1245,9 +1149,6 @@
     <t>Gazetteer</t>
   </si>
   <si>
-    <t>Kingdom</t>
-  </si>
-  <si>
     <t>Phylum</t>
   </si>
   <si>
@@ -1263,9 +1164,6 @@
     <t>Subgenus</t>
   </si>
   <si>
-    <t>Highest taxon rank</t>
-  </si>
-  <si>
     <t>Attribution-NonCommercial-ShareAlike 4.0 International</t>
   </si>
   <si>
@@ -1470,30 +1368,12 @@
     <t>&gt;</t>
   </si>
   <si>
-    <t>DUPLICATE THE TABLE BELOW IF YOU NEED TO ADD MORE THAN 1 ORGANISM.</t>
-  </si>
-  <si>
     <t>3 - Event Details</t>
   </si>
   <si>
     <t>Short Title</t>
   </si>
   <si>
-    <t>Resource Creator 1</t>
-  </si>
-  <si>
-    <t>Resource Creator 2</t>
-  </si>
-  <si>
-    <t>Resource Creator 3</t>
-  </si>
-  <si>
-    <t>Resource Creator 4</t>
-  </si>
-  <si>
-    <t>Resource Creator 5</t>
-  </si>
-  <si>
     <t>The full scientific name, with authorship and date information if known. When forming part of an Identification, this should be the name in lowest level taxonomic rank that can be determined. This term should not contain identification qualifications, which should instead be supplied in the IdentificationQualifier term</t>
   </si>
   <si>
@@ -1516,6 +1396,78 @@
   </si>
   <si>
     <t xml:space="preserve">sheets, these include examples, links to the definition of the term, descriptors and so on. </t>
+  </si>
+  <si>
+    <t>TAXON TEMPLATE</t>
+  </si>
+  <si>
+    <t>Output - Copy and paste into 2 Taxon Details Row</t>
+  </si>
+  <si>
+    <t>Filename:Credit of any images supplied</t>
+  </si>
+  <si>
+    <t>TEMPLATE</t>
+  </si>
+  <si>
+    <t>HELPFUL TOOL TIPS WILL APPEAR ON FIELDS WHEN YOU SELECT THEM. COPY TEMPLATE OUTPUT FROM HELPFUL TOOLS INTO ROW 4 ONWARDS</t>
+  </si>
+  <si>
+    <t>higherClassification</t>
+  </si>
+  <si>
+    <t>A list (concatenated and separated) of taxa names terminating at the rank immediately superior to the taxon referenced in the taxon record.</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/dwc/terms/#higherClassification</t>
+  </si>
+  <si>
+    <t>Use JSON key:value pairs, with taxon rank and name.</t>
+  </si>
+  <si>
+    <t>taxonomicStatus</t>
+  </si>
+  <si>
+    <t>The status of the use of the scientificName as a label for a taxon. Requires taxonomic opinion to define the scope of a taxon. Rules of priority then are used to define the taxonomic status of the nomenclature contained in that scope, combined with the experts opinion. It must be linked to a specific taxonomic reference that defines the concept. Recommended best practice is to use a controlled vocabulary.</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/dwc/terms/#taxonomicStatus</t>
+  </si>
+  <si>
+    <t>Use a controlled vocabularly (e.g. accepted, invalid, not accepted).</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>Comments or notes about the taxon or name</t>
+  </si>
+  <si>
+    <t>Image of the taxon</t>
+  </si>
+  <si>
+    <t>vernacularName</t>
+  </si>
+  <si>
+    <t>A common or vernacular name.</t>
+  </si>
+  <si>
+    <t>http://rs.tdwg.org/dwc/terms/#vernacularName</t>
+  </si>
+  <si>
+    <t>Use JSON key:value pairs, with language and name.</t>
+  </si>
+  <si>
+    <t>Glass sponge:English</t>
+  </si>
+  <si>
+    <t>This sheet is designed to be used in conjunction with the SponGIS_ParseR.R script, so do not make structural changes to the sheet as it will</t>
+  </si>
+  <si>
+    <t>break the many automated functions that are built in.</t>
+  </si>
+  <si>
+    <t>Resource Creator</t>
   </si>
 </sst>
 </file>
@@ -1811,7 +1763,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1855,86 +1807,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2359,8 +2231,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="108">
+  <cellStyleXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2469,8 +2438,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2579,9 +2550,6 @@
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2589,50 +2557,15 @@
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="107" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="107" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="107" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2645,131 +2578,118 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="20" xfId="107" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="28" xfId="107" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="107" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="107" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2782,20 +2702,20 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2803,86 +2723,167 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" xfId="107" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="39" xfId="107" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="39" xfId="107" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="17" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="17" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2897,7 +2898,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="108">
+  <cellStyles count="110">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2951,6 +2952,8 @@
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3409,10 +3412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M259"/>
+  <dimension ref="A1:M261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3440,30 +3443,30 @@
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
-      <c r="E2" s="168" t="s">
-        <v>373</v>
-      </c>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
+      <c r="E2" s="174" t="s">
+        <v>345</v>
+      </c>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
@@ -3484,8 +3487,8 @@
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
-      <c r="E5" s="45" t="s">
-        <v>374</v>
+      <c r="E5" s="44" t="s">
+        <v>346</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
@@ -3500,209 +3503,213 @@
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
-      <c r="E6" s="169" t="s">
-        <v>375</v>
-      </c>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="169"/>
-      <c r="L6" s="169"/>
+      <c r="E6" s="175" t="s">
+        <v>347</v>
+      </c>
+      <c r="F6" s="175"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="175"/>
+      <c r="L6" s="175"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="169"/>
-      <c r="L7" s="169"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="175"/>
+      <c r="L7" s="175"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="169"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="175"/>
+      <c r="H8" s="175"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="175"/>
+      <c r="K8" s="175"/>
+      <c r="L8" s="175"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
       <c r="B11" s="35" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="35" t="s">
-        <v>484</v>
+        <v>444</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="143"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46" t="s">
-        <v>405</v>
-      </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="167" t="s">
-        <v>404</v>
-      </c>
-      <c r="J15" s="106"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-    </row>
-    <row r="16" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-    </row>
-    <row r="17" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-    </row>
-    <row r="18" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35" t="s">
+        <v>467</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="142" t="s">
+        <v>370</v>
+      </c>
+      <c r="J17" s="85"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+    </row>
+    <row r="18" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+    </row>
+    <row r="19" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-    </row>
-    <row r="20" spans="1:12" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+    </row>
+    <row r="20" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -3730,7 +3737,7 @@
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -3744,7 +3751,7 @@
       <c r="K22" s="35"/>
       <c r="L22" s="35"/>
     </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -3758,7 +3765,7 @@
       <c r="K23" s="35"/>
       <c r="L23" s="35"/>
     </row>
-    <row r="24" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -3772,7 +3779,7 @@
       <c r="K24" s="35"/>
       <c r="L24" s="35"/>
     </row>
-    <row r="25" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -3786,7 +3793,7 @@
       <c r="K25" s="35"/>
       <c r="L25" s="35"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -3800,7 +3807,7 @@
       <c r="K26" s="35"/>
       <c r="L26" s="35"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -3884,22 +3891,48 @@
       <c r="K32" s="35"/>
       <c r="L32" s="35"/>
     </row>
-    <row r="33" s="35" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+    </row>
+    <row r="35" spans="1:12" s="35" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="49" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="50" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="51" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -4092,36 +4125,10 @@
     <row r="238" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="239" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="240" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="241" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B241"/>
-    </row>
-    <row r="242" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A242"/>
-      <c r="B242"/>
-      <c r="C242"/>
-      <c r="D242"/>
-      <c r="E242"/>
-      <c r="F242"/>
-      <c r="G242"/>
-      <c r="H242"/>
-      <c r="I242"/>
-      <c r="J242"/>
-      <c r="K242"/>
-      <c r="L242"/>
-    </row>
+    <row r="241" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="243" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A243"/>
       <c r="B243"/>
-      <c r="C243"/>
-      <c r="D243"/>
-      <c r="E243"/>
-      <c r="F243"/>
-      <c r="G243"/>
-      <c r="H243"/>
-      <c r="I243"/>
-      <c r="J243"/>
-      <c r="K243"/>
-      <c r="L243"/>
     </row>
     <row r="244" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A244"/>
@@ -4347,13 +4354,41 @@
       <c r="K259"/>
       <c r="L259"/>
     </row>
+    <row r="260" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A260"/>
+      <c r="B260"/>
+      <c r="C260"/>
+      <c r="D260"/>
+      <c r="E260"/>
+      <c r="F260"/>
+      <c r="G260"/>
+      <c r="H260"/>
+      <c r="I260"/>
+      <c r="J260"/>
+      <c r="K260"/>
+      <c r="L260"/>
+    </row>
+    <row r="261" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A261"/>
+      <c r="B261"/>
+      <c r="C261"/>
+      <c r="D261"/>
+      <c r="E261"/>
+      <c r="F261"/>
+      <c r="G261"/>
+      <c r="H261"/>
+      <c r="I261"/>
+      <c r="J261"/>
+      <c r="K261"/>
+      <c r="L261"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E2:L3"/>
     <mergeCell ref="E6:L8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I15" r:id="rId1"/>
+    <hyperlink ref="I17" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -4382,19 +4417,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="198"/>
+      <c r="B1" s="212"/>
       <c r="D1" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="25" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4406,15 +4441,15 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="196" t="s">
-        <v>230</v>
-      </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
+      <c r="A3" s="210" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="210"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
@@ -4435,150 +4470,150 @@
         <v>2</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H5" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -4587,19 +4622,19 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>21</v>
@@ -4608,21 +4643,21 @@
         <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -4631,21 +4666,21 @@
         <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>25</v>
@@ -4654,21 +4689,21 @@
         <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>28</v>
@@ -4677,44 +4712,44 @@
         <v>29</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>30</v>
@@ -4723,16 +4758,16 @@
         <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H17" s="20">
         <v>500</v>
@@ -4740,7 +4775,7 @@
     </row>
     <row r="18" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>32</v>
@@ -4749,16 +4784,16 @@
         <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H18" s="20">
         <v>5000</v>
@@ -4766,7 +4801,7 @@
     </row>
     <row r="19" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>34</v>
@@ -4775,21 +4810,21 @@
         <v>35</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>36</v>
@@ -4798,18 +4833,18 @@
         <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>38</v>
@@ -4818,13 +4853,13 @@
         <v>39</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H21" s="20">
         <v>55.598599999999998</v>
@@ -4832,7 +4867,7 @@
     </row>
     <row r="22" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>40</v>
@@ -4841,13 +4876,13 @@
         <v>41</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H22" s="20">
         <v>-6.8977000000000004</v>
@@ -4855,22 +4890,22 @@
     </row>
     <row r="23" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H23" s="20">
         <v>1000</v>
@@ -4878,7 +4913,7 @@
     </row>
     <row r="24" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>42</v>
@@ -4887,21 +4922,21 @@
         <v>43</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>44</v>
@@ -4910,16 +4945,16 @@
         <v>45</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4953,19 +4988,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="197" t="s">
-        <v>339</v>
-      </c>
-      <c r="B1" s="197"/>
+      <c r="A1" s="211" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="211"/>
       <c r="D1" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="25" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4977,15 +5012,15 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="196" t="s">
-        <v>197</v>
-      </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
+      <c r="A3" s="210" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="210"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
@@ -5006,30 +5041,30 @@
         <v>2</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H5" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -5040,9 +5075,9 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="B7" s="166" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="141" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="32"/>
@@ -5063,19 +5098,19 @@
         <v>11</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -5089,17 +5124,17 @@
         <v>13</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.2">
@@ -5113,16 +5148,16 @@
         <v>15</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="80" x14ac:dyDescent="0.2">
@@ -5136,17 +5171,17 @@
         <v>18</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="48" x14ac:dyDescent="0.2">
@@ -5154,20 +5189,20 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="48" x14ac:dyDescent="0.2">
@@ -5181,14 +5216,14 @@
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="96" x14ac:dyDescent="0.2">
@@ -5199,16 +5234,16 @@
         <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="112" x14ac:dyDescent="0.2">
@@ -5219,16 +5254,16 @@
         <v>85</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>478</v>
+        <v>438</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>479</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="48" x14ac:dyDescent="0.2">
@@ -5239,16 +5274,16 @@
         <v>87</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>478</v>
+        <v>438</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>480</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -5259,16 +5294,16 @@
         <v>86</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>478</v>
+        <v>438</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>482</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -5279,13 +5314,13 @@
         <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H18" s="20">
         <v>2008.1333999999999</v>
@@ -5302,13 +5337,13 @@
         <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="96" x14ac:dyDescent="0.2">
@@ -5322,13 +5357,13 @@
         <v>51</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -5339,19 +5374,19 @@
         <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -5365,13 +5400,13 @@
         <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="48" x14ac:dyDescent="0.2">
@@ -5385,13 +5420,13 @@
         <v>57</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -5405,16 +5440,16 @@
         <v>59</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -5428,16 +5463,16 @@
         <v>61</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -5451,16 +5486,16 @@
         <v>65</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="96" x14ac:dyDescent="0.2">
@@ -5474,16 +5509,16 @@
         <v>74</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="80" x14ac:dyDescent="0.2">
@@ -5497,16 +5532,16 @@
         <v>77</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -5520,13 +5555,13 @@
         <v>75</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="64" x14ac:dyDescent="0.2">
@@ -5540,16 +5575,16 @@
         <v>79</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -5583,19 +5618,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="197" t="s">
-        <v>340</v>
-      </c>
-      <c r="B1" s="197"/>
+      <c r="A1" s="211" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="211"/>
       <c r="D1" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="25" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5607,15 +5642,15 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="196" t="s">
-        <v>439</v>
-      </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
+      <c r="A3" s="210" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3" s="210"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
@@ -5636,22 +5671,22 @@
         <v>2</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H5" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="13" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -5659,7 +5694,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -5684,19 +5719,19 @@
     </row>
     <row r="8" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="20">
@@ -5705,229 +5740,229 @@
     </row>
     <row r="9" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="144" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -5951,25 +5986,25 @@
       <c r="J20" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="107"/>
+      <c r="B22" s="86"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="107"/>
+      <c r="B23" s="86"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="107"/>
+      <c r="B24" s="86"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="107"/>
+      <c r="B25" s="86"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="107"/>
+      <c r="B26" s="86"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="107"/>
+      <c r="B27" s="86"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="107"/>
+      <c r="B28" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5995,97 +6030,97 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="B1" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="C1" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="H1" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="J1" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="K1" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
       <c r="M1" t="s">
-        <v>425</v>
-      </c>
-      <c r="O1" s="68" t="s">
-        <v>427</v>
+        <v>391</v>
+      </c>
+      <c r="O1" s="51" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="C2" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="K2" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="M2" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="O2" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="C3" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="H3" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="O3" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="H4" t="s">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="O4" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H5" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="O5" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H6" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H7" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -6101,9 +6136,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S104"/>
+  <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6116,11 +6153,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="154" t="s">
-        <v>434</v>
-      </c>
-      <c r="B1" s="155" t="s">
-        <v>408</v>
+      <c r="A1" s="129" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" s="130" t="s">
+        <v>374</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
@@ -6141,8 +6178,8 @@
       <c r="S1" s="35"/>
     </row>
     <row r="2" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="156"/>
-      <c r="B2" s="149"/>
+      <c r="A2" s="131"/>
+      <c r="B2" s="124"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -6162,14 +6199,14 @@
       <c r="S2" s="35"/>
     </row>
     <row r="3" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="149"/>
-      <c r="B3" s="149"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="124"/>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
-      <c r="H3" s="46"/>
+      <c r="H3" s="45"/>
       <c r="I3" s="35"/>
       <c r="J3" s="35"/>
       <c r="K3" s="35"/>
@@ -6183,18 +6220,18 @@
       <c r="S3" s="35"/>
     </row>
     <row r="4" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="134" t="s">
-        <v>406</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="47"/>
+      <c r="A4" s="112" t="s">
+        <v>372</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="46"/>
       <c r="I4" s="35"/>
       <c r="J4" s="35"/>
       <c r="K4" s="35"/>
@@ -6208,14 +6245,14 @@
       <c r="S4" s="35"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="136"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="47"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="46"/>
       <c r="I5" s="35"/>
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
@@ -6229,16 +6266,16 @@
       <c r="S5" s="35"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="161" t="s">
-        <v>471</v>
-      </c>
-      <c r="B6" s="176"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="47"/>
+      <c r="A6" s="136" t="s">
+        <v>436</v>
+      </c>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="35"/>
       <c r="J6" s="35"/>
       <c r="K6" s="35"/>
@@ -6252,16 +6289,16 @@
       <c r="S6" s="35"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="162" t="s">
-        <v>369</v>
-      </c>
-      <c r="B7" s="172"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="47"/>
+      <c r="A7" s="137" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7" s="178"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="35"/>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
@@ -6275,16 +6312,16 @@
       <c r="S7" s="35"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="162" t="s">
-        <v>370</v>
-      </c>
-      <c r="B8" s="178"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="47"/>
+      <c r="A8" s="137" t="s">
+        <v>342</v>
+      </c>
+      <c r="B8" s="184"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="46"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
@@ -6298,16 +6335,16 @@
       <c r="S8" s="35"/>
     </row>
     <row r="9" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="162" t="s">
-        <v>371</v>
-      </c>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="47"/>
+      <c r="A9" s="137" t="s">
+        <v>343</v>
+      </c>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="46"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
@@ -6321,16 +6358,16 @@
       <c r="S9" s="35"/>
     </row>
     <row r="10" spans="1:19" ht="273" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="163" t="s">
-        <v>372</v>
-      </c>
-      <c r="B10" s="174"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="47"/>
+      <c r="A10" s="138" t="s">
+        <v>344</v>
+      </c>
+      <c r="B10" s="180"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="46"/>
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
@@ -6344,21 +6381,21 @@
       <c r="S10" s="35"/>
     </row>
     <row r="11" spans="1:19" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="164" t="s">
-        <v>437</v>
-      </c>
-      <c r="B11" s="170"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="149"/>
+      <c r="A11" s="139" t="s">
+        <v>403</v>
+      </c>
+      <c r="B11" s="176"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="124"/>
       <c r="N11" s="35"/>
       <c r="O11" s="35"/>
       <c r="P11" s="35"/>
@@ -6367,19 +6404,19 @@
       <c r="S11" s="35"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="152"/>
-      <c r="B12" s="153"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="149"/>
+      <c r="A12" s="127"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="124"/>
       <c r="N12" s="35"/>
       <c r="O12" s="35"/>
       <c r="P12" s="35"/>
@@ -6388,22 +6425,22 @@
       <c r="S12" s="35"/>
     </row>
     <row r="13" spans="1:19" s="38" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="134" t="s">
-        <v>366</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="46"/>
+      <c r="A13" s="112" t="s">
+        <v>338</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="45"/>
       <c r="O13" s="35"/>
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
@@ -6411,42 +6448,42 @@
       <c r="S13" s="35"/>
     </row>
     <row r="14" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="140"/>
-      <c r="B14" s="139" t="s">
-        <v>354</v>
-      </c>
-      <c r="C14" s="139" t="s">
-        <v>355</v>
-      </c>
-      <c r="D14" s="139" t="s">
-        <v>356</v>
-      </c>
-      <c r="E14" s="139" t="s">
-        <v>357</v>
-      </c>
-      <c r="F14" s="139" t="s">
-        <v>358</v>
-      </c>
-      <c r="G14" s="139" t="s">
-        <v>359</v>
-      </c>
-      <c r="H14" s="139" t="s">
-        <v>360</v>
-      </c>
-      <c r="I14" s="139" t="s">
-        <v>361</v>
-      </c>
-      <c r="J14" s="139" t="s">
-        <v>362</v>
-      </c>
-      <c r="K14" s="139" t="s">
-        <v>363</v>
-      </c>
-      <c r="L14" s="141" t="s">
-        <v>364</v>
-      </c>
-      <c r="M14" s="47"/>
-      <c r="N14" s="46"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="116" t="s">
+        <v>326</v>
+      </c>
+      <c r="C14" s="116" t="s">
+        <v>327</v>
+      </c>
+      <c r="D14" s="116" t="s">
+        <v>328</v>
+      </c>
+      <c r="E14" s="116" t="s">
+        <v>329</v>
+      </c>
+      <c r="F14" s="116" t="s">
+        <v>330</v>
+      </c>
+      <c r="G14" s="116" t="s">
+        <v>331</v>
+      </c>
+      <c r="H14" s="116" t="s">
+        <v>332</v>
+      </c>
+      <c r="I14" s="116" t="s">
+        <v>333</v>
+      </c>
+      <c r="J14" s="116" t="s">
+        <v>334</v>
+      </c>
+      <c r="K14" s="116" t="s">
+        <v>335</v>
+      </c>
+      <c r="L14" s="118" t="s">
+        <v>336</v>
+      </c>
+      <c r="M14" s="46"/>
+      <c r="N14" s="45"/>
       <c r="O14" s="35"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
@@ -6454,346 +6491,338 @@
       <c r="S14" s="35"/>
     </row>
     <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="142" t="s">
-        <v>367</v>
-      </c>
-      <c r="B15" s="133"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="143"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="46"/>
+      <c r="A15" s="119" t="s">
+        <v>339</v>
+      </c>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="45"/>
       <c r="O15" s="35"/>
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
       <c r="R15" s="35"/>
       <c r="S15" s="35"/>
     </row>
-    <row r="16" spans="1:19" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="138" t="s">
-        <v>472</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="46"/>
+    <row r="16" spans="1:19" s="38" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="173" t="s">
+        <v>468</v>
+      </c>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="45"/>
       <c r="O16" s="35"/>
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
       <c r="R16" s="35"/>
       <c r="S16" s="35"/>
     </row>
-    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="142" t="s">
-        <v>473</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="144"/>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="124"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
       <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
       <c r="S17" s="35"/>
     </row>
-    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="142" t="s">
-        <v>474</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="144"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="124"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
       <c r="S18" s="35"/>
     </row>
-    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="142" t="s">
-        <v>475</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="144"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="124"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
       <c r="S19" s="35"/>
     </row>
-    <row r="20" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="145" t="s">
-        <v>476</v>
-      </c>
-      <c r="B20" s="146"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="124"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
       <c r="S20" s="35"/>
     </row>
     <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="149"/>
-      <c r="B21" s="149"/>
+      <c r="A21" s="124"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="150"/>
-      <c r="I21" s="150"/>
-      <c r="J21" s="150"/>
-      <c r="K21" s="150"/>
-      <c r="L21" s="150"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
       <c r="S21" s="35"/>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="149"/>
-      <c r="B22" s="149"/>
+      <c r="A22" s="124"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
       <c r="G22" s="35"/>
-      <c r="H22" s="150"/>
-      <c r="I22" s="150"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="150"/>
-      <c r="L22" s="150"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
       <c r="S22" s="35"/>
     </row>
     <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="149"/>
-      <c r="B23" s="149"/>
+      <c r="A23" s="124"/>
+      <c r="B23" s="124"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="150"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="150"/>
-      <c r="L23" s="150"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
       <c r="S23" s="35"/>
     </row>
     <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="149"/>
-      <c r="B24" s="149"/>
+      <c r="A24" s="124"/>
+      <c r="B24" s="124"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="150"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="150"/>
-      <c r="L24" s="150"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
       <c r="S24" s="35"/>
     </row>
     <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="149"/>
-      <c r="B25" s="149"/>
+      <c r="A25" s="124"/>
+      <c r="B25" s="124"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="125"/>
+      <c r="K25" s="125"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
       <c r="S25" s="35"/>
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="149"/>
-      <c r="B26" s="149"/>
+      <c r="A26" s="124"/>
+      <c r="B26" s="124"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="125"/>
+      <c r="K26" s="125"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="124"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
       <c r="S26" s="35"/>
     </row>
     <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="149"/>
-      <c r="B27" s="149"/>
+      <c r="A27" s="124"/>
+      <c r="B27" s="124"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="124"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
       <c r="S27" s="35"/>
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="149"/>
-      <c r="B28" s="149"/>
+      <c r="A28" s="124"/>
+      <c r="B28" s="124"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
+      <c r="H28" s="125"/>
+      <c r="I28" s="125"/>
+      <c r="J28" s="125"/>
+      <c r="K28" s="125"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="124"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
       <c r="S28" s="35"/>
     </row>
     <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="149"/>
-      <c r="B29" s="149"/>
+      <c r="A29" s="124"/>
+      <c r="B29" s="124"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="125"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="124"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
       <c r="S29" s="35"/>
     </row>
     <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="149"/>
-      <c r="B30" s="149"/>
+      <c r="A30" s="124"/>
+      <c r="B30" s="124"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="149"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="125"/>
+      <c r="L30" s="125"/>
+      <c r="M30" s="124"/>
       <c r="N30" s="35"/>
       <c r="O30" s="35"/>
       <c r="P30" s="35"/>
@@ -6802,19 +6831,19 @@
       <c r="S30" s="35"/>
     </row>
     <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="149"/>
-      <c r="B31" s="149"/>
+      <c r="A31" s="124"/>
+      <c r="B31" s="124"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="149"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="125"/>
+      <c r="K31" s="125"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="124"/>
       <c r="N31" s="35"/>
       <c r="O31" s="35"/>
       <c r="P31" s="35"/>
@@ -6823,19 +6852,19 @@
       <c r="S31" s="35"/>
     </row>
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="149"/>
-      <c r="B32" s="149"/>
+      <c r="A32" s="124"/>
+      <c r="B32" s="124"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="149"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="125"/>
+      <c r="K32" s="125"/>
+      <c r="L32" s="125"/>
+      <c r="M32" s="124"/>
       <c r="N32" s="35"/>
       <c r="O32" s="35"/>
       <c r="P32" s="35"/>
@@ -6844,19 +6873,19 @@
       <c r="S32" s="35"/>
     </row>
     <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="149"/>
-      <c r="B33" s="149"/>
+      <c r="A33" s="124"/>
+      <c r="B33" s="124"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="149"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="125"/>
+      <c r="J33" s="125"/>
+      <c r="K33" s="125"/>
+      <c r="L33" s="125"/>
+      <c r="M33" s="124"/>
       <c r="N33" s="35"/>
       <c r="O33" s="35"/>
       <c r="P33" s="35"/>
@@ -6865,19 +6894,19 @@
       <c r="S33" s="35"/>
     </row>
     <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="149"/>
-      <c r="B34" s="149"/>
+      <c r="A34" s="124"/>
+      <c r="B34" s="124"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="149"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="125"/>
+      <c r="J34" s="125"/>
+      <c r="K34" s="125"/>
+      <c r="L34" s="125"/>
+      <c r="M34" s="124"/>
       <c r="N34" s="35"/>
       <c r="O34" s="35"/>
       <c r="P34" s="35"/>
@@ -6886,19 +6915,19 @@
       <c r="S34" s="35"/>
     </row>
     <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="149"/>
-      <c r="B35" s="149"/>
+      <c r="A35" s="124"/>
+      <c r="B35" s="124"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="149"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="125"/>
+      <c r="K35" s="125"/>
+      <c r="L35" s="125"/>
+      <c r="M35" s="124"/>
       <c r="N35" s="35"/>
       <c r="O35" s="35"/>
       <c r="P35" s="35"/>
@@ -6907,19 +6936,19 @@
       <c r="S35" s="35"/>
     </row>
     <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="149"/>
-      <c r="B36" s="149"/>
+      <c r="A36" s="124"/>
+      <c r="B36" s="124"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="149"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="125"/>
+      <c r="J36" s="125"/>
+      <c r="K36" s="125"/>
+      <c r="L36" s="125"/>
+      <c r="M36" s="124"/>
       <c r="N36" s="35"/>
       <c r="O36" s="35"/>
       <c r="P36" s="35"/>
@@ -6928,19 +6957,19 @@
       <c r="S36" s="35"/>
     </row>
     <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="149"/>
-      <c r="B37" s="149"/>
+      <c r="A37" s="124"/>
+      <c r="B37" s="124"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="149"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="125"/>
+      <c r="J37" s="125"/>
+      <c r="K37" s="125"/>
+      <c r="L37" s="125"/>
+      <c r="M37" s="124"/>
       <c r="N37" s="35"/>
       <c r="O37" s="35"/>
       <c r="P37" s="35"/>
@@ -6949,19 +6978,19 @@
       <c r="S37" s="35"/>
     </row>
     <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="149"/>
-      <c r="B38" s="149"/>
+      <c r="A38" s="124"/>
+      <c r="B38" s="124"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="149"/>
+      <c r="H38" s="125"/>
+      <c r="I38" s="125"/>
+      <c r="J38" s="125"/>
+      <c r="K38" s="125"/>
+      <c r="L38" s="125"/>
+      <c r="M38" s="124"/>
       <c r="N38" s="35"/>
       <c r="O38" s="35"/>
       <c r="P38" s="35"/>
@@ -6970,19 +6999,19 @@
       <c r="S38" s="35"/>
     </row>
     <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="149"/>
-      <c r="B39" s="149"/>
+      <c r="A39" s="124"/>
+      <c r="B39" s="124"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
       <c r="F39" s="35"/>
       <c r="G39" s="35"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="149"/>
+      <c r="H39" s="125"/>
+      <c r="I39" s="125"/>
+      <c r="J39" s="125"/>
+      <c r="K39" s="125"/>
+      <c r="L39" s="125"/>
+      <c r="M39" s="124"/>
       <c r="N39" s="35"/>
       <c r="O39" s="35"/>
       <c r="P39" s="35"/>
@@ -6991,19 +7020,19 @@
       <c r="S39" s="35"/>
     </row>
     <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="149"/>
-      <c r="B40" s="149"/>
+      <c r="A40" s="124"/>
+      <c r="B40" s="124"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="149"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="125"/>
+      <c r="J40" s="125"/>
+      <c r="K40" s="125"/>
+      <c r="L40" s="125"/>
+      <c r="M40" s="124"/>
       <c r="N40" s="35"/>
       <c r="O40" s="35"/>
       <c r="P40" s="35"/>
@@ -7012,19 +7041,19 @@
       <c r="S40" s="35"/>
     </row>
     <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="149"/>
-      <c r="B41" s="149"/>
+      <c r="A41" s="124"/>
+      <c r="B41" s="124"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="149"/>
+      <c r="H41" s="125"/>
+      <c r="I41" s="125"/>
+      <c r="J41" s="125"/>
+      <c r="K41" s="125"/>
+      <c r="L41" s="125"/>
+      <c r="M41" s="124"/>
       <c r="N41" s="35"/>
       <c r="O41" s="35"/>
       <c r="P41" s="35"/>
@@ -7033,19 +7062,19 @@
       <c r="S41" s="35"/>
     </row>
     <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="149"/>
-      <c r="B42" s="149"/>
+      <c r="A42" s="124"/>
+      <c r="B42" s="124"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="149"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="125"/>
+      <c r="J42" s="125"/>
+      <c r="K42" s="125"/>
+      <c r="L42" s="125"/>
+      <c r="M42" s="124"/>
       <c r="N42" s="35"/>
       <c r="O42" s="35"/>
       <c r="P42" s="35"/>
@@ -7054,19 +7083,19 @@
       <c r="S42" s="35"/>
     </row>
     <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="149"/>
-      <c r="B43" s="149"/>
+      <c r="A43" s="124"/>
+      <c r="B43" s="124"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="149"/>
+      <c r="H43" s="125"/>
+      <c r="I43" s="125"/>
+      <c r="J43" s="125"/>
+      <c r="K43" s="125"/>
+      <c r="L43" s="125"/>
+      <c r="M43" s="124"/>
       <c r="N43" s="35"/>
       <c r="O43" s="35"/>
       <c r="P43" s="35"/>
@@ -7075,19 +7104,19 @@
       <c r="S43" s="35"/>
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="149"/>
-      <c r="B44" s="149"/>
+      <c r="A44" s="124"/>
+      <c r="B44" s="124"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
-      <c r="H44" s="150"/>
-      <c r="I44" s="150"/>
-      <c r="J44" s="150"/>
-      <c r="K44" s="150"/>
-      <c r="L44" s="150"/>
-      <c r="M44" s="149"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="125"/>
+      <c r="K44" s="125"/>
+      <c r="L44" s="125"/>
+      <c r="M44" s="124"/>
       <c r="N44" s="35"/>
       <c r="O44" s="35"/>
       <c r="P44" s="35"/>
@@ -7096,19 +7125,19 @@
       <c r="S44" s="35"/>
     </row>
     <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="149"/>
-      <c r="B45" s="149"/>
+      <c r="A45" s="124"/>
+      <c r="B45" s="124"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
-      <c r="H45" s="150"/>
-      <c r="I45" s="150"/>
-      <c r="J45" s="150"/>
-      <c r="K45" s="150"/>
-      <c r="L45" s="150"/>
-      <c r="M45" s="149"/>
+      <c r="H45" s="125"/>
+      <c r="I45" s="125"/>
+      <c r="J45" s="125"/>
+      <c r="K45" s="125"/>
+      <c r="L45" s="125"/>
+      <c r="M45" s="124"/>
       <c r="N45" s="35"/>
       <c r="O45" s="35"/>
       <c r="P45" s="35"/>
@@ -7117,19 +7146,19 @@
       <c r="S45" s="35"/>
     </row>
     <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="149"/>
-      <c r="B46" s="149"/>
+      <c r="A46" s="124"/>
+      <c r="B46" s="124"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
-      <c r="H46" s="150"/>
-      <c r="I46" s="150"/>
-      <c r="J46" s="150"/>
-      <c r="K46" s="150"/>
-      <c r="L46" s="150"/>
-      <c r="M46" s="149"/>
+      <c r="H46" s="125"/>
+      <c r="I46" s="125"/>
+      <c r="J46" s="125"/>
+      <c r="K46" s="125"/>
+      <c r="L46" s="125"/>
+      <c r="M46" s="124"/>
       <c r="N46" s="35"/>
       <c r="O46" s="35"/>
       <c r="P46" s="35"/>
@@ -7138,19 +7167,19 @@
       <c r="S46" s="35"/>
     </row>
     <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="149"/>
-      <c r="B47" s="149"/>
+      <c r="A47" s="124"/>
+      <c r="B47" s="124"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
-      <c r="H47" s="150"/>
-      <c r="I47" s="150"/>
-      <c r="J47" s="150"/>
-      <c r="K47" s="150"/>
-      <c r="L47" s="150"/>
-      <c r="M47" s="149"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="125"/>
+      <c r="J47" s="125"/>
+      <c r="K47" s="125"/>
+      <c r="L47" s="125"/>
+      <c r="M47" s="124"/>
       <c r="N47" s="35"/>
       <c r="O47" s="35"/>
       <c r="P47" s="35"/>
@@ -7159,19 +7188,19 @@
       <c r="S47" s="35"/>
     </row>
     <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="149"/>
-      <c r="B48" s="149"/>
+      <c r="A48" s="124"/>
+      <c r="B48" s="124"/>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
-      <c r="H48" s="150"/>
-      <c r="I48" s="150"/>
-      <c r="J48" s="150"/>
-      <c r="K48" s="150"/>
-      <c r="L48" s="150"/>
-      <c r="M48" s="149"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="125"/>
+      <c r="J48" s="125"/>
+      <c r="K48" s="125"/>
+      <c r="L48" s="125"/>
+      <c r="M48" s="124"/>
       <c r="N48" s="35"/>
       <c r="O48" s="35"/>
       <c r="P48" s="35"/>
@@ -7180,19 +7209,19 @@
       <c r="S48" s="35"/>
     </row>
     <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="149"/>
-      <c r="B49" s="149"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="150"/>
-      <c r="I49" s="150"/>
-      <c r="J49" s="150"/>
-      <c r="K49" s="150"/>
-      <c r="L49" s="150"/>
-      <c r="M49" s="149"/>
+      <c r="A49" s="126"/>
+      <c r="B49" s="125"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="125"/>
+      <c r="G49" s="125"/>
+      <c r="H49" s="125"/>
+      <c r="I49" s="125"/>
+      <c r="J49" s="125"/>
+      <c r="K49" s="125"/>
+      <c r="L49" s="125"/>
+      <c r="M49" s="124"/>
       <c r="N49" s="35"/>
       <c r="O49" s="35"/>
       <c r="P49" s="35"/>
@@ -7201,19 +7230,19 @@
       <c r="S49" s="35"/>
     </row>
     <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="149"/>
-      <c r="B50" s="149"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="150"/>
-      <c r="I50" s="150"/>
-      <c r="J50" s="150"/>
-      <c r="K50" s="150"/>
-      <c r="L50" s="150"/>
-      <c r="M50" s="149"/>
+      <c r="A50" s="126"/>
+      <c r="B50" s="125"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="125"/>
+      <c r="K50" s="125"/>
+      <c r="L50" s="125"/>
+      <c r="M50" s="124"/>
       <c r="N50" s="35"/>
       <c r="O50" s="35"/>
       <c r="P50" s="35"/>
@@ -7221,20 +7250,20 @@
       <c r="R50" s="35"/>
       <c r="S50" s="35"/>
     </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="149"/>
-      <c r="B51" s="149"/>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="124"/>
+      <c r="B51" s="124"/>
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
       <c r="F51" s="35"/>
       <c r="G51" s="35"/>
-      <c r="H51" s="150"/>
-      <c r="I51" s="150"/>
-      <c r="J51" s="150"/>
-      <c r="K51" s="150"/>
-      <c r="L51" s="150"/>
-      <c r="M51" s="149"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
       <c r="N51" s="35"/>
       <c r="O51" s="35"/>
       <c r="P51" s="35"/>
@@ -7242,20 +7271,20 @@
       <c r="R51" s="35"/>
       <c r="S51" s="35"/>
     </row>
-    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="149"/>
-      <c r="B52" s="149"/>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" s="124"/>
+      <c r="B52" s="124"/>
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
-      <c r="H52" s="150"/>
-      <c r="I52" s="150"/>
-      <c r="J52" s="150"/>
-      <c r="K52" s="150"/>
-      <c r="L52" s="150"/>
-      <c r="M52" s="149"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
       <c r="N52" s="35"/>
       <c r="O52" s="35"/>
       <c r="P52" s="35"/>
@@ -7263,20 +7292,20 @@
       <c r="R52" s="35"/>
       <c r="S52" s="35"/>
     </row>
-    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="151"/>
-      <c r="B53" s="150"/>
-      <c r="C53" s="150"/>
-      <c r="D53" s="150"/>
-      <c r="E53" s="150"/>
-      <c r="F53" s="150"/>
-      <c r="G53" s="150"/>
-      <c r="H53" s="150"/>
-      <c r="I53" s="150"/>
-      <c r="J53" s="150"/>
-      <c r="K53" s="150"/>
-      <c r="L53" s="150"/>
-      <c r="M53" s="149"/>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53" s="124"/>
+      <c r="B53" s="124"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
       <c r="N53" s="35"/>
       <c r="O53" s="35"/>
       <c r="P53" s="35"/>
@@ -7284,20 +7313,20 @@
       <c r="R53" s="35"/>
       <c r="S53" s="35"/>
     </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="151"/>
-      <c r="B54" s="150"/>
-      <c r="C54" s="150"/>
-      <c r="D54" s="150"/>
-      <c r="E54" s="150"/>
-      <c r="F54" s="150"/>
-      <c r="G54" s="150"/>
-      <c r="H54" s="150"/>
-      <c r="I54" s="150"/>
-      <c r="J54" s="150"/>
-      <c r="K54" s="150"/>
-      <c r="L54" s="150"/>
-      <c r="M54" s="149"/>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" s="124"/>
+      <c r="B54" s="124"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
       <c r="N54" s="35"/>
       <c r="O54" s="35"/>
       <c r="P54" s="35"/>
@@ -7306,8 +7335,8 @@
       <c r="S54" s="35"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55" s="149"/>
-      <c r="B55" s="149"/>
+      <c r="A55" s="124"/>
+      <c r="B55" s="124"/>
       <c r="C55" s="35"/>
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
@@ -7327,8 +7356,8 @@
       <c r="S55" s="35"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56" s="149"/>
-      <c r="B56" s="149"/>
+      <c r="A56" s="124"/>
+      <c r="B56" s="124"/>
       <c r="C56" s="35"/>
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
@@ -7348,8 +7377,8 @@
       <c r="S56" s="35"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57" s="149"/>
-      <c r="B57" s="149"/>
+      <c r="A57" s="124"/>
+      <c r="B57" s="124"/>
       <c r="C57" s="35"/>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
@@ -7369,8 +7398,8 @@
       <c r="S57" s="35"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="149"/>
-      <c r="B58" s="149"/>
+      <c r="A58" s="124"/>
+      <c r="B58" s="124"/>
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
@@ -7390,8 +7419,8 @@
       <c r="S58" s="35"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A59" s="149"/>
-      <c r="B59" s="149"/>
+      <c r="A59" s="124"/>
+      <c r="B59" s="124"/>
       <c r="C59" s="35"/>
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
@@ -7411,8 +7440,8 @@
       <c r="S59" s="35"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60" s="149"/>
-      <c r="B60" s="149"/>
+      <c r="A60" s="124"/>
+      <c r="B60" s="124"/>
       <c r="C60" s="35"/>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
@@ -7432,8 +7461,8 @@
       <c r="S60" s="35"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A61" s="149"/>
-      <c r="B61" s="149"/>
+      <c r="A61" s="124"/>
+      <c r="B61" s="124"/>
       <c r="C61" s="35"/>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
@@ -7453,8 +7482,8 @@
       <c r="S61" s="35"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A62" s="149"/>
-      <c r="B62" s="149"/>
+      <c r="A62" s="124"/>
+      <c r="B62" s="124"/>
       <c r="C62" s="35"/>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
@@ -7474,8 +7503,8 @@
       <c r="S62" s="35"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A63" s="149"/>
-      <c r="B63" s="149"/>
+      <c r="A63" s="124"/>
+      <c r="B63" s="124"/>
       <c r="C63" s="35"/>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
@@ -7495,8 +7524,8 @@
       <c r="S63" s="35"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A64" s="149"/>
-      <c r="B64" s="149"/>
+      <c r="A64" s="124"/>
+      <c r="B64" s="124"/>
       <c r="C64" s="35"/>
       <c r="D64" s="35"/>
       <c r="E64" s="35"/>
@@ -7516,8 +7545,8 @@
       <c r="S64" s="35"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A65" s="149"/>
-      <c r="B65" s="149"/>
+      <c r="A65" s="124"/>
+      <c r="B65" s="124"/>
       <c r="C65" s="35"/>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
@@ -7537,8 +7566,8 @@
       <c r="S65" s="35"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A66" s="149"/>
-      <c r="B66" s="149"/>
+      <c r="A66" s="124"/>
+      <c r="B66" s="124"/>
       <c r="C66" s="35"/>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
@@ -7558,8 +7587,8 @@
       <c r="S66" s="35"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="149"/>
-      <c r="B67" s="149"/>
+      <c r="A67" s="124"/>
+      <c r="B67" s="124"/>
       <c r="C67" s="35"/>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
@@ -7579,8 +7608,8 @@
       <c r="S67" s="35"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A68" s="149"/>
-      <c r="B68" s="149"/>
+      <c r="A68" s="124"/>
+      <c r="B68" s="124"/>
       <c r="C68" s="35"/>
       <c r="D68" s="35"/>
       <c r="E68" s="35"/>
@@ -7600,8 +7629,8 @@
       <c r="S68" s="35"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A69" s="149"/>
-      <c r="B69" s="149"/>
+      <c r="A69" s="124"/>
+      <c r="B69" s="124"/>
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -7621,8 +7650,8 @@
       <c r="S69" s="35"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A70" s="149"/>
-      <c r="B70" s="149"/>
+      <c r="A70" s="124"/>
+      <c r="B70" s="124"/>
       <c r="C70" s="35"/>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -7642,8 +7671,8 @@
       <c r="S70" s="35"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A71" s="149"/>
-      <c r="B71" s="149"/>
+      <c r="A71" s="124"/>
+      <c r="B71" s="124"/>
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
       <c r="E71" s="35"/>
@@ -7663,8 +7692,8 @@
       <c r="S71" s="35"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A72" s="149"/>
-      <c r="B72" s="149"/>
+      <c r="A72" s="124"/>
+      <c r="B72" s="124"/>
       <c r="C72" s="35"/>
       <c r="D72" s="35"/>
       <c r="E72" s="35"/>
@@ -7684,8 +7713,8 @@
       <c r="S72" s="35"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A73" s="149"/>
-      <c r="B73" s="149"/>
+      <c r="A73" s="124"/>
+      <c r="B73" s="124"/>
       <c r="C73" s="35"/>
       <c r="D73" s="35"/>
       <c r="E73" s="35"/>
@@ -7705,8 +7734,8 @@
       <c r="S73" s="35"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A74" s="149"/>
-      <c r="B74" s="149"/>
+      <c r="A74" s="124"/>
+      <c r="B74" s="124"/>
       <c r="C74" s="35"/>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
@@ -7726,8 +7755,8 @@
       <c r="S74" s="35"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A75" s="149"/>
-      <c r="B75" s="149"/>
+      <c r="A75" s="124"/>
+      <c r="B75" s="124"/>
       <c r="C75" s="35"/>
       <c r="D75" s="35"/>
       <c r="E75" s="35"/>
@@ -7747,8 +7776,8 @@
       <c r="S75" s="35"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A76" s="149"/>
-      <c r="B76" s="149"/>
+      <c r="A76" s="124"/>
+      <c r="B76" s="124"/>
       <c r="C76" s="35"/>
       <c r="D76" s="35"/>
       <c r="E76" s="35"/>
@@ -7768,8 +7797,8 @@
       <c r="S76" s="35"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A77" s="149"/>
-      <c r="B77" s="149"/>
+      <c r="A77" s="124"/>
+      <c r="B77" s="124"/>
       <c r="C77" s="35"/>
       <c r="D77" s="35"/>
       <c r="E77" s="35"/>
@@ -7789,8 +7818,8 @@
       <c r="S77" s="35"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A78" s="149"/>
-      <c r="B78" s="149"/>
+      <c r="A78" s="124"/>
+      <c r="B78" s="124"/>
       <c r="C78" s="35"/>
       <c r="D78" s="35"/>
       <c r="E78" s="35"/>
@@ -7810,8 +7839,8 @@
       <c r="S78" s="35"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A79" s="149"/>
-      <c r="B79" s="149"/>
+      <c r="A79" s="124"/>
+      <c r="B79" s="124"/>
       <c r="C79" s="35"/>
       <c r="D79" s="35"/>
       <c r="E79" s="35"/>
@@ -7831,8 +7860,8 @@
       <c r="S79" s="35"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A80" s="149"/>
-      <c r="B80" s="149"/>
+      <c r="A80" s="124"/>
+      <c r="B80" s="124"/>
       <c r="C80" s="35"/>
       <c r="D80" s="35"/>
       <c r="E80" s="35"/>
@@ -7852,8 +7881,8 @@
       <c r="S80" s="35"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A81" s="149"/>
-      <c r="B81" s="149"/>
+      <c r="A81" s="124"/>
+      <c r="B81" s="124"/>
       <c r="C81" s="35"/>
       <c r="D81" s="35"/>
       <c r="E81" s="35"/>
@@ -7873,8 +7902,8 @@
       <c r="S81" s="35"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A82" s="149"/>
-      <c r="B82" s="149"/>
+      <c r="A82" s="124"/>
+      <c r="B82" s="124"/>
       <c r="C82" s="35"/>
       <c r="D82" s="35"/>
       <c r="E82" s="35"/>
@@ -7894,8 +7923,8 @@
       <c r="S82" s="35"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A83" s="149"/>
-      <c r="B83" s="149"/>
+      <c r="A83" s="124"/>
+      <c r="B83" s="124"/>
       <c r="C83" s="35"/>
       <c r="D83" s="35"/>
       <c r="E83" s="35"/>
@@ -7915,8 +7944,8 @@
       <c r="S83" s="35"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A84" s="149"/>
-      <c r="B84" s="149"/>
+      <c r="A84" s="124"/>
+      <c r="B84" s="124"/>
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
       <c r="E84" s="35"/>
@@ -7936,8 +7965,8 @@
       <c r="S84" s="35"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A85" s="149"/>
-      <c r="B85" s="149"/>
+      <c r="A85" s="124"/>
+      <c r="B85" s="124"/>
       <c r="C85" s="35"/>
       <c r="D85" s="35"/>
       <c r="E85" s="35"/>
@@ -7957,8 +7986,8 @@
       <c r="S85" s="35"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A86" s="149"/>
-      <c r="B86" s="149"/>
+      <c r="A86" s="124"/>
+      <c r="B86" s="124"/>
       <c r="C86" s="35"/>
       <c r="D86" s="35"/>
       <c r="E86" s="35"/>
@@ -7978,8 +8007,8 @@
       <c r="S86" s="35"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A87" s="149"/>
-      <c r="B87" s="149"/>
+      <c r="A87" s="124"/>
+      <c r="B87" s="124"/>
       <c r="C87" s="35"/>
       <c r="D87" s="35"/>
       <c r="E87" s="35"/>
@@ -7999,8 +8028,8 @@
       <c r="S87" s="35"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A88" s="149"/>
-      <c r="B88" s="149"/>
+      <c r="A88" s="124"/>
+      <c r="B88" s="124"/>
       <c r="C88" s="35"/>
       <c r="D88" s="35"/>
       <c r="E88" s="35"/>
@@ -8020,8 +8049,8 @@
       <c r="S88" s="35"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A89" s="149"/>
-      <c r="B89" s="149"/>
+      <c r="A89" s="124"/>
+      <c r="B89" s="124"/>
       <c r="C89" s="35"/>
       <c r="D89" s="35"/>
       <c r="E89" s="35"/>
@@ -8041,8 +8070,8 @@
       <c r="S89" s="35"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A90" s="149"/>
-      <c r="B90" s="149"/>
+      <c r="A90" s="124"/>
+      <c r="B90" s="124"/>
       <c r="C90" s="35"/>
       <c r="D90" s="35"/>
       <c r="E90" s="35"/>
@@ -8062,8 +8091,8 @@
       <c r="S90" s="35"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A91" s="149"/>
-      <c r="B91" s="149"/>
+      <c r="A91" s="124"/>
+      <c r="B91" s="124"/>
       <c r="C91" s="35"/>
       <c r="D91" s="35"/>
       <c r="E91" s="35"/>
@@ -8083,8 +8112,8 @@
       <c r="S91" s="35"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A92" s="149"/>
-      <c r="B92" s="149"/>
+      <c r="A92" s="124"/>
+      <c r="B92" s="124"/>
       <c r="C92" s="35"/>
       <c r="D92" s="35"/>
       <c r="E92" s="35"/>
@@ -8104,8 +8133,8 @@
       <c r="S92" s="35"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A93" s="149"/>
-      <c r="B93" s="149"/>
+      <c r="A93" s="124"/>
+      <c r="B93" s="124"/>
       <c r="C93" s="35"/>
       <c r="D93" s="35"/>
       <c r="E93" s="35"/>
@@ -8125,8 +8154,8 @@
       <c r="S93" s="35"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A94" s="149"/>
-      <c r="B94" s="149"/>
+      <c r="A94" s="124"/>
+      <c r="B94" s="124"/>
       <c r="C94" s="35"/>
       <c r="D94" s="35"/>
       <c r="E94" s="35"/>
@@ -8146,8 +8175,8 @@
       <c r="S94" s="35"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A95" s="149"/>
-      <c r="B95" s="149"/>
+      <c r="A95" s="124"/>
+      <c r="B95" s="124"/>
       <c r="C95" s="35"/>
       <c r="D95" s="35"/>
       <c r="E95" s="35"/>
@@ -8167,8 +8196,8 @@
       <c r="S95" s="35"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A96" s="149"/>
-      <c r="B96" s="149"/>
+      <c r="A96" s="124"/>
+      <c r="B96" s="124"/>
       <c r="C96" s="35"/>
       <c r="D96" s="35"/>
       <c r="E96" s="35"/>
@@ -8188,8 +8217,8 @@
       <c r="S96" s="35"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A97" s="149"/>
-      <c r="B97" s="149"/>
+      <c r="A97" s="124"/>
+      <c r="B97" s="124"/>
       <c r="C97" s="35"/>
       <c r="D97" s="35"/>
       <c r="E97" s="35"/>
@@ -8209,8 +8238,8 @@
       <c r="S97" s="35"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A98" s="149"/>
-      <c r="B98" s="149"/>
+      <c r="A98" s="124"/>
+      <c r="B98" s="124"/>
       <c r="C98" s="35"/>
       <c r="D98" s="35"/>
       <c r="E98" s="35"/>
@@ -8230,8 +8259,8 @@
       <c r="S98" s="35"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A99" s="149"/>
-      <c r="B99" s="149"/>
+      <c r="A99" s="124"/>
+      <c r="B99" s="124"/>
       <c r="C99" s="35"/>
       <c r="D99" s="35"/>
       <c r="E99" s="35"/>
@@ -8251,8 +8280,8 @@
       <c r="S99" s="35"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A100" s="149"/>
-      <c r="B100" s="149"/>
+      <c r="A100" s="124"/>
+      <c r="B100" s="124"/>
       <c r="C100" s="35"/>
       <c r="D100" s="35"/>
       <c r="E100" s="35"/>
@@ -8271,90 +8300,6 @@
       <c r="R100" s="35"/>
       <c r="S100" s="35"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A101" s="149"/>
-      <c r="B101" s="149"/>
-      <c r="C101" s="35"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="35"/>
-      <c r="H101" s="35"/>
-      <c r="I101" s="35"/>
-      <c r="J101" s="35"/>
-      <c r="K101" s="35"/>
-      <c r="L101" s="35"/>
-      <c r="M101" s="35"/>
-      <c r="N101" s="35"/>
-      <c r="O101" s="35"/>
-      <c r="P101" s="35"/>
-      <c r="Q101" s="35"/>
-      <c r="R101" s="35"/>
-      <c r="S101" s="35"/>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A102" s="149"/>
-      <c r="B102" s="149"/>
-      <c r="C102" s="35"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="35"/>
-      <c r="F102" s="35"/>
-      <c r="G102" s="35"/>
-      <c r="H102" s="35"/>
-      <c r="I102" s="35"/>
-      <c r="J102" s="35"/>
-      <c r="K102" s="35"/>
-      <c r="L102" s="35"/>
-      <c r="M102" s="35"/>
-      <c r="N102" s="35"/>
-      <c r="O102" s="35"/>
-      <c r="P102" s="35"/>
-      <c r="Q102" s="35"/>
-      <c r="R102" s="35"/>
-      <c r="S102" s="35"/>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A103" s="149"/>
-      <c r="B103" s="149"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="35"/>
-      <c r="I103" s="35"/>
-      <c r="J103" s="35"/>
-      <c r="K103" s="35"/>
-      <c r="L103" s="35"/>
-      <c r="M103" s="35"/>
-      <c r="N103" s="35"/>
-      <c r="O103" s="35"/>
-      <c r="P103" s="35"/>
-      <c r="Q103" s="35"/>
-      <c r="R103" s="35"/>
-      <c r="S103" s="35"/>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A104" s="149"/>
-      <c r="B104" s="149"/>
-      <c r="C104" s="35"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="35"/>
-      <c r="F104" s="35"/>
-      <c r="G104" s="35"/>
-      <c r="H104" s="35"/>
-      <c r="I104" s="35"/>
-      <c r="J104" s="35"/>
-      <c r="K104" s="35"/>
-      <c r="L104" s="35"/>
-      <c r="M104" s="35"/>
-      <c r="N104" s="35"/>
-      <c r="O104" s="35"/>
-      <c r="P104" s="35"/>
-      <c r="Q104" s="35"/>
-      <c r="R104" s="35"/>
-      <c r="S104" s="35"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B11:G11"/>
@@ -8369,7 +8314,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="created" prompt="The date this resource was publiched online, not data collection or original publication date." sqref="B8:G8"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bibliographicCitation" prompt="Expected citation as you would like it." sqref="B9:G9"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="description" prompt="Abstract or concise description" sqref="B10:G10"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="creator" prompt="An entity primarily responsible for making the resource." sqref="B16:L20"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="creator" prompt="An entity primarily responsible for making the resource." sqref="B16:L16"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="rightsHolder" prompt="A person or organization owning or managing rights over the resource. Can be institute or individual." sqref="B15:L15"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8393,25 +8338,26 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="36" customWidth="1"/>
-    <col min="3" max="6" width="15.33203125" customWidth="1"/>
+    <col min="1" max="2" width="27.5" style="36" customWidth="1"/>
+    <col min="3" max="6" width="27.5" customWidth="1"/>
     <col min="7" max="7" width="18.83203125" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="154" t="s">
-        <v>380</v>
-      </c>
-      <c r="B1" s="155" t="s">
-        <v>381</v>
+    <row r="1" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="129" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="130" t="s">
+        <v>353</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
@@ -8420,258 +8366,86 @@
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="156"/>
-      <c r="B2" s="155" t="s">
-        <v>408</v>
+    <row r="2" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="131"/>
+      <c r="B2" s="130" t="s">
+        <v>449</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="149"/>
-      <c r="B3" s="155" t="s">
-        <v>469</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="149"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-    </row>
-    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="149"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
-        <v>407</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>368</v>
-      </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="48" t="s">
-        <v>386</v>
-      </c>
-      <c r="H6" s="57"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="52" t="s">
-        <v>394</v>
-      </c>
-      <c r="H7" s="60" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="56" t="s">
-        <v>483</v>
-      </c>
-      <c r="B8" s="182"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="73" t="s">
-        <v>436</v>
-      </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="52" t="s">
-        <v>395</v>
-      </c>
-      <c r="H8" s="60" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
-        <v>388</v>
-      </c>
-      <c r="B9" s="180"/>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="60"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
-        <v>387</v>
-      </c>
-      <c r="B10" s="183"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="184"/>
-      <c r="G10" s="52" t="s">
-        <v>396</v>
-      </c>
-      <c r="H10" s="60"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
-        <v>385</v>
-      </c>
-      <c r="B11" s="180"/>
-      <c r="C11" s="180"/>
-      <c r="D11" s="180"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="52" t="s">
-        <v>397</v>
-      </c>
-      <c r="H11" s="60"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
-        <v>384</v>
-      </c>
-      <c r="B12" s="187"/>
-      <c r="C12" s="187"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="187"/>
-      <c r="F12" s="188"/>
-      <c r="G12" s="52" t="s">
-        <v>398</v>
-      </c>
-      <c r="H12" s="60"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
-      <c r="B13" s="187"/>
-      <c r="C13" s="187"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="188"/>
-      <c r="G13" s="52" t="s">
-        <v>399</v>
-      </c>
-      <c r="H13" s="60"/>
-    </row>
-    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
-        <v>383</v>
-      </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="187"/>
-      <c r="F14" s="188"/>
-      <c r="G14" s="55" t="s">
-        <v>400</v>
-      </c>
-      <c r="H14" s="61"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="187"/>
-      <c r="F15" s="188"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="60"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
-      <c r="B16" s="187"/>
-      <c r="C16" s="187"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="187"/>
-      <c r="F16" s="188"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="60"/>
-    </row>
-    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
-        <v>382</v>
-      </c>
-      <c r="B17" s="185"/>
-      <c r="C17" s="185"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="61"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H18" s="64"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="H2" s="161" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="163" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="165" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="164" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="164" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="165" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="164" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="166" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="55"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="144"/>
+    </row>
+    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="162"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H17" s="47"/>
+    </row>
+    <row r="18" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B14:F16"/>
-    <mergeCell ref="B12:F13"/>
-  </mergeCells>
-  <dataValidations count="14">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificNameID" prompt="An identifier for the nomenclatural (not taxonomic) details of a scientific name. Match with WoRMS Aphia ID." sqref="B8:C8"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="acceptedNameUsageID" prompt="An identifier for the name usage (documented meaning of the name according to a source) of the currently valid (zoological) or accepted (botanical) taxon." sqref="B9:F9"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificName" prompt="The full scientific name only (additional authorship and date information if known, should be added to the field below)" sqref="B10:F10"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificNameAuthorship" prompt="The authorship information for the scientificName formatted according to the conventions of the applicable nomenclatural code." sqref="B11:F11"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonRemarks" prompt="Comments or notes about the taxon or name." sqref="B12:F13"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonDescription" prompt="Brief description of the taxon if applicable, suited for the website." sqref="B14:F16"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonImage" prompt="Image of the taxon. Don't forget to send to SponGIS!" sqref="B17:F17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="kingdom" prompt="The full scientific name of the kingdom in which the taxon is classified" sqref="H7"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="phylum" prompt="The full scientific name of the phylum in which the taxon is classified" sqref="H8"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="class" prompt="The full scientific name of the class in which the taxon is classified." sqref="H9"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="order" prompt="The full scientific name of the order in which the taxon is classified." sqref="H10"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="family" prompt="The full scientific name of the family in which the taxon is classified." sqref="H11"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="genus" prompt="The full scientific name of the genus in which the taxon is classified." sqref="H12"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="subgenus" prompt="The full scientific name of the subgenus in which the taxon is classified" sqref="H13"/>
+  <dataValidations count="7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificNameID" prompt="An identifier for the nomenclatural (not taxonomic) details of a scientific name. Match with WoRMS Aphia ID." sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="acceptedNameUsageID" prompt="An identifier for the name usage (documented meaning of the name according to a source) of the currently valid (zoological) or accepted (botanical) taxon." sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificName" prompt="The full scientific name only (additional authorship and date information if known, should be added to the field below)" sqref="C4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificNameAuthorship" prompt="The authorship information for the scientificName formatted according to the conventions of the applicable nomenclatural code." sqref="D4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonRemarks" prompt="Comments or notes about the taxon or name." sqref="E4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonDescription" prompt="Brief description of the taxon if applicable, suited for the website." sqref="F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonImage" prompt="Image of the taxon. Don't forget to send to SponGIS!" sqref="G4"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1"/>
+    <hyperlink ref="H2" location="'Helpful-Tools'!A1" display="TEMPLATE"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonRank" prompt="The taxonomic rank of the most specific name in the scientificName">
-          <x14:formula1>
-            <xm:f>ContextDependents!$H$1:$H$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>H14</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8684,7 +8458,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8694,183 +8468,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="157" t="s">
-        <v>470</v>
-      </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="132" t="s">
-        <v>390</v>
-      </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="95"/>
+      <c r="A1" s="132" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="111" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="74"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
-        <v>389</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="89" t="s">
-        <v>393</v>
-      </c>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="88" t="s">
-        <v>391</v>
-      </c>
-      <c r="L2" s="92" t="s">
-        <v>435</v>
-      </c>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="93" t="s">
-        <v>392</v>
-      </c>
-      <c r="R2" s="94"/>
-      <c r="S2" s="95"/>
+      <c r="A2" s="146" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="68" t="s">
+        <v>361</v>
+      </c>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="L2" s="71" t="s">
+        <v>401</v>
+      </c>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="72" t="s">
+        <v>360</v>
+      </c>
+      <c r="R2" s="73"/>
+      <c r="S2" s="74"/>
     </row>
     <row r="3" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="82" t="s">
-        <v>274</v>
-      </c>
-      <c r="C3" s="83" t="s">
+      <c r="A3" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="82" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="85" t="s">
+      <c r="D3" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="101" t="s">
+      <c r="F3" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="K3" s="101" t="s">
+      <c r="J3" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="82" t="s">
+      <c r="L3" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="102" t="s">
+      <c r="M3" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="102" t="s">
+      <c r="N3" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="P3" s="84" t="s">
+      <c r="O3" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="P3" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="101" t="s">
+      <c r="Q3" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="82" t="s">
+      <c r="R3" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="84" t="s">
+      <c r="S3" s="63" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="75"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -8911,7 +8685,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8922,1287 +8696,1287 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
-        <v>424</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="95"/>
+      <c r="A1" s="75" t="s">
+        <v>390</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="74"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="99"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="78"/>
     </row>
     <row r="3" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="103" t="s">
+      <c r="A3" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="104" t="s">
+      <c r="E3" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="104" t="s">
+      <c r="F3" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="100" t="s">
+      <c r="H3" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="100" t="s">
+      <c r="I3" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="100" t="s">
+      <c r="J3" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="100" t="s">
-        <v>96</v>
-      </c>
-      <c r="L3" s="100" t="s">
+      <c r="K3" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="100" t="s">
+      <c r="M3" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="100" t="s">
+      <c r="N3" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="100" t="s">
+      <c r="O3" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="104" t="s">
+      <c r="P3" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" s="100" t="s">
+      <c r="Q3" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="100" t="s">
-        <v>440</v>
-      </c>
-      <c r="S3" s="100" t="s">
+      <c r="R3" s="79" t="s">
+        <v>406</v>
+      </c>
+      <c r="S3" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="100" t="s">
+      <c r="T3" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="100" t="s">
+      <c r="U3" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="V3" s="100" t="s">
+      <c r="V3" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="104" t="s">
+      <c r="W3" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="X3" s="105" t="s">
-        <v>441</v>
-      </c>
-      <c r="Y3" s="112" t="s">
+      <c r="X3" s="84" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y3" s="91" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="75"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
       <c r="E4" s="38"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="38"/>
-      <c r="D5" s="165"/>
+      <c r="D5" s="140"/>
       <c r="E5" s="38"/>
-      <c r="Y5" s="42"/>
+      <c r="Y5" s="41"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="38"/>
-      <c r="D6" s="165"/>
+      <c r="D6" s="140"/>
       <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="38"/>
-      <c r="D7" s="165"/>
+      <c r="D7" s="140"/>
       <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="38"/>
-      <c r="D8" s="165"/>
+      <c r="D8" s="140"/>
       <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="38"/>
-      <c r="D9" s="165"/>
+      <c r="D9" s="140"/>
       <c r="E9" s="38"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="38"/>
-      <c r="D10" s="165"/>
+      <c r="D10" s="140"/>
       <c r="E10" s="38"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="38"/>
-      <c r="D11" s="165"/>
+      <c r="D11" s="140"/>
       <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="38"/>
-      <c r="D12" s="165"/>
+      <c r="D12" s="140"/>
       <c r="E12" s="38"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="38"/>
-      <c r="D13" s="165"/>
+      <c r="D13" s="140"/>
       <c r="E13" s="38"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="38"/>
-      <c r="D14" s="165"/>
+      <c r="D14" s="140"/>
       <c r="E14" s="38"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="38"/>
-      <c r="D15" s="165"/>
+      <c r="D15" s="140"/>
       <c r="E15" s="38"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C16" s="38"/>
-      <c r="D16" s="165"/>
+      <c r="D16" s="140"/>
       <c r="E16" s="38"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" s="38"/>
-      <c r="D17" s="165"/>
+      <c r="D17" s="140"/>
       <c r="E17" s="38"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="38"/>
-      <c r="D18" s="165"/>
+      <c r="D18" s="140"/>
       <c r="E18" s="38"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" s="38"/>
-      <c r="D19" s="165"/>
+      <c r="D19" s="140"/>
       <c r="E19" s="38"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" s="38"/>
-      <c r="D20" s="165"/>
+      <c r="D20" s="140"/>
       <c r="E20" s="38"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" s="38"/>
-      <c r="D21" s="165"/>
+      <c r="D21" s="140"/>
       <c r="E21" s="38"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" s="38"/>
-      <c r="D22" s="165"/>
+      <c r="D22" s="140"/>
       <c r="E22" s="38"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" s="38"/>
-      <c r="D23" s="165"/>
+      <c r="D23" s="140"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" s="38"/>
-      <c r="D24" s="165"/>
+      <c r="D24" s="140"/>
       <c r="E24" s="38"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C25" s="38"/>
-      <c r="D25" s="165"/>
+      <c r="D25" s="140"/>
       <c r="E25" s="38"/>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C26" s="38"/>
-      <c r="D26" s="165"/>
+      <c r="D26" s="140"/>
       <c r="E26" s="38"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C27" s="38"/>
-      <c r="D27" s="165"/>
+      <c r="D27" s="140"/>
       <c r="E27" s="38"/>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" s="38"/>
-      <c r="D28" s="165"/>
+      <c r="D28" s="140"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" s="38"/>
-      <c r="D29" s="165"/>
+      <c r="D29" s="140"/>
       <c r="E29" s="38"/>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" s="38"/>
-      <c r="D30" s="165"/>
+      <c r="D30" s="140"/>
       <c r="E30" s="38"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" s="38"/>
-      <c r="D31" s="165"/>
+      <c r="D31" s="140"/>
       <c r="E31" s="38"/>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" s="38"/>
-      <c r="D32" s="165"/>
+      <c r="D32" s="140"/>
       <c r="E32" s="38"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" s="38"/>
-      <c r="D33" s="165"/>
+      <c r="D33" s="140"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" s="38"/>
-      <c r="D34" s="165"/>
+      <c r="D34" s="140"/>
       <c r="E34" s="38"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" s="38"/>
-      <c r="D35" s="165"/>
+      <c r="D35" s="140"/>
       <c r="E35" s="38"/>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" s="38"/>
-      <c r="D36" s="165"/>
+      <c r="D36" s="140"/>
       <c r="E36" s="38"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" s="38"/>
-      <c r="D37" s="165"/>
+      <c r="D37" s="140"/>
       <c r="E37" s="38"/>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38" s="38"/>
-      <c r="D38" s="165"/>
+      <c r="D38" s="140"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C39" s="38"/>
-      <c r="D39" s="165"/>
+      <c r="D39" s="140"/>
       <c r="E39" s="38"/>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C40" s="38"/>
-      <c r="D40" s="165"/>
+      <c r="D40" s="140"/>
       <c r="E40" s="38"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C41" s="38"/>
-      <c r="D41" s="165"/>
+      <c r="D41" s="140"/>
       <c r="E41" s="38"/>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C42" s="38"/>
-      <c r="D42" s="165"/>
+      <c r="D42" s="140"/>
       <c r="E42" s="38"/>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C43" s="38"/>
-      <c r="D43" s="165"/>
+      <c r="D43" s="140"/>
       <c r="E43" s="38"/>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C44" s="38"/>
-      <c r="D44" s="165"/>
+      <c r="D44" s="140"/>
       <c r="E44" s="38"/>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C45" s="38"/>
-      <c r="D45" s="165"/>
+      <c r="D45" s="140"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C46" s="38"/>
-      <c r="D46" s="165"/>
+      <c r="D46" s="140"/>
       <c r="E46" s="38"/>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C47" s="38"/>
-      <c r="D47" s="165"/>
+      <c r="D47" s="140"/>
       <c r="E47" s="38"/>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C48" s="38"/>
-      <c r="D48" s="165"/>
+      <c r="D48" s="140"/>
       <c r="E48" s="38"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C49" s="38"/>
-      <c r="D49" s="165"/>
+      <c r="D49" s="140"/>
       <c r="E49" s="38"/>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C50" s="38"/>
-      <c r="D50" s="165"/>
+      <c r="D50" s="140"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C51" s="38"/>
-      <c r="D51" s="165"/>
+      <c r="D51" s="140"/>
       <c r="E51" s="38"/>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C52" s="38"/>
-      <c r="D52" s="165"/>
+      <c r="D52" s="140"/>
       <c r="E52" s="38"/>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C53" s="38"/>
-      <c r="D53" s="165"/>
+      <c r="D53" s="140"/>
       <c r="E53" s="38"/>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C54" s="38"/>
-      <c r="D54" s="165"/>
+      <c r="D54" s="140"/>
       <c r="E54" s="38"/>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" s="38"/>
-      <c r="D55" s="165"/>
+      <c r="D55" s="140"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C56" s="38"/>
-      <c r="D56" s="165"/>
+      <c r="D56" s="140"/>
       <c r="E56" s="38"/>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C57" s="38"/>
-      <c r="D57" s="165"/>
+      <c r="D57" s="140"/>
       <c r="E57" s="38"/>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C58" s="38"/>
-      <c r="D58" s="165"/>
+      <c r="D58" s="140"/>
       <c r="E58" s="38"/>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C59" s="38"/>
-      <c r="D59" s="165"/>
+      <c r="D59" s="140"/>
       <c r="E59" s="38"/>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C60" s="38"/>
-      <c r="D60" s="165"/>
+      <c r="D60" s="140"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C61" s="38"/>
-      <c r="D61" s="165"/>
+      <c r="D61" s="140"/>
       <c r="E61" s="38"/>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C62" s="38"/>
-      <c r="D62" s="165"/>
+      <c r="D62" s="140"/>
       <c r="E62" s="38"/>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C63" s="38"/>
-      <c r="D63" s="165"/>
+      <c r="D63" s="140"/>
       <c r="E63" s="38"/>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C64" s="38"/>
-      <c r="D64" s="165"/>
+      <c r="D64" s="140"/>
       <c r="E64" s="38"/>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C65" s="38"/>
-      <c r="D65" s="165"/>
+      <c r="D65" s="140"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C66" s="38"/>
-      <c r="D66" s="165"/>
+      <c r="D66" s="140"/>
       <c r="E66" s="38"/>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C67" s="38"/>
-      <c r="D67" s="165"/>
+      <c r="D67" s="140"/>
       <c r="E67" s="38"/>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C68" s="38"/>
-      <c r="D68" s="165"/>
+      <c r="D68" s="140"/>
       <c r="E68" s="38"/>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C69" s="38"/>
-      <c r="D69" s="165"/>
+      <c r="D69" s="140"/>
       <c r="E69" s="38"/>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C70" s="38"/>
-      <c r="D70" s="165"/>
+      <c r="D70" s="140"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C71" s="38"/>
-      <c r="D71" s="165"/>
+      <c r="D71" s="140"/>
       <c r="E71" s="38"/>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C72" s="38"/>
-      <c r="D72" s="165"/>
+      <c r="D72" s="140"/>
       <c r="E72" s="38"/>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C73" s="38"/>
-      <c r="D73" s="165"/>
+      <c r="D73" s="140"/>
       <c r="E73" s="38"/>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C74" s="38"/>
-      <c r="D74" s="165"/>
+      <c r="D74" s="140"/>
       <c r="E74" s="38"/>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C75" s="38"/>
-      <c r="D75" s="165"/>
+      <c r="D75" s="140"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C76" s="38"/>
-      <c r="D76" s="165"/>
+      <c r="D76" s="140"/>
       <c r="E76" s="38"/>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C77" s="38"/>
-      <c r="D77" s="165"/>
+      <c r="D77" s="140"/>
       <c r="E77" s="38"/>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C78" s="38"/>
-      <c r="D78" s="165"/>
+      <c r="D78" s="140"/>
       <c r="E78" s="38"/>
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C79" s="38"/>
-      <c r="D79" s="165"/>
+      <c r="D79" s="140"/>
       <c r="E79" s="38"/>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C80" s="38"/>
-      <c r="D80" s="165"/>
+      <c r="D80" s="140"/>
       <c r="E80" s="38"/>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C81" s="38"/>
-      <c r="D81" s="165"/>
+      <c r="D81" s="140"/>
       <c r="E81" s="38"/>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C82" s="38"/>
-      <c r="D82" s="165"/>
+      <c r="D82" s="140"/>
       <c r="E82" s="38"/>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C83" s="38"/>
-      <c r="D83" s="165"/>
+      <c r="D83" s="140"/>
       <c r="E83" s="38"/>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C84" s="38"/>
-      <c r="D84" s="165"/>
+      <c r="D84" s="140"/>
       <c r="E84" s="38"/>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C85" s="38"/>
-      <c r="D85" s="165"/>
+      <c r="D85" s="140"/>
       <c r="E85" s="38"/>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C86" s="38"/>
-      <c r="D86" s="165"/>
+      <c r="D86" s="140"/>
       <c r="E86" s="38"/>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C87" s="38"/>
-      <c r="D87" s="165"/>
+      <c r="D87" s="140"/>
       <c r="E87" s="38"/>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C88" s="38"/>
-      <c r="D88" s="165"/>
+      <c r="D88" s="140"/>
       <c r="E88" s="38"/>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C89" s="38"/>
-      <c r="D89" s="165"/>
+      <c r="D89" s="140"/>
       <c r="E89" s="38"/>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C90" s="38"/>
-      <c r="D90" s="165"/>
+      <c r="D90" s="140"/>
       <c r="E90" s="38"/>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C91" s="38"/>
-      <c r="D91" s="165"/>
+      <c r="D91" s="140"/>
       <c r="E91" s="38"/>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C92" s="38"/>
-      <c r="D92" s="165"/>
+      <c r="D92" s="140"/>
       <c r="E92" s="38"/>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C93" s="38"/>
-      <c r="D93" s="165"/>
+      <c r="D93" s="140"/>
       <c r="E93" s="38"/>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C94" s="38"/>
-      <c r="D94" s="165"/>
+      <c r="D94" s="140"/>
       <c r="E94" s="38"/>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C95" s="38"/>
-      <c r="D95" s="165"/>
+      <c r="D95" s="140"/>
       <c r="E95" s="38"/>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C96" s="38"/>
-      <c r="D96" s="165"/>
+      <c r="D96" s="140"/>
       <c r="E96" s="38"/>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C97" s="38"/>
-      <c r="D97" s="165"/>
+      <c r="D97" s="140"/>
       <c r="E97" s="38"/>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C98" s="38"/>
-      <c r="D98" s="165"/>
+      <c r="D98" s="140"/>
       <c r="E98" s="38"/>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C99" s="38"/>
-      <c r="D99" s="165"/>
+      <c r="D99" s="140"/>
       <c r="E99" s="38"/>
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C100" s="38"/>
-      <c r="D100" s="165"/>
+      <c r="D100" s="140"/>
       <c r="E100" s="38"/>
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C101" s="38"/>
-      <c r="D101" s="165"/>
+      <c r="D101" s="140"/>
       <c r="E101" s="38"/>
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C102" s="38"/>
-      <c r="D102" s="165"/>
+      <c r="D102" s="140"/>
       <c r="E102" s="38"/>
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C103" s="38"/>
-      <c r="D103" s="165"/>
+      <c r="D103" s="140"/>
       <c r="E103" s="38"/>
     </row>
     <row r="104" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C104" s="38"/>
-      <c r="D104" s="165"/>
+      <c r="D104" s="140"/>
       <c r="E104" s="38"/>
     </row>
     <row r="105" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C105" s="38"/>
-      <c r="D105" s="165"/>
+      <c r="D105" s="140"/>
       <c r="E105" s="38"/>
     </row>
     <row r="106" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C106" s="38"/>
-      <c r="D106" s="165"/>
+      <c r="D106" s="140"/>
       <c r="E106" s="38"/>
     </row>
     <row r="107" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C107" s="38"/>
-      <c r="D107" s="165"/>
+      <c r="D107" s="140"/>
       <c r="E107" s="38"/>
     </row>
     <row r="108" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C108" s="38"/>
-      <c r="D108" s="165"/>
+      <c r="D108" s="140"/>
       <c r="E108" s="38"/>
     </row>
     <row r="109" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C109" s="38"/>
-      <c r="D109" s="165"/>
+      <c r="D109" s="140"/>
       <c r="E109" s="38"/>
     </row>
     <row r="110" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C110" s="38"/>
-      <c r="D110" s="165"/>
+      <c r="D110" s="140"/>
       <c r="E110" s="38"/>
     </row>
     <row r="111" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C111" s="38"/>
-      <c r="D111" s="165"/>
+      <c r="D111" s="140"/>
       <c r="E111" s="38"/>
     </row>
     <row r="112" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C112" s="38"/>
-      <c r="D112" s="165"/>
+      <c r="D112" s="140"/>
       <c r="E112" s="38"/>
     </row>
     <row r="113" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C113" s="38"/>
-      <c r="D113" s="165"/>
+      <c r="D113" s="140"/>
       <c r="E113" s="38"/>
     </row>
     <row r="114" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C114" s="38"/>
-      <c r="D114" s="165"/>
+      <c r="D114" s="140"/>
       <c r="E114" s="38"/>
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C115" s="38"/>
-      <c r="D115" s="165"/>
+      <c r="D115" s="140"/>
       <c r="E115" s="38"/>
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C116" s="38"/>
-      <c r="D116" s="165"/>
+      <c r="D116" s="140"/>
       <c r="E116" s="38"/>
     </row>
     <row r="117" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C117" s="38"/>
-      <c r="D117" s="165"/>
+      <c r="D117" s="140"/>
       <c r="E117" s="38"/>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C118" s="38"/>
-      <c r="D118" s="165"/>
+      <c r="D118" s="140"/>
       <c r="E118" s="38"/>
     </row>
     <row r="119" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C119" s="38"/>
-      <c r="D119" s="165"/>
+      <c r="D119" s="140"/>
       <c r="E119" s="38"/>
     </row>
     <row r="120" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C120" s="38"/>
-      <c r="D120" s="165"/>
+      <c r="D120" s="140"/>
       <c r="E120" s="38"/>
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C121" s="38"/>
-      <c r="D121" s="165"/>
+      <c r="D121" s="140"/>
       <c r="E121" s="38"/>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C122" s="38"/>
-      <c r="D122" s="165"/>
+      <c r="D122" s="140"/>
       <c r="E122" s="38"/>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C123" s="38"/>
-      <c r="D123" s="165"/>
+      <c r="D123" s="140"/>
       <c r="E123" s="38"/>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C124" s="38"/>
-      <c r="D124" s="165"/>
+      <c r="D124" s="140"/>
       <c r="E124" s="38"/>
     </row>
     <row r="125" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C125" s="38"/>
-      <c r="D125" s="165"/>
+      <c r="D125" s="140"/>
       <c r="E125" s="38"/>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C126" s="38"/>
-      <c r="D126" s="165"/>
+      <c r="D126" s="140"/>
       <c r="E126" s="38"/>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C127" s="38"/>
-      <c r="D127" s="165"/>
+      <c r="D127" s="140"/>
       <c r="E127" s="38"/>
     </row>
     <row r="128" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C128" s="38"/>
-      <c r="D128" s="165"/>
+      <c r="D128" s="140"/>
       <c r="E128" s="38"/>
     </row>
     <row r="129" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C129" s="38"/>
-      <c r="D129" s="165"/>
+      <c r="D129" s="140"/>
       <c r="E129" s="38"/>
     </row>
     <row r="130" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C130" s="38"/>
-      <c r="D130" s="165"/>
+      <c r="D130" s="140"/>
       <c r="E130" s="38"/>
     </row>
     <row r="131" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C131" s="38"/>
-      <c r="D131" s="165"/>
+      <c r="D131" s="140"/>
       <c r="E131" s="38"/>
     </row>
     <row r="132" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C132" s="38"/>
-      <c r="D132" s="165"/>
+      <c r="D132" s="140"/>
       <c r="E132" s="38"/>
     </row>
     <row r="133" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C133" s="38"/>
-      <c r="D133" s="165"/>
+      <c r="D133" s="140"/>
       <c r="E133" s="38"/>
     </row>
     <row r="134" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C134" s="38"/>
-      <c r="D134" s="165"/>
+      <c r="D134" s="140"/>
       <c r="E134" s="38"/>
     </row>
     <row r="135" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C135" s="38"/>
-      <c r="D135" s="165"/>
+      <c r="D135" s="140"/>
       <c r="E135" s="38"/>
     </row>
     <row r="136" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C136" s="38"/>
-      <c r="D136" s="165"/>
+      <c r="D136" s="140"/>
       <c r="E136" s="38"/>
     </row>
     <row r="137" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C137" s="38"/>
-      <c r="D137" s="165"/>
+      <c r="D137" s="140"/>
       <c r="E137" s="38"/>
     </row>
     <row r="138" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C138" s="38"/>
-      <c r="D138" s="165"/>
+      <c r="D138" s="140"/>
       <c r="E138" s="38"/>
     </row>
     <row r="139" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C139" s="38"/>
-      <c r="D139" s="165"/>
+      <c r="D139" s="140"/>
       <c r="E139" s="38"/>
     </row>
     <row r="140" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C140" s="38"/>
-      <c r="D140" s="165"/>
+      <c r="D140" s="140"/>
       <c r="E140" s="38"/>
     </row>
     <row r="141" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C141" s="38"/>
-      <c r="D141" s="165"/>
+      <c r="D141" s="140"/>
       <c r="E141" s="38"/>
     </row>
     <row r="142" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C142" s="38"/>
-      <c r="D142" s="165"/>
+      <c r="D142" s="140"/>
       <c r="E142" s="38"/>
     </row>
     <row r="143" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C143" s="38"/>
-      <c r="D143" s="165"/>
+      <c r="D143" s="140"/>
       <c r="E143" s="38"/>
     </row>
     <row r="144" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C144" s="38"/>
-      <c r="D144" s="165"/>
+      <c r="D144" s="140"/>
       <c r="E144" s="38"/>
     </row>
     <row r="145" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C145" s="38"/>
-      <c r="D145" s="165"/>
+      <c r="D145" s="140"/>
       <c r="E145" s="38"/>
     </row>
     <row r="146" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C146" s="38"/>
-      <c r="D146" s="165"/>
+      <c r="D146" s="140"/>
       <c r="E146" s="38"/>
     </row>
     <row r="147" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C147" s="38"/>
-      <c r="D147" s="165"/>
+      <c r="D147" s="140"/>
       <c r="E147" s="38"/>
     </row>
     <row r="148" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C148" s="38"/>
-      <c r="D148" s="165"/>
+      <c r="D148" s="140"/>
       <c r="E148" s="38"/>
     </row>
     <row r="149" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C149" s="38"/>
-      <c r="D149" s="165"/>
+      <c r="D149" s="140"/>
       <c r="E149" s="38"/>
     </row>
     <row r="150" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C150" s="38"/>
-      <c r="D150" s="165"/>
+      <c r="D150" s="140"/>
       <c r="E150" s="38"/>
     </row>
     <row r="151" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C151" s="38"/>
-      <c r="D151" s="165"/>
+      <c r="D151" s="140"/>
       <c r="E151" s="38"/>
     </row>
     <row r="152" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C152" s="38"/>
-      <c r="D152" s="165"/>
+      <c r="D152" s="140"/>
       <c r="E152" s="38"/>
     </row>
     <row r="153" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C153" s="38"/>
-      <c r="D153" s="165"/>
+      <c r="D153" s="140"/>
       <c r="E153" s="38"/>
     </row>
     <row r="154" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C154" s="38"/>
-      <c r="D154" s="165"/>
+      <c r="D154" s="140"/>
       <c r="E154" s="38"/>
     </row>
     <row r="155" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C155" s="38"/>
-      <c r="D155" s="165"/>
+      <c r="D155" s="140"/>
       <c r="E155" s="38"/>
     </row>
     <row r="156" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C156" s="38"/>
-      <c r="D156" s="165"/>
+      <c r="D156" s="140"/>
       <c r="E156" s="38"/>
     </row>
     <row r="157" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C157" s="38"/>
-      <c r="D157" s="165"/>
+      <c r="D157" s="140"/>
       <c r="E157" s="38"/>
     </row>
     <row r="158" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C158" s="38"/>
-      <c r="D158" s="165"/>
+      <c r="D158" s="140"/>
       <c r="E158" s="38"/>
     </row>
     <row r="159" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C159" s="38"/>
-      <c r="D159" s="165"/>
+      <c r="D159" s="140"/>
       <c r="E159" s="38"/>
     </row>
     <row r="160" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C160" s="38"/>
-      <c r="D160" s="165"/>
+      <c r="D160" s="140"/>
       <c r="E160" s="38"/>
     </row>
     <row r="161" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C161" s="38"/>
-      <c r="D161" s="165"/>
+      <c r="D161" s="140"/>
       <c r="E161" s="38"/>
     </row>
     <row r="162" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C162" s="38"/>
-      <c r="D162" s="165"/>
+      <c r="D162" s="140"/>
       <c r="E162" s="38"/>
     </row>
     <row r="163" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C163" s="38"/>
-      <c r="D163" s="165"/>
+      <c r="D163" s="140"/>
       <c r="E163" s="38"/>
     </row>
     <row r="164" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C164" s="38"/>
-      <c r="D164" s="165"/>
+      <c r="D164" s="140"/>
       <c r="E164" s="38"/>
     </row>
     <row r="165" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C165" s="38"/>
-      <c r="D165" s="165"/>
+      <c r="D165" s="140"/>
       <c r="E165" s="38"/>
     </row>
     <row r="166" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C166" s="38"/>
-      <c r="D166" s="165"/>
+      <c r="D166" s="140"/>
       <c r="E166" s="38"/>
     </row>
     <row r="167" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C167" s="38"/>
-      <c r="D167" s="165"/>
+      <c r="D167" s="140"/>
       <c r="E167" s="38"/>
     </row>
     <row r="168" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C168" s="38"/>
-      <c r="D168" s="165"/>
+      <c r="D168" s="140"/>
       <c r="E168" s="38"/>
     </row>
     <row r="169" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C169" s="38"/>
-      <c r="D169" s="165"/>
+      <c r="D169" s="140"/>
       <c r="E169" s="38"/>
     </row>
     <row r="170" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C170" s="38"/>
-      <c r="D170" s="165"/>
+      <c r="D170" s="140"/>
       <c r="E170" s="38"/>
     </row>
     <row r="171" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C171" s="38"/>
-      <c r="D171" s="165"/>
+      <c r="D171" s="140"/>
       <c r="E171" s="38"/>
     </row>
     <row r="172" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C172" s="38"/>
-      <c r="D172" s="165"/>
+      <c r="D172" s="140"/>
       <c r="E172" s="38"/>
     </row>
     <row r="173" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C173" s="38"/>
-      <c r="D173" s="165"/>
+      <c r="D173" s="140"/>
       <c r="E173" s="38"/>
     </row>
     <row r="174" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C174" s="38"/>
-      <c r="D174" s="165"/>
+      <c r="D174" s="140"/>
       <c r="E174" s="38"/>
     </row>
     <row r="175" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C175" s="38"/>
-      <c r="D175" s="165"/>
+      <c r="D175" s="140"/>
       <c r="E175" s="38"/>
     </row>
     <row r="176" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C176" s="38"/>
-      <c r="D176" s="165"/>
+      <c r="D176" s="140"/>
       <c r="E176" s="38"/>
     </row>
     <row r="177" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C177" s="38"/>
-      <c r="D177" s="165"/>
+      <c r="D177" s="140"/>
       <c r="E177" s="38"/>
     </row>
     <row r="178" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C178" s="38"/>
-      <c r="D178" s="165"/>
+      <c r="D178" s="140"/>
       <c r="E178" s="38"/>
     </row>
     <row r="179" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C179" s="38"/>
-      <c r="D179" s="165"/>
+      <c r="D179" s="140"/>
       <c r="E179" s="38"/>
     </row>
     <row r="180" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C180" s="38"/>
-      <c r="D180" s="165"/>
+      <c r="D180" s="140"/>
       <c r="E180" s="38"/>
     </row>
     <row r="181" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C181" s="38"/>
-      <c r="D181" s="165"/>
+      <c r="D181" s="140"/>
       <c r="E181" s="38"/>
     </row>
     <row r="182" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C182" s="38"/>
-      <c r="D182" s="165"/>
+      <c r="D182" s="140"/>
       <c r="E182" s="38"/>
     </row>
     <row r="183" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C183" s="38"/>
-      <c r="D183" s="165"/>
+      <c r="D183" s="140"/>
       <c r="E183" s="38"/>
     </row>
     <row r="184" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C184" s="38"/>
-      <c r="D184" s="165"/>
+      <c r="D184" s="140"/>
       <c r="E184" s="38"/>
     </row>
     <row r="185" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C185" s="38"/>
-      <c r="D185" s="165"/>
+      <c r="D185" s="140"/>
       <c r="E185" s="38"/>
     </row>
     <row r="186" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C186" s="38"/>
-      <c r="D186" s="165"/>
+      <c r="D186" s="140"/>
       <c r="E186" s="38"/>
     </row>
     <row r="187" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C187" s="38"/>
-      <c r="D187" s="165"/>
+      <c r="D187" s="140"/>
       <c r="E187" s="38"/>
     </row>
     <row r="188" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C188" s="38"/>
-      <c r="D188" s="165"/>
+      <c r="D188" s="140"/>
       <c r="E188" s="38"/>
     </row>
     <row r="189" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C189" s="38"/>
-      <c r="D189" s="165"/>
+      <c r="D189" s="140"/>
       <c r="E189" s="38"/>
     </row>
     <row r="190" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C190" s="38"/>
-      <c r="D190" s="165"/>
+      <c r="D190" s="140"/>
       <c r="E190" s="38"/>
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C191" s="38"/>
-      <c r="D191" s="165"/>
+      <c r="D191" s="140"/>
       <c r="E191" s="38"/>
     </row>
     <row r="192" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C192" s="38"/>
-      <c r="D192" s="165"/>
+      <c r="D192" s="140"/>
       <c r="E192" s="38"/>
     </row>
     <row r="193" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C193" s="38"/>
-      <c r="D193" s="165"/>
+      <c r="D193" s="140"/>
       <c r="E193" s="38"/>
     </row>
     <row r="194" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C194" s="38"/>
-      <c r="D194" s="165"/>
+      <c r="D194" s="140"/>
       <c r="E194" s="38"/>
     </row>
     <row r="195" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C195" s="38"/>
-      <c r="D195" s="165"/>
+      <c r="D195" s="140"/>
       <c r="E195" s="38"/>
     </row>
     <row r="196" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C196" s="38"/>
-      <c r="D196" s="165"/>
+      <c r="D196" s="140"/>
       <c r="E196" s="38"/>
     </row>
     <row r="197" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C197" s="38"/>
-      <c r="D197" s="165"/>
+      <c r="D197" s="140"/>
       <c r="E197" s="38"/>
     </row>
     <row r="198" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C198" s="38"/>
-      <c r="D198" s="165"/>
+      <c r="D198" s="140"/>
       <c r="E198" s="38"/>
     </row>
     <row r="199" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C199" s="38"/>
-      <c r="D199" s="165"/>
+      <c r="D199" s="140"/>
       <c r="E199" s="38"/>
     </row>
     <row r="200" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C200" s="38"/>
-      <c r="D200" s="165"/>
+      <c r="D200" s="140"/>
       <c r="E200" s="38"/>
     </row>
     <row r="201" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C201" s="38"/>
-      <c r="D201" s="165"/>
+      <c r="D201" s="140"/>
       <c r="E201" s="38"/>
     </row>
     <row r="202" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C202" s="38"/>
-      <c r="D202" s="165"/>
+      <c r="D202" s="140"/>
       <c r="E202" s="38"/>
     </row>
     <row r="203" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C203" s="38"/>
-      <c r="D203" s="165"/>
+      <c r="D203" s="140"/>
       <c r="E203" s="38"/>
     </row>
     <row r="204" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C204" s="38"/>
-      <c r="D204" s="165"/>
+      <c r="D204" s="140"/>
       <c r="E204" s="38"/>
     </row>
     <row r="205" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C205" s="38"/>
-      <c r="D205" s="165"/>
+      <c r="D205" s="140"/>
       <c r="E205" s="38"/>
     </row>
     <row r="206" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C206" s="38"/>
-      <c r="D206" s="165"/>
+      <c r="D206" s="140"/>
       <c r="E206" s="38"/>
     </row>
     <row r="207" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C207" s="38"/>
-      <c r="D207" s="165"/>
+      <c r="D207" s="140"/>
       <c r="E207" s="38"/>
     </row>
     <row r="208" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C208" s="38"/>
-      <c r="D208" s="165"/>
+      <c r="D208" s="140"/>
       <c r="E208" s="38"/>
     </row>
     <row r="209" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C209" s="38"/>
-      <c r="D209" s="165"/>
+      <c r="D209" s="140"/>
       <c r="E209" s="38"/>
     </row>
     <row r="210" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C210" s="38"/>
-      <c r="D210" s="165"/>
+      <c r="D210" s="140"/>
       <c r="E210" s="38"/>
     </row>
     <row r="211" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C211" s="38"/>
-      <c r="D211" s="165"/>
+      <c r="D211" s="140"/>
       <c r="E211" s="38"/>
     </row>
     <row r="212" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C212" s="38"/>
-      <c r="D212" s="165"/>
+      <c r="D212" s="140"/>
       <c r="E212" s="38"/>
     </row>
     <row r="213" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C213" s="38"/>
-      <c r="D213" s="165"/>
+      <c r="D213" s="140"/>
       <c r="E213" s="38"/>
     </row>
     <row r="214" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C214" s="38"/>
-      <c r="D214" s="165"/>
+      <c r="D214" s="140"/>
       <c r="E214" s="38"/>
     </row>
     <row r="215" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C215" s="38"/>
-      <c r="D215" s="165"/>
+      <c r="D215" s="140"/>
       <c r="E215" s="38"/>
     </row>
     <row r="216" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C216" s="38"/>
-      <c r="D216" s="165"/>
+      <c r="D216" s="140"/>
       <c r="E216" s="38"/>
     </row>
     <row r="217" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C217" s="38"/>
-      <c r="D217" s="165"/>
+      <c r="D217" s="140"/>
       <c r="E217" s="38"/>
     </row>
     <row r="218" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C218" s="38"/>
-      <c r="D218" s="165"/>
+      <c r="D218" s="140"/>
       <c r="E218" s="38"/>
     </row>
     <row r="219" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C219" s="38"/>
-      <c r="D219" s="165"/>
+      <c r="D219" s="140"/>
       <c r="E219" s="38"/>
     </row>
     <row r="220" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C220" s="38"/>
-      <c r="D220" s="165"/>
+      <c r="D220" s="140"/>
       <c r="E220" s="38"/>
     </row>
     <row r="221" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C221" s="38"/>
-      <c r="D221" s="165"/>
+      <c r="D221" s="140"/>
       <c r="E221" s="38"/>
     </row>
     <row r="222" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C222" s="38"/>
-      <c r="D222" s="165"/>
+      <c r="D222" s="140"/>
       <c r="E222" s="38"/>
     </row>
     <row r="223" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C223" s="38"/>
-      <c r="D223" s="165"/>
+      <c r="D223" s="140"/>
       <c r="E223" s="38"/>
     </row>
     <row r="224" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C224" s="38"/>
-      <c r="D224" s="165"/>
+      <c r="D224" s="140"/>
       <c r="E224" s="38"/>
     </row>
     <row r="225" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C225" s="38"/>
-      <c r="D225" s="165"/>
+      <c r="D225" s="140"/>
       <c r="E225" s="38"/>
     </row>
     <row r="226" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C226" s="38"/>
-      <c r="D226" s="165"/>
+      <c r="D226" s="140"/>
       <c r="E226" s="38"/>
     </row>
     <row r="227" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C227" s="38"/>
-      <c r="D227" s="165"/>
+      <c r="D227" s="140"/>
       <c r="E227" s="38"/>
     </row>
     <row r="228" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C228" s="38"/>
-      <c r="D228" s="165"/>
+      <c r="D228" s="140"/>
       <c r="E228" s="38"/>
     </row>
     <row r="229" spans="3:5" x14ac:dyDescent="0.2">
@@ -10668,85 +10442,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
-        <v>456</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="95"/>
+      <c r="A1" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="74"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="78"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="108" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="109" t="s">
+      <c r="D3" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="88" t="s">
+        <v>408</v>
+      </c>
+      <c r="F3" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="88" t="s">
+        <v>409</v>
+      </c>
+      <c r="H3" s="88" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="88" t="s">
+        <v>410</v>
+      </c>
+      <c r="J3" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="109" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="109" t="s">
-        <v>442</v>
-      </c>
-      <c r="F3" s="109" t="s">
-        <v>121</v>
-      </c>
-      <c r="G3" s="109" t="s">
-        <v>443</v>
-      </c>
-      <c r="H3" s="109" t="s">
+      <c r="K3" s="88" t="s">
+        <v>420</v>
+      </c>
+      <c r="L3" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="I3" s="109" t="s">
-        <v>444</v>
-      </c>
-      <c r="J3" s="109" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3" s="109" t="s">
-        <v>454</v>
-      </c>
-      <c r="L3" s="109" t="s">
-        <v>125</v>
-      </c>
-      <c r="M3" s="110" t="s">
-        <v>126</v>
-      </c>
-      <c r="N3" s="160" t="s">
-        <v>455</v>
+      <c r="N3" s="135" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="75"/>
+      <c r="A4" s="55"/>
       <c r="N4" s="35" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -10760,9 +10534,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I23"/>
+  <dimension ref="B2:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="99" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10773,191 +10549,360 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="64" t="s">
-        <v>423</v>
+      <c r="B2" s="47" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="67" t="s">
-        <v>409</v>
-      </c>
-      <c r="C4" s="122" t="s">
-        <v>414</v>
-      </c>
-      <c r="D4" s="123" t="s">
-        <v>412</v>
-      </c>
-      <c r="E4" s="123" t="s">
-        <v>413</v>
-      </c>
-      <c r="F4" s="123" t="s">
-        <v>418</v>
-      </c>
-      <c r="G4" s="66" t="s">
-        <v>416</v>
+      <c r="B4" s="50" t="s">
+        <v>375</v>
+      </c>
+      <c r="C4" s="101" t="s">
+        <v>380</v>
+      </c>
+      <c r="D4" s="102" t="s">
+        <v>378</v>
+      </c>
+      <c r="E4" s="102" t="s">
+        <v>379</v>
+      </c>
+      <c r="F4" s="102" t="s">
+        <v>384</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="65" t="s">
-        <v>411</v>
-      </c>
-      <c r="C5" s="124"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="121">
+      <c r="B5" s="48" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" s="103"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="100">
         <f>(C5+(D5/60)+(E5/3600))*IF(F5="S",-1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="65" t="s">
-        <v>415</v>
-      </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="121">
+      <c r="B6" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" s="106"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="100">
         <f>(C6+(D6/60)+(E6/3600))*IF(F6="W",-1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="67" t="s">
-        <v>410</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>414</v>
+      <c r="B7" s="50" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>380</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="F7" s="39"/>
-      <c r="G7" s="66" t="s">
-        <v>416</v>
+      <c r="G7" s="49" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="65" t="s">
-        <v>411</v>
-      </c>
-      <c r="C8" s="124"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="121">
+      <c r="B8" s="48" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" s="103"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="100">
         <f>(C8+(D8/60))*IF(E8="S",-1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="130" t="s">
-        <v>415</v>
-      </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="131">
+      <c r="B9" s="109" t="s">
+        <v>381</v>
+      </c>
+      <c r="C9" s="106"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="110">
         <f>(C9+(D9/60))*IF(E9="W",-1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G11" s="71"/>
+      <c r="G11" s="53"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="64" t="s">
-        <v>457</v>
+      <c r="B13" s="47" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="113" t="s">
-        <v>458</v>
-      </c>
-      <c r="C15" s="114" t="s">
-        <v>459</v>
-      </c>
-      <c r="D15" s="114" t="s">
-        <v>460</v>
-      </c>
-      <c r="E15" s="115" t="s">
-        <v>461</v>
-      </c>
-      <c r="F15" s="193" t="s">
-        <v>468</v>
-      </c>
-      <c r="G15" s="113" t="s">
-        <v>462</v>
-      </c>
-      <c r="H15" s="114" t="s">
-        <v>463</v>
-      </c>
-      <c r="I15" s="115" t="s">
-        <v>464</v>
+      <c r="B15" s="92" t="s">
+        <v>424</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>425</v>
+      </c>
+      <c r="D15" s="93" t="s">
+        <v>426</v>
+      </c>
+      <c r="E15" s="94" t="s">
+        <v>427</v>
+      </c>
+      <c r="F15" s="203" t="s">
+        <v>434</v>
+      </c>
+      <c r="G15" s="92" t="s">
+        <v>428</v>
+      </c>
+      <c r="H15" s="93" t="s">
+        <v>429</v>
+      </c>
+      <c r="I15" s="94" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="127"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="116" t="str">
+      <c r="B16" s="106"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="95" t="str">
         <f>IF(ISBLANK(B16),"",AVERAGE(B16,D16))</f>
         <v/>
       </c>
-      <c r="H16" s="117" t="str">
+      <c r="H16" s="96" t="str">
         <f>IF(ISBLANK(C16),"",AVERAGE(C16,E16))</f>
         <v/>
       </c>
-      <c r="I16" s="118" t="str">
+      <c r="I16" s="97" t="str">
         <f>IF(ISBLANK(E16),"",CONCATENATE("LINESTRING(",C16," ",B16,", ",E16," ", D16,")"))</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="64" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="119" t="s">
-        <v>465</v>
-      </c>
-      <c r="C22" s="120"/>
-      <c r="D22" s="193" t="s">
-        <v>468</v>
-      </c>
-      <c r="E22" s="119" t="s">
-        <v>466</v>
-      </c>
-      <c r="F22" s="120"/>
-    </row>
-    <row r="23" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="189"/>
-      <c r="C23" s="190"/>
-      <c r="D23" s="194"/>
-      <c r="E23" s="191" t="str">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="47" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="98" t="s">
+        <v>431</v>
+      </c>
+      <c r="C22" s="99"/>
+      <c r="D22" s="203" t="s">
+        <v>434</v>
+      </c>
+      <c r="E22" s="98" t="s">
+        <v>432</v>
+      </c>
+      <c r="F22" s="99"/>
+    </row>
+    <row r="23" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="199"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="201" t="str">
         <f>IF(ISBLANK(B23),"",B23*1.8288)</f>
         <v/>
       </c>
-      <c r="F23" s="192"/>
+      <c r="F23" s="202"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="47" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="B28" s="75" t="s">
+        <v>373</v>
+      </c>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="149" t="s">
+        <v>340</v>
+      </c>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="151"/>
+    </row>
+    <row r="29" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="152"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="155"/>
+    </row>
+    <row r="30" spans="2:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="206" t="s">
+        <v>443</v>
+      </c>
+      <c r="C30" s="207"/>
+      <c r="D30" s="207"/>
+      <c r="E30" s="208"/>
+      <c r="F30" s="205"/>
+      <c r="G30" s="205"/>
+      <c r="H30" s="205"/>
+      <c r="I30" s="158" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="196" t="s">
+        <v>356</v>
+      </c>
+      <c r="C31" s="197"/>
+      <c r="D31" s="197"/>
+      <c r="E31" s="198"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="185"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="193" t="s">
+        <v>355</v>
+      </c>
+      <c r="C32" s="194"/>
+      <c r="D32" s="194"/>
+      <c r="E32" s="195"/>
+      <c r="F32" s="191"/>
+      <c r="G32" s="191"/>
+      <c r="H32" s="191"/>
+      <c r="I32" s="192"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="148" t="s">
+        <v>354</v>
+      </c>
+      <c r="C33" s="156"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="191"/>
+      <c r="G33" s="191"/>
+      <c r="H33" s="191"/>
+      <c r="I33" s="192"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="148"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="191"/>
+      <c r="G34" s="191"/>
+      <c r="H34" s="191"/>
+      <c r="I34" s="192"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="148"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="191"/>
+      <c r="G35" s="191"/>
+      <c r="H35" s="191"/>
+      <c r="I35" s="192"/>
+    </row>
+    <row r="36" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="188" t="s">
+        <v>447</v>
+      </c>
+      <c r="C36" s="189"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="190"/>
+      <c r="F36" s="186"/>
+      <c r="G36" s="186"/>
+      <c r="H36" s="186"/>
+      <c r="I36" s="187"/>
+    </row>
+    <row r="37" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+    </row>
+    <row r="38" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="171" t="s">
+        <v>446</v>
+      </c>
+      <c r="C38" s="172"/>
+      <c r="D38" s="159"/>
+      <c r="E38" s="159"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+    </row>
+    <row r="39" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="168">
+        <f>F30</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="169">
+        <f>F31</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="169">
+        <f>F32</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="169">
+        <f>F33</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="170">
+        <f>F36</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="13">
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="B31:E31"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F33:I35"/>
   </mergeCells>
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonImage" prompt="Image of the taxon. Don't forget to send to SponGIS!" sqref="F36"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonDescription" prompt="Brief description of the taxon if applicable, suited for the website." sqref="C33:E35 F33"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonRemarks" prompt="Comments or notes about the taxon or name." sqref="F32"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificName" prompt="The full scientific name only (additional authorship and date information if known, should be added to the field below)" sqref="F31"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificNameID" prompt="An identifier for the nomenclatural (not taxonomic) details of a scientific name. Match with WoRMS Aphia ID." sqref="F30"/>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I30" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -10985,7 +10930,337 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="96.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12" style="9" customWidth="1"/>
+    <col min="7" max="7" width="66" style="1" customWidth="1"/>
+    <col min="8" max="8" width="76.33203125" style="20" customWidth="1"/>
+    <col min="9" max="16384" width="96.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="209" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1" s="209"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="210" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="210"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" s="22">
+        <v>42376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="96.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11002,18 +11277,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="195" t="s">
-        <v>432</v>
-      </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="27"/>
+      <c r="A1" s="211" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="211"/>
       <c r="D1" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F1" s="8"/>
+      <c r="G1" s="25" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
@@ -11024,15 +11301,15 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="196" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
+      <c r="A3" s="210" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="210"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
@@ -11053,359 +11330,27 @@
         <v>2</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H5" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="H8" s="22">
-        <v>42376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="64" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="64" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="80" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>215</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:G3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="96.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12" style="9" customWidth="1"/>
-    <col min="7" max="7" width="66" style="1" customWidth="1"/>
-    <col min="8" max="8" width="76.33203125" style="20" customWidth="1"/>
-    <col min="9" max="16384" width="96.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="197" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="197"/>
-      <c r="D1" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="196" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="196"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>81</v>
@@ -11414,314 +11359,264 @@
         <v>82</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>83</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>92</v>
+        <v>177</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>450</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>451</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>183</v>
+        <v>452</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="144" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="B11" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="B11" s="23" t="s">
+        <v>454</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>246</v>
+        <v>455</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>456</v>
+      </c>
       <c r="F11" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>241</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>461</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>247</v>
+        <v>462</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>463</v>
+      </c>
       <c r="F12" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>464</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>242</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>249</v>
+        <v>459</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
-        <v>194</v>
+      <c r="A15" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
-        <v>194</v>
-      </c>
       <c r="B16" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>189</v>
+        <v>460</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>261</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/SponGIS_Template/SponGIS_Template.xlsx
+++ b/SponGIS_Template/SponGIS_Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewdavies_mbp/Andy's Documents/Websites and comittees/SponGIS/Github/SponGIS/SponGIS_Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067E403F-0BEB-9942-ADDD-F0BB6148887F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31940" yWindow="840" windowWidth="28400" windowHeight="18600" tabRatio="500"/>
+    <workbookView xWindow="5200" yWindow="800" windowWidth="28400" windowHeight="18600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="13" r:id="rId1"/>
@@ -36,7 +37,7 @@
     <definedName name="YesNo">ContextDependents!$A$1:$A$2</definedName>
     <definedName name="YesNo2">[1]Vocabularies!$F$2:$F$3</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="470">
   <si>
     <t>Class</t>
   </si>
@@ -1468,13 +1469,16 @@
   </si>
   <si>
     <t>Resource Creator</t>
+  </si>
+  <si>
+    <t>Author Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1501,6 +1505,7 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1509,6 +1514,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1516,12 +1522,14 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1538,6 +1546,7 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1545,6 +1554,7 @@
       <sz val="18"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1552,35 +1562,42 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="20"/>
@@ -1594,6 +1611,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1601,12 +1619,14 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1614,6 +1634,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1621,6 +1642,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1628,17 +1650,26 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Optima Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFDFD99"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="21">
@@ -2675,7 +2706,6 @@
     <xf numFmtId="0" fontId="13" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2780,6 +2810,7 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3021,6 +3052,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3042,7 +3076,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3411,20 +3451,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="10" max="10" width="11.83203125" customWidth="1"/>
     <col min="13" max="13" width="10.83203125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -3438,7 +3476,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -3454,7 +3492,7 @@
       <c r="K2" s="174"/>
       <c r="L2" s="174"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -3468,7 +3506,7 @@
       <c r="K3" s="174"/>
       <c r="L3" s="174"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -3482,7 +3520,7 @@
       <c r="K4" s="35"/>
       <c r="L4" s="35"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -3498,7 +3536,7 @@
       <c r="K5" s="35"/>
       <c r="L5" s="35"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -3514,7 +3552,7 @@
       <c r="K6" s="175"/>
       <c r="L6" s="175"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -3528,7 +3566,7 @@
       <c r="K7" s="175"/>
       <c r="L7" s="175"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -3542,7 +3580,7 @@
       <c r="K8" s="175"/>
       <c r="L8" s="175"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -3556,7 +3594,7 @@
       <c r="K9" s="52"/>
       <c r="L9" s="52"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -3570,7 +3608,7 @@
       <c r="K10" s="52"/>
       <c r="L10" s="52"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="35"/>
       <c r="B11" s="35" t="s">
         <v>399</v>
@@ -3586,7 +3624,7 @@
       <c r="K11" s="52"/>
       <c r="L11" s="52"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="35"/>
       <c r="B12" s="35" t="s">
         <v>444</v>
@@ -3602,37 +3640,37 @@
       <c r="K12" s="52"/>
       <c r="L12" s="52"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="143"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="143"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="142"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="142"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="35"/>
       <c r="B14" s="35" t="s">
         <v>466</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="143"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="35"/>
       <c r="B15" s="35" t="s">
         <v>467</v>
@@ -3648,7 +3686,7 @@
       <c r="K15" s="52"/>
       <c r="L15" s="52"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="45"/>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
@@ -3663,7 +3701,7 @@
       <c r="L16" s="45"/>
       <c r="M16" s="45"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="45"/>
       <c r="B17" s="45" t="s">
         <v>371</v>
@@ -3674,14 +3712,14 @@
       <c r="F17" s="45"/>
       <c r="G17" s="45"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="142" t="s">
+      <c r="I17" s="141" t="s">
         <v>370</v>
       </c>
       <c r="J17" s="85"/>
       <c r="K17" s="45"/>
       <c r="L17" s="45"/>
     </row>
-    <row r="18" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="25" customHeight="1">
       <c r="A18" s="35"/>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
@@ -3695,7 +3733,7 @@
       <c r="K18" s="45"/>
       <c r="L18" s="45"/>
     </row>
-    <row r="19" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="40" customHeight="1">
       <c r="A19" s="35"/>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
@@ -3709,7 +3747,7 @@
       <c r="K19" s="45"/>
       <c r="L19" s="45"/>
     </row>
-    <row r="20" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="20" customHeight="1">
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -3723,7 +3761,7 @@
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -3737,7 +3775,7 @@
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
     </row>
-    <row r="22" spans="1:12" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="44" customHeight="1">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -3751,7 +3789,7 @@
       <c r="K22" s="35"/>
       <c r="L22" s="35"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -3765,7 +3803,7 @@
       <c r="K23" s="35"/>
       <c r="L23" s="35"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -3779,7 +3817,7 @@
       <c r="K24" s="35"/>
       <c r="L24" s="35"/>
     </row>
-    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="30" customHeight="1">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -3793,7 +3831,7 @@
       <c r="K25" s="35"/>
       <c r="L25" s="35"/>
     </row>
-    <row r="26" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="17" customHeight="1">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -3807,7 +3845,7 @@
       <c r="K26" s="35"/>
       <c r="L26" s="35"/>
     </row>
-    <row r="27" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="17" customHeight="1">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -3821,7 +3859,7 @@
       <c r="K27" s="35"/>
       <c r="L27" s="35"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" s="35"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -3835,7 +3873,7 @@
       <c r="K28" s="35"/>
       <c r="L28" s="35"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -3849,7 +3887,7 @@
       <c r="K29" s="35"/>
       <c r="L29" s="35"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="A30" s="35"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -3863,7 +3901,7 @@
       <c r="K30" s="35"/>
       <c r="L30" s="35"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -3877,7 +3915,7 @@
       <c r="K31" s="35"/>
       <c r="L31" s="35"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32" s="35"/>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -3891,7 +3929,7 @@
       <c r="K32" s="35"/>
       <c r="L32" s="35"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="A33" s="35"/>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -3905,7 +3943,7 @@
       <c r="K33" s="35"/>
       <c r="L33" s="35"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12">
       <c r="A34" s="35"/>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
@@ -3919,218 +3957,218 @@
       <c r="K34" s="35"/>
       <c r="L34" s="35"/>
     </row>
-    <row r="35" spans="1:12" s="35" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="169" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="171" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="173" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="175" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="177" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="179" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="183" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="185" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="191" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="192" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="195" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="197" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="201" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="203" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="205" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="206" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="207" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="208" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="209" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="210" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="211" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="212" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="213" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="214" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="215" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="216" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="217" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="219" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="221" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="222" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="223" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="224" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="225" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="227" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="228" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="229" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="231" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="232" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="233" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="234" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="235" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="236" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="237" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="238" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="239" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="240" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="241" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="242" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="243" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" s="35" customFormat="1" ht="23" customHeight="1"/>
+    <row r="36" spans="1:12" s="35" customFormat="1"/>
+    <row r="37" spans="1:12" s="35" customFormat="1"/>
+    <row r="38" spans="1:12" s="35" customFormat="1"/>
+    <row r="39" spans="1:12" s="35" customFormat="1"/>
+    <row r="40" spans="1:12" s="35" customFormat="1"/>
+    <row r="41" spans="1:12" s="35" customFormat="1"/>
+    <row r="42" spans="1:12" s="35" customFormat="1"/>
+    <row r="43" spans="1:12" s="35" customFormat="1"/>
+    <row r="44" spans="1:12" s="35" customFormat="1"/>
+    <row r="45" spans="1:12" s="35" customFormat="1"/>
+    <row r="46" spans="1:12" s="35" customFormat="1"/>
+    <row r="47" spans="1:12" s="35" customFormat="1"/>
+    <row r="48" spans="1:12" s="35" customFormat="1"/>
+    <row r="49" s="35" customFormat="1"/>
+    <row r="50" s="35" customFormat="1"/>
+    <row r="51" s="35" customFormat="1"/>
+    <row r="52" s="35" customFormat="1"/>
+    <row r="53" s="35" customFormat="1"/>
+    <row r="54" s="35" customFormat="1"/>
+    <row r="55" s="35" customFormat="1"/>
+    <row r="56" s="35" customFormat="1"/>
+    <row r="57" s="35" customFormat="1"/>
+    <row r="58" s="35" customFormat="1"/>
+    <row r="59" s="35" customFormat="1"/>
+    <row r="60" s="35" customFormat="1"/>
+    <row r="61" s="35" customFormat="1"/>
+    <row r="62" s="35" customFormat="1"/>
+    <row r="63" s="35" customFormat="1"/>
+    <row r="64" s="35" customFormat="1"/>
+    <row r="65" s="35" customFormat="1"/>
+    <row r="66" s="35" customFormat="1"/>
+    <row r="67" s="35" customFormat="1"/>
+    <row r="68" s="35" customFormat="1"/>
+    <row r="69" s="35" customFormat="1"/>
+    <row r="70" s="35" customFormat="1"/>
+    <row r="71" s="35" customFormat="1"/>
+    <row r="72" s="35" customFormat="1"/>
+    <row r="73" s="35" customFormat="1"/>
+    <row r="74" s="35" customFormat="1"/>
+    <row r="75" s="35" customFormat="1"/>
+    <row r="76" s="35" customFormat="1"/>
+    <row r="77" s="35" customFormat="1"/>
+    <row r="78" s="35" customFormat="1"/>
+    <row r="79" s="35" customFormat="1"/>
+    <row r="80" s="35" customFormat="1"/>
+    <row r="81" s="35" customFormat="1"/>
+    <row r="82" s="35" customFormat="1"/>
+    <row r="83" s="35" customFormat="1"/>
+    <row r="84" s="35" customFormat="1"/>
+    <row r="85" s="35" customFormat="1"/>
+    <row r="86" s="35" customFormat="1"/>
+    <row r="87" s="35" customFormat="1"/>
+    <row r="88" s="35" customFormat="1"/>
+    <row r="89" s="35" customFormat="1"/>
+    <row r="90" s="35" customFormat="1"/>
+    <row r="91" s="35" customFormat="1"/>
+    <row r="92" s="35" customFormat="1"/>
+    <row r="93" s="35" customFormat="1"/>
+    <row r="94" s="35" customFormat="1"/>
+    <row r="95" s="35" customFormat="1"/>
+    <row r="96" s="35" customFormat="1"/>
+    <row r="97" s="35" customFormat="1"/>
+    <row r="98" s="35" customFormat="1"/>
+    <row r="99" s="35" customFormat="1"/>
+    <row r="100" s="35" customFormat="1"/>
+    <row r="101" s="35" customFormat="1"/>
+    <row r="102" s="35" customFormat="1"/>
+    <row r="103" s="35" customFormat="1"/>
+    <row r="104" s="35" customFormat="1"/>
+    <row r="105" s="35" customFormat="1"/>
+    <row r="106" s="35" customFormat="1"/>
+    <row r="107" s="35" customFormat="1"/>
+    <row r="108" s="35" customFormat="1"/>
+    <row r="109" s="35" customFormat="1"/>
+    <row r="110" s="35" customFormat="1"/>
+    <row r="111" s="35" customFormat="1"/>
+    <row r="112" s="35" customFormat="1"/>
+    <row r="113" s="35" customFormat="1"/>
+    <row r="114" s="35" customFormat="1"/>
+    <row r="115" s="35" customFormat="1"/>
+    <row r="116" s="35" customFormat="1"/>
+    <row r="117" s="35" customFormat="1"/>
+    <row r="118" s="35" customFormat="1"/>
+    <row r="119" s="35" customFormat="1"/>
+    <row r="120" s="35" customFormat="1"/>
+    <row r="121" s="35" customFormat="1"/>
+    <row r="122" s="35" customFormat="1"/>
+    <row r="123" s="35" customFormat="1"/>
+    <row r="124" s="35" customFormat="1"/>
+    <row r="125" s="35" customFormat="1"/>
+    <row r="126" s="35" customFormat="1"/>
+    <row r="127" s="35" customFormat="1"/>
+    <row r="128" s="35" customFormat="1"/>
+    <row r="129" s="35" customFormat="1"/>
+    <row r="130" s="35" customFormat="1"/>
+    <row r="131" s="35" customFormat="1"/>
+    <row r="132" s="35" customFormat="1"/>
+    <row r="133" s="35" customFormat="1"/>
+    <row r="134" s="35" customFormat="1"/>
+    <row r="135" s="35" customFormat="1"/>
+    <row r="136" s="35" customFormat="1"/>
+    <row r="137" s="35" customFormat="1"/>
+    <row r="138" s="35" customFormat="1"/>
+    <row r="139" s="35" customFormat="1"/>
+    <row r="140" s="35" customFormat="1"/>
+    <row r="141" s="35" customFormat="1"/>
+    <row r="142" s="35" customFormat="1"/>
+    <row r="143" s="35" customFormat="1"/>
+    <row r="144" s="35" customFormat="1"/>
+    <row r="145" s="35" customFormat="1"/>
+    <row r="146" s="35" customFormat="1"/>
+    <row r="147" s="35" customFormat="1"/>
+    <row r="148" s="35" customFormat="1"/>
+    <row r="149" s="35" customFormat="1"/>
+    <row r="150" s="35" customFormat="1"/>
+    <row r="151" s="35" customFormat="1"/>
+    <row r="152" s="35" customFormat="1"/>
+    <row r="153" s="35" customFormat="1"/>
+    <row r="154" s="35" customFormat="1"/>
+    <row r="155" s="35" customFormat="1"/>
+    <row r="156" s="35" customFormat="1"/>
+    <row r="157" s="35" customFormat="1"/>
+    <row r="158" s="35" customFormat="1"/>
+    <row r="159" s="35" customFormat="1"/>
+    <row r="160" s="35" customFormat="1"/>
+    <row r="161" s="35" customFormat="1"/>
+    <row r="162" s="35" customFormat="1"/>
+    <row r="163" s="35" customFormat="1"/>
+    <row r="164" s="35" customFormat="1"/>
+    <row r="165" s="35" customFormat="1"/>
+    <row r="166" s="35" customFormat="1"/>
+    <row r="167" s="35" customFormat="1"/>
+    <row r="168" s="35" customFormat="1"/>
+    <row r="169" s="35" customFormat="1"/>
+    <row r="170" s="35" customFormat="1"/>
+    <row r="171" s="35" customFormat="1"/>
+    <row r="172" s="35" customFormat="1"/>
+    <row r="173" s="35" customFormat="1"/>
+    <row r="174" s="35" customFormat="1"/>
+    <row r="175" s="35" customFormat="1"/>
+    <row r="176" s="35" customFormat="1"/>
+    <row r="177" s="35" customFormat="1"/>
+    <row r="178" s="35" customFormat="1"/>
+    <row r="179" s="35" customFormat="1"/>
+    <row r="180" s="35" customFormat="1"/>
+    <row r="181" s="35" customFormat="1"/>
+    <row r="182" s="35" customFormat="1"/>
+    <row r="183" s="35" customFormat="1"/>
+    <row r="184" s="35" customFormat="1"/>
+    <row r="185" s="35" customFormat="1"/>
+    <row r="186" s="35" customFormat="1"/>
+    <row r="187" s="35" customFormat="1"/>
+    <row r="188" s="35" customFormat="1"/>
+    <row r="189" s="35" customFormat="1"/>
+    <row r="190" s="35" customFormat="1"/>
+    <row r="191" s="35" customFormat="1"/>
+    <row r="192" s="35" customFormat="1"/>
+    <row r="193" s="35" customFormat="1"/>
+    <row r="194" s="35" customFormat="1"/>
+    <row r="195" s="35" customFormat="1"/>
+    <row r="196" s="35" customFormat="1"/>
+    <row r="197" s="35" customFormat="1"/>
+    <row r="198" s="35" customFormat="1"/>
+    <row r="199" s="35" customFormat="1"/>
+    <row r="200" s="35" customFormat="1"/>
+    <row r="201" s="35" customFormat="1"/>
+    <row r="202" s="35" customFormat="1"/>
+    <row r="203" s="35" customFormat="1"/>
+    <row r="204" s="35" customFormat="1"/>
+    <row r="205" s="35" customFormat="1"/>
+    <row r="206" s="35" customFormat="1"/>
+    <row r="207" s="35" customFormat="1"/>
+    <row r="208" s="35" customFormat="1"/>
+    <row r="209" s="35" customFormat="1"/>
+    <row r="210" s="35" customFormat="1"/>
+    <row r="211" s="35" customFormat="1"/>
+    <row r="212" s="35" customFormat="1"/>
+    <row r="213" s="35" customFormat="1"/>
+    <row r="214" s="35" customFormat="1"/>
+    <row r="215" s="35" customFormat="1"/>
+    <row r="216" s="35" customFormat="1"/>
+    <row r="217" s="35" customFormat="1"/>
+    <row r="218" s="35" customFormat="1"/>
+    <row r="219" s="35" customFormat="1"/>
+    <row r="220" s="35" customFormat="1"/>
+    <row r="221" s="35" customFormat="1"/>
+    <row r="222" s="35" customFormat="1"/>
+    <row r="223" s="35" customFormat="1"/>
+    <row r="224" s="35" customFormat="1"/>
+    <row r="225" s="35" customFormat="1"/>
+    <row r="226" s="35" customFormat="1"/>
+    <row r="227" s="35" customFormat="1"/>
+    <row r="228" s="35" customFormat="1"/>
+    <row r="229" s="35" customFormat="1"/>
+    <row r="230" s="35" customFormat="1"/>
+    <row r="231" s="35" customFormat="1"/>
+    <row r="232" s="35" customFormat="1"/>
+    <row r="233" s="35" customFormat="1"/>
+    <row r="234" s="35" customFormat="1"/>
+    <row r="235" s="35" customFormat="1"/>
+    <row r="236" s="35" customFormat="1"/>
+    <row r="237" s="35" customFormat="1"/>
+    <row r="238" s="35" customFormat="1"/>
+    <row r="239" s="35" customFormat="1"/>
+    <row r="240" s="35" customFormat="1"/>
+    <row r="241" spans="1:12" s="35" customFormat="1"/>
+    <row r="242" spans="1:12" s="35" customFormat="1"/>
+    <row r="243" spans="1:12" s="35" customFormat="1">
       <c r="B243"/>
     </row>
-    <row r="244" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" s="35" customFormat="1">
       <c r="A244"/>
       <c r="B244"/>
       <c r="C244"/>
@@ -4144,7 +4182,7 @@
       <c r="K244"/>
       <c r="L244"/>
     </row>
-    <row r="245" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" s="35" customFormat="1">
       <c r="A245"/>
       <c r="B245"/>
       <c r="C245"/>
@@ -4158,7 +4196,7 @@
       <c r="K245"/>
       <c r="L245"/>
     </row>
-    <row r="246" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" s="35" customFormat="1">
       <c r="A246"/>
       <c r="B246"/>
       <c r="C246"/>
@@ -4172,7 +4210,7 @@
       <c r="K246"/>
       <c r="L246"/>
     </row>
-    <row r="247" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" s="35" customFormat="1">
       <c r="A247"/>
       <c r="B247"/>
       <c r="C247"/>
@@ -4186,7 +4224,7 @@
       <c r="K247"/>
       <c r="L247"/>
     </row>
-    <row r="248" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" s="35" customFormat="1">
       <c r="A248"/>
       <c r="B248"/>
       <c r="C248"/>
@@ -4200,7 +4238,7 @@
       <c r="K248"/>
       <c r="L248"/>
     </row>
-    <row r="249" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" s="35" customFormat="1">
       <c r="A249"/>
       <c r="B249"/>
       <c r="C249"/>
@@ -4214,7 +4252,7 @@
       <c r="K249"/>
       <c r="L249"/>
     </row>
-    <row r="250" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" s="35" customFormat="1">
       <c r="A250"/>
       <c r="B250"/>
       <c r="C250"/>
@@ -4228,7 +4266,7 @@
       <c r="K250"/>
       <c r="L250"/>
     </row>
-    <row r="251" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" s="35" customFormat="1">
       <c r="A251"/>
       <c r="B251"/>
       <c r="C251"/>
@@ -4242,7 +4280,7 @@
       <c r="K251"/>
       <c r="L251"/>
     </row>
-    <row r="252" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" s="35" customFormat="1">
       <c r="A252"/>
       <c r="B252"/>
       <c r="C252"/>
@@ -4256,7 +4294,7 @@
       <c r="K252"/>
       <c r="L252"/>
     </row>
-    <row r="253" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" s="35" customFormat="1">
       <c r="A253"/>
       <c r="B253"/>
       <c r="C253"/>
@@ -4270,7 +4308,7 @@
       <c r="K253"/>
       <c r="L253"/>
     </row>
-    <row r="254" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" s="35" customFormat="1">
       <c r="A254"/>
       <c r="B254"/>
       <c r="C254"/>
@@ -4284,7 +4322,7 @@
       <c r="K254"/>
       <c r="L254"/>
     </row>
-    <row r="255" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" s="35" customFormat="1">
       <c r="A255"/>
       <c r="B255"/>
       <c r="C255"/>
@@ -4298,7 +4336,7 @@
       <c r="K255"/>
       <c r="L255"/>
     </row>
-    <row r="256" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" s="35" customFormat="1">
       <c r="A256"/>
       <c r="B256"/>
       <c r="C256"/>
@@ -4312,7 +4350,7 @@
       <c r="K256"/>
       <c r="L256"/>
     </row>
-    <row r="257" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" s="35" customFormat="1">
       <c r="A257"/>
       <c r="B257"/>
       <c r="C257"/>
@@ -4326,7 +4364,7 @@
       <c r="K257"/>
       <c r="L257"/>
     </row>
-    <row r="258" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" s="35" customFormat="1">
       <c r="A258"/>
       <c r="B258"/>
       <c r="C258"/>
@@ -4340,7 +4378,7 @@
       <c r="K258"/>
       <c r="L258"/>
     </row>
-    <row r="259" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" s="35" customFormat="1">
       <c r="A259"/>
       <c r="B259"/>
       <c r="C259"/>
@@ -4354,7 +4392,7 @@
       <c r="K259"/>
       <c r="L259"/>
     </row>
-    <row r="260" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" s="35" customFormat="1">
       <c r="A260"/>
       <c r="B260"/>
       <c r="C260"/>
@@ -4368,7 +4406,7 @@
       <c r="K260"/>
       <c r="L260"/>
     </row>
-    <row r="261" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" s="35" customFormat="1">
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
@@ -4388,7 +4426,7 @@
     <mergeCell ref="E6:L8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I17" r:id="rId1"/>
+    <hyperlink ref="I17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -4396,14 +4434,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="96.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="96.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="1" customWidth="1"/>
@@ -4416,7 +4454,7 @@
     <col min="9" max="16384" width="96.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="48">
       <c r="A1" s="212" t="s">
         <v>3</v>
       </c>
@@ -4432,7 +4470,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -4440,7 +4478,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" s="210" t="s">
         <v>213</v>
       </c>
@@ -4451,7 +4489,7 @@
       <c r="F3" s="210"/>
       <c r="G3" s="210"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -4459,7 +4497,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="13" customFormat="1" ht="19" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
@@ -4488,7 +4526,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="32">
       <c r="A6" s="11" t="s">
         <v>188</v>
       </c>
@@ -4509,7 +4547,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="64">
       <c r="A7" s="3" t="s">
         <v>179</v>
       </c>
@@ -4535,7 +4573,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="48">
       <c r="A8" s="3" t="s">
         <v>179</v>
       </c>
@@ -4561,7 +4599,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="48">
       <c r="A9" s="3" t="s">
         <v>179</v>
       </c>
@@ -4587,7 +4625,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="32">
       <c r="A10" s="3" t="s">
         <v>179</v>
       </c>
@@ -4611,7 +4649,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="32">
       <c r="A11" s="3" t="s">
         <v>179</v>
       </c>
@@ -4632,7 +4670,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="32">
       <c r="A12" s="5" t="s">
         <v>237</v>
       </c>
@@ -4655,7 +4693,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="32">
       <c r="A13" s="5" t="s">
         <v>237</v>
       </c>
@@ -4678,7 +4716,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="32">
       <c r="A14" s="5" t="s">
         <v>237</v>
       </c>
@@ -4701,7 +4739,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="32">
       <c r="A15" s="5" t="s">
         <v>237</v>
       </c>
@@ -4724,7 +4762,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="32">
       <c r="A16" s="5" t="s">
         <v>237</v>
       </c>
@@ -4747,7 +4785,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="48">
       <c r="A17" s="5" t="s">
         <v>237</v>
       </c>
@@ -4773,7 +4811,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="48">
       <c r="A18" s="5" t="s">
         <v>237</v>
       </c>
@@ -4799,7 +4837,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="48">
       <c r="A19" s="5" t="s">
         <v>237</v>
       </c>
@@ -4822,7 +4860,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="32">
       <c r="A20" s="5" t="s">
         <v>237</v>
       </c>
@@ -4842,7 +4880,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="64">
       <c r="A21" s="5" t="s">
         <v>237</v>
       </c>
@@ -4865,7 +4903,7 @@
         <v>55.598599999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="64">
       <c r="A22" s="5" t="s">
         <v>237</v>
       </c>
@@ -4888,7 +4926,7 @@
         <v>-6.8977000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="96">
       <c r="A23" s="5" t="s">
         <v>237</v>
       </c>
@@ -4911,7 +4949,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="64">
       <c r="A24" s="5" t="s">
         <v>237</v>
       </c>
@@ -4934,7 +4972,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="64">
       <c r="A25" s="5" t="s">
         <v>237</v>
       </c>
@@ -4967,14 +5005,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="96.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="96.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="1" customWidth="1"/>
@@ -4987,7 +5025,7 @@
     <col min="9" max="16384" width="96.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="48">
       <c r="A1" s="211" t="s">
         <v>311</v>
       </c>
@@ -5003,7 +5041,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -5011,7 +5049,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" s="210" t="s">
         <v>180</v>
       </c>
@@ -5022,7 +5060,7 @@
       <c r="F3" s="210"/>
       <c r="G3" s="210"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -5030,7 +5068,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="13" customFormat="1" ht="19" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
@@ -5059,7 +5097,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
         <v>179</v>
       </c>
@@ -5073,11 +5111,11 @@
       <c r="G6" s="30"/>
       <c r="H6" s="33"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="140" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="32"/>
@@ -5087,7 +5125,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="33"/>
     </row>
-    <row r="8" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="64">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5113,7 +5151,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="32">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -5137,7 +5175,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="48">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -5160,7 +5198,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="80">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5184,7 +5222,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="48">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -5205,7 +5243,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="64">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -5226,7 +5264,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="96">
       <c r="A14" s="11" t="s">
         <v>46</v>
       </c>
@@ -5246,7 +5284,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="112">
       <c r="A15" s="11" t="s">
         <v>46</v>
       </c>
@@ -5266,7 +5304,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="48">
       <c r="A16" s="11" t="s">
         <v>46</v>
       </c>
@@ -5286,7 +5324,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="48">
       <c r="A17" s="11" t="s">
         <v>46</v>
       </c>
@@ -5306,7 +5344,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="32">
       <c r="A18" s="11" t="s">
         <v>46</v>
       </c>
@@ -5326,7 +5364,7 @@
         <v>2008.1333999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="32">
       <c r="A19" s="11" t="s">
         <v>46</v>
       </c>
@@ -5346,7 +5384,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="96">
       <c r="A20" s="11" t="s">
         <v>46</v>
       </c>
@@ -5366,7 +5404,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="32">
       <c r="A21" s="11" t="s">
         <v>46</v>
       </c>
@@ -5389,7 +5427,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="48">
       <c r="A22" s="11" t="s">
         <v>46</v>
       </c>
@@ -5409,7 +5447,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="48">
       <c r="A23" s="11" t="s">
         <v>46</v>
       </c>
@@ -5429,7 +5467,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="64">
       <c r="A24" s="11" t="s">
         <v>46</v>
       </c>
@@ -5452,7 +5490,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="64">
       <c r="A25" s="11" t="s">
         <v>46</v>
       </c>
@@ -5475,7 +5513,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="32">
       <c r="A26" s="2" t="s">
         <v>63</v>
       </c>
@@ -5498,7 +5536,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="96">
       <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
@@ -5521,7 +5559,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="80">
       <c r="A28" s="2" t="s">
         <v>63</v>
       </c>
@@ -5544,7 +5582,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="64">
       <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
@@ -5564,7 +5602,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="80">
       <c r="A30" s="2" t="s">
         <v>63</v>
       </c>
@@ -5597,14 +5635,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="96.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="96.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="1" customWidth="1"/>
@@ -5617,7 +5655,7 @@
     <col min="9" max="16384" width="96.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="48">
       <c r="A1" s="211" t="s">
         <v>312</v>
       </c>
@@ -5633,7 +5671,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -5641,7 +5679,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" s="210" t="s">
         <v>405</v>
       </c>
@@ -5652,7 +5690,7 @@
       <c r="F3" s="210"/>
       <c r="G3" s="210"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -5660,7 +5698,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="13" customFormat="1" ht="19" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
@@ -5689,7 +5727,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="13" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="13" customFormat="1" ht="19">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -5703,7 +5741,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="34"/>
     </row>
-    <row r="7" spans="1:10" s="13" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="13" customFormat="1" ht="19">
       <c r="A7" s="11" t="s">
         <v>46</v>
       </c>
@@ -5717,7 +5755,7 @@
       <c r="G7" s="30"/>
       <c r="H7" s="34"/>
     </row>
-    <row r="8" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="80">
       <c r="A8" s="12" t="s">
         <v>235</v>
       </c>
@@ -5738,7 +5776,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="48">
       <c r="A9" s="12" t="s">
         <v>235</v>
       </c>
@@ -5761,7 +5799,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="48">
       <c r="A10" s="12" t="s">
         <v>235</v>
       </c>
@@ -5784,7 +5822,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="32">
       <c r="A11" s="12" t="s">
         <v>235</v>
       </c>
@@ -5805,7 +5843,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="144">
       <c r="A12" s="12" t="s">
         <v>235</v>
       </c>
@@ -5829,7 +5867,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="48">
       <c r="A13" s="12" t="s">
         <v>235</v>
       </c>
@@ -5852,7 +5890,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="48">
       <c r="A14" s="12" t="s">
         <v>235</v>
       </c>
@@ -5876,7 +5914,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="48">
       <c r="A15" s="12" t="s">
         <v>235</v>
       </c>
@@ -5897,7 +5935,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="48">
       <c r="A16" s="12" t="s">
         <v>235</v>
       </c>
@@ -5921,7 +5959,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="48">
       <c r="A17" s="12" t="s">
         <v>235</v>
       </c>
@@ -5945,7 +5983,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="48">
       <c r="A18" s="12" t="s">
         <v>235</v>
       </c>
@@ -5965,7 +6003,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" s="9" customFormat="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5975,7 +6013,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" s="9" customFormat="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -5985,25 +6023,25 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="B22" s="86"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="B23" s="86"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="B24" s="86"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="B25" s="86"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="B26" s="86"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="B27" s="86"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="B28" s="86"/>
     </row>
   </sheetData>
@@ -6016,19 +6054,19 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>337</v>
       </c>
@@ -6054,7 +6092,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>348</v>
       </c>
@@ -6080,7 +6118,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="B3" t="s">
         <v>351</v>
       </c>
@@ -6094,7 +6132,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="C4" t="s">
         <v>369</v>
       </c>
@@ -6105,7 +6143,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="H5" t="s">
         <v>365</v>
       </c>
@@ -6113,17 +6151,17 @@
         <v>397</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="H6" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="H7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="F9" s="20"/>
     </row>
   </sheetData>
@@ -6132,17 +6170,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="37.6640625" style="36" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="36" customWidth="1"/>
@@ -6152,11 +6190,11 @@
     <col min="12" max="12" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:19" ht="20">
+      <c r="A1" s="128" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="129" t="s">
         <v>374</v>
       </c>
       <c r="C1" s="35"/>
@@ -6177,9 +6215,9 @@
       <c r="R1" s="35"/>
       <c r="S1" s="35"/>
     </row>
-    <row r="2" spans="1:19" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="131"/>
-      <c r="B2" s="124"/>
+    <row r="2" spans="1:19" ht="20">
+      <c r="A2" s="130"/>
+      <c r="B2" s="123"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -6198,9 +6236,9 @@
       <c r="R2" s="35"/>
       <c r="S2" s="35"/>
     </row>
-    <row r="3" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="124"/>
-      <c r="B3" s="124"/>
+    <row r="3" spans="1:19" ht="17" thickBot="1">
+      <c r="A3" s="123"/>
+      <c r="B3" s="123"/>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
@@ -6219,7 +6257,7 @@
       <c r="R3" s="35"/>
       <c r="S3" s="35"/>
     </row>
-    <row r="4" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="21" customHeight="1">
       <c r="A4" s="112" t="s">
         <v>372</v>
       </c>
@@ -6244,7 +6282,7 @@
       <c r="R4" s="35"/>
       <c r="S4" s="35"/>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="15" customHeight="1">
       <c r="A5" s="114"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -6265,8 +6303,8 @@
       <c r="R5" s="35"/>
       <c r="S5" s="35"/>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="136" t="s">
+    <row r="6" spans="1:19" ht="15" customHeight="1">
+      <c r="A6" s="135" t="s">
         <v>436</v>
       </c>
       <c r="B6" s="182"/>
@@ -6288,8 +6326,8 @@
       <c r="R6" s="35"/>
       <c r="S6" s="35"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="137" t="s">
+    <row r="7" spans="1:19" ht="15" customHeight="1">
+      <c r="A7" s="136" t="s">
         <v>341</v>
       </c>
       <c r="B7" s="178"/>
@@ -6311,8 +6349,8 @@
       <c r="R7" s="35"/>
       <c r="S7" s="35"/>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="137" t="s">
+    <row r="8" spans="1:19" ht="15" customHeight="1">
+      <c r="A8" s="136" t="s">
         <v>342</v>
       </c>
       <c r="B8" s="184"/>
@@ -6334,8 +6372,8 @@
       <c r="R8" s="35"/>
       <c r="S8" s="35"/>
     </row>
-    <row r="9" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="137" t="s">
+    <row r="9" spans="1:19" ht="45.75" customHeight="1">
+      <c r="A9" s="136" t="s">
         <v>343</v>
       </c>
       <c r="B9" s="178"/>
@@ -6357,8 +6395,8 @@
       <c r="R9" s="35"/>
       <c r="S9" s="35"/>
     </row>
-    <row r="10" spans="1:19" ht="273" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="138" t="s">
+    <row r="10" spans="1:19" ht="273" customHeight="1">
+      <c r="A10" s="137" t="s">
         <v>344</v>
       </c>
       <c r="B10" s="180"/>
@@ -6380,8 +6418,8 @@
       <c r="R10" s="35"/>
       <c r="S10" s="35"/>
     </row>
-    <row r="11" spans="1:19" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="139" t="s">
+    <row r="11" spans="1:19" ht="19" customHeight="1" thickBot="1">
+      <c r="A11" s="138" t="s">
         <v>403</v>
       </c>
       <c r="B11" s="176"/>
@@ -6395,7 +6433,7 @@
       <c r="J11" s="46"/>
       <c r="K11" s="46"/>
       <c r="L11" s="46"/>
-      <c r="M11" s="124"/>
+      <c r="M11" s="123"/>
       <c r="N11" s="35"/>
       <c r="O11" s="35"/>
       <c r="P11" s="35"/>
@@ -6403,12 +6441,12 @@
       <c r="R11" s="35"/>
       <c r="S11" s="35"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="127"/>
-      <c r="B12" s="128"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+    <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1">
+      <c r="A12" s="126"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
       <c r="F12" s="46"/>
       <c r="G12" s="46"/>
       <c r="H12" s="46"/>
@@ -6416,7 +6454,7 @@
       <c r="J12" s="46"/>
       <c r="K12" s="46"/>
       <c r="L12" s="46"/>
-      <c r="M12" s="124"/>
+      <c r="M12" s="123"/>
       <c r="N12" s="35"/>
       <c r="O12" s="35"/>
       <c r="P12" s="35"/>
@@ -6424,7 +6462,7 @@
       <c r="R12" s="35"/>
       <c r="S12" s="35"/>
     </row>
-    <row r="13" spans="1:19" s="38" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="38" customFormat="1" ht="20" customHeight="1">
       <c r="A13" s="112" t="s">
         <v>338</v>
       </c>
@@ -6447,8 +6485,10 @@
       <c r="R13" s="35"/>
       <c r="S13" s="35"/>
     </row>
-    <row r="14" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="117"/>
+    <row r="14" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="173" t="s">
+        <v>469</v>
+      </c>
       <c r="B14" s="116" t="s">
         <v>326</v>
       </c>
@@ -6479,7 +6519,7 @@
       <c r="K14" s="116" t="s">
         <v>335</v>
       </c>
-      <c r="L14" s="118" t="s">
+      <c r="L14" s="117" t="s">
         <v>336</v>
       </c>
       <c r="M14" s="46"/>
@@ -6490,21 +6530,21 @@
       <c r="R14" s="35"/>
       <c r="S14" s="35"/>
     </row>
-    <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="119" t="s">
+    <row r="15" spans="1:19" ht="18" customHeight="1">
+      <c r="A15" s="118" t="s">
         <v>339</v>
       </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
       <c r="F15" s="41"/>
       <c r="G15" s="41"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="120"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="119"/>
       <c r="M15" s="46"/>
       <c r="N15" s="45"/>
       <c r="O15" s="35"/>
@@ -6513,21 +6553,21 @@
       <c r="R15" s="35"/>
       <c r="S15" s="35"/>
     </row>
-    <row r="16" spans="1:19" s="38" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="173" t="s">
+    <row r="16" spans="1:19" s="38" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A16" s="172" t="s">
         <v>468</v>
       </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="123"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="122"/>
       <c r="M16" s="46"/>
       <c r="N16" s="45"/>
       <c r="O16" s="35"/>
@@ -6536,19 +6576,19 @@
       <c r="R16" s="35"/>
       <c r="S16" s="35"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="124"/>
-      <c r="B17" s="124"/>
+    <row r="17" spans="1:19" ht="15" customHeight="1">
+      <c r="A17" s="123"/>
+      <c r="B17" s="123"/>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
       <c r="M17" s="46"/>
       <c r="N17" s="45"/>
       <c r="O17" s="45"/>
@@ -6557,19 +6597,19 @@
       <c r="R17" s="45"/>
       <c r="S17" s="35"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="124"/>
-      <c r="B18" s="124"/>
+    <row r="18" spans="1:19" ht="15" customHeight="1">
+      <c r="A18" s="123"/>
+      <c r="B18" s="123"/>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
       <c r="F18" s="35"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
       <c r="M18" s="46"/>
       <c r="N18" s="45"/>
       <c r="O18" s="45"/>
@@ -6578,19 +6618,19 @@
       <c r="R18" s="45"/>
       <c r="S18" s="35"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124"/>
-      <c r="B19" s="124"/>
+    <row r="19" spans="1:19" ht="15" customHeight="1">
+      <c r="A19" s="123"/>
+      <c r="B19" s="123"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
       <c r="M19" s="46"/>
       <c r="N19" s="45"/>
       <c r="O19" s="45"/>
@@ -6599,19 +6639,19 @@
       <c r="R19" s="45"/>
       <c r="S19" s="35"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="124"/>
-      <c r="B20" s="124"/>
+    <row r="20" spans="1:19" ht="15" customHeight="1">
+      <c r="A20" s="123"/>
+      <c r="B20" s="123"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
       <c r="M20" s="46"/>
       <c r="N20" s="45"/>
       <c r="O20" s="45"/>
@@ -6620,19 +6660,19 @@
       <c r="R20" s="45"/>
       <c r="S20" s="35"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="124"/>
-      <c r="B21" s="124"/>
+    <row r="21" spans="1:19" ht="15" customHeight="1">
+      <c r="A21" s="123"/>
+      <c r="B21" s="123"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="124"/>
       <c r="M21" s="46"/>
       <c r="N21" s="45"/>
       <c r="O21" s="45"/>
@@ -6641,19 +6681,19 @@
       <c r="R21" s="45"/>
       <c r="S21" s="35"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="124"/>
-      <c r="B22" s="124"/>
+    <row r="22" spans="1:19" ht="15" customHeight="1">
+      <c r="A22" s="123"/>
+      <c r="B22" s="123"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
       <c r="G22" s="35"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
       <c r="M22" s="46"/>
       <c r="N22" s="45"/>
       <c r="O22" s="45"/>
@@ -6662,19 +6702,19 @@
       <c r="R22" s="45"/>
       <c r="S22" s="35"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="124"/>
-      <c r="B23" s="124"/>
+    <row r="23" spans="1:19" ht="15" customHeight="1">
+      <c r="A23" s="123"/>
+      <c r="B23" s="123"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="124"/>
       <c r="M23" s="46"/>
       <c r="N23" s="45"/>
       <c r="O23" s="45"/>
@@ -6683,19 +6723,19 @@
       <c r="R23" s="45"/>
       <c r="S23" s="35"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="124"/>
-      <c r="B24" s="124"/>
+    <row r="24" spans="1:19" ht="15" customHeight="1">
+      <c r="A24" s="123"/>
+      <c r="B24" s="123"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
       <c r="M24" s="46"/>
       <c r="N24" s="45"/>
       <c r="O24" s="45"/>
@@ -6704,19 +6744,19 @@
       <c r="R24" s="45"/>
       <c r="S24" s="35"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="124"/>
-      <c r="B25" s="124"/>
+    <row r="25" spans="1:19" ht="15" customHeight="1">
+      <c r="A25" s="123"/>
+      <c r="B25" s="123"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="124"/>
       <c r="M25" s="46"/>
       <c r="N25" s="45"/>
       <c r="O25" s="45"/>
@@ -6725,20 +6765,20 @@
       <c r="R25" s="45"/>
       <c r="S25" s="35"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="124"/>
-      <c r="B26" s="124"/>
+    <row r="26" spans="1:19" ht="15" customHeight="1">
+      <c r="A26" s="123"/>
+      <c r="B26" s="123"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="125"/>
-      <c r="J26" s="125"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="124"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="123"/>
       <c r="N26" s="35"/>
       <c r="O26" s="35"/>
       <c r="P26" s="35"/>
@@ -6746,20 +6786,20 @@
       <c r="R26" s="35"/>
       <c r="S26" s="35"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="124"/>
-      <c r="B27" s="124"/>
+    <row r="27" spans="1:19" ht="15" customHeight="1">
+      <c r="A27" s="123"/>
+      <c r="B27" s="123"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="124"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="124"/>
+      <c r="M27" s="123"/>
       <c r="N27" s="35"/>
       <c r="O27" s="35"/>
       <c r="P27" s="35"/>
@@ -6767,20 +6807,20 @@
       <c r="R27" s="35"/>
       <c r="S27" s="35"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="124"/>
-      <c r="B28" s="124"/>
+    <row r="28" spans="1:19" ht="15" customHeight="1">
+      <c r="A28" s="123"/>
+      <c r="B28" s="123"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="125"/>
-      <c r="J28" s="125"/>
-      <c r="K28" s="125"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="124"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="123"/>
       <c r="N28" s="35"/>
       <c r="O28" s="35"/>
       <c r="P28" s="35"/>
@@ -6788,20 +6828,20 @@
       <c r="R28" s="35"/>
       <c r="S28" s="35"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="124"/>
-      <c r="B29" s="124"/>
+    <row r="29" spans="1:19" ht="15" customHeight="1">
+      <c r="A29" s="123"/>
+      <c r="B29" s="123"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="125"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="124"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="124"/>
+      <c r="M29" s="123"/>
       <c r="N29" s="35"/>
       <c r="O29" s="35"/>
       <c r="P29" s="35"/>
@@ -6809,20 +6849,20 @@
       <c r="R29" s="35"/>
       <c r="S29" s="35"/>
     </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="124"/>
-      <c r="B30" s="124"/>
+    <row r="30" spans="1:19" ht="15" customHeight="1">
+      <c r="A30" s="123"/>
+      <c r="B30" s="123"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="125"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="124"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="123"/>
       <c r="N30" s="35"/>
       <c r="O30" s="35"/>
       <c r="P30" s="35"/>
@@ -6830,20 +6870,20 @@
       <c r="R30" s="35"/>
       <c r="S30" s="35"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="124"/>
-      <c r="B31" s="124"/>
+    <row r="31" spans="1:19" ht="15" customHeight="1">
+      <c r="A31" s="123"/>
+      <c r="B31" s="123"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="125"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="124"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="124"/>
+      <c r="J31" s="124"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="124"/>
+      <c r="M31" s="123"/>
       <c r="N31" s="35"/>
       <c r="O31" s="35"/>
       <c r="P31" s="35"/>
@@ -6851,20 +6891,20 @@
       <c r="R31" s="35"/>
       <c r="S31" s="35"/>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="124"/>
-      <c r="B32" s="124"/>
+    <row r="32" spans="1:19" ht="15" customHeight="1">
+      <c r="A32" s="123"/>
+      <c r="B32" s="123"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="125"/>
-      <c r="K32" s="125"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="124"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="124"/>
+      <c r="J32" s="124"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="124"/>
+      <c r="M32" s="123"/>
       <c r="N32" s="35"/>
       <c r="O32" s="35"/>
       <c r="P32" s="35"/>
@@ -6872,20 +6912,20 @@
       <c r="R32" s="35"/>
       <c r="S32" s="35"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="124"/>
-      <c r="B33" s="124"/>
+    <row r="33" spans="1:19" ht="15" customHeight="1">
+      <c r="A33" s="123"/>
+      <c r="B33" s="123"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="125"/>
-      <c r="J33" s="125"/>
-      <c r="K33" s="125"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="124"/>
+      <c r="H33" s="124"/>
+      <c r="I33" s="124"/>
+      <c r="J33" s="124"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="124"/>
+      <c r="M33" s="123"/>
       <c r="N33" s="35"/>
       <c r="O33" s="35"/>
       <c r="P33" s="35"/>
@@ -6893,20 +6933,20 @@
       <c r="R33" s="35"/>
       <c r="S33" s="35"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="124"/>
-      <c r="B34" s="124"/>
+    <row r="34" spans="1:19" ht="15" customHeight="1">
+      <c r="A34" s="123"/>
+      <c r="B34" s="123"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="125"/>
-      <c r="J34" s="125"/>
-      <c r="K34" s="125"/>
-      <c r="L34" s="125"/>
-      <c r="M34" s="124"/>
+      <c r="H34" s="124"/>
+      <c r="I34" s="124"/>
+      <c r="J34" s="124"/>
+      <c r="K34" s="124"/>
+      <c r="L34" s="124"/>
+      <c r="M34" s="123"/>
       <c r="N34" s="35"/>
       <c r="O34" s="35"/>
       <c r="P34" s="35"/>
@@ -6914,20 +6954,20 @@
       <c r="R34" s="35"/>
       <c r="S34" s="35"/>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="124"/>
-      <c r="B35" s="124"/>
+    <row r="35" spans="1:19" ht="15" customHeight="1">
+      <c r="A35" s="123"/>
+      <c r="B35" s="123"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="125"/>
-      <c r="L35" s="125"/>
-      <c r="M35" s="124"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="124"/>
+      <c r="J35" s="124"/>
+      <c r="K35" s="124"/>
+      <c r="L35" s="124"/>
+      <c r="M35" s="123"/>
       <c r="N35" s="35"/>
       <c r="O35" s="35"/>
       <c r="P35" s="35"/>
@@ -6935,20 +6975,20 @@
       <c r="R35" s="35"/>
       <c r="S35" s="35"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="124"/>
-      <c r="B36" s="124"/>
+    <row r="36" spans="1:19" ht="15" customHeight="1">
+      <c r="A36" s="123"/>
+      <c r="B36" s="123"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="125"/>
-      <c r="K36" s="125"/>
-      <c r="L36" s="125"/>
-      <c r="M36" s="124"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="124"/>
+      <c r="K36" s="124"/>
+      <c r="L36" s="124"/>
+      <c r="M36" s="123"/>
       <c r="N36" s="35"/>
       <c r="O36" s="35"/>
       <c r="P36" s="35"/>
@@ -6956,20 +6996,20 @@
       <c r="R36" s="35"/>
       <c r="S36" s="35"/>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="124"/>
-      <c r="B37" s="124"/>
+    <row r="37" spans="1:19" ht="15" customHeight="1">
+      <c r="A37" s="123"/>
+      <c r="B37" s="123"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="125"/>
-      <c r="J37" s="125"/>
-      <c r="K37" s="125"/>
-      <c r="L37" s="125"/>
-      <c r="M37" s="124"/>
+      <c r="H37" s="124"/>
+      <c r="I37" s="124"/>
+      <c r="J37" s="124"/>
+      <c r="K37" s="124"/>
+      <c r="L37" s="124"/>
+      <c r="M37" s="123"/>
       <c r="N37" s="35"/>
       <c r="O37" s="35"/>
       <c r="P37" s="35"/>
@@ -6977,20 +7017,20 @@
       <c r="R37" s="35"/>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="124"/>
-      <c r="B38" s="124"/>
+    <row r="38" spans="1:19" ht="15" customHeight="1">
+      <c r="A38" s="123"/>
+      <c r="B38" s="123"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
-      <c r="H38" s="125"/>
-      <c r="I38" s="125"/>
-      <c r="J38" s="125"/>
-      <c r="K38" s="125"/>
-      <c r="L38" s="125"/>
-      <c r="M38" s="124"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="124"/>
+      <c r="J38" s="124"/>
+      <c r="K38" s="124"/>
+      <c r="L38" s="124"/>
+      <c r="M38" s="123"/>
       <c r="N38" s="35"/>
       <c r="O38" s="35"/>
       <c r="P38" s="35"/>
@@ -6998,20 +7038,20 @@
       <c r="R38" s="35"/>
       <c r="S38" s="35"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="124"/>
-      <c r="B39" s="124"/>
+    <row r="39" spans="1:19" ht="15" customHeight="1">
+      <c r="A39" s="123"/>
+      <c r="B39" s="123"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
       <c r="F39" s="35"/>
       <c r="G39" s="35"/>
-      <c r="H39" s="125"/>
-      <c r="I39" s="125"/>
-      <c r="J39" s="125"/>
-      <c r="K39" s="125"/>
-      <c r="L39" s="125"/>
-      <c r="M39" s="124"/>
+      <c r="H39" s="124"/>
+      <c r="I39" s="124"/>
+      <c r="J39" s="124"/>
+      <c r="K39" s="124"/>
+      <c r="L39" s="124"/>
+      <c r="M39" s="123"/>
       <c r="N39" s="35"/>
       <c r="O39" s="35"/>
       <c r="P39" s="35"/>
@@ -7019,20 +7059,20 @@
       <c r="R39" s="35"/>
       <c r="S39" s="35"/>
     </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="124"/>
-      <c r="B40" s="124"/>
+    <row r="40" spans="1:19" ht="15" customHeight="1">
+      <c r="A40" s="123"/>
+      <c r="B40" s="123"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="125"/>
-      <c r="J40" s="125"/>
-      <c r="K40" s="125"/>
-      <c r="L40" s="125"/>
-      <c r="M40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="124"/>
+      <c r="K40" s="124"/>
+      <c r="L40" s="124"/>
+      <c r="M40" s="123"/>
       <c r="N40" s="35"/>
       <c r="O40" s="35"/>
       <c r="P40" s="35"/>
@@ -7040,20 +7080,20 @@
       <c r="R40" s="35"/>
       <c r="S40" s="35"/>
     </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="124"/>
-      <c r="B41" s="124"/>
+    <row r="41" spans="1:19" ht="15" customHeight="1">
+      <c r="A41" s="123"/>
+      <c r="B41" s="123"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="125"/>
-      <c r="I41" s="125"/>
-      <c r="J41" s="125"/>
-      <c r="K41" s="125"/>
-      <c r="L41" s="125"/>
-      <c r="M41" s="124"/>
+      <c r="H41" s="124"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="124"/>
+      <c r="K41" s="124"/>
+      <c r="L41" s="124"/>
+      <c r="M41" s="123"/>
       <c r="N41" s="35"/>
       <c r="O41" s="35"/>
       <c r="P41" s="35"/>
@@ -7061,20 +7101,20 @@
       <c r="R41" s="35"/>
       <c r="S41" s="35"/>
     </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="124"/>
-      <c r="B42" s="124"/>
+    <row r="42" spans="1:19" ht="15" customHeight="1">
+      <c r="A42" s="123"/>
+      <c r="B42" s="123"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="125"/>
-      <c r="K42" s="125"/>
-      <c r="L42" s="125"/>
-      <c r="M42" s="124"/>
+      <c r="H42" s="124"/>
+      <c r="I42" s="124"/>
+      <c r="J42" s="124"/>
+      <c r="K42" s="124"/>
+      <c r="L42" s="124"/>
+      <c r="M42" s="123"/>
       <c r="N42" s="35"/>
       <c r="O42" s="35"/>
       <c r="P42" s="35"/>
@@ -7082,20 +7122,20 @@
       <c r="R42" s="35"/>
       <c r="S42" s="35"/>
     </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="124"/>
-      <c r="B43" s="124"/>
+    <row r="43" spans="1:19" ht="15" customHeight="1">
+      <c r="A43" s="123"/>
+      <c r="B43" s="123"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
-      <c r="H43" s="125"/>
-      <c r="I43" s="125"/>
-      <c r="J43" s="125"/>
-      <c r="K43" s="125"/>
-      <c r="L43" s="125"/>
-      <c r="M43" s="124"/>
+      <c r="H43" s="124"/>
+      <c r="I43" s="124"/>
+      <c r="J43" s="124"/>
+      <c r="K43" s="124"/>
+      <c r="L43" s="124"/>
+      <c r="M43" s="123"/>
       <c r="N43" s="35"/>
       <c r="O43" s="35"/>
       <c r="P43" s="35"/>
@@ -7103,20 +7143,20 @@
       <c r="R43" s="35"/>
       <c r="S43" s="35"/>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="124"/>
-      <c r="B44" s="124"/>
+    <row r="44" spans="1:19" ht="15" customHeight="1">
+      <c r="A44" s="123"/>
+      <c r="B44" s="123"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="125"/>
-      <c r="K44" s="125"/>
-      <c r="L44" s="125"/>
-      <c r="M44" s="124"/>
+      <c r="H44" s="124"/>
+      <c r="I44" s="124"/>
+      <c r="J44" s="124"/>
+      <c r="K44" s="124"/>
+      <c r="L44" s="124"/>
+      <c r="M44" s="123"/>
       <c r="N44" s="35"/>
       <c r="O44" s="35"/>
       <c r="P44" s="35"/>
@@ -7124,20 +7164,20 @@
       <c r="R44" s="35"/>
       <c r="S44" s="35"/>
     </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="124"/>
-      <c r="B45" s="124"/>
+    <row r="45" spans="1:19" ht="15" customHeight="1">
+      <c r="A45" s="123"/>
+      <c r="B45" s="123"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="125"/>
-      <c r="K45" s="125"/>
-      <c r="L45" s="125"/>
-      <c r="M45" s="124"/>
+      <c r="H45" s="124"/>
+      <c r="I45" s="124"/>
+      <c r="J45" s="124"/>
+      <c r="K45" s="124"/>
+      <c r="L45" s="124"/>
+      <c r="M45" s="123"/>
       <c r="N45" s="35"/>
       <c r="O45" s="35"/>
       <c r="P45" s="35"/>
@@ -7145,20 +7185,20 @@
       <c r="R45" s="35"/>
       <c r="S45" s="35"/>
     </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="124"/>
-      <c r="B46" s="124"/>
+    <row r="46" spans="1:19" ht="15" customHeight="1">
+      <c r="A46" s="123"/>
+      <c r="B46" s="123"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="125"/>
-      <c r="J46" s="125"/>
-      <c r="K46" s="125"/>
-      <c r="L46" s="125"/>
-      <c r="M46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="124"/>
+      <c r="J46" s="124"/>
+      <c r="K46" s="124"/>
+      <c r="L46" s="124"/>
+      <c r="M46" s="123"/>
       <c r="N46" s="35"/>
       <c r="O46" s="35"/>
       <c r="P46" s="35"/>
@@ -7166,20 +7206,20 @@
       <c r="R46" s="35"/>
       <c r="S46" s="35"/>
     </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="124"/>
-      <c r="B47" s="124"/>
+    <row r="47" spans="1:19" ht="15" customHeight="1">
+      <c r="A47" s="123"/>
+      <c r="B47" s="123"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
-      <c r="H47" s="125"/>
-      <c r="I47" s="125"/>
-      <c r="J47" s="125"/>
-      <c r="K47" s="125"/>
-      <c r="L47" s="125"/>
-      <c r="M47" s="124"/>
+      <c r="H47" s="124"/>
+      <c r="I47" s="124"/>
+      <c r="J47" s="124"/>
+      <c r="K47" s="124"/>
+      <c r="L47" s="124"/>
+      <c r="M47" s="123"/>
       <c r="N47" s="35"/>
       <c r="O47" s="35"/>
       <c r="P47" s="35"/>
@@ -7187,20 +7227,20 @@
       <c r="R47" s="35"/>
       <c r="S47" s="35"/>
     </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="124"/>
-      <c r="B48" s="124"/>
+    <row r="48" spans="1:19" ht="15" customHeight="1">
+      <c r="A48" s="123"/>
+      <c r="B48" s="123"/>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
-      <c r="H48" s="125"/>
-      <c r="I48" s="125"/>
-      <c r="J48" s="125"/>
-      <c r="K48" s="125"/>
-      <c r="L48" s="125"/>
-      <c r="M48" s="124"/>
+      <c r="H48" s="124"/>
+      <c r="I48" s="124"/>
+      <c r="J48" s="124"/>
+      <c r="K48" s="124"/>
+      <c r="L48" s="124"/>
+      <c r="M48" s="123"/>
       <c r="N48" s="35"/>
       <c r="O48" s="35"/>
       <c r="P48" s="35"/>
@@ -7208,20 +7248,20 @@
       <c r="R48" s="35"/>
       <c r="S48" s="35"/>
     </row>
-    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="126"/>
-      <c r="B49" s="125"/>
-      <c r="C49" s="125"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="125"/>
-      <c r="F49" s="125"/>
-      <c r="G49" s="125"/>
-      <c r="H49" s="125"/>
-      <c r="I49" s="125"/>
-      <c r="J49" s="125"/>
-      <c r="K49" s="125"/>
-      <c r="L49" s="125"/>
-      <c r="M49" s="124"/>
+    <row r="49" spans="1:19" ht="15" customHeight="1">
+      <c r="A49" s="125"/>
+      <c r="B49" s="124"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="124"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="124"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="124"/>
+      <c r="J49" s="124"/>
+      <c r="K49" s="124"/>
+      <c r="L49" s="124"/>
+      <c r="M49" s="123"/>
       <c r="N49" s="35"/>
       <c r="O49" s="35"/>
       <c r="P49" s="35"/>
@@ -7229,20 +7269,20 @@
       <c r="R49" s="35"/>
       <c r="S49" s="35"/>
     </row>
-    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="126"/>
-      <c r="B50" s="125"/>
-      <c r="C50" s="125"/>
-      <c r="D50" s="125"/>
-      <c r="E50" s="125"/>
-      <c r="F50" s="125"/>
-      <c r="G50" s="125"/>
-      <c r="H50" s="125"/>
-      <c r="I50" s="125"/>
-      <c r="J50" s="125"/>
-      <c r="K50" s="125"/>
-      <c r="L50" s="125"/>
-      <c r="M50" s="124"/>
+    <row r="50" spans="1:19" ht="15" customHeight="1">
+      <c r="A50" s="125"/>
+      <c r="B50" s="124"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="124"/>
+      <c r="G50" s="124"/>
+      <c r="H50" s="124"/>
+      <c r="I50" s="124"/>
+      <c r="J50" s="124"/>
+      <c r="K50" s="124"/>
+      <c r="L50" s="124"/>
+      <c r="M50" s="123"/>
       <c r="N50" s="35"/>
       <c r="O50" s="35"/>
       <c r="P50" s="35"/>
@@ -7250,9 +7290,9 @@
       <c r="R50" s="35"/>
       <c r="S50" s="35"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="124"/>
-      <c r="B51" s="124"/>
+    <row r="51" spans="1:19">
+      <c r="A51" s="123"/>
+      <c r="B51" s="123"/>
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
@@ -7271,9 +7311,9 @@
       <c r="R51" s="35"/>
       <c r="S51" s="35"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="124"/>
-      <c r="B52" s="124"/>
+    <row r="52" spans="1:19">
+      <c r="A52" s="123"/>
+      <c r="B52" s="123"/>
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -7292,9 +7332,9 @@
       <c r="R52" s="35"/>
       <c r="S52" s="35"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53" s="124"/>
-      <c r="B53" s="124"/>
+    <row r="53" spans="1:19">
+      <c r="A53" s="123"/>
+      <c r="B53" s="123"/>
       <c r="C53" s="35"/>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
@@ -7313,9 +7353,9 @@
       <c r="R53" s="35"/>
       <c r="S53" s="35"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="124"/>
-      <c r="B54" s="124"/>
+    <row r="54" spans="1:19">
+      <c r="A54" s="123"/>
+      <c r="B54" s="123"/>
       <c r="C54" s="35"/>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
@@ -7334,9 +7374,9 @@
       <c r="R54" s="35"/>
       <c r="S54" s="35"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55" s="124"/>
-      <c r="B55" s="124"/>
+    <row r="55" spans="1:19">
+      <c r="A55" s="123"/>
+      <c r="B55" s="123"/>
       <c r="C55" s="35"/>
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
@@ -7355,9 +7395,9 @@
       <c r="R55" s="35"/>
       <c r="S55" s="35"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56" s="124"/>
-      <c r="B56" s="124"/>
+    <row r="56" spans="1:19">
+      <c r="A56" s="123"/>
+      <c r="B56" s="123"/>
       <c r="C56" s="35"/>
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
@@ -7376,9 +7416,9 @@
       <c r="R56" s="35"/>
       <c r="S56" s="35"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57" s="124"/>
-      <c r="B57" s="124"/>
+    <row r="57" spans="1:19">
+      <c r="A57" s="123"/>
+      <c r="B57" s="123"/>
       <c r="C57" s="35"/>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
@@ -7397,9 +7437,9 @@
       <c r="R57" s="35"/>
       <c r="S57" s="35"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="124"/>
-      <c r="B58" s="124"/>
+    <row r="58" spans="1:19">
+      <c r="A58" s="123"/>
+      <c r="B58" s="123"/>
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
@@ -7418,9 +7458,9 @@
       <c r="R58" s="35"/>
       <c r="S58" s="35"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A59" s="124"/>
-      <c r="B59" s="124"/>
+    <row r="59" spans="1:19">
+      <c r="A59" s="123"/>
+      <c r="B59" s="123"/>
       <c r="C59" s="35"/>
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
@@ -7439,9 +7479,9 @@
       <c r="R59" s="35"/>
       <c r="S59" s="35"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60" s="124"/>
-      <c r="B60" s="124"/>
+    <row r="60" spans="1:19">
+      <c r="A60" s="123"/>
+      <c r="B60" s="123"/>
       <c r="C60" s="35"/>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
@@ -7460,9 +7500,9 @@
       <c r="R60" s="35"/>
       <c r="S60" s="35"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A61" s="124"/>
-      <c r="B61" s="124"/>
+    <row r="61" spans="1:19">
+      <c r="A61" s="123"/>
+      <c r="B61" s="123"/>
       <c r="C61" s="35"/>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
@@ -7481,9 +7521,9 @@
       <c r="R61" s="35"/>
       <c r="S61" s="35"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A62" s="124"/>
-      <c r="B62" s="124"/>
+    <row r="62" spans="1:19">
+      <c r="A62" s="123"/>
+      <c r="B62" s="123"/>
       <c r="C62" s="35"/>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
@@ -7502,9 +7542,9 @@
       <c r="R62" s="35"/>
       <c r="S62" s="35"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A63" s="124"/>
-      <c r="B63" s="124"/>
+    <row r="63" spans="1:19">
+      <c r="A63" s="123"/>
+      <c r="B63" s="123"/>
       <c r="C63" s="35"/>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
@@ -7523,9 +7563,9 @@
       <c r="R63" s="35"/>
       <c r="S63" s="35"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A64" s="124"/>
-      <c r="B64" s="124"/>
+    <row r="64" spans="1:19">
+      <c r="A64" s="123"/>
+      <c r="B64" s="123"/>
       <c r="C64" s="35"/>
       <c r="D64" s="35"/>
       <c r="E64" s="35"/>
@@ -7544,9 +7584,9 @@
       <c r="R64" s="35"/>
       <c r="S64" s="35"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A65" s="124"/>
-      <c r="B65" s="124"/>
+    <row r="65" spans="1:19">
+      <c r="A65" s="123"/>
+      <c r="B65" s="123"/>
       <c r="C65" s="35"/>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
@@ -7565,9 +7605,9 @@
       <c r="R65" s="35"/>
       <c r="S65" s="35"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A66" s="124"/>
-      <c r="B66" s="124"/>
+    <row r="66" spans="1:19">
+      <c r="A66" s="123"/>
+      <c r="B66" s="123"/>
       <c r="C66" s="35"/>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
@@ -7586,9 +7626,9 @@
       <c r="R66" s="35"/>
       <c r="S66" s="35"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="124"/>
-      <c r="B67" s="124"/>
+    <row r="67" spans="1:19">
+      <c r="A67" s="123"/>
+      <c r="B67" s="123"/>
       <c r="C67" s="35"/>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
@@ -7607,9 +7647,9 @@
       <c r="R67" s="35"/>
       <c r="S67" s="35"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A68" s="124"/>
-      <c r="B68" s="124"/>
+    <row r="68" spans="1:19">
+      <c r="A68" s="123"/>
+      <c r="B68" s="123"/>
       <c r="C68" s="35"/>
       <c r="D68" s="35"/>
       <c r="E68" s="35"/>
@@ -7628,9 +7668,9 @@
       <c r="R68" s="35"/>
       <c r="S68" s="35"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A69" s="124"/>
-      <c r="B69" s="124"/>
+    <row r="69" spans="1:19">
+      <c r="A69" s="123"/>
+      <c r="B69" s="123"/>
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -7649,9 +7689,9 @@
       <c r="R69" s="35"/>
       <c r="S69" s="35"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A70" s="124"/>
-      <c r="B70" s="124"/>
+    <row r="70" spans="1:19">
+      <c r="A70" s="123"/>
+      <c r="B70" s="123"/>
       <c r="C70" s="35"/>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -7670,9 +7710,9 @@
       <c r="R70" s="35"/>
       <c r="S70" s="35"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A71" s="124"/>
-      <c r="B71" s="124"/>
+    <row r="71" spans="1:19">
+      <c r="A71" s="123"/>
+      <c r="B71" s="123"/>
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
       <c r="E71" s="35"/>
@@ -7691,9 +7731,9 @@
       <c r="R71" s="35"/>
       <c r="S71" s="35"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A72" s="124"/>
-      <c r="B72" s="124"/>
+    <row r="72" spans="1:19">
+      <c r="A72" s="123"/>
+      <c r="B72" s="123"/>
       <c r="C72" s="35"/>
       <c r="D72" s="35"/>
       <c r="E72" s="35"/>
@@ -7712,9 +7752,9 @@
       <c r="R72" s="35"/>
       <c r="S72" s="35"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A73" s="124"/>
-      <c r="B73" s="124"/>
+    <row r="73" spans="1:19">
+      <c r="A73" s="123"/>
+      <c r="B73" s="123"/>
       <c r="C73" s="35"/>
       <c r="D73" s="35"/>
       <c r="E73" s="35"/>
@@ -7733,9 +7773,9 @@
       <c r="R73" s="35"/>
       <c r="S73" s="35"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A74" s="124"/>
-      <c r="B74" s="124"/>
+    <row r="74" spans="1:19">
+      <c r="A74" s="123"/>
+      <c r="B74" s="123"/>
       <c r="C74" s="35"/>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
@@ -7754,9 +7794,9 @@
       <c r="R74" s="35"/>
       <c r="S74" s="35"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A75" s="124"/>
-      <c r="B75" s="124"/>
+    <row r="75" spans="1:19">
+      <c r="A75" s="123"/>
+      <c r="B75" s="123"/>
       <c r="C75" s="35"/>
       <c r="D75" s="35"/>
       <c r="E75" s="35"/>
@@ -7775,9 +7815,9 @@
       <c r="R75" s="35"/>
       <c r="S75" s="35"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A76" s="124"/>
-      <c r="B76" s="124"/>
+    <row r="76" spans="1:19">
+      <c r="A76" s="123"/>
+      <c r="B76" s="123"/>
       <c r="C76" s="35"/>
       <c r="D76" s="35"/>
       <c r="E76" s="35"/>
@@ -7796,9 +7836,9 @@
       <c r="R76" s="35"/>
       <c r="S76" s="35"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A77" s="124"/>
-      <c r="B77" s="124"/>
+    <row r="77" spans="1:19">
+      <c r="A77" s="123"/>
+      <c r="B77" s="123"/>
       <c r="C77" s="35"/>
       <c r="D77" s="35"/>
       <c r="E77" s="35"/>
@@ -7817,9 +7857,9 @@
       <c r="R77" s="35"/>
       <c r="S77" s="35"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A78" s="124"/>
-      <c r="B78" s="124"/>
+    <row r="78" spans="1:19">
+      <c r="A78" s="123"/>
+      <c r="B78" s="123"/>
       <c r="C78" s="35"/>
       <c r="D78" s="35"/>
       <c r="E78" s="35"/>
@@ -7838,9 +7878,9 @@
       <c r="R78" s="35"/>
       <c r="S78" s="35"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A79" s="124"/>
-      <c r="B79" s="124"/>
+    <row r="79" spans="1:19">
+      <c r="A79" s="123"/>
+      <c r="B79" s="123"/>
       <c r="C79" s="35"/>
       <c r="D79" s="35"/>
       <c r="E79" s="35"/>
@@ -7859,9 +7899,9 @@
       <c r="R79" s="35"/>
       <c r="S79" s="35"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A80" s="124"/>
-      <c r="B80" s="124"/>
+    <row r="80" spans="1:19">
+      <c r="A80" s="123"/>
+      <c r="B80" s="123"/>
       <c r="C80" s="35"/>
       <c r="D80" s="35"/>
       <c r="E80" s="35"/>
@@ -7880,9 +7920,9 @@
       <c r="R80" s="35"/>
       <c r="S80" s="35"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A81" s="124"/>
-      <c r="B81" s="124"/>
+    <row r="81" spans="1:19">
+      <c r="A81" s="123"/>
+      <c r="B81" s="123"/>
       <c r="C81" s="35"/>
       <c r="D81" s="35"/>
       <c r="E81" s="35"/>
@@ -7901,9 +7941,9 @@
       <c r="R81" s="35"/>
       <c r="S81" s="35"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A82" s="124"/>
-      <c r="B82" s="124"/>
+    <row r="82" spans="1:19">
+      <c r="A82" s="123"/>
+      <c r="B82" s="123"/>
       <c r="C82" s="35"/>
       <c r="D82" s="35"/>
       <c r="E82" s="35"/>
@@ -7922,9 +7962,9 @@
       <c r="R82" s="35"/>
       <c r="S82" s="35"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A83" s="124"/>
-      <c r="B83" s="124"/>
+    <row r="83" spans="1:19">
+      <c r="A83" s="123"/>
+      <c r="B83" s="123"/>
       <c r="C83" s="35"/>
       <c r="D83" s="35"/>
       <c r="E83" s="35"/>
@@ -7943,9 +7983,9 @@
       <c r="R83" s="35"/>
       <c r="S83" s="35"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A84" s="124"/>
-      <c r="B84" s="124"/>
+    <row r="84" spans="1:19">
+      <c r="A84" s="123"/>
+      <c r="B84" s="123"/>
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
       <c r="E84" s="35"/>
@@ -7964,9 +8004,9 @@
       <c r="R84" s="35"/>
       <c r="S84" s="35"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A85" s="124"/>
-      <c r="B85" s="124"/>
+    <row r="85" spans="1:19">
+      <c r="A85" s="123"/>
+      <c r="B85" s="123"/>
       <c r="C85" s="35"/>
       <c r="D85" s="35"/>
       <c r="E85" s="35"/>
@@ -7985,9 +8025,9 @@
       <c r="R85" s="35"/>
       <c r="S85" s="35"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A86" s="124"/>
-      <c r="B86" s="124"/>
+    <row r="86" spans="1:19">
+      <c r="A86" s="123"/>
+      <c r="B86" s="123"/>
       <c r="C86" s="35"/>
       <c r="D86" s="35"/>
       <c r="E86" s="35"/>
@@ -8006,9 +8046,9 @@
       <c r="R86" s="35"/>
       <c r="S86" s="35"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A87" s="124"/>
-      <c r="B87" s="124"/>
+    <row r="87" spans="1:19">
+      <c r="A87" s="123"/>
+      <c r="B87" s="123"/>
       <c r="C87" s="35"/>
       <c r="D87" s="35"/>
       <c r="E87" s="35"/>
@@ -8027,9 +8067,9 @@
       <c r="R87" s="35"/>
       <c r="S87" s="35"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A88" s="124"/>
-      <c r="B88" s="124"/>
+    <row r="88" spans="1:19">
+      <c r="A88" s="123"/>
+      <c r="B88" s="123"/>
       <c r="C88" s="35"/>
       <c r="D88" s="35"/>
       <c r="E88" s="35"/>
@@ -8048,9 +8088,9 @@
       <c r="R88" s="35"/>
       <c r="S88" s="35"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A89" s="124"/>
-      <c r="B89" s="124"/>
+    <row r="89" spans="1:19">
+      <c r="A89" s="123"/>
+      <c r="B89" s="123"/>
       <c r="C89" s="35"/>
       <c r="D89" s="35"/>
       <c r="E89" s="35"/>
@@ -8069,9 +8109,9 @@
       <c r="R89" s="35"/>
       <c r="S89" s="35"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A90" s="124"/>
-      <c r="B90" s="124"/>
+    <row r="90" spans="1:19">
+      <c r="A90" s="123"/>
+      <c r="B90" s="123"/>
       <c r="C90" s="35"/>
       <c r="D90" s="35"/>
       <c r="E90" s="35"/>
@@ -8090,9 +8130,9 @@
       <c r="R90" s="35"/>
       <c r="S90" s="35"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A91" s="124"/>
-      <c r="B91" s="124"/>
+    <row r="91" spans="1:19">
+      <c r="A91" s="123"/>
+      <c r="B91" s="123"/>
       <c r="C91" s="35"/>
       <c r="D91" s="35"/>
       <c r="E91" s="35"/>
@@ -8111,9 +8151,9 @@
       <c r="R91" s="35"/>
       <c r="S91" s="35"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A92" s="124"/>
-      <c r="B92" s="124"/>
+    <row r="92" spans="1:19">
+      <c r="A92" s="123"/>
+      <c r="B92" s="123"/>
       <c r="C92" s="35"/>
       <c r="D92" s="35"/>
       <c r="E92" s="35"/>
@@ -8132,9 +8172,9 @@
       <c r="R92" s="35"/>
       <c r="S92" s="35"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A93" s="124"/>
-      <c r="B93" s="124"/>
+    <row r="93" spans="1:19">
+      <c r="A93" s="123"/>
+      <c r="B93" s="123"/>
       <c r="C93" s="35"/>
       <c r="D93" s="35"/>
       <c r="E93" s="35"/>
@@ -8153,9 +8193,9 @@
       <c r="R93" s="35"/>
       <c r="S93" s="35"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A94" s="124"/>
-      <c r="B94" s="124"/>
+    <row r="94" spans="1:19">
+      <c r="A94" s="123"/>
+      <c r="B94" s="123"/>
       <c r="C94" s="35"/>
       <c r="D94" s="35"/>
       <c r="E94" s="35"/>
@@ -8174,9 +8214,9 @@
       <c r="R94" s="35"/>
       <c r="S94" s="35"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A95" s="124"/>
-      <c r="B95" s="124"/>
+    <row r="95" spans="1:19">
+      <c r="A95" s="123"/>
+      <c r="B95" s="123"/>
       <c r="C95" s="35"/>
       <c r="D95" s="35"/>
       <c r="E95" s="35"/>
@@ -8195,9 +8235,9 @@
       <c r="R95" s="35"/>
       <c r="S95" s="35"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A96" s="124"/>
-      <c r="B96" s="124"/>
+    <row r="96" spans="1:19">
+      <c r="A96" s="123"/>
+      <c r="B96" s="123"/>
       <c r="C96" s="35"/>
       <c r="D96" s="35"/>
       <c r="E96" s="35"/>
@@ -8216,9 +8256,9 @@
       <c r="R96" s="35"/>
       <c r="S96" s="35"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A97" s="124"/>
-      <c r="B97" s="124"/>
+    <row r="97" spans="1:19">
+      <c r="A97" s="123"/>
+      <c r="B97" s="123"/>
       <c r="C97" s="35"/>
       <c r="D97" s="35"/>
       <c r="E97" s="35"/>
@@ -8237,9 +8277,9 @@
       <c r="R97" s="35"/>
       <c r="S97" s="35"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A98" s="124"/>
-      <c r="B98" s="124"/>
+    <row r="98" spans="1:19">
+      <c r="A98" s="123"/>
+      <c r="B98" s="123"/>
       <c r="C98" s="35"/>
       <c r="D98" s="35"/>
       <c r="E98" s="35"/>
@@ -8258,9 +8298,9 @@
       <c r="R98" s="35"/>
       <c r="S98" s="35"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A99" s="124"/>
-      <c r="B99" s="124"/>
+    <row r="99" spans="1:19">
+      <c r="A99" s="123"/>
+      <c r="B99" s="123"/>
       <c r="C99" s="35"/>
       <c r="D99" s="35"/>
       <c r="E99" s="35"/>
@@ -8279,9 +8319,9 @@
       <c r="R99" s="35"/>
       <c r="S99" s="35"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A100" s="124"/>
-      <c r="B100" s="124"/>
+    <row r="100" spans="1:19">
+      <c r="A100" s="123"/>
+      <c r="B100" s="123"/>
       <c r="C100" s="35"/>
       <c r="D100" s="35"/>
       <c r="E100" s="35"/>
@@ -8310,18 +8350,18 @@
     <mergeCell ref="B8:G8"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="title" prompt="A name given to the resource." sqref="B7:G7"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="created" prompt="The date this resource was publiched online, not data collection or original publication date." sqref="B8:G8"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bibliographicCitation" prompt="Expected citation as you would like it." sqref="B9:G9"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="description" prompt="Abstract or concise description" sqref="B10:G10"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="creator" prompt="An entity primarily responsible for making the resource." sqref="B16:L16"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="rightsHolder" prompt="A person or organization owning or managing rights over the resource. Can be institute or individual." sqref="B15:L15"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="title" prompt="A name given to the resource." sqref="B7:G7" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="created" prompt="The date this resource was publiched online, not data collection or original publication date." sqref="B8:G8" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bibliographicCitation" prompt="Expected citation as you would like it." sqref="B9:G9" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="description" prompt="Abstract or concise description" sqref="B10:G10" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="creator" prompt="An entity primarily responsible for making the resource." sqref="B16:L16" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="rightsHolder" prompt="A person or organization owning or managing rights over the resource. Can be institute or individual." sqref="B15:L15" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please choose from recognized Creative Commons Licenses" promptTitle="accessRights" prompt="Information about who can access the resource or an indication of its security status. Access Rights may include information regarding access or restrictions based on privacy, security, or other policies ">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please choose from recognized Creative Commons Licenses" promptTitle="accessRights" prompt="Information about who can access the resource or an indication of its security status. Access Rights may include information regarding access or restrictions based on privacy, security, or other policies " xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>ContextDependents!$C$1:$C$4</xm:f>
           </x14:formula1>
@@ -8334,8 +8374,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:J18"/>
@@ -8344,7 +8384,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="27.5" style="36" customWidth="1"/>
     <col min="3" max="6" width="27.5" customWidth="1"/>
@@ -8352,11 +8392,11 @@
     <col min="8" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:10" ht="21" thickBot="1">
+      <c r="A1" s="128" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="129" t="s">
         <v>353</v>
       </c>
       <c r="C1" s="35"/>
@@ -8366,9 +8406,9 @@
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="131"/>
-      <c r="B2" s="130" t="s">
+    <row r="2" spans="1:10" ht="21" thickBot="1">
+      <c r="A2" s="130"/>
+      <c r="B2" s="129" t="s">
         <v>449</v>
       </c>
       <c r="C2" s="35"/>
@@ -8376,50 +8416,50 @@
       <c r="E2" s="35"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
-      <c r="H2" s="161" t="s">
+      <c r="H2" s="160" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="163" t="s">
+    <row r="3" spans="1:10" ht="17" thickBot="1">
+      <c r="A3" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="165" t="s">
+      <c r="B3" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="164" t="s">
+      <c r="C3" s="163" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="164" t="s">
+      <c r="D3" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="165" t="s">
+      <c r="E3" s="164" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="164" t="s">
+      <c r="F3" s="163" t="s">
         <v>174</v>
       </c>
-      <c r="G3" s="166" t="s">
+      <c r="G3" s="165" t="s">
         <v>176</v>
       </c>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="55"/>
-      <c r="B4" s="144"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="144"/>
-    </row>
-    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="162"/>
-      <c r="B5" s="162"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="143"/>
+    </row>
+    <row r="5" spans="1:10" ht="21" customHeight="1">
+      <c r="A5" s="161"/>
+      <c r="B5" s="161"/>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
@@ -8428,30 +8468,30 @@
       <c r="H5" s="41"/>
       <c r="I5" s="41"/>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:8">
       <c r="H17" s="47"/>
     </row>
-    <row r="18" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="8:8" ht="15" customHeight="1"/>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificNameID" prompt="An identifier for the nomenclatural (not taxonomic) details of a scientific name. Match with WoRMS Aphia ID." sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="acceptedNameUsageID" prompt="An identifier for the name usage (documented meaning of the name according to a source) of the currently valid (zoological) or accepted (botanical) taxon." sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificName" prompt="The full scientific name only (additional authorship and date information if known, should be added to the field below)" sqref="C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificNameAuthorship" prompt="The authorship information for the scientificName formatted according to the conventions of the applicable nomenclatural code." sqref="D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonRemarks" prompt="Comments or notes about the taxon or name." sqref="E4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonDescription" prompt="Brief description of the taxon if applicable, suited for the website." sqref="F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonImage" prompt="Image of the taxon. Don't forget to send to SponGIS!" sqref="G4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificNameID" prompt="An identifier for the nomenclatural (not taxonomic) details of a scientific name. Match with WoRMS Aphia ID." sqref="A4" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="acceptedNameUsageID" prompt="An identifier for the name usage (documented meaning of the name according to a source) of the currently valid (zoological) or accepted (botanical) taxon." sqref="B4" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificName" prompt="The full scientific name only (additional authorship and date information if known, should be added to the field below)" sqref="C4" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificNameAuthorship" prompt="The authorship information for the scientificName formatted according to the conventions of the applicable nomenclatural code." sqref="D4" xr:uid="{00000000-0002-0000-0200-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonRemarks" prompt="Comments or notes about the taxon or name." sqref="E4" xr:uid="{00000000-0002-0000-0200-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonDescription" prompt="Brief description of the taxon if applicable, suited for the website." sqref="F4" xr:uid="{00000000-0002-0000-0200-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonImage" prompt="Image of the taxon. Don't forget to send to SponGIS!" sqref="G4" xr:uid="{00000000-0002-0000-0200-000006000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H2" location="'Helpful-Tools'!A1" display="TEMPLATE"/>
+    <hyperlink ref="H2" location="'Helpful-Tools'!A1" display="TEMPLATE" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:S7"/>
@@ -8461,20 +8501,20 @@
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="16.83203125" style="36" customWidth="1"/>
     <col min="3" max="19" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+    <row r="1" spans="1:19" ht="21" thickBot="1">
+      <c r="A1" s="131" t="s">
         <v>435</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
       <c r="F1" s="111" t="s">
         <v>358</v>
       </c>
@@ -8492,8 +8532,8 @@
       <c r="R1" s="73"/>
       <c r="S1" s="74"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="146" t="s">
+    <row r="2" spans="1:19">
+      <c r="A2" s="145" t="s">
         <v>357</v>
       </c>
       <c r="B2" s="58"/>
@@ -8523,7 +8563,7 @@
       <c r="R2" s="73"/>
       <c r="S2" s="74"/>
     </row>
-    <row r="3" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="18" customHeight="1" thickBot="1">
       <c r="A3" s="60" t="s">
         <v>113</v>
       </c>
@@ -8582,7 +8622,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" s="55"/>
       <c r="B4" s="54"/>
       <c r="C4" s="56"/>
@@ -8603,7 +8643,7 @@
       <c r="R4" s="65"/>
       <c r="S4" s="65"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
       <c r="H5" s="41"/>
@@ -8619,7 +8659,7 @@
       <c r="R5" s="41"/>
       <c r="S5" s="41"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
@@ -8635,7 +8675,7 @@
       <c r="R6" s="41"/>
       <c r="S6" s="41"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="F7" s="41"/>
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
@@ -8649,36 +8689,36 @@
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="19">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="footprintWKT" prompt="Provide a shapefile name that will be converted into a Well-Known Text (WKT) representation of the shape (footprint, geometry) that defines the Location." sqref="S4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="locationRemarks" prompt="Comments or notes about the Location." sqref="R4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="locationAccordingTo" prompt="Information about the source of this Location information. Could be a publication (gazetteer), institution, or team of individuals. Likely Marine Regions." sqref="Q4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="geodeticDatum" prompt="Spatial reference system (SRS) upon which the geographic coordinates given in decimalLatitude and decimalLongitude as based. Likely WGS 1984." sqref="P4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="coordinateUncertaintyInMeters" prompt="The horizontal distance (in meters) from the given decimalLatitude and decimalLongitude describing the smallest circle containing the whole of the Location." sqref="O4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="decimalLongitude" prompt="The geographic longitude (in decimal degrees, using the spatial reference system given in geodeticDatum) of the geographic center of a Location." sqref="N4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="decimalLatitude" prompt="The geographic latitude (in decimal degrees, using the spatial reference system given in geodeticDatum) of the geographic center of a Location." sqref="M4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="maximumDepthInMeters" prompt="The greater depth of a range of depth below the local surface, in meters. If only 1 value provided, same for both min and max." sqref="L4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="minimumDepthInMeters" prompt="The lesser depth of a range of depth below the local surface, in meters. If only 1 value provided, same for both min and max." sqref="K4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="locality" prompt="The specific description or name of the place." sqref="J4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="country" prompt="The name of the country or major administrative unit in which the Location occurs." sqref="I4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="waterBody" prompt="The name of the water body in which the Location occurs." sqref="H4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="continent" prompt="The name of the continent in which the Location occurs." sqref="G4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="locationID" prompt="An identifier for the set of location information." sqref="F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="habitat" prompt="A category or description of the habitat in which the Event occurred." sqref="E4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="eventRemarks" prompt="Comments or notes about the Event." sqref="D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="eventDate" prompt="The date-time or interval during which an Event occurred. For occurrences, this is the date-time when the event was recorded." sqref="C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="parentEventID" prompt="An identifier for the broader Event that groups this and potentially other Events. I.E. Could be a Cruise as a previous event, and then that becomes a Parent Event. Events do not need to have Occurrences or Measurements." sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="eventID" prompt="An identifier for the set of information associated with an Event (something that occurs at a place and time)." sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="footprintWKT" prompt="Provide a shapefile name that will be converted into a Well-Known Text (WKT) representation of the shape (footprint, geometry) that defines the Location." sqref="S4" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="locationRemarks" prompt="Comments or notes about the Location." sqref="R4" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="locationAccordingTo" prompt="Information about the source of this Location information. Could be a publication (gazetteer), institution, or team of individuals. Likely Marine Regions." sqref="Q4" xr:uid="{00000000-0002-0000-0300-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="geodeticDatum" prompt="Spatial reference system (SRS) upon which the geographic coordinates given in decimalLatitude and decimalLongitude as based. Likely WGS 1984." sqref="P4" xr:uid="{00000000-0002-0000-0300-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="coordinateUncertaintyInMeters" prompt="The horizontal distance (in meters) from the given decimalLatitude and decimalLongitude describing the smallest circle containing the whole of the Location." sqref="O4" xr:uid="{00000000-0002-0000-0300-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="decimalLongitude" prompt="The geographic longitude (in decimal degrees, using the spatial reference system given in geodeticDatum) of the geographic center of a Location." sqref="N4" xr:uid="{00000000-0002-0000-0300-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="decimalLatitude" prompt="The geographic latitude (in decimal degrees, using the spatial reference system given in geodeticDatum) of the geographic center of a Location." sqref="M4" xr:uid="{00000000-0002-0000-0300-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="maximumDepthInMeters" prompt="The greater depth of a range of depth below the local surface, in meters. If only 1 value provided, same for both min and max." sqref="L4" xr:uid="{00000000-0002-0000-0300-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="minimumDepthInMeters" prompt="The lesser depth of a range of depth below the local surface, in meters. If only 1 value provided, same for both min and max." sqref="K4" xr:uid="{00000000-0002-0000-0300-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="locality" prompt="The specific description or name of the place." sqref="J4" xr:uid="{00000000-0002-0000-0300-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="country" prompt="The name of the country or major administrative unit in which the Location occurs." sqref="I4" xr:uid="{00000000-0002-0000-0300-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="waterBody" prompt="The name of the water body in which the Location occurs." sqref="H4" xr:uid="{00000000-0002-0000-0300-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="continent" prompt="The name of the continent in which the Location occurs." sqref="G4" xr:uid="{00000000-0002-0000-0300-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="locationID" prompt="An identifier for the set of location information." sqref="F4" xr:uid="{00000000-0002-0000-0300-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="habitat" prompt="A category or description of the habitat in which the Event occurred." sqref="E4" xr:uid="{00000000-0002-0000-0300-00000E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="eventRemarks" prompt="Comments or notes about the Event." sqref="D4" xr:uid="{00000000-0002-0000-0300-00000F000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="eventDate" prompt="The date-time or interval during which an Event occurred. For occurrences, this is the date-time when the event was recorded." sqref="C4" xr:uid="{00000000-0002-0000-0300-000010000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="parentEventID" prompt="An identifier for the broader Event that groups this and potentially other Events. I.E. Could be a Cruise as a previous event, and then that becomes a Parent Event. Events do not need to have Occurrences or Measurements." sqref="B4" xr:uid="{00000000-0002-0000-0300-000011000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="eventID" prompt="An identifier for the set of information associated with an Event (something that occurs at a place and time)." sqref="A4" xr:uid="{00000000-0002-0000-0300-000012000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L2" location="'Helpful-Additions'!A1" display="Coord Converter"/>
+    <hyperlink ref="L2" location="'Helpful-Additions'!A1" display="Coord Converter" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:Y307"/>
@@ -8688,14 +8728,14 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="4" width="16.83203125" customWidth="1"/>
     <col min="5" max="6" width="20.83203125" customWidth="1"/>
     <col min="7" max="25" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="20">
       <c r="A1" s="75" t="s">
         <v>390</v>
       </c>
@@ -8724,7 +8764,7 @@
       <c r="X1" s="73"/>
       <c r="Y1" s="74"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25">
       <c r="A2" s="76"/>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -8751,7 +8791,7 @@
       <c r="X2" s="77"/>
       <c r="Y2" s="78"/>
     </row>
-    <row r="3" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="18" customHeight="1" thickBot="1">
       <c r="A3" s="60" t="s">
         <v>113</v>
       </c>
@@ -8828,11 +8868,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" s="55"/>
       <c r="B4" s="40"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
       <c r="E4" s="38"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
@@ -8854,1522 +8894,1522 @@
       <c r="X4" s="40"/>
       <c r="Y4" s="40"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="38"/>
-      <c r="D5" s="140"/>
+      <c r="D5" s="139"/>
       <c r="E5" s="38"/>
       <c r="Y5" s="41"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="38"/>
-      <c r="D6" s="140"/>
+      <c r="D6" s="139"/>
       <c r="E6" s="38"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25">
       <c r="C7" s="38"/>
-      <c r="D7" s="140"/>
+      <c r="D7" s="139"/>
       <c r="E7" s="38"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25">
       <c r="C8" s="38"/>
-      <c r="D8" s="140"/>
+      <c r="D8" s="139"/>
       <c r="E8" s="38"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25">
       <c r="C9" s="38"/>
-      <c r="D9" s="140"/>
+      <c r="D9" s="139"/>
       <c r="E9" s="38"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="C10" s="38"/>
-      <c r="D10" s="140"/>
+      <c r="D10" s="139"/>
       <c r="E10" s="38"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25">
       <c r="C11" s="38"/>
-      <c r="D11" s="140"/>
+      <c r="D11" s="139"/>
       <c r="E11" s="38"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25">
       <c r="C12" s="38"/>
-      <c r="D12" s="140"/>
+      <c r="D12" s="139"/>
       <c r="E12" s="38"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25">
       <c r="C13" s="38"/>
-      <c r="D13" s="140"/>
+      <c r="D13" s="139"/>
       <c r="E13" s="38"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25">
       <c r="C14" s="38"/>
-      <c r="D14" s="140"/>
+      <c r="D14" s="139"/>
       <c r="E14" s="38"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25">
       <c r="C15" s="38"/>
-      <c r="D15" s="140"/>
+      <c r="D15" s="139"/>
       <c r="E15" s="38"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25">
       <c r="C16" s="38"/>
-      <c r="D16" s="140"/>
+      <c r="D16" s="139"/>
       <c r="E16" s="38"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5">
       <c r="C17" s="38"/>
-      <c r="D17" s="140"/>
+      <c r="D17" s="139"/>
       <c r="E17" s="38"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5">
       <c r="C18" s="38"/>
-      <c r="D18" s="140"/>
+      <c r="D18" s="139"/>
       <c r="E18" s="38"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5">
       <c r="C19" s="38"/>
-      <c r="D19" s="140"/>
+      <c r="D19" s="139"/>
       <c r="E19" s="38"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5">
       <c r="C20" s="38"/>
-      <c r="D20" s="140"/>
+      <c r="D20" s="139"/>
       <c r="E20" s="38"/>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5">
       <c r="C21" s="38"/>
-      <c r="D21" s="140"/>
+      <c r="D21" s="139"/>
       <c r="E21" s="38"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5">
       <c r="C22" s="38"/>
-      <c r="D22" s="140"/>
+      <c r="D22" s="139"/>
       <c r="E22" s="38"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5">
       <c r="C23" s="38"/>
-      <c r="D23" s="140"/>
+      <c r="D23" s="139"/>
       <c r="E23" s="38"/>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5">
       <c r="C24" s="38"/>
-      <c r="D24" s="140"/>
+      <c r="D24" s="139"/>
       <c r="E24" s="38"/>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5">
       <c r="C25" s="38"/>
-      <c r="D25" s="140"/>
+      <c r="D25" s="139"/>
       <c r="E25" s="38"/>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:5">
       <c r="C26" s="38"/>
-      <c r="D26" s="140"/>
+      <c r="D26" s="139"/>
       <c r="E26" s="38"/>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:5">
       <c r="C27" s="38"/>
-      <c r="D27" s="140"/>
+      <c r="D27" s="139"/>
       <c r="E27" s="38"/>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:5">
       <c r="C28" s="38"/>
-      <c r="D28" s="140"/>
+      <c r="D28" s="139"/>
       <c r="E28" s="38"/>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:5">
       <c r="C29" s="38"/>
-      <c r="D29" s="140"/>
+      <c r="D29" s="139"/>
       <c r="E29" s="38"/>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:5">
       <c r="C30" s="38"/>
-      <c r="D30" s="140"/>
+      <c r="D30" s="139"/>
       <c r="E30" s="38"/>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:5">
       <c r="C31" s="38"/>
-      <c r="D31" s="140"/>
+      <c r="D31" s="139"/>
       <c r="E31" s="38"/>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:5">
       <c r="C32" s="38"/>
-      <c r="D32" s="140"/>
+      <c r="D32" s="139"/>
       <c r="E32" s="38"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:5">
       <c r="C33" s="38"/>
-      <c r="D33" s="140"/>
+      <c r="D33" s="139"/>
       <c r="E33" s="38"/>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:5">
       <c r="C34" s="38"/>
-      <c r="D34" s="140"/>
+      <c r="D34" s="139"/>
       <c r="E34" s="38"/>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:5">
       <c r="C35" s="38"/>
-      <c r="D35" s="140"/>
+      <c r="D35" s="139"/>
       <c r="E35" s="38"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:5">
       <c r="C36" s="38"/>
-      <c r="D36" s="140"/>
+      <c r="D36" s="139"/>
       <c r="E36" s="38"/>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:5">
       <c r="C37" s="38"/>
-      <c r="D37" s="140"/>
+      <c r="D37" s="139"/>
       <c r="E37" s="38"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:5">
       <c r="C38" s="38"/>
-      <c r="D38" s="140"/>
+      <c r="D38" s="139"/>
       <c r="E38" s="38"/>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:5">
       <c r="C39" s="38"/>
-      <c r="D39" s="140"/>
+      <c r="D39" s="139"/>
       <c r="E39" s="38"/>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:5">
       <c r="C40" s="38"/>
-      <c r="D40" s="140"/>
+      <c r="D40" s="139"/>
       <c r="E40" s="38"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:5">
       <c r="C41" s="38"/>
-      <c r="D41" s="140"/>
+      <c r="D41" s="139"/>
       <c r="E41" s="38"/>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:5">
       <c r="C42" s="38"/>
-      <c r="D42" s="140"/>
+      <c r="D42" s="139"/>
       <c r="E42" s="38"/>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:5">
       <c r="C43" s="38"/>
-      <c r="D43" s="140"/>
+      <c r="D43" s="139"/>
       <c r="E43" s="38"/>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:5">
       <c r="C44" s="38"/>
-      <c r="D44" s="140"/>
+      <c r="D44" s="139"/>
       <c r="E44" s="38"/>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:5">
       <c r="C45" s="38"/>
-      <c r="D45" s="140"/>
+      <c r="D45" s="139"/>
       <c r="E45" s="38"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:5">
       <c r="C46" s="38"/>
-      <c r="D46" s="140"/>
+      <c r="D46" s="139"/>
       <c r="E46" s="38"/>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:5">
       <c r="C47" s="38"/>
-      <c r="D47" s="140"/>
+      <c r="D47" s="139"/>
       <c r="E47" s="38"/>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:5">
       <c r="C48" s="38"/>
-      <c r="D48" s="140"/>
+      <c r="D48" s="139"/>
       <c r="E48" s="38"/>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:5">
       <c r="C49" s="38"/>
-      <c r="D49" s="140"/>
+      <c r="D49" s="139"/>
       <c r="E49" s="38"/>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:5">
       <c r="C50" s="38"/>
-      <c r="D50" s="140"/>
+      <c r="D50" s="139"/>
       <c r="E50" s="38"/>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:5">
       <c r="C51" s="38"/>
-      <c r="D51" s="140"/>
+      <c r="D51" s="139"/>
       <c r="E51" s="38"/>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:5">
       <c r="C52" s="38"/>
-      <c r="D52" s="140"/>
+      <c r="D52" s="139"/>
       <c r="E52" s="38"/>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:5">
       <c r="C53" s="38"/>
-      <c r="D53" s="140"/>
+      <c r="D53" s="139"/>
       <c r="E53" s="38"/>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:5">
       <c r="C54" s="38"/>
-      <c r="D54" s="140"/>
+      <c r="D54" s="139"/>
       <c r="E54" s="38"/>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:5">
       <c r="C55" s="38"/>
-      <c r="D55" s="140"/>
+      <c r="D55" s="139"/>
       <c r="E55" s="38"/>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:5">
       <c r="C56" s="38"/>
-      <c r="D56" s="140"/>
+      <c r="D56" s="139"/>
       <c r="E56" s="38"/>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:5">
       <c r="C57" s="38"/>
-      <c r="D57" s="140"/>
+      <c r="D57" s="139"/>
       <c r="E57" s="38"/>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:5">
       <c r="C58" s="38"/>
-      <c r="D58" s="140"/>
+      <c r="D58" s="139"/>
       <c r="E58" s="38"/>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:5">
       <c r="C59" s="38"/>
-      <c r="D59" s="140"/>
+      <c r="D59" s="139"/>
       <c r="E59" s="38"/>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:5">
       <c r="C60" s="38"/>
-      <c r="D60" s="140"/>
+      <c r="D60" s="139"/>
       <c r="E60" s="38"/>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:5">
       <c r="C61" s="38"/>
-      <c r="D61" s="140"/>
+      <c r="D61" s="139"/>
       <c r="E61" s="38"/>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:5">
       <c r="C62" s="38"/>
-      <c r="D62" s="140"/>
+      <c r="D62" s="139"/>
       <c r="E62" s="38"/>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:5">
       <c r="C63" s="38"/>
-      <c r="D63" s="140"/>
+      <c r="D63" s="139"/>
       <c r="E63" s="38"/>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:5">
       <c r="C64" s="38"/>
-      <c r="D64" s="140"/>
+      <c r="D64" s="139"/>
       <c r="E64" s="38"/>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:5">
       <c r="C65" s="38"/>
-      <c r="D65" s="140"/>
+      <c r="D65" s="139"/>
       <c r="E65" s="38"/>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:5">
       <c r="C66" s="38"/>
-      <c r="D66" s="140"/>
+      <c r="D66" s="139"/>
       <c r="E66" s="38"/>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:5">
       <c r="C67" s="38"/>
-      <c r="D67" s="140"/>
+      <c r="D67" s="139"/>
       <c r="E67" s="38"/>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:5">
       <c r="C68" s="38"/>
-      <c r="D68" s="140"/>
+      <c r="D68" s="139"/>
       <c r="E68" s="38"/>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:5">
       <c r="C69" s="38"/>
-      <c r="D69" s="140"/>
+      <c r="D69" s="139"/>
       <c r="E69" s="38"/>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:5">
       <c r="C70" s="38"/>
-      <c r="D70" s="140"/>
+      <c r="D70" s="139"/>
       <c r="E70" s="38"/>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:5">
       <c r="C71" s="38"/>
-      <c r="D71" s="140"/>
+      <c r="D71" s="139"/>
       <c r="E71" s="38"/>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:5">
       <c r="C72" s="38"/>
-      <c r="D72" s="140"/>
+      <c r="D72" s="139"/>
       <c r="E72" s="38"/>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:5">
       <c r="C73" s="38"/>
-      <c r="D73" s="140"/>
+      <c r="D73" s="139"/>
       <c r="E73" s="38"/>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:5">
       <c r="C74" s="38"/>
-      <c r="D74" s="140"/>
+      <c r="D74" s="139"/>
       <c r="E74" s="38"/>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:5">
       <c r="C75" s="38"/>
-      <c r="D75" s="140"/>
+      <c r="D75" s="139"/>
       <c r="E75" s="38"/>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:5">
       <c r="C76" s="38"/>
-      <c r="D76" s="140"/>
+      <c r="D76" s="139"/>
       <c r="E76" s="38"/>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:5">
       <c r="C77" s="38"/>
-      <c r="D77" s="140"/>
+      <c r="D77" s="139"/>
       <c r="E77" s="38"/>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:5">
       <c r="C78" s="38"/>
-      <c r="D78" s="140"/>
+      <c r="D78" s="139"/>
       <c r="E78" s="38"/>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:5">
       <c r="C79" s="38"/>
-      <c r="D79" s="140"/>
+      <c r="D79" s="139"/>
       <c r="E79" s="38"/>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:5">
       <c r="C80" s="38"/>
-      <c r="D80" s="140"/>
+      <c r="D80" s="139"/>
       <c r="E80" s="38"/>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:5">
       <c r="C81" s="38"/>
-      <c r="D81" s="140"/>
+      <c r="D81" s="139"/>
       <c r="E81" s="38"/>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:5">
       <c r="C82" s="38"/>
-      <c r="D82" s="140"/>
+      <c r="D82" s="139"/>
       <c r="E82" s="38"/>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:5">
       <c r="C83" s="38"/>
-      <c r="D83" s="140"/>
+      <c r="D83" s="139"/>
       <c r="E83" s="38"/>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:5">
       <c r="C84" s="38"/>
-      <c r="D84" s="140"/>
+      <c r="D84" s="139"/>
       <c r="E84" s="38"/>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:5">
       <c r="C85" s="38"/>
-      <c r="D85" s="140"/>
+      <c r="D85" s="139"/>
       <c r="E85" s="38"/>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:5">
       <c r="C86" s="38"/>
-      <c r="D86" s="140"/>
+      <c r="D86" s="139"/>
       <c r="E86" s="38"/>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:5">
       <c r="C87" s="38"/>
-      <c r="D87" s="140"/>
+      <c r="D87" s="139"/>
       <c r="E87" s="38"/>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:5">
       <c r="C88" s="38"/>
-      <c r="D88" s="140"/>
+      <c r="D88" s="139"/>
       <c r="E88" s="38"/>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:5">
       <c r="C89" s="38"/>
-      <c r="D89" s="140"/>
+      <c r="D89" s="139"/>
       <c r="E89" s="38"/>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:5">
       <c r="C90" s="38"/>
-      <c r="D90" s="140"/>
+      <c r="D90" s="139"/>
       <c r="E90" s="38"/>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:5">
       <c r="C91" s="38"/>
-      <c r="D91" s="140"/>
+      <c r="D91" s="139"/>
       <c r="E91" s="38"/>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:5">
       <c r="C92" s="38"/>
-      <c r="D92" s="140"/>
+      <c r="D92" s="139"/>
       <c r="E92" s="38"/>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:5">
       <c r="C93" s="38"/>
-      <c r="D93" s="140"/>
+      <c r="D93" s="139"/>
       <c r="E93" s="38"/>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:5">
       <c r="C94" s="38"/>
-      <c r="D94" s="140"/>
+      <c r="D94" s="139"/>
       <c r="E94" s="38"/>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:5">
       <c r="C95" s="38"/>
-      <c r="D95" s="140"/>
+      <c r="D95" s="139"/>
       <c r="E95" s="38"/>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:5">
       <c r="C96" s="38"/>
-      <c r="D96" s="140"/>
+      <c r="D96" s="139"/>
       <c r="E96" s="38"/>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:5">
       <c r="C97" s="38"/>
-      <c r="D97" s="140"/>
+      <c r="D97" s="139"/>
       <c r="E97" s="38"/>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:5">
       <c r="C98" s="38"/>
-      <c r="D98" s="140"/>
+      <c r="D98" s="139"/>
       <c r="E98" s="38"/>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:5">
       <c r="C99" s="38"/>
-      <c r="D99" s="140"/>
+      <c r="D99" s="139"/>
       <c r="E99" s="38"/>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:5">
       <c r="C100" s="38"/>
-      <c r="D100" s="140"/>
+      <c r="D100" s="139"/>
       <c r="E100" s="38"/>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:5">
       <c r="C101" s="38"/>
-      <c r="D101" s="140"/>
+      <c r="D101" s="139"/>
       <c r="E101" s="38"/>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:5">
       <c r="C102" s="38"/>
-      <c r="D102" s="140"/>
+      <c r="D102" s="139"/>
       <c r="E102" s="38"/>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:5">
       <c r="C103" s="38"/>
-      <c r="D103" s="140"/>
+      <c r="D103" s="139"/>
       <c r="E103" s="38"/>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:5">
       <c r="C104" s="38"/>
-      <c r="D104" s="140"/>
+      <c r="D104" s="139"/>
       <c r="E104" s="38"/>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:5">
       <c r="C105" s="38"/>
-      <c r="D105" s="140"/>
+      <c r="D105" s="139"/>
       <c r="E105" s="38"/>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:5">
       <c r="C106" s="38"/>
-      <c r="D106" s="140"/>
+      <c r="D106" s="139"/>
       <c r="E106" s="38"/>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:5">
       <c r="C107" s="38"/>
-      <c r="D107" s="140"/>
+      <c r="D107" s="139"/>
       <c r="E107" s="38"/>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:5">
       <c r="C108" s="38"/>
-      <c r="D108" s="140"/>
+      <c r="D108" s="139"/>
       <c r="E108" s="38"/>
     </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:5">
       <c r="C109" s="38"/>
-      <c r="D109" s="140"/>
+      <c r="D109" s="139"/>
       <c r="E109" s="38"/>
     </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:5">
       <c r="C110" s="38"/>
-      <c r="D110" s="140"/>
+      <c r="D110" s="139"/>
       <c r="E110" s="38"/>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:5">
       <c r="C111" s="38"/>
-      <c r="D111" s="140"/>
+      <c r="D111" s="139"/>
       <c r="E111" s="38"/>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:5">
       <c r="C112" s="38"/>
-      <c r="D112" s="140"/>
+      <c r="D112" s="139"/>
       <c r="E112" s="38"/>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:5">
       <c r="C113" s="38"/>
-      <c r="D113" s="140"/>
+      <c r="D113" s="139"/>
       <c r="E113" s="38"/>
     </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:5">
       <c r="C114" s="38"/>
-      <c r="D114" s="140"/>
+      <c r="D114" s="139"/>
       <c r="E114" s="38"/>
     </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:5">
       <c r="C115" s="38"/>
-      <c r="D115" s="140"/>
+      <c r="D115" s="139"/>
       <c r="E115" s="38"/>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:5">
       <c r="C116" s="38"/>
-      <c r="D116" s="140"/>
+      <c r="D116" s="139"/>
       <c r="E116" s="38"/>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:5">
       <c r="C117" s="38"/>
-      <c r="D117" s="140"/>
+      <c r="D117" s="139"/>
       <c r="E117" s="38"/>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:5">
       <c r="C118" s="38"/>
-      <c r="D118" s="140"/>
+      <c r="D118" s="139"/>
       <c r="E118" s="38"/>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:5">
       <c r="C119" s="38"/>
-      <c r="D119" s="140"/>
+      <c r="D119" s="139"/>
       <c r="E119" s="38"/>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:5">
       <c r="C120" s="38"/>
-      <c r="D120" s="140"/>
+      <c r="D120" s="139"/>
       <c r="E120" s="38"/>
     </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:5">
       <c r="C121" s="38"/>
-      <c r="D121" s="140"/>
+      <c r="D121" s="139"/>
       <c r="E121" s="38"/>
     </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:5">
       <c r="C122" s="38"/>
-      <c r="D122" s="140"/>
+      <c r="D122" s="139"/>
       <c r="E122" s="38"/>
     </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:5">
       <c r="C123" s="38"/>
-      <c r="D123" s="140"/>
+      <c r="D123" s="139"/>
       <c r="E123" s="38"/>
     </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:5">
       <c r="C124" s="38"/>
-      <c r="D124" s="140"/>
+      <c r="D124" s="139"/>
       <c r="E124" s="38"/>
     </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:5">
       <c r="C125" s="38"/>
-      <c r="D125" s="140"/>
+      <c r="D125" s="139"/>
       <c r="E125" s="38"/>
     </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:5">
       <c r="C126" s="38"/>
-      <c r="D126" s="140"/>
+      <c r="D126" s="139"/>
       <c r="E126" s="38"/>
     </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:5">
       <c r="C127" s="38"/>
-      <c r="D127" s="140"/>
+      <c r="D127" s="139"/>
       <c r="E127" s="38"/>
     </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:5">
       <c r="C128" s="38"/>
-      <c r="D128" s="140"/>
+      <c r="D128" s="139"/>
       <c r="E128" s="38"/>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:5">
       <c r="C129" s="38"/>
-      <c r="D129" s="140"/>
+      <c r="D129" s="139"/>
       <c r="E129" s="38"/>
     </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:5">
       <c r="C130" s="38"/>
-      <c r="D130" s="140"/>
+      <c r="D130" s="139"/>
       <c r="E130" s="38"/>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:5">
       <c r="C131" s="38"/>
-      <c r="D131" s="140"/>
+      <c r="D131" s="139"/>
       <c r="E131" s="38"/>
     </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:5">
       <c r="C132" s="38"/>
-      <c r="D132" s="140"/>
+      <c r="D132" s="139"/>
       <c r="E132" s="38"/>
     </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:5">
       <c r="C133" s="38"/>
-      <c r="D133" s="140"/>
+      <c r="D133" s="139"/>
       <c r="E133" s="38"/>
     </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:5">
       <c r="C134" s="38"/>
-      <c r="D134" s="140"/>
+      <c r="D134" s="139"/>
       <c r="E134" s="38"/>
     </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:5">
       <c r="C135" s="38"/>
-      <c r="D135" s="140"/>
+      <c r="D135" s="139"/>
       <c r="E135" s="38"/>
     </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:5">
       <c r="C136" s="38"/>
-      <c r="D136" s="140"/>
+      <c r="D136" s="139"/>
       <c r="E136" s="38"/>
     </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:5">
       <c r="C137" s="38"/>
-      <c r="D137" s="140"/>
+      <c r="D137" s="139"/>
       <c r="E137" s="38"/>
     </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:5">
       <c r="C138" s="38"/>
-      <c r="D138" s="140"/>
+      <c r="D138" s="139"/>
       <c r="E138" s="38"/>
     </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:5">
       <c r="C139" s="38"/>
-      <c r="D139" s="140"/>
+      <c r="D139" s="139"/>
       <c r="E139" s="38"/>
     </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:5">
       <c r="C140" s="38"/>
-      <c r="D140" s="140"/>
+      <c r="D140" s="139"/>
       <c r="E140" s="38"/>
     </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:5">
       <c r="C141" s="38"/>
-      <c r="D141" s="140"/>
+      <c r="D141" s="139"/>
       <c r="E141" s="38"/>
     </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:5">
       <c r="C142" s="38"/>
-      <c r="D142" s="140"/>
+      <c r="D142" s="139"/>
       <c r="E142" s="38"/>
     </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:5">
       <c r="C143" s="38"/>
-      <c r="D143" s="140"/>
+      <c r="D143" s="139"/>
       <c r="E143" s="38"/>
     </row>
-    <row r="144" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:5">
       <c r="C144" s="38"/>
-      <c r="D144" s="140"/>
+      <c r="D144" s="139"/>
       <c r="E144" s="38"/>
     </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:5">
       <c r="C145" s="38"/>
-      <c r="D145" s="140"/>
+      <c r="D145" s="139"/>
       <c r="E145" s="38"/>
     </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:5">
       <c r="C146" s="38"/>
-      <c r="D146" s="140"/>
+      <c r="D146" s="139"/>
       <c r="E146" s="38"/>
     </row>
-    <row r="147" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:5">
       <c r="C147" s="38"/>
-      <c r="D147" s="140"/>
+      <c r="D147" s="139"/>
       <c r="E147" s="38"/>
     </row>
-    <row r="148" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:5">
       <c r="C148" s="38"/>
-      <c r="D148" s="140"/>
+      <c r="D148" s="139"/>
       <c r="E148" s="38"/>
     </row>
-    <row r="149" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:5">
       <c r="C149" s="38"/>
-      <c r="D149" s="140"/>
+      <c r="D149" s="139"/>
       <c r="E149" s="38"/>
     </row>
-    <row r="150" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:5">
       <c r="C150" s="38"/>
-      <c r="D150" s="140"/>
+      <c r="D150" s="139"/>
       <c r="E150" s="38"/>
     </row>
-    <row r="151" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:5">
       <c r="C151" s="38"/>
-      <c r="D151" s="140"/>
+      <c r="D151" s="139"/>
       <c r="E151" s="38"/>
     </row>
-    <row r="152" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:5">
       <c r="C152" s="38"/>
-      <c r="D152" s="140"/>
+      <c r="D152" s="139"/>
       <c r="E152" s="38"/>
     </row>
-    <row r="153" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:5">
       <c r="C153" s="38"/>
-      <c r="D153" s="140"/>
+      <c r="D153" s="139"/>
       <c r="E153" s="38"/>
     </row>
-    <row r="154" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:5">
       <c r="C154" s="38"/>
-      <c r="D154" s="140"/>
+      <c r="D154" s="139"/>
       <c r="E154" s="38"/>
     </row>
-    <row r="155" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:5">
       <c r="C155" s="38"/>
-      <c r="D155" s="140"/>
+      <c r="D155" s="139"/>
       <c r="E155" s="38"/>
     </row>
-    <row r="156" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:5">
       <c r="C156" s="38"/>
-      <c r="D156" s="140"/>
+      <c r="D156" s="139"/>
       <c r="E156" s="38"/>
     </row>
-    <row r="157" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:5">
       <c r="C157" s="38"/>
-      <c r="D157" s="140"/>
+      <c r="D157" s="139"/>
       <c r="E157" s="38"/>
     </row>
-    <row r="158" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:5">
       <c r="C158" s="38"/>
-      <c r="D158" s="140"/>
+      <c r="D158" s="139"/>
       <c r="E158" s="38"/>
     </row>
-    <row r="159" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:5">
       <c r="C159" s="38"/>
-      <c r="D159" s="140"/>
+      <c r="D159" s="139"/>
       <c r="E159" s="38"/>
     </row>
-    <row r="160" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:5">
       <c r="C160" s="38"/>
-      <c r="D160" s="140"/>
+      <c r="D160" s="139"/>
       <c r="E160" s="38"/>
     </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:5">
       <c r="C161" s="38"/>
-      <c r="D161" s="140"/>
+      <c r="D161" s="139"/>
       <c r="E161" s="38"/>
     </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:5">
       <c r="C162" s="38"/>
-      <c r="D162" s="140"/>
+      <c r="D162" s="139"/>
       <c r="E162" s="38"/>
     </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:5">
       <c r="C163" s="38"/>
-      <c r="D163" s="140"/>
+      <c r="D163" s="139"/>
       <c r="E163" s="38"/>
     </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:5">
       <c r="C164" s="38"/>
-      <c r="D164" s="140"/>
+      <c r="D164" s="139"/>
       <c r="E164" s="38"/>
     </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:5">
       <c r="C165" s="38"/>
-      <c r="D165" s="140"/>
+      <c r="D165" s="139"/>
       <c r="E165" s="38"/>
     </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:5">
       <c r="C166" s="38"/>
-      <c r="D166" s="140"/>
+      <c r="D166" s="139"/>
       <c r="E166" s="38"/>
     </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:5">
       <c r="C167" s="38"/>
-      <c r="D167" s="140"/>
+      <c r="D167" s="139"/>
       <c r="E167" s="38"/>
     </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:5">
       <c r="C168" s="38"/>
-      <c r="D168" s="140"/>
+      <c r="D168" s="139"/>
       <c r="E168" s="38"/>
     </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:5">
       <c r="C169" s="38"/>
-      <c r="D169" s="140"/>
+      <c r="D169" s="139"/>
       <c r="E169" s="38"/>
     </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:5">
       <c r="C170" s="38"/>
-      <c r="D170" s="140"/>
+      <c r="D170" s="139"/>
       <c r="E170" s="38"/>
     </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:5">
       <c r="C171" s="38"/>
-      <c r="D171" s="140"/>
+      <c r="D171" s="139"/>
       <c r="E171" s="38"/>
     </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:5">
       <c r="C172" s="38"/>
-      <c r="D172" s="140"/>
+      <c r="D172" s="139"/>
       <c r="E172" s="38"/>
     </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:5">
       <c r="C173" s="38"/>
-      <c r="D173" s="140"/>
+      <c r="D173" s="139"/>
       <c r="E173" s="38"/>
     </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:5">
       <c r="C174" s="38"/>
-      <c r="D174" s="140"/>
+      <c r="D174" s="139"/>
       <c r="E174" s="38"/>
     </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:5">
       <c r="C175" s="38"/>
-      <c r="D175" s="140"/>
+      <c r="D175" s="139"/>
       <c r="E175" s="38"/>
     </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:5">
       <c r="C176" s="38"/>
-      <c r="D176" s="140"/>
+      <c r="D176" s="139"/>
       <c r="E176" s="38"/>
     </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:5">
       <c r="C177" s="38"/>
-      <c r="D177" s="140"/>
+      <c r="D177" s="139"/>
       <c r="E177" s="38"/>
     </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:5">
       <c r="C178" s="38"/>
-      <c r="D178" s="140"/>
+      <c r="D178" s="139"/>
       <c r="E178" s="38"/>
     </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:5">
       <c r="C179" s="38"/>
-      <c r="D179" s="140"/>
+      <c r="D179" s="139"/>
       <c r="E179" s="38"/>
     </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:5">
       <c r="C180" s="38"/>
-      <c r="D180" s="140"/>
+      <c r="D180" s="139"/>
       <c r="E180" s="38"/>
     </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:5">
       <c r="C181" s="38"/>
-      <c r="D181" s="140"/>
+      <c r="D181" s="139"/>
       <c r="E181" s="38"/>
     </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:5">
       <c r="C182" s="38"/>
-      <c r="D182" s="140"/>
+      <c r="D182" s="139"/>
       <c r="E182" s="38"/>
     </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:5">
       <c r="C183" s="38"/>
-      <c r="D183" s="140"/>
+      <c r="D183" s="139"/>
       <c r="E183" s="38"/>
     </row>
-    <row r="184" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:5">
       <c r="C184" s="38"/>
-      <c r="D184" s="140"/>
+      <c r="D184" s="139"/>
       <c r="E184" s="38"/>
     </row>
-    <row r="185" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:5">
       <c r="C185" s="38"/>
-      <c r="D185" s="140"/>
+      <c r="D185" s="139"/>
       <c r="E185" s="38"/>
     </row>
-    <row r="186" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:5">
       <c r="C186" s="38"/>
-      <c r="D186" s="140"/>
+      <c r="D186" s="139"/>
       <c r="E186" s="38"/>
     </row>
-    <row r="187" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:5">
       <c r="C187" s="38"/>
-      <c r="D187" s="140"/>
+      <c r="D187" s="139"/>
       <c r="E187" s="38"/>
     </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:5">
       <c r="C188" s="38"/>
-      <c r="D188" s="140"/>
+      <c r="D188" s="139"/>
       <c r="E188" s="38"/>
     </row>
-    <row r="189" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:5">
       <c r="C189" s="38"/>
-      <c r="D189" s="140"/>
+      <c r="D189" s="139"/>
       <c r="E189" s="38"/>
     </row>
-    <row r="190" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:5">
       <c r="C190" s="38"/>
-      <c r="D190" s="140"/>
+      <c r="D190" s="139"/>
       <c r="E190" s="38"/>
     </row>
-    <row r="191" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:5">
       <c r="C191" s="38"/>
-      <c r="D191" s="140"/>
+      <c r="D191" s="139"/>
       <c r="E191" s="38"/>
     </row>
-    <row r="192" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:5">
       <c r="C192" s="38"/>
-      <c r="D192" s="140"/>
+      <c r="D192" s="139"/>
       <c r="E192" s="38"/>
     </row>
-    <row r="193" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:5">
       <c r="C193" s="38"/>
-      <c r="D193" s="140"/>
+      <c r="D193" s="139"/>
       <c r="E193" s="38"/>
     </row>
-    <row r="194" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:5">
       <c r="C194" s="38"/>
-      <c r="D194" s="140"/>
+      <c r="D194" s="139"/>
       <c r="E194" s="38"/>
     </row>
-    <row r="195" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:5">
       <c r="C195" s="38"/>
-      <c r="D195" s="140"/>
+      <c r="D195" s="139"/>
       <c r="E195" s="38"/>
     </row>
-    <row r="196" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:5">
       <c r="C196" s="38"/>
-      <c r="D196" s="140"/>
+      <c r="D196" s="139"/>
       <c r="E196" s="38"/>
     </row>
-    <row r="197" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:5">
       <c r="C197" s="38"/>
-      <c r="D197" s="140"/>
+      <c r="D197" s="139"/>
       <c r="E197" s="38"/>
     </row>
-    <row r="198" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:5">
       <c r="C198" s="38"/>
-      <c r="D198" s="140"/>
+      <c r="D198" s="139"/>
       <c r="E198" s="38"/>
     </row>
-    <row r="199" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:5">
       <c r="C199" s="38"/>
-      <c r="D199" s="140"/>
+      <c r="D199" s="139"/>
       <c r="E199" s="38"/>
     </row>
-    <row r="200" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:5">
       <c r="C200" s="38"/>
-      <c r="D200" s="140"/>
+      <c r="D200" s="139"/>
       <c r="E200" s="38"/>
     </row>
-    <row r="201" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:5">
       <c r="C201" s="38"/>
-      <c r="D201" s="140"/>
+      <c r="D201" s="139"/>
       <c r="E201" s="38"/>
     </row>
-    <row r="202" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:5">
       <c r="C202" s="38"/>
-      <c r="D202" s="140"/>
+      <c r="D202" s="139"/>
       <c r="E202" s="38"/>
     </row>
-    <row r="203" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:5">
       <c r="C203" s="38"/>
-      <c r="D203" s="140"/>
+      <c r="D203" s="139"/>
       <c r="E203" s="38"/>
     </row>
-    <row r="204" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:5">
       <c r="C204" s="38"/>
-      <c r="D204" s="140"/>
+      <c r="D204" s="139"/>
       <c r="E204" s="38"/>
     </row>
-    <row r="205" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:5">
       <c r="C205" s="38"/>
-      <c r="D205" s="140"/>
+      <c r="D205" s="139"/>
       <c r="E205" s="38"/>
     </row>
-    <row r="206" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:5">
       <c r="C206" s="38"/>
-      <c r="D206" s="140"/>
+      <c r="D206" s="139"/>
       <c r="E206" s="38"/>
     </row>
-    <row r="207" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:5">
       <c r="C207" s="38"/>
-      <c r="D207" s="140"/>
+      <c r="D207" s="139"/>
       <c r="E207" s="38"/>
     </row>
-    <row r="208" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:5">
       <c r="C208" s="38"/>
-      <c r="D208" s="140"/>
+      <c r="D208" s="139"/>
       <c r="E208" s="38"/>
     </row>
-    <row r="209" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:5">
       <c r="C209" s="38"/>
-      <c r="D209" s="140"/>
+      <c r="D209" s="139"/>
       <c r="E209" s="38"/>
     </row>
-    <row r="210" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:5">
       <c r="C210" s="38"/>
-      <c r="D210" s="140"/>
+      <c r="D210" s="139"/>
       <c r="E210" s="38"/>
     </row>
-    <row r="211" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:5">
       <c r="C211" s="38"/>
-      <c r="D211" s="140"/>
+      <c r="D211" s="139"/>
       <c r="E211" s="38"/>
     </row>
-    <row r="212" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:5">
       <c r="C212" s="38"/>
-      <c r="D212" s="140"/>
+      <c r="D212" s="139"/>
       <c r="E212" s="38"/>
     </row>
-    <row r="213" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:5">
       <c r="C213" s="38"/>
-      <c r="D213" s="140"/>
+      <c r="D213" s="139"/>
       <c r="E213" s="38"/>
     </row>
-    <row r="214" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:5">
       <c r="C214" s="38"/>
-      <c r="D214" s="140"/>
+      <c r="D214" s="139"/>
       <c r="E214" s="38"/>
     </row>
-    <row r="215" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:5">
       <c r="C215" s="38"/>
-      <c r="D215" s="140"/>
+      <c r="D215" s="139"/>
       <c r="E215" s="38"/>
     </row>
-    <row r="216" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:5">
       <c r="C216" s="38"/>
-      <c r="D216" s="140"/>
+      <c r="D216" s="139"/>
       <c r="E216" s="38"/>
     </row>
-    <row r="217" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:5">
       <c r="C217" s="38"/>
-      <c r="D217" s="140"/>
+      <c r="D217" s="139"/>
       <c r="E217" s="38"/>
     </row>
-    <row r="218" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:5">
       <c r="C218" s="38"/>
-      <c r="D218" s="140"/>
+      <c r="D218" s="139"/>
       <c r="E218" s="38"/>
     </row>
-    <row r="219" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:5">
       <c r="C219" s="38"/>
-      <c r="D219" s="140"/>
+      <c r="D219" s="139"/>
       <c r="E219" s="38"/>
     </row>
-    <row r="220" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:5">
       <c r="C220" s="38"/>
-      <c r="D220" s="140"/>
+      <c r="D220" s="139"/>
       <c r="E220" s="38"/>
     </row>
-    <row r="221" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:5">
       <c r="C221" s="38"/>
-      <c r="D221" s="140"/>
+      <c r="D221" s="139"/>
       <c r="E221" s="38"/>
     </row>
-    <row r="222" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:5">
       <c r="C222" s="38"/>
-      <c r="D222" s="140"/>
+      <c r="D222" s="139"/>
       <c r="E222" s="38"/>
     </row>
-    <row r="223" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="3:5">
       <c r="C223" s="38"/>
-      <c r="D223" s="140"/>
+      <c r="D223" s="139"/>
       <c r="E223" s="38"/>
     </row>
-    <row r="224" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="3:5">
       <c r="C224" s="38"/>
-      <c r="D224" s="140"/>
+      <c r="D224" s="139"/>
       <c r="E224" s="38"/>
     </row>
-    <row r="225" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:5">
       <c r="C225" s="38"/>
-      <c r="D225" s="140"/>
+      <c r="D225" s="139"/>
       <c r="E225" s="38"/>
     </row>
-    <row r="226" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:5">
       <c r="C226" s="38"/>
-      <c r="D226" s="140"/>
+      <c r="D226" s="139"/>
       <c r="E226" s="38"/>
     </row>
-    <row r="227" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:5">
       <c r="C227" s="38"/>
-      <c r="D227" s="140"/>
+      <c r="D227" s="139"/>
       <c r="E227" s="38"/>
     </row>
-    <row r="228" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:5">
       <c r="C228" s="38"/>
-      <c r="D228" s="140"/>
+      <c r="D228" s="139"/>
       <c r="E228" s="38"/>
     </row>
-    <row r="229" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:5">
       <c r="C229" s="38"/>
       <c r="D229" s="38"/>
       <c r="E229" s="38"/>
     </row>
-    <row r="230" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:5">
       <c r="C230" s="38"/>
       <c r="D230" s="38"/>
       <c r="E230" s="38"/>
     </row>
-    <row r="231" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:5">
       <c r="C231" s="38"/>
       <c r="D231" s="38"/>
       <c r="E231" s="38"/>
     </row>
-    <row r="232" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:5">
       <c r="C232" s="38"/>
       <c r="D232" s="38"/>
       <c r="E232" s="38"/>
     </row>
-    <row r="233" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:5">
       <c r="C233" s="38"/>
       <c r="D233" s="38"/>
       <c r="E233" s="38"/>
     </row>
-    <row r="234" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:5">
       <c r="C234" s="38"/>
       <c r="D234" s="38"/>
       <c r="E234" s="38"/>
     </row>
-    <row r="235" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:5">
       <c r="C235" s="38"/>
       <c r="D235" s="38"/>
       <c r="E235" s="38"/>
     </row>
-    <row r="236" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:5">
       <c r="C236" s="38"/>
       <c r="D236" s="38"/>
       <c r="E236" s="38"/>
     </row>
-    <row r="237" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:5">
       <c r="C237" s="38"/>
       <c r="D237" s="38"/>
       <c r="E237" s="38"/>
     </row>
-    <row r="238" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:5">
       <c r="C238" s="38"/>
       <c r="D238" s="38"/>
       <c r="E238" s="38"/>
     </row>
-    <row r="239" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:5">
       <c r="C239" s="38"/>
       <c r="D239" s="38"/>
       <c r="E239" s="38"/>
     </row>
-    <row r="240" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:5">
       <c r="C240" s="38"/>
       <c r="D240" s="38"/>
       <c r="E240" s="38"/>
     </row>
-    <row r="241" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:5">
       <c r="C241" s="38"/>
       <c r="D241" s="38"/>
       <c r="E241" s="38"/>
     </row>
-    <row r="242" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:5">
       <c r="C242" s="38"/>
       <c r="D242" s="38"/>
       <c r="E242" s="38"/>
     </row>
-    <row r="243" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:5">
       <c r="C243" s="38"/>
       <c r="D243" s="38"/>
       <c r="E243" s="38"/>
     </row>
-    <row r="244" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:5">
       <c r="C244" s="38"/>
       <c r="D244" s="38"/>
       <c r="E244" s="38"/>
     </row>
-    <row r="245" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="3:5">
       <c r="C245" s="38"/>
       <c r="D245" s="38"/>
       <c r="E245" s="38"/>
     </row>
-    <row r="246" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="3:5">
       <c r="C246" s="38"/>
       <c r="D246" s="38"/>
       <c r="E246" s="38"/>
     </row>
-    <row r="247" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:5">
       <c r="C247" s="38"/>
       <c r="D247" s="38"/>
       <c r="E247" s="38"/>
     </row>
-    <row r="248" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:5">
       <c r="C248" s="38"/>
       <c r="D248" s="38"/>
       <c r="E248" s="38"/>
     </row>
-    <row r="249" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:5">
       <c r="C249" s="38"/>
       <c r="D249" s="38"/>
       <c r="E249" s="38"/>
     </row>
-    <row r="250" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:5">
       <c r="C250" s="38"/>
       <c r="D250" s="38"/>
       <c r="E250" s="38"/>
     </row>
-    <row r="251" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:5">
       <c r="C251" s="38"/>
       <c r="D251" s="38"/>
       <c r="E251" s="38"/>
     </row>
-    <row r="252" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:5">
       <c r="C252" s="38"/>
       <c r="D252" s="38"/>
       <c r="E252" s="38"/>
     </row>
-    <row r="253" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:5">
       <c r="C253" s="38"/>
       <c r="D253" s="38"/>
       <c r="E253" s="38"/>
     </row>
-    <row r="254" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="3:5">
       <c r="C254" s="38"/>
       <c r="D254" s="38"/>
       <c r="E254" s="38"/>
     </row>
-    <row r="255" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="3:5">
       <c r="C255" s="38"/>
       <c r="D255" s="38"/>
       <c r="E255" s="38"/>
     </row>
-    <row r="256" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="3:5">
       <c r="C256" s="38"/>
       <c r="D256" s="38"/>
       <c r="E256" s="38"/>
     </row>
-    <row r="257" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="3:5">
       <c r="C257" s="38"/>
       <c r="D257" s="38"/>
       <c r="E257" s="38"/>
     </row>
-    <row r="258" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="3:5">
       <c r="C258" s="38"/>
       <c r="D258" s="38"/>
       <c r="E258" s="38"/>
     </row>
-    <row r="259" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="3:5">
       <c r="C259" s="38"/>
       <c r="D259" s="38"/>
       <c r="E259" s="38"/>
     </row>
-    <row r="260" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="3:5">
       <c r="C260" s="38"/>
       <c r="D260" s="38"/>
       <c r="E260" s="38"/>
     </row>
-    <row r="261" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="3:5">
       <c r="C261" s="38"/>
       <c r="D261" s="38"/>
       <c r="E261" s="38"/>
     </row>
-    <row r="262" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="3:5">
       <c r="C262" s="38"/>
       <c r="D262" s="38"/>
       <c r="E262" s="38"/>
     </row>
-    <row r="263" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="3:5">
       <c r="C263" s="38"/>
       <c r="D263" s="38"/>
       <c r="E263" s="38"/>
     </row>
-    <row r="264" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="3:5">
       <c r="C264" s="38"/>
       <c r="D264" s="38"/>
       <c r="E264" s="38"/>
     </row>
-    <row r="265" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="3:5">
       <c r="C265" s="38"/>
       <c r="D265" s="38"/>
       <c r="E265" s="38"/>
     </row>
-    <row r="266" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="3:5">
       <c r="C266" s="38"/>
       <c r="D266" s="38"/>
       <c r="E266" s="38"/>
     </row>
-    <row r="267" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="3:5">
       <c r="C267" s="38"/>
       <c r="D267" s="38"/>
       <c r="E267" s="38"/>
     </row>
-    <row r="268" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="3:5">
       <c r="C268" s="38"/>
       <c r="D268" s="38"/>
       <c r="E268" s="38"/>
     </row>
-    <row r="269" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="3:5">
       <c r="C269" s="38"/>
       <c r="D269" s="38"/>
       <c r="E269" s="38"/>
     </row>
-    <row r="270" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="3:5">
       <c r="C270" s="38"/>
       <c r="D270" s="38"/>
       <c r="E270" s="38"/>
     </row>
-    <row r="271" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="3:5">
       <c r="C271" s="38"/>
       <c r="D271" s="38"/>
       <c r="E271" s="38"/>
     </row>
-    <row r="272" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="3:5">
       <c r="C272" s="38"/>
       <c r="D272" s="38"/>
       <c r="E272" s="38"/>
     </row>
-    <row r="273" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="3:5">
       <c r="C273" s="38"/>
       <c r="D273" s="38"/>
       <c r="E273" s="38"/>
     </row>
-    <row r="274" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:5">
       <c r="C274" s="38"/>
       <c r="D274" s="38"/>
       <c r="E274" s="38"/>
     </row>
-    <row r="275" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:5">
       <c r="C275" s="38"/>
       <c r="D275" s="38"/>
       <c r="E275" s="38"/>
     </row>
-    <row r="276" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:5">
       <c r="C276" s="38"/>
       <c r="D276" s="38"/>
       <c r="E276" s="38"/>
     </row>
-    <row r="277" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:5">
       <c r="C277" s="38"/>
       <c r="D277" s="38"/>
       <c r="E277" s="38"/>
     </row>
-    <row r="278" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="3:5">
       <c r="C278" s="38"/>
       <c r="D278" s="38"/>
       <c r="E278" s="38"/>
     </row>
-    <row r="279" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:5">
       <c r="C279" s="38"/>
       <c r="D279" s="38"/>
       <c r="E279" s="38"/>
     </row>
-    <row r="280" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:5">
       <c r="C280" s="38"/>
       <c r="D280" s="38"/>
       <c r="E280" s="38"/>
     </row>
-    <row r="281" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:5">
       <c r="C281" s="38"/>
       <c r="D281" s="38"/>
       <c r="E281" s="38"/>
     </row>
-    <row r="282" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="3:5">
       <c r="C282" s="38"/>
       <c r="D282" s="38"/>
       <c r="E282" s="38"/>
     </row>
-    <row r="283" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="3:5">
       <c r="C283" s="38"/>
       <c r="D283" s="38"/>
       <c r="E283" s="38"/>
     </row>
-    <row r="284" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:5">
       <c r="C284" s="38"/>
       <c r="D284" s="38"/>
       <c r="E284" s="38"/>
     </row>
-    <row r="285" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="3:5">
       <c r="C285" s="38"/>
       <c r="D285" s="38"/>
       <c r="E285" s="38"/>
     </row>
-    <row r="286" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="3:5">
       <c r="C286" s="38"/>
       <c r="D286" s="38"/>
       <c r="E286" s="38"/>
     </row>
-    <row r="287" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="3:5">
       <c r="C287" s="38"/>
       <c r="D287" s="38"/>
       <c r="E287" s="38"/>
     </row>
-    <row r="288" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="3:5">
       <c r="C288" s="38"/>
       <c r="D288" s="38"/>
       <c r="E288" s="38"/>
     </row>
-    <row r="289" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:5">
       <c r="C289" s="38"/>
       <c r="D289" s="38"/>
       <c r="E289" s="38"/>
     </row>
-    <row r="290" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:5">
       <c r="C290" s="38"/>
       <c r="D290" s="38"/>
       <c r="E290" s="38"/>
     </row>
-    <row r="291" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:5">
       <c r="C291" s="38"/>
       <c r="D291" s="38"/>
       <c r="E291" s="38"/>
     </row>
-    <row r="292" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="3:5">
       <c r="C292" s="38"/>
       <c r="D292" s="38"/>
       <c r="E292" s="38"/>
     </row>
-    <row r="293" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="3:5">
       <c r="C293" s="38"/>
       <c r="D293" s="38"/>
       <c r="E293" s="38"/>
     </row>
-    <row r="294" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="3:5">
       <c r="C294" s="38"/>
       <c r="D294" s="38"/>
       <c r="E294" s="38"/>
     </row>
-    <row r="295" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="3:5">
       <c r="C295" s="38"/>
       <c r="D295" s="38"/>
       <c r="E295" s="38"/>
     </row>
-    <row r="296" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="3:5">
       <c r="C296" s="38"/>
       <c r="D296" s="38"/>
       <c r="E296" s="38"/>
     </row>
-    <row r="297" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="3:5">
       <c r="C297" s="38"/>
       <c r="D297" s="38"/>
       <c r="E297" s="38"/>
     </row>
-    <row r="298" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="3:5">
       <c r="C298" s="38"/>
       <c r="D298" s="38"/>
       <c r="E298" s="38"/>
     </row>
-    <row r="299" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="3:5">
       <c r="C299" s="38"/>
       <c r="D299" s="38"/>
       <c r="E299" s="38"/>
     </row>
-    <row r="300" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="3:5">
       <c r="C300" s="38"/>
       <c r="D300" s="38"/>
       <c r="E300" s="38"/>
     </row>
-    <row r="301" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="3:5">
       <c r="C301" s="38"/>
       <c r="D301" s="38"/>
       <c r="E301" s="38"/>
     </row>
-    <row r="302" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="3:5">
       <c r="C302" s="38"/>
       <c r="D302" s="38"/>
       <c r="E302" s="38"/>
     </row>
-    <row r="303" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="3:5">
       <c r="C303" s="38"/>
       <c r="D303" s="38"/>
       <c r="E303" s="38"/>
     </row>
-    <row r="304" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="3:5">
       <c r="C304" s="38"/>
       <c r="D304" s="38"/>
       <c r="E304" s="38"/>
     </row>
-    <row r="305" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="3:5">
       <c r="C305" s="38"/>
       <c r="D305" s="38"/>
       <c r="E305" s="38"/>
     </row>
-    <row r="306" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="3:5">
       <c r="C306" s="38"/>
       <c r="D306" s="38"/>
       <c r="E306" s="38"/>
     </row>
-    <row r="307" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="3:5">
       <c r="C307" s="38"/>
       <c r="D307" s="38"/>
       <c r="E307" s="38"/>
@@ -10377,41 +10417,41 @@
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="23">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificNameID" prompt="An identifier for the nomenclatural (not taxonomic) details of a scientific name. Use WoRMs Aphia ID, in LSD format." sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identifiedBy" prompt="A list (if more than one, separated with | ) of names of people, groups, or organizations who assigned the Taxon to the subject." sqref="G4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="dateIdentified_x0009_" prompt="The date on which the subject was identified as representing the Taxon." sqref="H4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identificationRemarks" prompt="Comments or notes about the Identification." sqref="J4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identificationReferences" prompt="A list (if more than one separated with | ) of references (publication, global unique identifier, URI) used in the Identification." sqref="I4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identificationQualifier" prompt="A brief phrase or a standard term (&quot;cf.&quot;, &quot;aff.&quot;) to express the determiner's doubts about the Identification." sqref="K4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="typeStatus" prompt="A list (if more than one, separated with | ) of nomenclatural types (type status, typified scientific name, publication) applied to the subject." sqref="L4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="occurrenceID" prompt="An identifier for the Occurrence (as opposed to a particular digital record of the occurrence). In the absence of a persistent global unique identifier, construct one from a combination of identifiers in the record that will most closely make the occurren" sqref="C4 D82:D97 D57:D59 D5:D52"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="catalogNumber" prompt="An identifier (preferably unique) for the record within the data set or collection. Mostly for museum collections." sqref="M4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="occurrenceRemarks" prompt="Comments or notes about the Occurrence." sqref="N4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="recordedBy" prompt="A list (concatenated and separated) of names of people, groups, or organizations responsible for recording the original Occurrence. The primary collector or observer, especially one who applies a personal identifier (recordNumber), should be listed first" sqref="O4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="preparations" prompt="A list (concatenated and separated) of preparations and preservation methods for a specimen." sqref="Q4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="associatedMedia" prompt="A list (concatenated and separated) of identifiers (publication, global unique identifier, URI) of media associated with the Occurrence." sqref="R4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="associatedReferences" prompt="A list (concatenated and separated) of identifiers (publication, bibliographic reference, global unique identifier, URI) of literature associated with the Occurrence." sqref="S4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="associatedSequences" prompt="A list (concatenated and separated) of identifiers (publication, global unique identifier, URI) of genetic sequence information associated with the Occurrence." sqref="T4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="modified" prompt="The most recent date-time on which the resource was changed." sqref="U4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="collectionCode" prompt="The name, acronym, coden, or initialism identifying the collection or data set from which the record was derived." sqref="V4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="dataGeneralizations" prompt="Actions taken to make the shared data less specific or complete than in its original form. Suggests that alternative data of higher quality may be available on request." sqref="X4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="dynamicProperties" prompt="A list (if more than one, separated with | ) of additional measurements, facts, characteristics, or assertions about the record. Meant to provide a mechanism for structured content such as key-value pairs (eg: &quot;{temperaturedegC:5} | {salinitypss:35}&quot;" sqref="Y4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="eventID" prompt="An identifier for the set of information associated with an Event (something that occurs at a place and time)." sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificName" prompt="The full scientific name, with authorship and date information if known. When forming part of an Identification, this should be the name in lowest level taxonomic rank that can be determined. This term should not contain identification qualifications, whi" sqref="D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificNameAuthorship" prompt="The authorship information for the scientificName formatted according to the conventions of the applicable nomenclaturalCode." sqref="E4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonRank" prompt="The taxonomic rank of the most specific name in the scientificName. Recommended best practice is to use a controlled vocabulary. " sqref="F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificNameID" prompt="An identifier for the nomenclatural (not taxonomic) details of a scientific name. Use WoRMs Aphia ID, in LSD format." sqref="B4" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identifiedBy" prompt="A list (if more than one, separated with | ) of names of people, groups, or organizations who assigned the Taxon to the subject." sqref="G4" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="dateIdentified_x0009_" prompt="The date on which the subject was identified as representing the Taxon." sqref="H4" xr:uid="{00000000-0002-0000-0400-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identificationRemarks" prompt="Comments or notes about the Identification." sqref="J4" xr:uid="{00000000-0002-0000-0400-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identificationReferences" prompt="A list (if more than one separated with | ) of references (publication, global unique identifier, URI) used in the Identification." sqref="I4" xr:uid="{00000000-0002-0000-0400-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identificationQualifier" prompt="A brief phrase or a standard term (&quot;cf.&quot;, &quot;aff.&quot;) to express the determiner's doubts about the Identification." sqref="K4" xr:uid="{00000000-0002-0000-0400-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="typeStatus" prompt="A list (if more than one, separated with | ) of nomenclatural types (type status, typified scientific name, publication) applied to the subject." sqref="L4" xr:uid="{00000000-0002-0000-0400-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="occurrenceID" prompt="An identifier for the Occurrence (as opposed to a particular digital record of the occurrence). In the absence of a persistent global unique identifier, construct one from a combination of identifiers in the record that will most closely make the occurren" sqref="C4 D82:D97 D57:D59 D5:D52" xr:uid="{00000000-0002-0000-0400-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="catalogNumber" prompt="An identifier (preferably unique) for the record within the data set or collection. Mostly for museum collections." sqref="M4" xr:uid="{00000000-0002-0000-0400-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="occurrenceRemarks" prompt="Comments or notes about the Occurrence." sqref="N4" xr:uid="{00000000-0002-0000-0400-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="recordedBy" prompt="A list (concatenated and separated) of names of people, groups, or organizations responsible for recording the original Occurrence. The primary collector or observer, especially one who applies a personal identifier (recordNumber), should be listed first" sqref="O4" xr:uid="{00000000-0002-0000-0400-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="preparations" prompt="A list (concatenated and separated) of preparations and preservation methods for a specimen." sqref="Q4" xr:uid="{00000000-0002-0000-0400-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="associatedMedia" prompt="A list (concatenated and separated) of identifiers (publication, global unique identifier, URI) of media associated with the Occurrence." sqref="R4" xr:uid="{00000000-0002-0000-0400-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="associatedReferences" prompt="A list (concatenated and separated) of identifiers (publication, bibliographic reference, global unique identifier, URI) of literature associated with the Occurrence." sqref="S4" xr:uid="{00000000-0002-0000-0400-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="associatedSequences" prompt="A list (concatenated and separated) of identifiers (publication, global unique identifier, URI) of genetic sequence information associated with the Occurrence." sqref="T4" xr:uid="{00000000-0002-0000-0400-00000E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="modified" prompt="The most recent date-time on which the resource was changed." sqref="U4" xr:uid="{00000000-0002-0000-0400-00000F000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="collectionCode" prompt="The name, acronym, coden, or initialism identifying the collection or data set from which the record was derived." sqref="V4" xr:uid="{00000000-0002-0000-0400-000010000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="dataGeneralizations" prompt="Actions taken to make the shared data less specific or complete than in its original form. Suggests that alternative data of higher quality may be available on request." sqref="X4" xr:uid="{00000000-0002-0000-0400-000011000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="dynamicProperties" prompt="A list (if more than one, separated with | ) of additional measurements, facts, characteristics, or assertions about the record. Meant to provide a mechanism for structured content such as key-value pairs (eg: &quot;{temperaturedegC:5} | {salinitypss:35}&quot;" sqref="Y4" xr:uid="{00000000-0002-0000-0400-000012000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="eventID" prompt="An identifier for the set of information associated with an Event (something that occurs at a place and time)." sqref="A4" xr:uid="{00000000-0002-0000-0400-000013000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificName" prompt="The full scientific name, with authorship and date information if known. When forming part of an Identification, this should be the name in lowest level taxonomic rank that can be determined. This term should not contain identification qualifications, whi" sqref="D4" xr:uid="{00000000-0002-0000-0400-000014000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificNameAuthorship" prompt="The authorship information for the scientificName formatted according to the conventions of the applicable nomenclaturalCode." sqref="E4" xr:uid="{00000000-0002-0000-0400-000015000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonRank" prompt="The taxonomic rank of the most specific name in the scientificName. Recommended best practice is to use a controlled vocabulary. " sqref="F4" xr:uid="{00000000-0002-0000-0400-000016000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="occurrenceStatus" prompt="A statement about the presence or absence of a Taxon at a Location.">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="occurrenceStatus" prompt="A statement about the presence or absence of a Taxon at a Location." xr:uid="{00000000-0002-0000-0400-000017000000}">
           <x14:formula1>
             <xm:f>ContextDependents!$M$1:$M$2</xm:f>
           </x14:formula1>
           <xm:sqref>P4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="basisOfRecord" prompt="The specific nature of the data record. Select from Vocabulary">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="basisOfRecord" prompt="The specific nature of the data record. Select from Vocabulary" xr:uid="{00000000-0002-0000-0400-000018000000}">
           <x14:formula1>
             <xm:f>ContextDependents!$O$1:$O$5</xm:f>
           </x14:formula1>
@@ -10424,8 +10464,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
     <tabColor theme="2" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:N4"/>
@@ -10435,13 +10475,13 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="13" width="21.1640625" customWidth="1"/>
     <col min="14" max="14" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="20">
       <c r="A1" s="75" t="s">
         <v>422</v>
       </c>
@@ -10458,7 +10498,7 @@
       <c r="L1" s="73"/>
       <c r="M1" s="74"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="76"/>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -10473,7 +10513,7 @@
       <c r="L2" s="77"/>
       <c r="M2" s="78"/>
     </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="18" customHeight="1" thickBot="1">
       <c r="A3" s="60" t="s">
         <v>113</v>
       </c>
@@ -10513,11 +10553,11 @@
       <c r="M3" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="135" t="s">
+      <c r="N3" s="134" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="55"/>
       <c r="N4" s="35" t="s">
         <v>421</v>
@@ -10526,21 +10566,21 @@
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="eventID" prompt="An identifier for the set of information associated with an Event (something that occurs at a place and time)." sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="eventID" prompt="An identifier for the set of information associated with an Event (something that occurs at a place and time)." sqref="A4" xr:uid="{00000000-0002-0000-0500-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:I39"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="99" workbookViewId="0">
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
@@ -10548,13 +10588,13 @@
     <col min="9" max="9" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9">
       <c r="B2" s="47" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="17" thickBot="1"/>
+    <row r="4" spans="2:9" ht="17" thickBot="1">
       <c r="B4" s="50" t="s">
         <v>375</v>
       </c>
@@ -10574,7 +10614,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9">
       <c r="B5" s="48" t="s">
         <v>377</v>
       </c>
@@ -10587,7 +10627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="17" thickBot="1">
       <c r="B6" s="48" t="s">
         <v>381</v>
       </c>
@@ -10600,7 +10640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="17" thickBot="1">
       <c r="B7" s="50" t="s">
         <v>376</v>
       </c>
@@ -10618,7 +10658,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9">
       <c r="B8" s="48" t="s">
         <v>377</v>
       </c>
@@ -10631,7 +10671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="17" thickBot="1">
       <c r="B9" s="109" t="s">
         <v>381</v>
       </c>
@@ -10644,16 +10684,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9">
       <c r="G11" s="53"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9">
       <c r="B13" s="47" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" ht="17" thickBot="1"/>
+    <row r="15" spans="2:9">
       <c r="B15" s="92" t="s">
         <v>424</v>
       </c>
@@ -10679,7 +10719,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="17" thickBot="1">
       <c r="B16" s="106"/>
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
@@ -10698,13 +10738,13 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9">
       <c r="B20" s="47" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" ht="17" thickBot="1"/>
+    <row r="22" spans="2:9">
       <c r="B22" s="98" t="s">
         <v>431</v>
       </c>
@@ -10717,7 +10757,7 @@
       </c>
       <c r="F22" s="99"/>
     </row>
-    <row r="23" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="17" thickBot="1">
       <c r="B23" s="199"/>
       <c r="C23" s="200"/>
       <c r="D23" s="204"/>
@@ -10727,37 +10767,37 @@
       </c>
       <c r="F23" s="202"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9">
       <c r="B26" s="47" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:9" ht="20" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" ht="17" thickBot="1"/>
+    <row r="28" spans="2:9" ht="20">
       <c r="B28" s="75" t="s">
         <v>373</v>
       </c>
       <c r="C28" s="73"/>
       <c r="D28" s="73"/>
-      <c r="E28" s="149" t="s">
+      <c r="E28" s="148" t="s">
         <v>340</v>
       </c>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="151"/>
-    </row>
-    <row r="29" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="152"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="155"/>
-    </row>
-    <row r="30" spans="2:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="150"/>
+    </row>
+    <row r="29" spans="2:9" ht="17" thickBot="1">
+      <c r="B29" s="151"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="154"/>
+    </row>
+    <row r="30" spans="2:9" ht="16" customHeight="1" thickBot="1">
       <c r="B30" s="206" t="s">
         <v>443</v>
       </c>
@@ -10767,11 +10807,11 @@
       <c r="F30" s="205"/>
       <c r="G30" s="205"/>
       <c r="H30" s="205"/>
-      <c r="I30" s="158" t="s">
+      <c r="I30" s="157" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9">
       <c r="B31" s="196" t="s">
         <v>356</v>
       </c>
@@ -10783,7 +10823,7 @@
       <c r="H31" s="184"/>
       <c r="I31" s="185"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9">
       <c r="B32" s="193" t="s">
         <v>355</v>
       </c>
@@ -10795,39 +10835,39 @@
       <c r="H32" s="191"/>
       <c r="I32" s="192"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="148" t="s">
+    <row r="33" spans="2:9">
+      <c r="B33" s="147" t="s">
         <v>354</v>
       </c>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="157"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="156"/>
       <c r="F33" s="191"/>
       <c r="G33" s="191"/>
       <c r="H33" s="191"/>
       <c r="I33" s="192"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="148"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="157"/>
+    <row r="34" spans="2:9">
+      <c r="B34" s="147"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="156"/>
       <c r="F34" s="191"/>
       <c r="G34" s="191"/>
       <c r="H34" s="191"/>
       <c r="I34" s="192"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="148"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="157"/>
+    <row r="35" spans="2:9">
+      <c r="B35" s="147"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="156"/>
       <c r="F35" s="191"/>
       <c r="G35" s="191"/>
       <c r="H35" s="191"/>
       <c r="I35" s="192"/>
     </row>
-    <row r="36" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="17" thickBot="1">
       <c r="B36" s="188" t="s">
         <v>447</v>
       </c>
@@ -10839,40 +10879,40 @@
       <c r="H36" s="186"/>
       <c r="I36" s="187"/>
     </row>
-    <row r="37" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="17" thickBot="1">
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
     </row>
-    <row r="38" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="171" t="s">
+    <row r="38" spans="2:9" ht="17" thickBot="1">
+      <c r="B38" s="170" t="s">
         <v>446</v>
       </c>
-      <c r="C38" s="172"/>
-      <c r="D38" s="159"/>
-      <c r="E38" s="159"/>
-      <c r="F38" s="160"/>
+      <c r="C38" s="171"/>
+      <c r="D38" s="158"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="159"/>
       <c r="G38" s="41"/>
       <c r="H38" s="41"/>
       <c r="I38" s="41"/>
     </row>
-    <row r="39" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="168">
+    <row r="39" spans="2:9" ht="17" thickBot="1">
+      <c r="B39" s="167">
         <f>F30</f>
         <v>0</v>
       </c>
-      <c r="C39" s="169">
+      <c r="C39" s="168">
         <f>F31</f>
         <v>0</v>
       </c>
-      <c r="D39" s="169">
+      <c r="D39" s="168">
         <f>F32</f>
         <v>0</v>
       </c>
-      <c r="E39" s="169">
+      <c r="E39" s="168">
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="F39" s="170">
+      <c r="F39" s="169">
         <f>F36</f>
         <v>0</v>
       </c>
@@ -10894,26 +10934,26 @@
     <mergeCell ref="F33:I35"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonImage" prompt="Image of the taxon. Don't forget to send to SponGIS!" sqref="F36"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonDescription" prompt="Brief description of the taxon if applicable, suited for the website." sqref="C33:E35 F33"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonRemarks" prompt="Comments or notes about the taxon or name." sqref="F32"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificName" prompt="The full scientific name only (additional authorship and date information if known, should be added to the field below)" sqref="F31"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificNameID" prompt="An identifier for the nomenclatural (not taxonomic) details of a scientific name. Match with WoRMS Aphia ID." sqref="F30"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonImage" prompt="Image of the taxon. Don't forget to send to SponGIS!" sqref="F36" xr:uid="{00000000-0002-0000-0600-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonDescription" prompt="Brief description of the taxon if applicable, suited for the website." sqref="C33:E35 F33" xr:uid="{00000000-0002-0000-0600-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonRemarks" prompt="Comments or notes about the taxon or name." sqref="F32" xr:uid="{00000000-0002-0000-0600-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificName" prompt="The full scientific name only (additional authorship and date information if known, should be added to the field below)" sqref="F31" xr:uid="{00000000-0002-0000-0600-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificNameID" prompt="An identifier for the nomenclatural (not taxonomic) details of a scientific name. Match with WoRMS Aphia ID." sqref="F30" xr:uid="{00000000-0002-0000-0600-000004000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I30" r:id="rId1"/>
+    <hyperlink ref="I30" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000005000000}">
           <x14:formula1>
             <xm:f>ContextDependents!$K$1:$K$2</xm:f>
           </x14:formula1>
           <xm:sqref>E9 F6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000006000000}">
           <x14:formula1>
             <xm:f>ContextDependents!$J$1:$J$2</xm:f>
           </x14:formula1>
@@ -10926,14 +10966,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="96.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="96.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="1" customWidth="1"/>
@@ -10946,7 +10986,7 @@
     <col min="9" max="16384" width="96.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="24" customHeight="1">
       <c r="A1" s="209" t="s">
         <v>398</v>
       </c>
@@ -10960,7 +11000,7 @@
       </c>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -10968,7 +11008,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" s="210" t="s">
         <v>136</v>
       </c>
@@ -10979,7 +11019,7 @@
       <c r="F3" s="210"/>
       <c r="G3" s="210"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -10987,7 +11027,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="13" customFormat="1" ht="19" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
@@ -11016,7 +11056,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="32">
       <c r="A6" s="11" t="s">
         <v>188</v>
       </c>
@@ -11039,7 +11079,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="48">
       <c r="A7" s="18" t="s">
         <v>143</v>
       </c>
@@ -11060,7 +11100,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="64">
       <c r="A8" s="18" t="s">
         <v>143</v>
       </c>
@@ -11083,7 +11123,7 @@
         <v>42376</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="64">
       <c r="A9" s="18" t="s">
         <v>143</v>
       </c>
@@ -11103,7 +11143,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="64">
       <c r="A10" s="18" t="s">
         <v>137</v>
       </c>
@@ -11124,7 +11164,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="48">
       <c r="A11" s="18" t="s">
         <v>137</v>
       </c>
@@ -11147,7 +11187,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="64">
       <c r="A12" s="18" t="s">
         <v>137</v>
       </c>
@@ -11173,7 +11213,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="48">
       <c r="A13" s="2" t="s">
         <v>63</v>
       </c>
@@ -11196,7 +11236,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="80">
       <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
@@ -11222,7 +11262,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="48">
       <c r="A15" s="2" t="s">
         <v>63</v>
       </c>
@@ -11256,14 +11296,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="96.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="96.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="1" customWidth="1"/>
@@ -11276,7 +11316,7 @@
     <col min="9" max="16384" width="96.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="48">
       <c r="A1" s="211" t="s">
         <v>80</v>
       </c>
@@ -11292,7 +11332,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -11300,7 +11340,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" s="210" t="s">
         <v>178</v>
       </c>
@@ -11311,7 +11351,7 @@
       <c r="F3" s="210"/>
       <c r="G3" s="210"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -11319,7 +11359,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="13" customFormat="1" ht="19" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
@@ -11348,7 +11388,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="32">
       <c r="A6" s="29" t="s">
         <v>177</v>
       </c>
@@ -11374,7 +11414,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="64">
       <c r="A7" s="29" t="s">
         <v>177</v>
       </c>
@@ -11392,7 +11432,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="64">
       <c r="A8" s="29" t="s">
         <v>177</v>
       </c>
@@ -11416,7 +11456,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="48">
       <c r="A9" s="29" t="s">
         <v>177</v>
       </c>
@@ -11442,7 +11482,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="64">
       <c r="A10" s="29" t="s">
         <v>177</v>
       </c>
@@ -11466,7 +11506,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="144">
       <c r="A11" s="29" t="s">
         <v>177</v>
       </c>
@@ -11489,7 +11529,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="32">
       <c r="A12" s="29" t="s">
         <v>177</v>
       </c>
@@ -11512,7 +11552,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="32">
       <c r="A13" s="29" t="s">
         <v>177</v>
       </c>
@@ -11535,7 +11575,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="32">
       <c r="A14" s="29" t="s">
         <v>177</v>
       </c>
@@ -11558,7 +11598,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="32">
       <c r="A15" s="11" t="s">
         <v>188</v>
       </c>
@@ -11578,7 +11618,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="48">
       <c r="A16" s="11" t="s">
         <v>188</v>
       </c>
@@ -11598,22 +11638,22 @@
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:8">
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:8">
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:8">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:8">
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="H21" s="1"/>

--- a/SponGIS_Template/SponGIS_Template.xlsx
+++ b/SponGIS_Template/SponGIS_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewdavies_mbp/Andy's Documents/Websites and comittees/SponGIS/Github/SponGIS/SponGIS_Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067E403F-0BEB-9942-ADDD-F0BB6148887F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274AF43A-04C5-E248-835D-FAB875AB9D91}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="800" windowWidth="28400" windowHeight="18600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4720" yWindow="460" windowWidth="37720" windowHeight="22720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="13" r:id="rId1"/>
@@ -37,10 +37,17 @@
     <definedName name="YesNo">ContextDependents!$A$1:$A$2</definedName>
     <definedName name="YesNo2">[1]Vocabularies!$F$2:$F$3</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="475">
   <si>
     <t>Class</t>
   </si>
@@ -1177,9 +1184,6 @@
     <t>submissions@spongis.org</t>
   </si>
   <si>
-    <t xml:space="preserve">Once complete attach to an email to Martyn Roberts or Andy Davies at Bangor University at </t>
-  </si>
-  <si>
     <t>Dataset Details</t>
   </si>
   <si>
@@ -1282,9 +1286,6 @@
     <t>The species schema standardises specific measurement data.</t>
   </si>
   <si>
-    <t>media</t>
-  </si>
-  <si>
     <t>dataGeneralisations</t>
   </si>
   <si>
@@ -1472,13 +1473,34 @@
   </si>
   <si>
     <t>Author Type</t>
+  </si>
+  <si>
+    <t>POLYGON FOOTPRINTWKT</t>
+  </si>
+  <si>
+    <t>Once complete attach to an email to Martyn Roberts or Andy Davies:</t>
+  </si>
+  <si>
+    <t>Geographic Coverage</t>
+  </si>
+  <si>
+    <t>CC0 1.0</t>
+  </si>
+  <si>
+    <t>CC-BY 4.0</t>
+  </si>
+  <si>
+    <t>CC-BY-NC 4.0</t>
+  </si>
+  <si>
+    <t>Position</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1671,6 +1693,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="21">
     <fill>
@@ -1794,7 +1829,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -2359,6 +2394,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2472,7 +2562,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2706,20 +2796,10 @@
     <xf numFmtId="0" fontId="13" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="107" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2763,12 +2843,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2776,32 +2850,21 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="39" xfId="107" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="39" xfId="107" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2811,6 +2874,42 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="107" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2835,57 +2934,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2916,6 +2976,24 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2927,6 +3005,78 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="110">
@@ -3454,7 +3604,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -3481,30 +3633,30 @@
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
-      <c r="E2" s="174" t="s">
+      <c r="E2" s="179" t="s">
         <v>345</v>
       </c>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="174"/>
-      <c r="L3" s="174"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="35"/>
@@ -3541,44 +3693,44 @@
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
-      <c r="E6" s="175" t="s">
+      <c r="E6" s="180" t="s">
         <v>347</v>
       </c>
-      <c r="F6" s="175"/>
-      <c r="G6" s="175"/>
-      <c r="H6" s="175"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="175"/>
-      <c r="K6" s="175"/>
-      <c r="L6" s="175"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="180"/>
+      <c r="J6" s="180"/>
+      <c r="K6" s="180"/>
+      <c r="L6" s="180"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="175"/>
-      <c r="L7" s="175"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="175"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="175"/>
-      <c r="K8" s="175"/>
-      <c r="L8" s="175"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="180"/>
+      <c r="L8" s="180"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="35"/>
@@ -3611,7 +3763,7 @@
     <row r="11" spans="1:13">
       <c r="A11" s="35"/>
       <c r="B11" s="35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
@@ -3627,7 +3779,7 @@
     <row r="12" spans="1:13">
       <c r="A12" s="35"/>
       <c r="B12" s="35" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
@@ -3645,35 +3797,35 @@
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="142"/>
-      <c r="L13" s="142"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="35"/>
       <c r="B14" s="35" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="142"/>
-      <c r="L14" s="142"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="35"/>
       <c r="B15" s="35" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
@@ -3704,15 +3856,14 @@
     <row r="17" spans="1:12">
       <c r="A17" s="45"/>
       <c r="B17" s="45" t="s">
-        <v>371</v>
+        <v>469</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
       <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="141" t="s">
+      <c r="H17" s="137" t="s">
         <v>370</v>
       </c>
       <c r="J17" s="85"/>
@@ -3735,7 +3886,9 @@
     </row>
     <row r="19" spans="1:12" ht="40" customHeight="1">
       <c r="A19" s="35"/>
-      <c r="B19" s="45"/>
+      <c r="B19" s="175" t="s">
+        <v>471</v>
+      </c>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
@@ -3749,7 +3902,9 @@
     </row>
     <row r="20" spans="1:12" ht="20" customHeight="1">
       <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
+      <c r="B20" s="176" t="s">
+        <v>472</v>
+      </c>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -3763,7 +3918,9 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
+      <c r="B21" s="176" t="s">
+        <v>473</v>
+      </c>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
@@ -4426,7 +4583,7 @@
     <mergeCell ref="E6:L8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -4438,7 +4595,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="96.6640625" defaultRowHeight="16"/>
@@ -4454,7 +4611,7 @@
     <col min="9" max="16384" width="96.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48">
+    <row r="1" spans="1:10" ht="50">
       <c r="A1" s="212" t="s">
         <v>3</v>
       </c>
@@ -4526,7 +4683,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="32">
+    <row r="6" spans="1:10" ht="34">
       <c r="A6" s="11" t="s">
         <v>188</v>
       </c>
@@ -4547,7 +4704,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="64">
+    <row r="7" spans="1:10" ht="68">
       <c r="A7" s="3" t="s">
         <v>179</v>
       </c>
@@ -4573,7 +4730,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="48">
+    <row r="8" spans="1:10" ht="51">
       <c r="A8" s="3" t="s">
         <v>179</v>
       </c>
@@ -4599,7 +4756,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="48">
+    <row r="9" spans="1:10" ht="51">
       <c r="A9" s="3" t="s">
         <v>179</v>
       </c>
@@ -4625,7 +4782,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="32">
+    <row r="10" spans="1:10" ht="34">
       <c r="A10" s="3" t="s">
         <v>179</v>
       </c>
@@ -4649,7 +4806,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="32">
+    <row r="11" spans="1:10" ht="34">
       <c r="A11" s="3" t="s">
         <v>179</v>
       </c>
@@ -4670,7 +4827,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="32">
+    <row r="12" spans="1:10" ht="34">
       <c r="A12" s="5" t="s">
         <v>237</v>
       </c>
@@ -4693,7 +4850,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="32">
+    <row r="13" spans="1:10" ht="34">
       <c r="A13" s="5" t="s">
         <v>237</v>
       </c>
@@ -4716,7 +4873,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="32">
+    <row r="14" spans="1:10" ht="34">
       <c r="A14" s="5" t="s">
         <v>237</v>
       </c>
@@ -4739,7 +4896,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="32">
+    <row r="15" spans="1:10" ht="34">
       <c r="A15" s="5" t="s">
         <v>237</v>
       </c>
@@ -4762,7 +4919,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="32">
+    <row r="16" spans="1:10" ht="34">
       <c r="A16" s="5" t="s">
         <v>237</v>
       </c>
@@ -4785,7 +4942,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="48">
+    <row r="17" spans="1:8" ht="51">
       <c r="A17" s="5" t="s">
         <v>237</v>
       </c>
@@ -4811,7 +4968,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="48">
+    <row r="18" spans="1:8" ht="51">
       <c r="A18" s="5" t="s">
         <v>237</v>
       </c>
@@ -4837,7 +4994,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="48">
+    <row r="19" spans="1:8" ht="51">
       <c r="A19" s="5" t="s">
         <v>237</v>
       </c>
@@ -4860,7 +5017,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="32">
+    <row r="20" spans="1:8" ht="34">
       <c r="A20" s="5" t="s">
         <v>237</v>
       </c>
@@ -4880,7 +5037,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="64">
+    <row r="21" spans="1:8" ht="68">
       <c r="A21" s="5" t="s">
         <v>237</v>
       </c>
@@ -4903,7 +5060,7 @@
         <v>55.598599999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="64">
+    <row r="22" spans="1:8" ht="68">
       <c r="A22" s="5" t="s">
         <v>237</v>
       </c>
@@ -4926,7 +5083,7 @@
         <v>-6.8977000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="96">
+    <row r="23" spans="1:8" ht="102">
       <c r="A23" s="5" t="s">
         <v>237</v>
       </c>
@@ -4949,7 +5106,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="64">
+    <row r="24" spans="1:8" ht="68">
       <c r="A24" s="5" t="s">
         <v>237</v>
       </c>
@@ -4972,7 +5129,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="64">
+    <row r="25" spans="1:8" ht="68">
       <c r="A25" s="5" t="s">
         <v>237</v>
       </c>
@@ -5006,10 +5163,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="96.6640625" defaultRowHeight="16"/>
@@ -5025,7 +5182,7 @@
     <col min="9" max="16384" width="96.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48">
+    <row r="1" spans="1:10" ht="50">
       <c r="A1" s="211" t="s">
         <v>311</v>
       </c>
@@ -5097,7 +5254,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="17">
       <c r="A6" s="3" t="s">
         <v>179</v>
       </c>
@@ -5111,11 +5268,11 @@
       <c r="G6" s="30"/>
       <c r="H6" s="33"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="17">
       <c r="A7" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="136" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="32"/>
@@ -5125,7 +5282,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="33"/>
     </row>
-    <row r="8" spans="1:10" ht="64">
+    <row r="8" spans="1:10" ht="68">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5151,7 +5308,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="32">
+    <row r="9" spans="1:10" ht="34">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -5175,7 +5332,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="48">
+    <row r="10" spans="1:10" ht="51">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -5198,7 +5355,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="80">
+    <row r="11" spans="1:10" ht="85">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5222,7 +5379,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="48">
+    <row r="12" spans="1:10" ht="51">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -5243,7 +5400,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="64">
+    <row r="13" spans="1:10" ht="68">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -5264,364 +5421,382 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="96">
-      <c r="A14" s="11" t="s">
-        <v>46</v>
+    <row r="14" spans="1:10" ht="68">
+      <c r="A14" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>284</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="H14" s="20" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="112">
+    </row>
+    <row r="15" spans="1:10" ht="102">
       <c r="A15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>85</v>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>437</v>
+        <v>108</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>438</v>
+        <v>284</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>141</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="48">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="119">
       <c r="A16" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>219</v>
+        <v>435</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>141</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="48">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="51">
       <c r="A17" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>441</v>
+        <v>219</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>141</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="32">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="51">
       <c r="A18" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>54</v>
+      <c r="B18" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>107</v>
+        <v>439</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>286</v>
+        <v>436</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="H18" s="20">
-        <v>2008.1333999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="32">
+      <c r="H18" s="20" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="34">
       <c r="A19" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="H19" s="20" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="96">
+      <c r="H19" s="20">
+        <v>2008.1333999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="34">
       <c r="A20" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>141</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="32">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="102">
       <c r="A21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>52</v>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>294</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="48">
+      <c r="H21" s="20" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="34">
       <c r="A22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>53</v>
+      <c r="B22" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>294</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="H22" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="48">
+      <c r="G22" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="51">
       <c r="A23" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>141</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="64">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="51">
       <c r="A24" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="H24" s="20" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="64">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="68">
       <c r="A25" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>141</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="68">
+      <c r="A26" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H26" s="20" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="32">
-      <c r="A26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="96">
+    <row r="27" spans="1:8" ht="34">
       <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="80">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="102">
       <c r="A28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>70</v>
+      <c r="B28" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>141</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="64">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="85">
       <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>76</v>
+      <c r="B29" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>141</v>
       </c>
+      <c r="G29" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="H29" s="20" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="80">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="68">
       <c r="A30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>78</v>
+      <c r="B30" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="85">
+      <c r="A31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="H31" s="20" t="s">
         <v>310</v>
       </c>
     </row>
@@ -5639,7 +5814,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="96.6640625" defaultRowHeight="16"/>
@@ -5655,7 +5830,7 @@
     <col min="9" max="16384" width="96.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48">
+    <row r="1" spans="1:10" ht="50">
       <c r="A1" s="211" t="s">
         <v>312</v>
       </c>
@@ -5681,7 +5856,7 @@
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1">
       <c r="A3" s="210" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B3" s="210"/>
       <c r="C3" s="210"/>
@@ -5755,7 +5930,7 @@
       <c r="G7" s="30"/>
       <c r="H7" s="34"/>
     </row>
-    <row r="8" spans="1:10" ht="80">
+    <row r="8" spans="1:10" ht="85">
       <c r="A8" s="12" t="s">
         <v>235</v>
       </c>
@@ -5776,7 +5951,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="48">
+    <row r="9" spans="1:10" ht="51">
       <c r="A9" s="12" t="s">
         <v>235</v>
       </c>
@@ -5799,30 +5974,30 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="48">
+    <row r="10" spans="1:10" ht="51">
       <c r="A10" s="12" t="s">
         <v>235</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>141</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="32">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="34">
       <c r="A11" s="12" t="s">
         <v>235</v>
       </c>
@@ -5843,31 +6018,31 @@
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="144">
+    <row r="12" spans="1:10" ht="153">
       <c r="A12" s="12" t="s">
         <v>235</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="9" t="s">
         <v>141</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="48">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="68">
       <c r="A13" s="12" t="s">
         <v>235</v>
       </c>
@@ -5890,31 +6065,31 @@
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="48">
+    <row r="14" spans="1:10" ht="51">
       <c r="A14" s="12" t="s">
         <v>235</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>410</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>418</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>412</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="9" t="s">
         <v>141</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="48">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="51">
       <c r="A15" s="12" t="s">
         <v>235</v>
       </c>
@@ -5935,7 +6110,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="48">
+    <row r="16" spans="1:10" ht="51">
       <c r="A16" s="12" t="s">
         <v>235</v>
       </c>
@@ -5959,7 +6134,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="48">
+    <row r="17" spans="1:10" ht="68">
       <c r="A17" s="12" t="s">
         <v>235</v>
       </c>
@@ -5983,7 +6158,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="48">
+    <row r="18" spans="1:10" ht="51">
       <c r="A18" s="12" t="s">
         <v>235</v>
       </c>
@@ -6080,16 +6255,16 @@
         <v>362</v>
       </c>
       <c r="J1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O1" s="51" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -6106,16 +6281,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -6123,13 +6298,13 @@
         <v>351</v>
       </c>
       <c r="C3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H3" t="s">
         <v>363</v>
       </c>
       <c r="O3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -6140,7 +6315,7 @@
         <v>364</v>
       </c>
       <c r="O4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -6148,7 +6323,7 @@
         <v>365</v>
       </c>
       <c r="O5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -6174,10 +6349,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S100"/>
+  <dimension ref="A1:T101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -6188,14 +6363,15 @@
     <col min="9" max="9" width="19.1640625" customWidth="1"/>
     <col min="10" max="11" width="15.33203125" customWidth="1"/>
     <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="20">
-      <c r="A1" s="128" t="s">
-        <v>400</v>
-      </c>
-      <c r="B1" s="129" t="s">
-        <v>374</v>
+    <row r="1" spans="1:20" ht="20">
+      <c r="A1" s="124" t="s">
+        <v>399</v>
+      </c>
+      <c r="B1" s="125" t="s">
+        <v>373</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
@@ -6215,9 +6391,9 @@
       <c r="R1" s="35"/>
       <c r="S1" s="35"/>
     </row>
-    <row r="2" spans="1:19" ht="20">
-      <c r="A2" s="130"/>
-      <c r="B2" s="123"/>
+    <row r="2" spans="1:20" ht="20">
+      <c r="A2" s="126"/>
+      <c r="B2" s="119"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -6236,9 +6412,9 @@
       <c r="R2" s="35"/>
       <c r="S2" s="35"/>
     </row>
-    <row r="3" spans="1:19" ht="17" thickBot="1">
-      <c r="A3" s="123"/>
-      <c r="B3" s="123"/>
+    <row r="3" spans="1:20" ht="17" thickBot="1">
+      <c r="A3" s="119"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
@@ -6257,9 +6433,9 @@
       <c r="R3" s="35"/>
       <c r="S3" s="35"/>
     </row>
-    <row r="4" spans="1:19" ht="21" customHeight="1">
+    <row r="4" spans="1:20" ht="21" customHeight="1">
       <c r="A4" s="112" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B4" s="42" t="s">
         <v>340</v>
@@ -6282,7 +6458,7 @@
       <c r="R4" s="35"/>
       <c r="S4" s="35"/>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1">
+    <row r="5" spans="1:20" ht="15" customHeight="1">
       <c r="A5" s="114"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -6303,16 +6479,16 @@
       <c r="R5" s="35"/>
       <c r="S5" s="35"/>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1">
-      <c r="A6" s="135" t="s">
-        <v>436</v>
-      </c>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="183"/>
+    <row r="6" spans="1:20" ht="15" customHeight="1">
+      <c r="A6" s="131" t="s">
+        <v>434</v>
+      </c>
+      <c r="B6" s="183"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="184"/>
       <c r="H6" s="46"/>
       <c r="I6" s="35"/>
       <c r="J6" s="35"/>
@@ -6326,16 +6502,16 @@
       <c r="R6" s="35"/>
       <c r="S6" s="35"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1">
-      <c r="A7" s="136" t="s">
+    <row r="7" spans="1:20" ht="15" customHeight="1">
+      <c r="A7" s="132" t="s">
         <v>341</v>
       </c>
-      <c r="B7" s="178"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="179"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="184"/>
       <c r="H7" s="46"/>
       <c r="I7" s="35"/>
       <c r="J7" s="35"/>
@@ -6349,16 +6525,16 @@
       <c r="R7" s="35"/>
       <c r="S7" s="35"/>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1">
-      <c r="A8" s="136" t="s">
+    <row r="8" spans="1:20" ht="15" customHeight="1">
+      <c r="A8" s="132" t="s">
         <v>342</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="185"/>
+      <c r="B8" s="187"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="188"/>
       <c r="H8" s="46"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
@@ -6372,16 +6548,16 @@
       <c r="R8" s="35"/>
       <c r="S8" s="35"/>
     </row>
-    <row r="9" spans="1:19" ht="45.75" customHeight="1">
-      <c r="A9" s="136" t="s">
+    <row r="9" spans="1:20" ht="45" customHeight="1">
+      <c r="A9" s="132" t="s">
         <v>343</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="179"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="184"/>
       <c r="H9" s="46"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
@@ -6395,16 +6571,16 @@
       <c r="R9" s="35"/>
       <c r="S9" s="35"/>
     </row>
-    <row r="10" spans="1:19" ht="273" customHeight="1">
-      <c r="A10" s="137" t="s">
+    <row r="10" spans="1:20" ht="273" customHeight="1">
+      <c r="A10" s="133" t="s">
         <v>344</v>
       </c>
-      <c r="B10" s="180"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="180"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="181"/>
+      <c r="B10" s="185"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="186"/>
       <c r="H10" s="46"/>
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
@@ -6418,22 +6594,22 @@
       <c r="R10" s="35"/>
       <c r="S10" s="35"/>
     </row>
-    <row r="11" spans="1:19" ht="19" customHeight="1" thickBot="1">
-      <c r="A11" s="138" t="s">
-        <v>403</v>
-      </c>
-      <c r="B11" s="176"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="176"/>
-      <c r="E11" s="176"/>
-      <c r="F11" s="176"/>
-      <c r="G11" s="177"/>
+    <row r="11" spans="1:20" ht="18" customHeight="1">
+      <c r="A11" s="174" t="s">
+        <v>470</v>
+      </c>
+      <c r="B11" s="185"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="185"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="186"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="123"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
       <c r="N11" s="35"/>
       <c r="O11" s="35"/>
       <c r="P11" s="35"/>
@@ -6441,20 +6617,22 @@
       <c r="R11" s="35"/>
       <c r="S11" s="35"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="126"/>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
+    <row r="12" spans="1:20" ht="19" customHeight="1" thickBot="1">
+      <c r="A12" s="134" t="s">
+        <v>402</v>
+      </c>
+      <c r="B12" s="181"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="182"/>
       <c r="H12" s="46"/>
       <c r="I12" s="46"/>
       <c r="J12" s="46"/>
       <c r="K12" s="46"/>
       <c r="L12" s="46"/>
-      <c r="M12" s="123"/>
+      <c r="M12" s="119"/>
       <c r="N12" s="35"/>
       <c r="O12" s="35"/>
       <c r="P12" s="35"/>
@@ -6462,154 +6640,160 @@
       <c r="R12" s="35"/>
       <c r="S12" s="35"/>
     </row>
-    <row r="13" spans="1:19" s="38" customFormat="1" ht="20" customHeight="1">
-      <c r="A13" s="112" t="s">
-        <v>338</v>
-      </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="45"/>
+    <row r="13" spans="1:20" ht="15" customHeight="1" thickBot="1">
+      <c r="A13" s="122"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="35"/>
       <c r="O13" s="35"/>
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
       <c r="R13" s="35"/>
       <c r="S13" s="35"/>
     </row>
-    <row r="14" spans="1:19" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="173" t="s">
-        <v>469</v>
-      </c>
-      <c r="B14" s="116" t="s">
-        <v>326</v>
-      </c>
-      <c r="C14" s="116" t="s">
-        <v>327</v>
-      </c>
-      <c r="D14" s="116" t="s">
-        <v>328</v>
-      </c>
-      <c r="E14" s="116" t="s">
-        <v>329</v>
-      </c>
-      <c r="F14" s="116" t="s">
-        <v>330</v>
-      </c>
-      <c r="G14" s="116" t="s">
-        <v>331</v>
-      </c>
-      <c r="H14" s="116" t="s">
-        <v>332</v>
-      </c>
-      <c r="I14" s="116" t="s">
-        <v>333</v>
-      </c>
-      <c r="J14" s="116" t="s">
-        <v>334</v>
-      </c>
-      <c r="K14" s="116" t="s">
-        <v>335</v>
-      </c>
-      <c r="L14" s="117" t="s">
-        <v>336</v>
-      </c>
-      <c r="M14" s="46"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="35"/>
+    <row r="14" spans="1:20" s="38" customFormat="1" ht="20" customHeight="1">
+      <c r="A14" s="112" t="s">
+        <v>338</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="45"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
       <c r="R14" s="35"/>
       <c r="S14" s="35"/>
-    </row>
-    <row r="15" spans="1:19" ht="18" customHeight="1">
-      <c r="A15" s="118" t="s">
-        <v>339</v>
-      </c>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="35"/>
+      <c r="T14" s="35"/>
+    </row>
+    <row r="15" spans="1:20" s="38" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="162" t="s">
+        <v>467</v>
+      </c>
+      <c r="B15" s="177" t="s">
+        <v>326</v>
+      </c>
+      <c r="C15" s="177" t="s">
+        <v>327</v>
+      </c>
+      <c r="D15" s="177" t="s">
+        <v>328</v>
+      </c>
+      <c r="E15" s="177" t="s">
+        <v>474</v>
+      </c>
+      <c r="F15" s="116" t="s">
+        <v>329</v>
+      </c>
+      <c r="G15" s="116" t="s">
+        <v>330</v>
+      </c>
+      <c r="H15" s="116" t="s">
+        <v>331</v>
+      </c>
+      <c r="I15" s="177" t="s">
+        <v>332</v>
+      </c>
+      <c r="J15" s="177" t="s">
+        <v>333</v>
+      </c>
+      <c r="K15" s="177" t="s">
+        <v>334</v>
+      </c>
+      <c r="L15" s="177" t="s">
+        <v>335</v>
+      </c>
+      <c r="M15" s="178" t="s">
+        <v>336</v>
+      </c>
+      <c r="N15" s="46"/>
+      <c r="O15" s="45"/>
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
       <c r="R15" s="35"/>
       <c r="S15" s="35"/>
-    </row>
-    <row r="16" spans="1:19" s="38" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A16" s="172" t="s">
-        <v>468</v>
-      </c>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="122"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="35"/>
+      <c r="T15" s="35"/>
+    </row>
+    <row r="16" spans="1:20" ht="18" customHeight="1">
+      <c r="A16" s="117" t="s">
+        <v>339</v>
+      </c>
+      <c r="B16" s="163"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="163"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="45"/>
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
       <c r="R16" s="35"/>
       <c r="S16" s="35"/>
-    </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1">
-      <c r="A17" s="123"/>
-      <c r="B17" s="123"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="45"/>
+      <c r="T16" s="35"/>
+    </row>
+    <row r="17" spans="1:20" s="38" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A17" s="161" t="s">
+        <v>466</v>
+      </c>
+      <c r="B17" s="164"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="164"/>
+      <c r="K17" s="164"/>
+      <c r="L17" s="164"/>
+      <c r="M17" s="170"/>
+      <c r="N17" s="46"/>
       <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
       <c r="S17" s="35"/>
-    </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1">
-      <c r="A18" s="123"/>
-      <c r="B18" s="123"/>
+      <c r="T17" s="35"/>
+    </row>
+    <row r="18" spans="1:20" ht="15" customHeight="1">
+      <c r="A18" s="119"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
       <c r="F18" s="35"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
       <c r="M18" s="46"/>
       <c r="N18" s="45"/>
       <c r="O18" s="45"/>
@@ -6618,19 +6802,19 @@
       <c r="R18" s="45"/>
       <c r="S18" s="35"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1">
-      <c r="A19" s="123"/>
-      <c r="B19" s="123"/>
+    <row r="19" spans="1:20" ht="15" customHeight="1">
+      <c r="A19" s="119"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="124"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
       <c r="M19" s="46"/>
       <c r="N19" s="45"/>
       <c r="O19" s="45"/>
@@ -6639,19 +6823,19 @@
       <c r="R19" s="45"/>
       <c r="S19" s="35"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1">
-      <c r="A20" s="123"/>
-      <c r="B20" s="123"/>
+    <row r="20" spans="1:20" ht="15" customHeight="1">
+      <c r="A20" s="119"/>
+      <c r="B20" s="119"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="124"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
       <c r="M20" s="46"/>
       <c r="N20" s="45"/>
       <c r="O20" s="45"/>
@@ -6660,19 +6844,19 @@
       <c r="R20" s="45"/>
       <c r="S20" s="35"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1">
-      <c r="A21" s="123"/>
-      <c r="B21" s="123"/>
+    <row r="21" spans="1:20" ht="15" customHeight="1">
+      <c r="A21" s="119"/>
+      <c r="B21" s="119"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
       <c r="M21" s="46"/>
       <c r="N21" s="45"/>
       <c r="O21" s="45"/>
@@ -6681,19 +6865,19 @@
       <c r="R21" s="45"/>
       <c r="S21" s="35"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1">
-      <c r="A22" s="123"/>
-      <c r="B22" s="123"/>
+    <row r="22" spans="1:20" ht="15" customHeight="1">
+      <c r="A22" s="119"/>
+      <c r="B22" s="119"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
       <c r="G22" s="35"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="124"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
       <c r="M22" s="46"/>
       <c r="N22" s="45"/>
       <c r="O22" s="45"/>
@@ -6702,19 +6886,19 @@
       <c r="R22" s="45"/>
       <c r="S22" s="35"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1">
-      <c r="A23" s="123"/>
-      <c r="B23" s="123"/>
+    <row r="23" spans="1:20" ht="15" customHeight="1">
+      <c r="A23" s="119"/>
+      <c r="B23" s="119"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="124"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="120"/>
       <c r="M23" s="46"/>
       <c r="N23" s="45"/>
       <c r="O23" s="45"/>
@@ -6723,19 +6907,19 @@
       <c r="R23" s="45"/>
       <c r="S23" s="35"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1">
-      <c r="A24" s="123"/>
-      <c r="B24" s="123"/>
+    <row r="24" spans="1:20" ht="15" customHeight="1">
+      <c r="A24" s="119"/>
+      <c r="B24" s="119"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="124"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
       <c r="M24" s="46"/>
       <c r="N24" s="45"/>
       <c r="O24" s="45"/>
@@ -6744,19 +6928,19 @@
       <c r="R24" s="45"/>
       <c r="S24" s="35"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1">
-      <c r="A25" s="123"/>
-      <c r="B25" s="123"/>
+    <row r="25" spans="1:20" ht="15" customHeight="1">
+      <c r="A25" s="119"/>
+      <c r="B25" s="119"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="120"/>
+      <c r="L25" s="120"/>
       <c r="M25" s="46"/>
       <c r="N25" s="45"/>
       <c r="O25" s="45"/>
@@ -6765,41 +6949,41 @@
       <c r="R25" s="45"/>
       <c r="S25" s="35"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1">
-      <c r="A26" s="123"/>
-      <c r="B26" s="123"/>
+    <row r="26" spans="1:20" ht="15" customHeight="1">
+      <c r="A26" s="119"/>
+      <c r="B26" s="119"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="124"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="124"/>
-      <c r="M26" s="123"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
       <c r="S26" s="35"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1">
-      <c r="A27" s="123"/>
-      <c r="B27" s="123"/>
+    <row r="27" spans="1:20" ht="15" customHeight="1">
+      <c r="A27" s="119"/>
+      <c r="B27" s="119"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
-      <c r="H27" s="124"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="124"/>
-      <c r="M27" s="123"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="119"/>
       <c r="N27" s="35"/>
       <c r="O27" s="35"/>
       <c r="P27" s="35"/>
@@ -6807,20 +6991,20 @@
       <c r="R27" s="35"/>
       <c r="S27" s="35"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1">
-      <c r="A28" s="123"/>
-      <c r="B28" s="123"/>
+    <row r="28" spans="1:20" ht="15" customHeight="1">
+      <c r="A28" s="119"/>
+      <c r="B28" s="119"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
-      <c r="H28" s="124"/>
-      <c r="I28" s="124"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="124"/>
-      <c r="M28" s="123"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="119"/>
       <c r="N28" s="35"/>
       <c r="O28" s="35"/>
       <c r="P28" s="35"/>
@@ -6828,20 +7012,20 @@
       <c r="R28" s="35"/>
       <c r="S28" s="35"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1">
-      <c r="A29" s="123"/>
-      <c r="B29" s="123"/>
+    <row r="29" spans="1:20" ht="15" customHeight="1">
+      <c r="A29" s="119"/>
+      <c r="B29" s="119"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="124"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="124"/>
-      <c r="L29" s="124"/>
-      <c r="M29" s="123"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="120"/>
+      <c r="M29" s="119"/>
       <c r="N29" s="35"/>
       <c r="O29" s="35"/>
       <c r="P29" s="35"/>
@@ -6849,20 +7033,20 @@
       <c r="R29" s="35"/>
       <c r="S29" s="35"/>
     </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1">
-      <c r="A30" s="123"/>
-      <c r="B30" s="123"/>
+    <row r="30" spans="1:20" ht="15" customHeight="1">
+      <c r="A30" s="119"/>
+      <c r="B30" s="119"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="124"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="124"/>
-      <c r="M30" s="123"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="120"/>
+      <c r="M30" s="119"/>
       <c r="N30" s="35"/>
       <c r="O30" s="35"/>
       <c r="P30" s="35"/>
@@ -6870,20 +7054,20 @@
       <c r="R30" s="35"/>
       <c r="S30" s="35"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1">
-      <c r="A31" s="123"/>
-      <c r="B31" s="123"/>
+    <row r="31" spans="1:20" ht="15" customHeight="1">
+      <c r="A31" s="119"/>
+      <c r="B31" s="119"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="124"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="124"/>
-      <c r="L31" s="124"/>
-      <c r="M31" s="123"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="120"/>
+      <c r="K31" s="120"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="119"/>
       <c r="N31" s="35"/>
       <c r="O31" s="35"/>
       <c r="P31" s="35"/>
@@ -6891,20 +7075,20 @@
       <c r="R31" s="35"/>
       <c r="S31" s="35"/>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1">
-      <c r="A32" s="123"/>
-      <c r="B32" s="123"/>
+    <row r="32" spans="1:20" ht="15" customHeight="1">
+      <c r="A32" s="119"/>
+      <c r="B32" s="119"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
-      <c r="H32" s="124"/>
-      <c r="I32" s="124"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="124"/>
-      <c r="L32" s="124"/>
-      <c r="M32" s="123"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="120"/>
+      <c r="J32" s="120"/>
+      <c r="K32" s="120"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="119"/>
       <c r="N32" s="35"/>
       <c r="O32" s="35"/>
       <c r="P32" s="35"/>
@@ -6913,19 +7097,19 @@
       <c r="S32" s="35"/>
     </row>
     <row r="33" spans="1:19" ht="15" customHeight="1">
-      <c r="A33" s="123"/>
-      <c r="B33" s="123"/>
+      <c r="A33" s="119"/>
+      <c r="B33" s="119"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
-      <c r="H33" s="124"/>
-      <c r="I33" s="124"/>
-      <c r="J33" s="124"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="124"/>
-      <c r="M33" s="123"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="120"/>
+      <c r="J33" s="120"/>
+      <c r="K33" s="120"/>
+      <c r="L33" s="120"/>
+      <c r="M33" s="119"/>
       <c r="N33" s="35"/>
       <c r="O33" s="35"/>
       <c r="P33" s="35"/>
@@ -6934,19 +7118,19 @@
       <c r="S33" s="35"/>
     </row>
     <row r="34" spans="1:19" ht="15" customHeight="1">
-      <c r="A34" s="123"/>
-      <c r="B34" s="123"/>
+      <c r="A34" s="119"/>
+      <c r="B34" s="119"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
-      <c r="H34" s="124"/>
-      <c r="I34" s="124"/>
-      <c r="J34" s="124"/>
-      <c r="K34" s="124"/>
-      <c r="L34" s="124"/>
-      <c r="M34" s="123"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="120"/>
+      <c r="J34" s="120"/>
+      <c r="K34" s="120"/>
+      <c r="L34" s="120"/>
+      <c r="M34" s="119"/>
       <c r="N34" s="35"/>
       <c r="O34" s="35"/>
       <c r="P34" s="35"/>
@@ -6955,19 +7139,19 @@
       <c r="S34" s="35"/>
     </row>
     <row r="35" spans="1:19" ht="15" customHeight="1">
-      <c r="A35" s="123"/>
-      <c r="B35" s="123"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="119"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
-      <c r="H35" s="124"/>
-      <c r="I35" s="124"/>
-      <c r="J35" s="124"/>
-      <c r="K35" s="124"/>
-      <c r="L35" s="124"/>
-      <c r="M35" s="123"/>
+      <c r="H35" s="120"/>
+      <c r="I35" s="120"/>
+      <c r="J35" s="120"/>
+      <c r="K35" s="120"/>
+      <c r="L35" s="120"/>
+      <c r="M35" s="119"/>
       <c r="N35" s="35"/>
       <c r="O35" s="35"/>
       <c r="P35" s="35"/>
@@ -6976,19 +7160,19 @@
       <c r="S35" s="35"/>
     </row>
     <row r="36" spans="1:19" ht="15" customHeight="1">
-      <c r="A36" s="123"/>
-      <c r="B36" s="123"/>
+      <c r="A36" s="119"/>
+      <c r="B36" s="119"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="124"/>
-      <c r="J36" s="124"/>
-      <c r="K36" s="124"/>
-      <c r="L36" s="124"/>
-      <c r="M36" s="123"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="120"/>
+      <c r="J36" s="120"/>
+      <c r="K36" s="120"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="119"/>
       <c r="N36" s="35"/>
       <c r="O36" s="35"/>
       <c r="P36" s="35"/>
@@ -6997,19 +7181,19 @@
       <c r="S36" s="35"/>
     </row>
     <row r="37" spans="1:19" ht="15" customHeight="1">
-      <c r="A37" s="123"/>
-      <c r="B37" s="123"/>
+      <c r="A37" s="119"/>
+      <c r="B37" s="119"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
-      <c r="H37" s="124"/>
-      <c r="I37" s="124"/>
-      <c r="J37" s="124"/>
-      <c r="K37" s="124"/>
-      <c r="L37" s="124"/>
-      <c r="M37" s="123"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="120"/>
+      <c r="J37" s="120"/>
+      <c r="K37" s="120"/>
+      <c r="L37" s="120"/>
+      <c r="M37" s="119"/>
       <c r="N37" s="35"/>
       <c r="O37" s="35"/>
       <c r="P37" s="35"/>
@@ -7018,19 +7202,19 @@
       <c r="S37" s="35"/>
     </row>
     <row r="38" spans="1:19" ht="15" customHeight="1">
-      <c r="A38" s="123"/>
-      <c r="B38" s="123"/>
+      <c r="A38" s="119"/>
+      <c r="B38" s="119"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="124"/>
-      <c r="J38" s="124"/>
-      <c r="K38" s="124"/>
-      <c r="L38" s="124"/>
-      <c r="M38" s="123"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="120"/>
+      <c r="J38" s="120"/>
+      <c r="K38" s="120"/>
+      <c r="L38" s="120"/>
+      <c r="M38" s="119"/>
       <c r="N38" s="35"/>
       <c r="O38" s="35"/>
       <c r="P38" s="35"/>
@@ -7039,19 +7223,19 @@
       <c r="S38" s="35"/>
     </row>
     <row r="39" spans="1:19" ht="15" customHeight="1">
-      <c r="A39" s="123"/>
-      <c r="B39" s="123"/>
+      <c r="A39" s="119"/>
+      <c r="B39" s="119"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
       <c r="F39" s="35"/>
       <c r="G39" s="35"/>
-      <c r="H39" s="124"/>
-      <c r="I39" s="124"/>
-      <c r="J39" s="124"/>
-      <c r="K39" s="124"/>
-      <c r="L39" s="124"/>
-      <c r="M39" s="123"/>
+      <c r="H39" s="120"/>
+      <c r="I39" s="120"/>
+      <c r="J39" s="120"/>
+      <c r="K39" s="120"/>
+      <c r="L39" s="120"/>
+      <c r="M39" s="119"/>
       <c r="N39" s="35"/>
       <c r="O39" s="35"/>
       <c r="P39" s="35"/>
@@ -7060,19 +7244,19 @@
       <c r="S39" s="35"/>
     </row>
     <row r="40" spans="1:19" ht="15" customHeight="1">
-      <c r="A40" s="123"/>
-      <c r="B40" s="123"/>
+      <c r="A40" s="119"/>
+      <c r="B40" s="119"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="124"/>
-      <c r="L40" s="124"/>
-      <c r="M40" s="123"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="119"/>
       <c r="N40" s="35"/>
       <c r="O40" s="35"/>
       <c r="P40" s="35"/>
@@ -7081,19 +7265,19 @@
       <c r="S40" s="35"/>
     </row>
     <row r="41" spans="1:19" ht="15" customHeight="1">
-      <c r="A41" s="123"/>
-      <c r="B41" s="123"/>
+      <c r="A41" s="119"/>
+      <c r="B41" s="119"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="124"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="124"/>
-      <c r="L41" s="124"/>
-      <c r="M41" s="123"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="120"/>
+      <c r="J41" s="120"/>
+      <c r="K41" s="120"/>
+      <c r="L41" s="120"/>
+      <c r="M41" s="119"/>
       <c r="N41" s="35"/>
       <c r="O41" s="35"/>
       <c r="P41" s="35"/>
@@ -7102,19 +7286,19 @@
       <c r="S41" s="35"/>
     </row>
     <row r="42" spans="1:19" ht="15" customHeight="1">
-      <c r="A42" s="123"/>
-      <c r="B42" s="123"/>
+      <c r="A42" s="119"/>
+      <c r="B42" s="119"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="124"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="124"/>
-      <c r="L42" s="124"/>
-      <c r="M42" s="123"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="120"/>
+      <c r="J42" s="120"/>
+      <c r="K42" s="120"/>
+      <c r="L42" s="120"/>
+      <c r="M42" s="119"/>
       <c r="N42" s="35"/>
       <c r="O42" s="35"/>
       <c r="P42" s="35"/>
@@ -7123,19 +7307,19 @@
       <c r="S42" s="35"/>
     </row>
     <row r="43" spans="1:19" ht="15" customHeight="1">
-      <c r="A43" s="123"/>
-      <c r="B43" s="123"/>
+      <c r="A43" s="119"/>
+      <c r="B43" s="119"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
-      <c r="H43" s="124"/>
-      <c r="I43" s="124"/>
-      <c r="J43" s="124"/>
-      <c r="K43" s="124"/>
-      <c r="L43" s="124"/>
-      <c r="M43" s="123"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="120"/>
+      <c r="J43" s="120"/>
+      <c r="K43" s="120"/>
+      <c r="L43" s="120"/>
+      <c r="M43" s="119"/>
       <c r="N43" s="35"/>
       <c r="O43" s="35"/>
       <c r="P43" s="35"/>
@@ -7144,19 +7328,19 @@
       <c r="S43" s="35"/>
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1">
-      <c r="A44" s="123"/>
-      <c r="B44" s="123"/>
+      <c r="A44" s="119"/>
+      <c r="B44" s="119"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
-      <c r="H44" s="124"/>
-      <c r="I44" s="124"/>
-      <c r="J44" s="124"/>
-      <c r="K44" s="124"/>
-      <c r="L44" s="124"/>
-      <c r="M44" s="123"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="120"/>
+      <c r="K44" s="120"/>
+      <c r="L44" s="120"/>
+      <c r="M44" s="119"/>
       <c r="N44" s="35"/>
       <c r="O44" s="35"/>
       <c r="P44" s="35"/>
@@ -7165,19 +7349,19 @@
       <c r="S44" s="35"/>
     </row>
     <row r="45" spans="1:19" ht="15" customHeight="1">
-      <c r="A45" s="123"/>
-      <c r="B45" s="123"/>
+      <c r="A45" s="119"/>
+      <c r="B45" s="119"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="124"/>
-      <c r="J45" s="124"/>
-      <c r="K45" s="124"/>
-      <c r="L45" s="124"/>
-      <c r="M45" s="123"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="120"/>
+      <c r="J45" s="120"/>
+      <c r="K45" s="120"/>
+      <c r="L45" s="120"/>
+      <c r="M45" s="119"/>
       <c r="N45" s="35"/>
       <c r="O45" s="35"/>
       <c r="P45" s="35"/>
@@ -7186,19 +7370,19 @@
       <c r="S45" s="35"/>
     </row>
     <row r="46" spans="1:19" ht="15" customHeight="1">
-      <c r="A46" s="123"/>
-      <c r="B46" s="123"/>
+      <c r="A46" s="119"/>
+      <c r="B46" s="119"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="124"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="124"/>
-      <c r="L46" s="124"/>
-      <c r="M46" s="123"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="120"/>
+      <c r="J46" s="120"/>
+      <c r="K46" s="120"/>
+      <c r="L46" s="120"/>
+      <c r="M46" s="119"/>
       <c r="N46" s="35"/>
       <c r="O46" s="35"/>
       <c r="P46" s="35"/>
@@ -7207,19 +7391,19 @@
       <c r="S46" s="35"/>
     </row>
     <row r="47" spans="1:19" ht="15" customHeight="1">
-      <c r="A47" s="123"/>
-      <c r="B47" s="123"/>
+      <c r="A47" s="119"/>
+      <c r="B47" s="119"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
-      <c r="H47" s="124"/>
-      <c r="I47" s="124"/>
-      <c r="J47" s="124"/>
-      <c r="K47" s="124"/>
-      <c r="L47" s="124"/>
-      <c r="M47" s="123"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
+      <c r="K47" s="120"/>
+      <c r="L47" s="120"/>
+      <c r="M47" s="119"/>
       <c r="N47" s="35"/>
       <c r="O47" s="35"/>
       <c r="P47" s="35"/>
@@ -7228,19 +7412,19 @@
       <c r="S47" s="35"/>
     </row>
     <row r="48" spans="1:19" ht="15" customHeight="1">
-      <c r="A48" s="123"/>
-      <c r="B48" s="123"/>
+      <c r="A48" s="119"/>
+      <c r="B48" s="119"/>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
-      <c r="H48" s="124"/>
-      <c r="I48" s="124"/>
-      <c r="J48" s="124"/>
-      <c r="K48" s="124"/>
-      <c r="L48" s="124"/>
-      <c r="M48" s="123"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="120"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="120"/>
+      <c r="L48" s="120"/>
+      <c r="M48" s="119"/>
       <c r="N48" s="35"/>
       <c r="O48" s="35"/>
       <c r="P48" s="35"/>
@@ -7249,19 +7433,19 @@
       <c r="S48" s="35"/>
     </row>
     <row r="49" spans="1:19" ht="15" customHeight="1">
-      <c r="A49" s="125"/>
-      <c r="B49" s="124"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="124"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="124"/>
-      <c r="G49" s="124"/>
-      <c r="H49" s="124"/>
-      <c r="I49" s="124"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="124"/>
-      <c r="L49" s="124"/>
-      <c r="M49" s="123"/>
+      <c r="A49" s="119"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="120"/>
+      <c r="I49" s="120"/>
+      <c r="J49" s="120"/>
+      <c r="K49" s="120"/>
+      <c r="L49" s="120"/>
+      <c r="M49" s="119"/>
       <c r="N49" s="35"/>
       <c r="O49" s="35"/>
       <c r="P49" s="35"/>
@@ -7270,19 +7454,19 @@
       <c r="S49" s="35"/>
     </row>
     <row r="50" spans="1:19" ht="15" customHeight="1">
-      <c r="A50" s="125"/>
-      <c r="B50" s="124"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="124"/>
-      <c r="H50" s="124"/>
-      <c r="I50" s="124"/>
-      <c r="J50" s="124"/>
-      <c r="K50" s="124"/>
-      <c r="L50" s="124"/>
-      <c r="M50" s="123"/>
+      <c r="A50" s="121"/>
+      <c r="B50" s="120"/>
+      <c r="C50" s="120"/>
+      <c r="D50" s="120"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="120"/>
+      <c r="G50" s="120"/>
+      <c r="H50" s="120"/>
+      <c r="I50" s="120"/>
+      <c r="J50" s="120"/>
+      <c r="K50" s="120"/>
+      <c r="L50" s="120"/>
+      <c r="M50" s="119"/>
       <c r="N50" s="35"/>
       <c r="O50" s="35"/>
       <c r="P50" s="35"/>
@@ -7290,20 +7474,20 @@
       <c r="R50" s="35"/>
       <c r="S50" s="35"/>
     </row>
-    <row r="51" spans="1:19">
-      <c r="A51" s="123"/>
-      <c r="B51" s="123"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
+    <row r="51" spans="1:19" ht="15" customHeight="1">
+      <c r="A51" s="121"/>
+      <c r="B51" s="120"/>
+      <c r="C51" s="120"/>
+      <c r="D51" s="120"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="120"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="120"/>
+      <c r="K51" s="120"/>
+      <c r="L51" s="120"/>
+      <c r="M51" s="119"/>
       <c r="N51" s="35"/>
       <c r="O51" s="35"/>
       <c r="P51" s="35"/>
@@ -7312,8 +7496,8 @@
       <c r="S51" s="35"/>
     </row>
     <row r="52" spans="1:19">
-      <c r="A52" s="123"/>
-      <c r="B52" s="123"/>
+      <c r="A52" s="119"/>
+      <c r="B52" s="119"/>
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -7333,8 +7517,8 @@
       <c r="S52" s="35"/>
     </row>
     <row r="53" spans="1:19">
-      <c r="A53" s="123"/>
-      <c r="B53" s="123"/>
+      <c r="A53" s="119"/>
+      <c r="B53" s="119"/>
       <c r="C53" s="35"/>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
@@ -7354,8 +7538,8 @@
       <c r="S53" s="35"/>
     </row>
     <row r="54" spans="1:19">
-      <c r="A54" s="123"/>
-      <c r="B54" s="123"/>
+      <c r="A54" s="119"/>
+      <c r="B54" s="119"/>
       <c r="C54" s="35"/>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
@@ -7375,8 +7559,8 @@
       <c r="S54" s="35"/>
     </row>
     <row r="55" spans="1:19">
-      <c r="A55" s="123"/>
-      <c r="B55" s="123"/>
+      <c r="A55" s="119"/>
+      <c r="B55" s="119"/>
       <c r="C55" s="35"/>
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
@@ -7396,8 +7580,8 @@
       <c r="S55" s="35"/>
     </row>
     <row r="56" spans="1:19">
-      <c r="A56" s="123"/>
-      <c r="B56" s="123"/>
+      <c r="A56" s="119"/>
+      <c r="B56" s="119"/>
       <c r="C56" s="35"/>
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
@@ -7417,8 +7601,8 @@
       <c r="S56" s="35"/>
     </row>
     <row r="57" spans="1:19">
-      <c r="A57" s="123"/>
-      <c r="B57" s="123"/>
+      <c r="A57" s="119"/>
+      <c r="B57" s="119"/>
       <c r="C57" s="35"/>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
@@ -7438,8 +7622,8 @@
       <c r="S57" s="35"/>
     </row>
     <row r="58" spans="1:19">
-      <c r="A58" s="123"/>
-      <c r="B58" s="123"/>
+      <c r="A58" s="119"/>
+      <c r="B58" s="119"/>
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
@@ -7459,8 +7643,8 @@
       <c r="S58" s="35"/>
     </row>
     <row r="59" spans="1:19">
-      <c r="A59" s="123"/>
-      <c r="B59" s="123"/>
+      <c r="A59" s="119"/>
+      <c r="B59" s="119"/>
       <c r="C59" s="35"/>
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
@@ -7480,8 +7664,8 @@
       <c r="S59" s="35"/>
     </row>
     <row r="60" spans="1:19">
-      <c r="A60" s="123"/>
-      <c r="B60" s="123"/>
+      <c r="A60" s="119"/>
+      <c r="B60" s="119"/>
       <c r="C60" s="35"/>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
@@ -7501,8 +7685,8 @@
       <c r="S60" s="35"/>
     </row>
     <row r="61" spans="1:19">
-      <c r="A61" s="123"/>
-      <c r="B61" s="123"/>
+      <c r="A61" s="119"/>
+      <c r="B61" s="119"/>
       <c r="C61" s="35"/>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
@@ -7522,8 +7706,8 @@
       <c r="S61" s="35"/>
     </row>
     <row r="62" spans="1:19">
-      <c r="A62" s="123"/>
-      <c r="B62" s="123"/>
+      <c r="A62" s="119"/>
+      <c r="B62" s="119"/>
       <c r="C62" s="35"/>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
@@ -7543,8 +7727,8 @@
       <c r="S62" s="35"/>
     </row>
     <row r="63" spans="1:19">
-      <c r="A63" s="123"/>
-      <c r="B63" s="123"/>
+      <c r="A63" s="119"/>
+      <c r="B63" s="119"/>
       <c r="C63" s="35"/>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
@@ -7564,8 +7748,8 @@
       <c r="S63" s="35"/>
     </row>
     <row r="64" spans="1:19">
-      <c r="A64" s="123"/>
-      <c r="B64" s="123"/>
+      <c r="A64" s="119"/>
+      <c r="B64" s="119"/>
       <c r="C64" s="35"/>
       <c r="D64" s="35"/>
       <c r="E64" s="35"/>
@@ -7585,8 +7769,8 @@
       <c r="S64" s="35"/>
     </row>
     <row r="65" spans="1:19">
-      <c r="A65" s="123"/>
-      <c r="B65" s="123"/>
+      <c r="A65" s="119"/>
+      <c r="B65" s="119"/>
       <c r="C65" s="35"/>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
@@ -7606,8 +7790,8 @@
       <c r="S65" s="35"/>
     </row>
     <row r="66" spans="1:19">
-      <c r="A66" s="123"/>
-      <c r="B66" s="123"/>
+      <c r="A66" s="119"/>
+      <c r="B66" s="119"/>
       <c r="C66" s="35"/>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
@@ -7627,8 +7811,8 @@
       <c r="S66" s="35"/>
     </row>
     <row r="67" spans="1:19">
-      <c r="A67" s="123"/>
-      <c r="B67" s="123"/>
+      <c r="A67" s="119"/>
+      <c r="B67" s="119"/>
       <c r="C67" s="35"/>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
@@ -7648,8 +7832,8 @@
       <c r="S67" s="35"/>
     </row>
     <row r="68" spans="1:19">
-      <c r="A68" s="123"/>
-      <c r="B68" s="123"/>
+      <c r="A68" s="119"/>
+      <c r="B68" s="119"/>
       <c r="C68" s="35"/>
       <c r="D68" s="35"/>
       <c r="E68" s="35"/>
@@ -7669,8 +7853,8 @@
       <c r="S68" s="35"/>
     </row>
     <row r="69" spans="1:19">
-      <c r="A69" s="123"/>
-      <c r="B69" s="123"/>
+      <c r="A69" s="119"/>
+      <c r="B69" s="119"/>
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -7690,8 +7874,8 @@
       <c r="S69" s="35"/>
     </row>
     <row r="70" spans="1:19">
-      <c r="A70" s="123"/>
-      <c r="B70" s="123"/>
+      <c r="A70" s="119"/>
+      <c r="B70" s="119"/>
       <c r="C70" s="35"/>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -7711,8 +7895,8 @@
       <c r="S70" s="35"/>
     </row>
     <row r="71" spans="1:19">
-      <c r="A71" s="123"/>
-      <c r="B71" s="123"/>
+      <c r="A71" s="119"/>
+      <c r="B71" s="119"/>
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
       <c r="E71" s="35"/>
@@ -7732,8 +7916,8 @@
       <c r="S71" s="35"/>
     </row>
     <row r="72" spans="1:19">
-      <c r="A72" s="123"/>
-      <c r="B72" s="123"/>
+      <c r="A72" s="119"/>
+      <c r="B72" s="119"/>
       <c r="C72" s="35"/>
       <c r="D72" s="35"/>
       <c r="E72" s="35"/>
@@ -7753,8 +7937,8 @@
       <c r="S72" s="35"/>
     </row>
     <row r="73" spans="1:19">
-      <c r="A73" s="123"/>
-      <c r="B73" s="123"/>
+      <c r="A73" s="119"/>
+      <c r="B73" s="119"/>
       <c r="C73" s="35"/>
       <c r="D73" s="35"/>
       <c r="E73" s="35"/>
@@ -7774,8 +7958,8 @@
       <c r="S73" s="35"/>
     </row>
     <row r="74" spans="1:19">
-      <c r="A74" s="123"/>
-      <c r="B74" s="123"/>
+      <c r="A74" s="119"/>
+      <c r="B74" s="119"/>
       <c r="C74" s="35"/>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
@@ -7795,8 +7979,8 @@
       <c r="S74" s="35"/>
     </row>
     <row r="75" spans="1:19">
-      <c r="A75" s="123"/>
-      <c r="B75" s="123"/>
+      <c r="A75" s="119"/>
+      <c r="B75" s="119"/>
       <c r="C75" s="35"/>
       <c r="D75" s="35"/>
       <c r="E75" s="35"/>
@@ -7816,8 +8000,8 @@
       <c r="S75" s="35"/>
     </row>
     <row r="76" spans="1:19">
-      <c r="A76" s="123"/>
-      <c r="B76" s="123"/>
+      <c r="A76" s="119"/>
+      <c r="B76" s="119"/>
       <c r="C76" s="35"/>
       <c r="D76" s="35"/>
       <c r="E76" s="35"/>
@@ -7837,8 +8021,8 @@
       <c r="S76" s="35"/>
     </row>
     <row r="77" spans="1:19">
-      <c r="A77" s="123"/>
-      <c r="B77" s="123"/>
+      <c r="A77" s="119"/>
+      <c r="B77" s="119"/>
       <c r="C77" s="35"/>
       <c r="D77" s="35"/>
       <c r="E77" s="35"/>
@@ -7858,8 +8042,8 @@
       <c r="S77" s="35"/>
     </row>
     <row r="78" spans="1:19">
-      <c r="A78" s="123"/>
-      <c r="B78" s="123"/>
+      <c r="A78" s="119"/>
+      <c r="B78" s="119"/>
       <c r="C78" s="35"/>
       <c r="D78" s="35"/>
       <c r="E78" s="35"/>
@@ -7879,8 +8063,8 @@
       <c r="S78" s="35"/>
     </row>
     <row r="79" spans="1:19">
-      <c r="A79" s="123"/>
-      <c r="B79" s="123"/>
+      <c r="A79" s="119"/>
+      <c r="B79" s="119"/>
       <c r="C79" s="35"/>
       <c r="D79" s="35"/>
       <c r="E79" s="35"/>
@@ -7900,8 +8084,8 @@
       <c r="S79" s="35"/>
     </row>
     <row r="80" spans="1:19">
-      <c r="A80" s="123"/>
-      <c r="B80" s="123"/>
+      <c r="A80" s="119"/>
+      <c r="B80" s="119"/>
       <c r="C80" s="35"/>
       <c r="D80" s="35"/>
       <c r="E80" s="35"/>
@@ -7921,8 +8105,8 @@
       <c r="S80" s="35"/>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="123"/>
-      <c r="B81" s="123"/>
+      <c r="A81" s="119"/>
+      <c r="B81" s="119"/>
       <c r="C81" s="35"/>
       <c r="D81" s="35"/>
       <c r="E81" s="35"/>
@@ -7942,8 +8126,8 @@
       <c r="S81" s="35"/>
     </row>
     <row r="82" spans="1:19">
-      <c r="A82" s="123"/>
-      <c r="B82" s="123"/>
+      <c r="A82" s="119"/>
+      <c r="B82" s="119"/>
       <c r="C82" s="35"/>
       <c r="D82" s="35"/>
       <c r="E82" s="35"/>
@@ -7963,8 +8147,8 @@
       <c r="S82" s="35"/>
     </row>
     <row r="83" spans="1:19">
-      <c r="A83" s="123"/>
-      <c r="B83" s="123"/>
+      <c r="A83" s="119"/>
+      <c r="B83" s="119"/>
       <c r="C83" s="35"/>
       <c r="D83" s="35"/>
       <c r="E83" s="35"/>
@@ -7984,8 +8168,8 @@
       <c r="S83" s="35"/>
     </row>
     <row r="84" spans="1:19">
-      <c r="A84" s="123"/>
-      <c r="B84" s="123"/>
+      <c r="A84" s="119"/>
+      <c r="B84" s="119"/>
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
       <c r="E84" s="35"/>
@@ -8005,8 +8189,8 @@
       <c r="S84" s="35"/>
     </row>
     <row r="85" spans="1:19">
-      <c r="A85" s="123"/>
-      <c r="B85" s="123"/>
+      <c r="A85" s="119"/>
+      <c r="B85" s="119"/>
       <c r="C85" s="35"/>
       <c r="D85" s="35"/>
       <c r="E85" s="35"/>
@@ -8026,8 +8210,8 @@
       <c r="S85" s="35"/>
     </row>
     <row r="86" spans="1:19">
-      <c r="A86" s="123"/>
-      <c r="B86" s="123"/>
+      <c r="A86" s="119"/>
+      <c r="B86" s="119"/>
       <c r="C86" s="35"/>
       <c r="D86" s="35"/>
       <c r="E86" s="35"/>
@@ -8047,8 +8231,8 @@
       <c r="S86" s="35"/>
     </row>
     <row r="87" spans="1:19">
-      <c r="A87" s="123"/>
-      <c r="B87" s="123"/>
+      <c r="A87" s="119"/>
+      <c r="B87" s="119"/>
       <c r="C87" s="35"/>
       <c r="D87" s="35"/>
       <c r="E87" s="35"/>
@@ -8068,8 +8252,8 @@
       <c r="S87" s="35"/>
     </row>
     <row r="88" spans="1:19">
-      <c r="A88" s="123"/>
-      <c r="B88" s="123"/>
+      <c r="A88" s="119"/>
+      <c r="B88" s="119"/>
       <c r="C88" s="35"/>
       <c r="D88" s="35"/>
       <c r="E88" s="35"/>
@@ -8089,8 +8273,8 @@
       <c r="S88" s="35"/>
     </row>
     <row r="89" spans="1:19">
-      <c r="A89" s="123"/>
-      <c r="B89" s="123"/>
+      <c r="A89" s="119"/>
+      <c r="B89" s="119"/>
       <c r="C89" s="35"/>
       <c r="D89" s="35"/>
       <c r="E89" s="35"/>
@@ -8110,8 +8294,8 @@
       <c r="S89" s="35"/>
     </row>
     <row r="90" spans="1:19">
-      <c r="A90" s="123"/>
-      <c r="B90" s="123"/>
+      <c r="A90" s="119"/>
+      <c r="B90" s="119"/>
       <c r="C90" s="35"/>
       <c r="D90" s="35"/>
       <c r="E90" s="35"/>
@@ -8131,8 +8315,8 @@
       <c r="S90" s="35"/>
     </row>
     <row r="91" spans="1:19">
-      <c r="A91" s="123"/>
-      <c r="B91" s="123"/>
+      <c r="A91" s="119"/>
+      <c r="B91" s="119"/>
       <c r="C91" s="35"/>
       <c r="D91" s="35"/>
       <c r="E91" s="35"/>
@@ -8152,8 +8336,8 @@
       <c r="S91" s="35"/>
     </row>
     <row r="92" spans="1:19">
-      <c r="A92" s="123"/>
-      <c r="B92" s="123"/>
+      <c r="A92" s="119"/>
+      <c r="B92" s="119"/>
       <c r="C92" s="35"/>
       <c r="D92" s="35"/>
       <c r="E92" s="35"/>
@@ -8173,8 +8357,8 @@
       <c r="S92" s="35"/>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="123"/>
-      <c r="B93" s="123"/>
+      <c r="A93" s="119"/>
+      <c r="B93" s="119"/>
       <c r="C93" s="35"/>
       <c r="D93" s="35"/>
       <c r="E93" s="35"/>
@@ -8194,8 +8378,8 @@
       <c r="S93" s="35"/>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="123"/>
-      <c r="B94" s="123"/>
+      <c r="A94" s="119"/>
+      <c r="B94" s="119"/>
       <c r="C94" s="35"/>
       <c r="D94" s="35"/>
       <c r="E94" s="35"/>
@@ -8215,8 +8399,8 @@
       <c r="S94" s="35"/>
     </row>
     <row r="95" spans="1:19">
-      <c r="A95" s="123"/>
-      <c r="B95" s="123"/>
+      <c r="A95" s="119"/>
+      <c r="B95" s="119"/>
       <c r="C95" s="35"/>
       <c r="D95" s="35"/>
       <c r="E95" s="35"/>
@@ -8236,8 +8420,8 @@
       <c r="S95" s="35"/>
     </row>
     <row r="96" spans="1:19">
-      <c r="A96" s="123"/>
-      <c r="B96" s="123"/>
+      <c r="A96" s="119"/>
+      <c r="B96" s="119"/>
       <c r="C96" s="35"/>
       <c r="D96" s="35"/>
       <c r="E96" s="35"/>
@@ -8257,8 +8441,8 @@
       <c r="S96" s="35"/>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="123"/>
-      <c r="B97" s="123"/>
+      <c r="A97" s="119"/>
+      <c r="B97" s="119"/>
       <c r="C97" s="35"/>
       <c r="D97" s="35"/>
       <c r="E97" s="35"/>
@@ -8278,8 +8462,8 @@
       <c r="S97" s="35"/>
     </row>
     <row r="98" spans="1:19">
-      <c r="A98" s="123"/>
-      <c r="B98" s="123"/>
+      <c r="A98" s="119"/>
+      <c r="B98" s="119"/>
       <c r="C98" s="35"/>
       <c r="D98" s="35"/>
       <c r="E98" s="35"/>
@@ -8299,8 +8483,8 @@
       <c r="S98" s="35"/>
     </row>
     <row r="99" spans="1:19">
-      <c r="A99" s="123"/>
-      <c r="B99" s="123"/>
+      <c r="A99" s="119"/>
+      <c r="B99" s="119"/>
       <c r="C99" s="35"/>
       <c r="D99" s="35"/>
       <c r="E99" s="35"/>
@@ -8320,8 +8504,8 @@
       <c r="S99" s="35"/>
     </row>
     <row r="100" spans="1:19">
-      <c r="A100" s="123"/>
-      <c r="B100" s="123"/>
+      <c r="A100" s="119"/>
+      <c r="B100" s="119"/>
       <c r="C100" s="35"/>
       <c r="D100" s="35"/>
       <c r="E100" s="35"/>
@@ -8340,32 +8524,55 @@
       <c r="R100" s="35"/>
       <c r="S100" s="35"/>
     </row>
+    <row r="101" spans="1:19">
+      <c r="A101" s="119"/>
+      <c r="B101" s="119"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="35"/>
+      <c r="J101" s="35"/>
+      <c r="K101" s="35"/>
+      <c r="L101" s="35"/>
+      <c r="M101" s="35"/>
+      <c r="N101" s="35"/>
+      <c r="O101" s="35"/>
+      <c r="P101" s="35"/>
+      <c r="Q101" s="35"/>
+      <c r="R101" s="35"/>
+      <c r="S101" s="35"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B11:G11"/>
+  <mergeCells count="7">
+    <mergeCell ref="B12:G12"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B11:G11"/>
   </mergeCells>
-  <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="title" prompt="A name given to the resource." sqref="B7:G7" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="created" prompt="The date this resource was publiched online, not data collection or original publication date." sqref="B8:G8" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bibliographicCitation" prompt="Expected citation as you would like it." sqref="B9:G9" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="description" prompt="Abstract or concise description" sqref="B10:G10" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="creator" prompt="An entity primarily responsible for making the resource." sqref="B16:L16" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="rightsHolder" prompt="A person or organization owning or managing rights over the resource. Can be institute or individual." sqref="B15:L15" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
+  <dataValidations count="7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="title" prompt="A name given to the resource." sqref="B6:G7" xr:uid="{F491621E-8FA4-BE41-AD3C-8A580BB29FFA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="created" prompt="The date this resource was publiched online, not data collection or original publication date." sqref="B8:G8" xr:uid="{1F832B82-F26A-2642-B216-8CF3385E1330}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="bibliographicCitation" prompt="Expected citation as you would like it." sqref="B9:G9" xr:uid="{63B99773-550F-CB4B-B705-BD724E1C17F2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="description" prompt="Abstract or concise description" sqref="C10:G10 B10" xr:uid="{E96ACC00-0D7B-A04B-9371-BB6F78BC54C4}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="creator" prompt="An entity primarily responsible for making the resource." sqref="B17:M17" xr:uid="{2EDFA93E-720B-8A45-9FEC-628AD0940F33}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="rightsHolder" prompt="A person or organization owning or managing rights over the resource. Can be institute or individual." sqref="B16:M16" xr:uid="{DF4FB1FA-443B-4645-8037-AB8AD2B0944B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="geographicCoverage" prompt="Metadata field for IPT to describe the geographic coverage, you can be vague with this e.g. Atlantic Ocean." sqref="B11:G11" xr:uid="{BD0C5C8C-9BDC-F243-9165-FF9BBBF81110}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please choose from recognized Creative Commons Licenses" promptTitle="accessRights" prompt="Information about who can access the resource or an indication of its security status. Access Rights may include information regarding access or restrictions based on privacy, security, or other policies " xr:uid="{00000000-0002-0000-0100-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please choose from recognized Creative Commons Licenses" promptTitle="accessRights" prompt="Information about who can access the resource or an indication of its security status. Access Rights may include information regarding access or restrictions based on privacy, security, or other policies " xr:uid="{460AC596-3AC0-274D-AF3B-6B497A75DD82}">
           <x14:formula1>
-            <xm:f>ContextDependents!$C$1:$C$4</xm:f>
+            <xm:f>Instructions!$B$19:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref>B11:G11</xm:sqref>
+          <xm:sqref>B12:G12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8378,25 +8585,25 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="27.5" style="36" customWidth="1"/>
-    <col min="3" max="6" width="27.5" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="3" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" thickBot="1">
-      <c r="A1" s="128" t="s">
+    <row r="1" spans="1:9" ht="21" thickBot="1">
+      <c r="A1" s="124" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="125" t="s">
         <v>353</v>
       </c>
       <c r="C1" s="35"/>
@@ -8406,84 +8613,93 @@
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:10" ht="21" thickBot="1">
-      <c r="A2" s="130"/>
-      <c r="B2" s="129" t="s">
-        <v>449</v>
+    <row r="2" spans="1:9" ht="21" thickBot="1">
+      <c r="A2" s="171"/>
+      <c r="B2" s="125" t="s">
+        <v>447</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
-      <c r="H2" s="160" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17" thickBot="1">
-      <c r="A3" s="162" t="s">
+      <c r="H2" s="152" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" thickBot="1">
+      <c r="A3" s="153" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="154" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="154" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="163" t="s">
+      <c r="D3" s="154" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="164" t="s">
+      <c r="E3" s="154" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="163" t="s">
+      <c r="F3" s="154" t="s">
         <v>174</v>
       </c>
-      <c r="G3" s="165" t="s">
+      <c r="G3" s="155" t="s">
         <v>176</v>
       </c>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="55"/>
-      <c r="B4" s="143"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="143"/>
-    </row>
-    <row r="5" spans="1:10" ht="21" customHeight="1">
-      <c r="A5" s="161"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="165"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="139"/>
+    </row>
+    <row r="5" spans="1:9" ht="16" customHeight="1">
+      <c r="C5" s="168"/>
       <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="F5" s="168"/>
       <c r="G5" s="41"/>
       <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-    </row>
-    <row r="17" spans="8:8">
-      <c r="H17" s="47"/>
-    </row>
-    <row r="18" spans="8:8" ht="15" customHeight="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="C10" s="36"/>
+      <c r="D10" s="168"/>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="7:7" ht="15" customHeight="1"/>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificNameID" prompt="An identifier for the nomenclatural (not taxonomic) details of a scientific name. Match with WoRMS Aphia ID." sqref="A4" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="acceptedNameUsageID" prompt="An identifier for the name usage (documented meaning of the name according to a source) of the currently valid (zoological) or accepted (botanical) taxon." sqref="B4" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificName" prompt="The full scientific name only (additional authorship and date information if known, should be added to the field below)" sqref="C4" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificNameAuthorship" prompt="The authorship information for the scientificName formatted according to the conventions of the applicable nomenclatural code." sqref="D4" xr:uid="{00000000-0002-0000-0200-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonRemarks" prompt="Comments or notes about the taxon or name." sqref="E4" xr:uid="{00000000-0002-0000-0200-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonDescription" prompt="Brief description of the taxon if applicable, suited for the website." sqref="F4" xr:uid="{00000000-0002-0000-0200-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonImage" prompt="Image of the taxon. Don't forget to send to SponGIS!" sqref="G4" xr:uid="{00000000-0002-0000-0200-000006000000}"/>
+  <dataValidations count="4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificNameID" prompt="An identifier for the nomenclatural (not taxonomic) details of a scientific name. Match with WoRMS Aphia ID." sqref="A4" xr:uid="{990345CD-D72B-9D4B-991E-39FF5530B1B3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificName" prompt="The full scientific name only (additional authorship and date information if known, should be added to the field below)" sqref="C4" xr:uid="{A71E7622-D62C-754A-A0C1-C61BC948C034}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonDescription" prompt="Brief description of the taxon if applicable, suited for the website." sqref="E4" xr:uid="{00000000-0002-0000-0200-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonImage" prompt="Image of the taxon. Don't forget to send to SponGIS!" sqref="F4 D4" xr:uid="{00000000-0002-0000-0200-000006000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H2" location="'Helpful-Tools'!A1" display="TEMPLATE" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H2" location="'Helpful-Tools'!A1" display="TEMPLATE" xr:uid="{DF40B6D2-3583-B749-9E5E-646147C9BEDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8498,7 +8714,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -8508,13 +8725,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" thickBot="1">
-      <c r="A1" s="131" t="s">
-        <v>435</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
+      <c r="A1" s="127" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1" s="128"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
       <c r="F1" s="111" t="s">
         <v>358</v>
       </c>
@@ -8533,7 +8750,7 @@
       <c r="S1" s="74"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="141" t="s">
         <v>357</v>
       </c>
       <c r="B2" s="58"/>
@@ -8551,7 +8768,7 @@
         <v>359</v>
       </c>
       <c r="L2" s="71" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M2" s="69"/>
       <c r="N2" s="69"/>
@@ -8721,23 +8938,24 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:Y307"/>
+  <dimension ref="A1:Z307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="4" width="16.83203125" customWidth="1"/>
     <col min="5" max="6" width="20.83203125" customWidth="1"/>
-    <col min="7" max="25" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="24.1640625" customWidth="1"/>
+    <col min="8" max="26" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="20">
+    <row r="1" spans="1:26" ht="20">
       <c r="A1" s="75" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B1" s="90"/>
       <c r="C1" s="73"/>
@@ -8762,9 +8980,10 @@
       <c r="V1" s="73"/>
       <c r="W1" s="73"/>
       <c r="X1" s="73"/>
-      <c r="Y1" s="74"/>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="74"/>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="76"/>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -8789,9 +9008,10 @@
       <c r="V2" s="77"/>
       <c r="W2" s="77"/>
       <c r="X2" s="77"/>
-      <c r="Y2" s="78"/>
-    </row>
-    <row r="3" spans="1:25" ht="18" customHeight="1" thickBot="1">
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="78"/>
+    </row>
+    <row r="3" spans="1:26" ht="18" customHeight="1" thickBot="1">
       <c r="A3" s="60" t="s">
         <v>113</v>
       </c>
@@ -8801,80 +9021,83 @@
       <c r="C3" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="79" t="s">
         <v>86</v>
       </c>
       <c r="G3" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="I3" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="79" t="s">
+      <c r="J3" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="K3" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="79" t="s">
+      <c r="L3" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="L3" s="79" t="s">
+      <c r="M3" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="79" t="s">
+      <c r="N3" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="79" t="s">
+      <c r="O3" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="79" t="s">
+      <c r="P3" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="83" t="s">
+      <c r="Q3" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" s="79" t="s">
+      <c r="R3" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="79" t="s">
-        <v>406</v>
-      </c>
       <c r="S3" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="79" t="s">
+      <c r="U3" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="79" t="s">
+      <c r="V3" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="V3" s="79" t="s">
+      <c r="W3" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="W3" s="83" t="s">
+      <c r="X3" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="X3" s="84" t="s">
-        <v>407</v>
-      </c>
-      <c r="Y3" s="91" t="s">
+      <c r="Y3" s="84" t="s">
+        <v>405</v>
+      </c>
+      <c r="Z3" s="91" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4" s="55"/>
       <c r="B4" s="40"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
       <c r="E4" s="38"/>
-      <c r="G4" s="40"/>
+      <c r="G4" s="163"/>
       <c r="H4" s="40"/>
       <c r="I4" s="40"/>
       <c r="J4" s="40"/>
@@ -8893,1130 +9116,1131 @@
       <c r="W4" s="40"/>
       <c r="X4" s="40"/>
       <c r="Y4" s="40"/>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" s="40"/>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="38"/>
-      <c r="D5" s="139"/>
+      <c r="D5" s="135"/>
       <c r="E5" s="38"/>
-      <c r="Y5" s="41"/>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" s="41"/>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="38"/>
-      <c r="D6" s="139"/>
+      <c r="D6" s="135"/>
       <c r="E6" s="38"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26">
       <c r="C7" s="38"/>
-      <c r="D7" s="139"/>
+      <c r="D7" s="135"/>
       <c r="E7" s="38"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26">
       <c r="C8" s="38"/>
-      <c r="D8" s="139"/>
+      <c r="D8" s="135"/>
       <c r="E8" s="38"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26">
       <c r="C9" s="38"/>
-      <c r="D9" s="139"/>
+      <c r="D9" s="135"/>
       <c r="E9" s="38"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26">
       <c r="C10" s="38"/>
-      <c r="D10" s="139"/>
+      <c r="D10" s="135"/>
       <c r="E10" s="38"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26">
       <c r="C11" s="38"/>
-      <c r="D11" s="139"/>
+      <c r="D11" s="135"/>
       <c r="E11" s="38"/>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26">
       <c r="C12" s="38"/>
-      <c r="D12" s="139"/>
+      <c r="D12" s="135"/>
       <c r="E12" s="38"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:26">
       <c r="C13" s="38"/>
-      <c r="D13" s="139"/>
+      <c r="D13" s="135"/>
       <c r="E13" s="38"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:26">
       <c r="C14" s="38"/>
-      <c r="D14" s="139"/>
+      <c r="D14" s="135"/>
       <c r="E14" s="38"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:26">
       <c r="C15" s="38"/>
-      <c r="D15" s="139"/>
+      <c r="D15" s="135"/>
       <c r="E15" s="38"/>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:26">
       <c r="C16" s="38"/>
-      <c r="D16" s="139"/>
+      <c r="D16" s="135"/>
       <c r="E16" s="38"/>
     </row>
     <row r="17" spans="3:5">
       <c r="C17" s="38"/>
-      <c r="D17" s="139"/>
+      <c r="D17" s="135"/>
       <c r="E17" s="38"/>
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="38"/>
-      <c r="D18" s="139"/>
+      <c r="D18" s="135"/>
       <c r="E18" s="38"/>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="38"/>
-      <c r="D19" s="139"/>
+      <c r="D19" s="135"/>
       <c r="E19" s="38"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="38"/>
-      <c r="D20" s="139"/>
+      <c r="D20" s="135"/>
       <c r="E20" s="38"/>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="38"/>
-      <c r="D21" s="139"/>
+      <c r="D21" s="135"/>
       <c r="E21" s="38"/>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="38"/>
-      <c r="D22" s="139"/>
+      <c r="D22" s="135"/>
       <c r="E22" s="38"/>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="38"/>
-      <c r="D23" s="139"/>
+      <c r="D23" s="135"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="38"/>
-      <c r="D24" s="139"/>
+      <c r="D24" s="135"/>
       <c r="E24" s="38"/>
     </row>
     <row r="25" spans="3:5">
       <c r="C25" s="38"/>
-      <c r="D25" s="139"/>
+      <c r="D25" s="135"/>
       <c r="E25" s="38"/>
     </row>
     <row r="26" spans="3:5">
       <c r="C26" s="38"/>
-      <c r="D26" s="139"/>
+      <c r="D26" s="135"/>
       <c r="E26" s="38"/>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="38"/>
-      <c r="D27" s="139"/>
+      <c r="D27" s="135"/>
       <c r="E27" s="38"/>
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="38"/>
-      <c r="D28" s="139"/>
+      <c r="D28" s="135"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="3:5">
       <c r="C29" s="38"/>
-      <c r="D29" s="139"/>
+      <c r="D29" s="135"/>
       <c r="E29" s="38"/>
     </row>
     <row r="30" spans="3:5">
       <c r="C30" s="38"/>
-      <c r="D30" s="139"/>
+      <c r="D30" s="135"/>
       <c r="E30" s="38"/>
     </row>
     <row r="31" spans="3:5">
       <c r="C31" s="38"/>
-      <c r="D31" s="139"/>
+      <c r="D31" s="135"/>
       <c r="E31" s="38"/>
     </row>
     <row r="32" spans="3:5">
       <c r="C32" s="38"/>
-      <c r="D32" s="139"/>
+      <c r="D32" s="135"/>
       <c r="E32" s="38"/>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" s="38"/>
-      <c r="D33" s="139"/>
+      <c r="D33" s="135"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="3:5">
       <c r="C34" s="38"/>
-      <c r="D34" s="139"/>
+      <c r="D34" s="135"/>
       <c r="E34" s="38"/>
     </row>
     <row r="35" spans="3:5">
       <c r="C35" s="38"/>
-      <c r="D35" s="139"/>
+      <c r="D35" s="135"/>
       <c r="E35" s="38"/>
     </row>
     <row r="36" spans="3:5">
       <c r="C36" s="38"/>
-      <c r="D36" s="139"/>
+      <c r="D36" s="135"/>
       <c r="E36" s="38"/>
     </row>
     <row r="37" spans="3:5">
       <c r="C37" s="38"/>
-      <c r="D37" s="139"/>
+      <c r="D37" s="135"/>
       <c r="E37" s="38"/>
     </row>
     <row r="38" spans="3:5">
       <c r="C38" s="38"/>
-      <c r="D38" s="139"/>
+      <c r="D38" s="135"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="3:5">
       <c r="C39" s="38"/>
-      <c r="D39" s="139"/>
+      <c r="D39" s="135"/>
       <c r="E39" s="38"/>
     </row>
     <row r="40" spans="3:5">
       <c r="C40" s="38"/>
-      <c r="D40" s="139"/>
+      <c r="D40" s="135"/>
       <c r="E40" s="38"/>
     </row>
     <row r="41" spans="3:5">
       <c r="C41" s="38"/>
-      <c r="D41" s="139"/>
+      <c r="D41" s="135"/>
       <c r="E41" s="38"/>
     </row>
     <row r="42" spans="3:5">
       <c r="C42" s="38"/>
-      <c r="D42" s="139"/>
+      <c r="D42" s="135"/>
       <c r="E42" s="38"/>
     </row>
     <row r="43" spans="3:5">
       <c r="C43" s="38"/>
-      <c r="D43" s="139"/>
+      <c r="D43" s="135"/>
       <c r="E43" s="38"/>
     </row>
     <row r="44" spans="3:5">
       <c r="C44" s="38"/>
-      <c r="D44" s="139"/>
+      <c r="D44" s="135"/>
       <c r="E44" s="38"/>
     </row>
     <row r="45" spans="3:5">
       <c r="C45" s="38"/>
-      <c r="D45" s="139"/>
+      <c r="D45" s="135"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="3:5">
       <c r="C46" s="38"/>
-      <c r="D46" s="139"/>
+      <c r="D46" s="135"/>
       <c r="E46" s="38"/>
     </row>
     <row r="47" spans="3:5">
       <c r="C47" s="38"/>
-      <c r="D47" s="139"/>
+      <c r="D47" s="135"/>
       <c r="E47" s="38"/>
     </row>
     <row r="48" spans="3:5">
       <c r="C48" s="38"/>
-      <c r="D48" s="139"/>
+      <c r="D48" s="135"/>
       <c r="E48" s="38"/>
     </row>
     <row r="49" spans="3:5">
       <c r="C49" s="38"/>
-      <c r="D49" s="139"/>
+      <c r="D49" s="135"/>
       <c r="E49" s="38"/>
     </row>
     <row r="50" spans="3:5">
       <c r="C50" s="38"/>
-      <c r="D50" s="139"/>
+      <c r="D50" s="135"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="3:5">
       <c r="C51" s="38"/>
-      <c r="D51" s="139"/>
+      <c r="D51" s="135"/>
       <c r="E51" s="38"/>
     </row>
     <row r="52" spans="3:5">
       <c r="C52" s="38"/>
-      <c r="D52" s="139"/>
+      <c r="D52" s="135"/>
       <c r="E52" s="38"/>
     </row>
     <row r="53" spans="3:5">
       <c r="C53" s="38"/>
-      <c r="D53" s="139"/>
+      <c r="D53" s="135"/>
       <c r="E53" s="38"/>
     </row>
     <row r="54" spans="3:5">
       <c r="C54" s="38"/>
-      <c r="D54" s="139"/>
+      <c r="D54" s="135"/>
       <c r="E54" s="38"/>
     </row>
     <row r="55" spans="3:5">
       <c r="C55" s="38"/>
-      <c r="D55" s="139"/>
+      <c r="D55" s="135"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="3:5">
       <c r="C56" s="38"/>
-      <c r="D56" s="139"/>
+      <c r="D56" s="135"/>
       <c r="E56" s="38"/>
     </row>
     <row r="57" spans="3:5">
       <c r="C57" s="38"/>
-      <c r="D57" s="139"/>
+      <c r="D57" s="135"/>
       <c r="E57" s="38"/>
     </row>
     <row r="58" spans="3:5">
       <c r="C58" s="38"/>
-      <c r="D58" s="139"/>
+      <c r="D58" s="135"/>
       <c r="E58" s="38"/>
     </row>
     <row r="59" spans="3:5">
       <c r="C59" s="38"/>
-      <c r="D59" s="139"/>
+      <c r="D59" s="135"/>
       <c r="E59" s="38"/>
     </row>
     <row r="60" spans="3:5">
       <c r="C60" s="38"/>
-      <c r="D60" s="139"/>
+      <c r="D60" s="135"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="3:5">
       <c r="C61" s="38"/>
-      <c r="D61" s="139"/>
+      <c r="D61" s="135"/>
       <c r="E61" s="38"/>
     </row>
     <row r="62" spans="3:5">
       <c r="C62" s="38"/>
-      <c r="D62" s="139"/>
+      <c r="D62" s="135"/>
       <c r="E62" s="38"/>
     </row>
     <row r="63" spans="3:5">
       <c r="C63" s="38"/>
-      <c r="D63" s="139"/>
+      <c r="D63" s="135"/>
       <c r="E63" s="38"/>
     </row>
     <row r="64" spans="3:5">
       <c r="C64" s="38"/>
-      <c r="D64" s="139"/>
+      <c r="D64" s="135"/>
       <c r="E64" s="38"/>
     </row>
     <row r="65" spans="3:5">
       <c r="C65" s="38"/>
-      <c r="D65" s="139"/>
+      <c r="D65" s="135"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="3:5">
       <c r="C66" s="38"/>
-      <c r="D66" s="139"/>
+      <c r="D66" s="135"/>
       <c r="E66" s="38"/>
     </row>
     <row r="67" spans="3:5">
       <c r="C67" s="38"/>
-      <c r="D67" s="139"/>
+      <c r="D67" s="135"/>
       <c r="E67" s="38"/>
     </row>
     <row r="68" spans="3:5">
       <c r="C68" s="38"/>
-      <c r="D68" s="139"/>
+      <c r="D68" s="135"/>
       <c r="E68" s="38"/>
     </row>
     <row r="69" spans="3:5">
       <c r="C69" s="38"/>
-      <c r="D69" s="139"/>
+      <c r="D69" s="135"/>
       <c r="E69" s="38"/>
     </row>
     <row r="70" spans="3:5">
       <c r="C70" s="38"/>
-      <c r="D70" s="139"/>
+      <c r="D70" s="135"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="3:5">
       <c r="C71" s="38"/>
-      <c r="D71" s="139"/>
+      <c r="D71" s="135"/>
       <c r="E71" s="38"/>
     </row>
     <row r="72" spans="3:5">
       <c r="C72" s="38"/>
-      <c r="D72" s="139"/>
+      <c r="D72" s="135"/>
       <c r="E72" s="38"/>
     </row>
     <row r="73" spans="3:5">
       <c r="C73" s="38"/>
-      <c r="D73" s="139"/>
+      <c r="D73" s="135"/>
       <c r="E73" s="38"/>
     </row>
     <row r="74" spans="3:5">
       <c r="C74" s="38"/>
-      <c r="D74" s="139"/>
+      <c r="D74" s="135"/>
       <c r="E74" s="38"/>
     </row>
     <row r="75" spans="3:5">
       <c r="C75" s="38"/>
-      <c r="D75" s="139"/>
+      <c r="D75" s="135"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="3:5">
       <c r="C76" s="38"/>
-      <c r="D76" s="139"/>
+      <c r="D76" s="135"/>
       <c r="E76" s="38"/>
     </row>
     <row r="77" spans="3:5">
       <c r="C77" s="38"/>
-      <c r="D77" s="139"/>
+      <c r="D77" s="135"/>
       <c r="E77" s="38"/>
     </row>
     <row r="78" spans="3:5">
       <c r="C78" s="38"/>
-      <c r="D78" s="139"/>
+      <c r="D78" s="135"/>
       <c r="E78" s="38"/>
     </row>
     <row r="79" spans="3:5">
       <c r="C79" s="38"/>
-      <c r="D79" s="139"/>
+      <c r="D79" s="135"/>
       <c r="E79" s="38"/>
     </row>
     <row r="80" spans="3:5">
       <c r="C80" s="38"/>
-      <c r="D80" s="139"/>
+      <c r="D80" s="135"/>
       <c r="E80" s="38"/>
     </row>
     <row r="81" spans="3:5">
       <c r="C81" s="38"/>
-      <c r="D81" s="139"/>
+      <c r="D81" s="135"/>
       <c r="E81" s="38"/>
     </row>
     <row r="82" spans="3:5">
       <c r="C82" s="38"/>
-      <c r="D82" s="139"/>
+      <c r="D82" s="135"/>
       <c r="E82" s="38"/>
     </row>
     <row r="83" spans="3:5">
       <c r="C83" s="38"/>
-      <c r="D83" s="139"/>
+      <c r="D83" s="135"/>
       <c r="E83" s="38"/>
     </row>
     <row r="84" spans="3:5">
       <c r="C84" s="38"/>
-      <c r="D84" s="139"/>
+      <c r="D84" s="135"/>
       <c r="E84" s="38"/>
     </row>
     <row r="85" spans="3:5">
       <c r="C85" s="38"/>
-      <c r="D85" s="139"/>
+      <c r="D85" s="135"/>
       <c r="E85" s="38"/>
     </row>
     <row r="86" spans="3:5">
       <c r="C86" s="38"/>
-      <c r="D86" s="139"/>
+      <c r="D86" s="135"/>
       <c r="E86" s="38"/>
     </row>
     <row r="87" spans="3:5">
       <c r="C87" s="38"/>
-      <c r="D87" s="139"/>
+      <c r="D87" s="135"/>
       <c r="E87" s="38"/>
     </row>
     <row r="88" spans="3:5">
       <c r="C88" s="38"/>
-      <c r="D88" s="139"/>
+      <c r="D88" s="135"/>
       <c r="E88" s="38"/>
     </row>
     <row r="89" spans="3:5">
       <c r="C89" s="38"/>
-      <c r="D89" s="139"/>
+      <c r="D89" s="135"/>
       <c r="E89" s="38"/>
     </row>
     <row r="90" spans="3:5">
       <c r="C90" s="38"/>
-      <c r="D90" s="139"/>
+      <c r="D90" s="135"/>
       <c r="E90" s="38"/>
     </row>
     <row r="91" spans="3:5">
       <c r="C91" s="38"/>
-      <c r="D91" s="139"/>
+      <c r="D91" s="135"/>
       <c r="E91" s="38"/>
     </row>
     <row r="92" spans="3:5">
       <c r="C92" s="38"/>
-      <c r="D92" s="139"/>
+      <c r="D92" s="135"/>
       <c r="E92" s="38"/>
     </row>
     <row r="93" spans="3:5">
       <c r="C93" s="38"/>
-      <c r="D93" s="139"/>
+      <c r="D93" s="135"/>
       <c r="E93" s="38"/>
     </row>
     <row r="94" spans="3:5">
       <c r="C94" s="38"/>
-      <c r="D94" s="139"/>
+      <c r="D94" s="135"/>
       <c r="E94" s="38"/>
     </row>
     <row r="95" spans="3:5">
       <c r="C95" s="38"/>
-      <c r="D95" s="139"/>
+      <c r="D95" s="135"/>
       <c r="E95" s="38"/>
     </row>
     <row r="96" spans="3:5">
       <c r="C96" s="38"/>
-      <c r="D96" s="139"/>
+      <c r="D96" s="135"/>
       <c r="E96" s="38"/>
     </row>
     <row r="97" spans="3:5">
       <c r="C97" s="38"/>
-      <c r="D97" s="139"/>
+      <c r="D97" s="135"/>
       <c r="E97" s="38"/>
     </row>
     <row r="98" spans="3:5">
       <c r="C98" s="38"/>
-      <c r="D98" s="139"/>
+      <c r="D98" s="135"/>
       <c r="E98" s="38"/>
     </row>
     <row r="99" spans="3:5">
       <c r="C99" s="38"/>
-      <c r="D99" s="139"/>
+      <c r="D99" s="135"/>
       <c r="E99" s="38"/>
     </row>
     <row r="100" spans="3:5">
       <c r="C100" s="38"/>
-      <c r="D100" s="139"/>
+      <c r="D100" s="135"/>
       <c r="E100" s="38"/>
     </row>
     <row r="101" spans="3:5">
       <c r="C101" s="38"/>
-      <c r="D101" s="139"/>
+      <c r="D101" s="135"/>
       <c r="E101" s="38"/>
     </row>
     <row r="102" spans="3:5">
       <c r="C102" s="38"/>
-      <c r="D102" s="139"/>
+      <c r="D102" s="135"/>
       <c r="E102" s="38"/>
     </row>
     <row r="103" spans="3:5">
       <c r="C103" s="38"/>
-      <c r="D103" s="139"/>
+      <c r="D103" s="135"/>
       <c r="E103" s="38"/>
     </row>
     <row r="104" spans="3:5">
       <c r="C104" s="38"/>
-      <c r="D104" s="139"/>
+      <c r="D104" s="135"/>
       <c r="E104" s="38"/>
     </row>
     <row r="105" spans="3:5">
       <c r="C105" s="38"/>
-      <c r="D105" s="139"/>
+      <c r="D105" s="135"/>
       <c r="E105" s="38"/>
     </row>
     <row r="106" spans="3:5">
       <c r="C106" s="38"/>
-      <c r="D106" s="139"/>
+      <c r="D106" s="135"/>
       <c r="E106" s="38"/>
     </row>
     <row r="107" spans="3:5">
       <c r="C107" s="38"/>
-      <c r="D107" s="139"/>
+      <c r="D107" s="135"/>
       <c r="E107" s="38"/>
     </row>
     <row r="108" spans="3:5">
       <c r="C108" s="38"/>
-      <c r="D108" s="139"/>
+      <c r="D108" s="135"/>
       <c r="E108" s="38"/>
     </row>
     <row r="109" spans="3:5">
       <c r="C109" s="38"/>
-      <c r="D109" s="139"/>
+      <c r="D109" s="135"/>
       <c r="E109" s="38"/>
     </row>
     <row r="110" spans="3:5">
       <c r="C110" s="38"/>
-      <c r="D110" s="139"/>
+      <c r="D110" s="135"/>
       <c r="E110" s="38"/>
     </row>
     <row r="111" spans="3:5">
       <c r="C111" s="38"/>
-      <c r="D111" s="139"/>
+      <c r="D111" s="135"/>
       <c r="E111" s="38"/>
     </row>
     <row r="112" spans="3:5">
       <c r="C112" s="38"/>
-      <c r="D112" s="139"/>
+      <c r="D112" s="135"/>
       <c r="E112" s="38"/>
     </row>
     <row r="113" spans="3:5">
       <c r="C113" s="38"/>
-      <c r="D113" s="139"/>
+      <c r="D113" s="135"/>
       <c r="E113" s="38"/>
     </row>
     <row r="114" spans="3:5">
       <c r="C114" s="38"/>
-      <c r="D114" s="139"/>
+      <c r="D114" s="135"/>
       <c r="E114" s="38"/>
     </row>
     <row r="115" spans="3:5">
       <c r="C115" s="38"/>
-      <c r="D115" s="139"/>
+      <c r="D115" s="135"/>
       <c r="E115" s="38"/>
     </row>
     <row r="116" spans="3:5">
       <c r="C116" s="38"/>
-      <c r="D116" s="139"/>
+      <c r="D116" s="135"/>
       <c r="E116" s="38"/>
     </row>
     <row r="117" spans="3:5">
       <c r="C117" s="38"/>
-      <c r="D117" s="139"/>
+      <c r="D117" s="135"/>
       <c r="E117" s="38"/>
     </row>
     <row r="118" spans="3:5">
       <c r="C118" s="38"/>
-      <c r="D118" s="139"/>
+      <c r="D118" s="135"/>
       <c r="E118" s="38"/>
     </row>
     <row r="119" spans="3:5">
       <c r="C119" s="38"/>
-      <c r="D119" s="139"/>
+      <c r="D119" s="135"/>
       <c r="E119" s="38"/>
     </row>
     <row r="120" spans="3:5">
       <c r="C120" s="38"/>
-      <c r="D120" s="139"/>
+      <c r="D120" s="135"/>
       <c r="E120" s="38"/>
     </row>
     <row r="121" spans="3:5">
       <c r="C121" s="38"/>
-      <c r="D121" s="139"/>
+      <c r="D121" s="135"/>
       <c r="E121" s="38"/>
     </row>
     <row r="122" spans="3:5">
       <c r="C122" s="38"/>
-      <c r="D122" s="139"/>
+      <c r="D122" s="135"/>
       <c r="E122" s="38"/>
     </row>
     <row r="123" spans="3:5">
       <c r="C123" s="38"/>
-      <c r="D123" s="139"/>
+      <c r="D123" s="135"/>
       <c r="E123" s="38"/>
     </row>
     <row r="124" spans="3:5">
       <c r="C124" s="38"/>
-      <c r="D124" s="139"/>
+      <c r="D124" s="135"/>
       <c r="E124" s="38"/>
     </row>
     <row r="125" spans="3:5">
       <c r="C125" s="38"/>
-      <c r="D125" s="139"/>
+      <c r="D125" s="135"/>
       <c r="E125" s="38"/>
     </row>
     <row r="126" spans="3:5">
       <c r="C126" s="38"/>
-      <c r="D126" s="139"/>
+      <c r="D126" s="135"/>
       <c r="E126" s="38"/>
     </row>
     <row r="127" spans="3:5">
       <c r="C127" s="38"/>
-      <c r="D127" s="139"/>
+      <c r="D127" s="135"/>
       <c r="E127" s="38"/>
     </row>
     <row r="128" spans="3:5">
       <c r="C128" s="38"/>
-      <c r="D128" s="139"/>
+      <c r="D128" s="135"/>
       <c r="E128" s="38"/>
     </row>
     <row r="129" spans="3:5">
       <c r="C129" s="38"/>
-      <c r="D129" s="139"/>
+      <c r="D129" s="135"/>
       <c r="E129" s="38"/>
     </row>
     <row r="130" spans="3:5">
       <c r="C130" s="38"/>
-      <c r="D130" s="139"/>
+      <c r="D130" s="135"/>
       <c r="E130" s="38"/>
     </row>
     <row r="131" spans="3:5">
       <c r="C131" s="38"/>
-      <c r="D131" s="139"/>
+      <c r="D131" s="135"/>
       <c r="E131" s="38"/>
     </row>
     <row r="132" spans="3:5">
       <c r="C132" s="38"/>
-      <c r="D132" s="139"/>
+      <c r="D132" s="135"/>
       <c r="E132" s="38"/>
     </row>
     <row r="133" spans="3:5">
       <c r="C133" s="38"/>
-      <c r="D133" s="139"/>
+      <c r="D133" s="135"/>
       <c r="E133" s="38"/>
     </row>
     <row r="134" spans="3:5">
       <c r="C134" s="38"/>
-      <c r="D134" s="139"/>
+      <c r="D134" s="135"/>
       <c r="E134" s="38"/>
     </row>
     <row r="135" spans="3:5">
       <c r="C135" s="38"/>
-      <c r="D135" s="139"/>
+      <c r="D135" s="135"/>
       <c r="E135" s="38"/>
     </row>
     <row r="136" spans="3:5">
       <c r="C136" s="38"/>
-      <c r="D136" s="139"/>
+      <c r="D136" s="135"/>
       <c r="E136" s="38"/>
     </row>
     <row r="137" spans="3:5">
       <c r="C137" s="38"/>
-      <c r="D137" s="139"/>
+      <c r="D137" s="135"/>
       <c r="E137" s="38"/>
     </row>
     <row r="138" spans="3:5">
       <c r="C138" s="38"/>
-      <c r="D138" s="139"/>
+      <c r="D138" s="135"/>
       <c r="E138" s="38"/>
     </row>
     <row r="139" spans="3:5">
       <c r="C139" s="38"/>
-      <c r="D139" s="139"/>
+      <c r="D139" s="135"/>
       <c r="E139" s="38"/>
     </row>
     <row r="140" spans="3:5">
       <c r="C140" s="38"/>
-      <c r="D140" s="139"/>
+      <c r="D140" s="135"/>
       <c r="E140" s="38"/>
     </row>
     <row r="141" spans="3:5">
       <c r="C141" s="38"/>
-      <c r="D141" s="139"/>
+      <c r="D141" s="135"/>
       <c r="E141" s="38"/>
     </row>
     <row r="142" spans="3:5">
       <c r="C142" s="38"/>
-      <c r="D142" s="139"/>
+      <c r="D142" s="135"/>
       <c r="E142" s="38"/>
     </row>
     <row r="143" spans="3:5">
       <c r="C143" s="38"/>
-      <c r="D143" s="139"/>
+      <c r="D143" s="135"/>
       <c r="E143" s="38"/>
     </row>
     <row r="144" spans="3:5">
       <c r="C144" s="38"/>
-      <c r="D144" s="139"/>
+      <c r="D144" s="135"/>
       <c r="E144" s="38"/>
     </row>
     <row r="145" spans="3:5">
       <c r="C145" s="38"/>
-      <c r="D145" s="139"/>
+      <c r="D145" s="135"/>
       <c r="E145" s="38"/>
     </row>
     <row r="146" spans="3:5">
       <c r="C146" s="38"/>
-      <c r="D146" s="139"/>
+      <c r="D146" s="135"/>
       <c r="E146" s="38"/>
     </row>
     <row r="147" spans="3:5">
       <c r="C147" s="38"/>
-      <c r="D147" s="139"/>
+      <c r="D147" s="135"/>
       <c r="E147" s="38"/>
     </row>
     <row r="148" spans="3:5">
       <c r="C148" s="38"/>
-      <c r="D148" s="139"/>
+      <c r="D148" s="135"/>
       <c r="E148" s="38"/>
     </row>
     <row r="149" spans="3:5">
       <c r="C149" s="38"/>
-      <c r="D149" s="139"/>
+      <c r="D149" s="135"/>
       <c r="E149" s="38"/>
     </row>
     <row r="150" spans="3:5">
       <c r="C150" s="38"/>
-      <c r="D150" s="139"/>
+      <c r="D150" s="135"/>
       <c r="E150" s="38"/>
     </row>
     <row r="151" spans="3:5">
       <c r="C151" s="38"/>
-      <c r="D151" s="139"/>
+      <c r="D151" s="135"/>
       <c r="E151" s="38"/>
     </row>
     <row r="152" spans="3:5">
       <c r="C152" s="38"/>
-      <c r="D152" s="139"/>
+      <c r="D152" s="135"/>
       <c r="E152" s="38"/>
     </row>
     <row r="153" spans="3:5">
       <c r="C153" s="38"/>
-      <c r="D153" s="139"/>
+      <c r="D153" s="135"/>
       <c r="E153" s="38"/>
     </row>
     <row r="154" spans="3:5">
       <c r="C154" s="38"/>
-      <c r="D154" s="139"/>
+      <c r="D154" s="135"/>
       <c r="E154" s="38"/>
     </row>
     <row r="155" spans="3:5">
       <c r="C155" s="38"/>
-      <c r="D155" s="139"/>
+      <c r="D155" s="135"/>
       <c r="E155" s="38"/>
     </row>
     <row r="156" spans="3:5">
       <c r="C156" s="38"/>
-      <c r="D156" s="139"/>
+      <c r="D156" s="135"/>
       <c r="E156" s="38"/>
     </row>
     <row r="157" spans="3:5">
       <c r="C157" s="38"/>
-      <c r="D157" s="139"/>
+      <c r="D157" s="135"/>
       <c r="E157" s="38"/>
     </row>
     <row r="158" spans="3:5">
       <c r="C158" s="38"/>
-      <c r="D158" s="139"/>
+      <c r="D158" s="135"/>
       <c r="E158" s="38"/>
     </row>
     <row r="159" spans="3:5">
       <c r="C159" s="38"/>
-      <c r="D159" s="139"/>
+      <c r="D159" s="135"/>
       <c r="E159" s="38"/>
     </row>
     <row r="160" spans="3:5">
       <c r="C160" s="38"/>
-      <c r="D160" s="139"/>
+      <c r="D160" s="135"/>
       <c r="E160" s="38"/>
     </row>
     <row r="161" spans="3:5">
       <c r="C161" s="38"/>
-      <c r="D161" s="139"/>
+      <c r="D161" s="135"/>
       <c r="E161" s="38"/>
     </row>
     <row r="162" spans="3:5">
       <c r="C162" s="38"/>
-      <c r="D162" s="139"/>
+      <c r="D162" s="135"/>
       <c r="E162" s="38"/>
     </row>
     <row r="163" spans="3:5">
       <c r="C163" s="38"/>
-      <c r="D163" s="139"/>
+      <c r="D163" s="135"/>
       <c r="E163" s="38"/>
     </row>
     <row r="164" spans="3:5">
       <c r="C164" s="38"/>
-      <c r="D164" s="139"/>
+      <c r="D164" s="135"/>
       <c r="E164" s="38"/>
     </row>
     <row r="165" spans="3:5">
       <c r="C165" s="38"/>
-      <c r="D165" s="139"/>
+      <c r="D165" s="135"/>
       <c r="E165" s="38"/>
     </row>
     <row r="166" spans="3:5">
       <c r="C166" s="38"/>
-      <c r="D166" s="139"/>
+      <c r="D166" s="135"/>
       <c r="E166" s="38"/>
     </row>
     <row r="167" spans="3:5">
       <c r="C167" s="38"/>
-      <c r="D167" s="139"/>
+      <c r="D167" s="135"/>
       <c r="E167" s="38"/>
     </row>
     <row r="168" spans="3:5">
       <c r="C168" s="38"/>
-      <c r="D168" s="139"/>
+      <c r="D168" s="135"/>
       <c r="E168" s="38"/>
     </row>
     <row r="169" spans="3:5">
       <c r="C169" s="38"/>
-      <c r="D169" s="139"/>
+      <c r="D169" s="135"/>
       <c r="E169" s="38"/>
     </row>
     <row r="170" spans="3:5">
       <c r="C170" s="38"/>
-      <c r="D170" s="139"/>
+      <c r="D170" s="135"/>
       <c r="E170" s="38"/>
     </row>
     <row r="171" spans="3:5">
       <c r="C171" s="38"/>
-      <c r="D171" s="139"/>
+      <c r="D171" s="135"/>
       <c r="E171" s="38"/>
     </row>
     <row r="172" spans="3:5">
       <c r="C172" s="38"/>
-      <c r="D172" s="139"/>
+      <c r="D172" s="135"/>
       <c r="E172" s="38"/>
     </row>
     <row r="173" spans="3:5">
       <c r="C173" s="38"/>
-      <c r="D173" s="139"/>
+      <c r="D173" s="135"/>
       <c r="E173" s="38"/>
     </row>
     <row r="174" spans="3:5">
       <c r="C174" s="38"/>
-      <c r="D174" s="139"/>
+      <c r="D174" s="135"/>
       <c r="E174" s="38"/>
     </row>
     <row r="175" spans="3:5">
       <c r="C175" s="38"/>
-      <c r="D175" s="139"/>
+      <c r="D175" s="135"/>
       <c r="E175" s="38"/>
     </row>
     <row r="176" spans="3:5">
       <c r="C176" s="38"/>
-      <c r="D176" s="139"/>
+      <c r="D176" s="135"/>
       <c r="E176" s="38"/>
     </row>
     <row r="177" spans="3:5">
       <c r="C177" s="38"/>
-      <c r="D177" s="139"/>
+      <c r="D177" s="135"/>
       <c r="E177" s="38"/>
     </row>
     <row r="178" spans="3:5">
       <c r="C178" s="38"/>
-      <c r="D178" s="139"/>
+      <c r="D178" s="135"/>
       <c r="E178" s="38"/>
     </row>
     <row r="179" spans="3:5">
       <c r="C179" s="38"/>
-      <c r="D179" s="139"/>
+      <c r="D179" s="135"/>
       <c r="E179" s="38"/>
     </row>
     <row r="180" spans="3:5">
       <c r="C180" s="38"/>
-      <c r="D180" s="139"/>
+      <c r="D180" s="135"/>
       <c r="E180" s="38"/>
     </row>
     <row r="181" spans="3:5">
       <c r="C181" s="38"/>
-      <c r="D181" s="139"/>
+      <c r="D181" s="135"/>
       <c r="E181" s="38"/>
     </row>
     <row r="182" spans="3:5">
       <c r="C182" s="38"/>
-      <c r="D182" s="139"/>
+      <c r="D182" s="135"/>
       <c r="E182" s="38"/>
     </row>
     <row r="183" spans="3:5">
       <c r="C183" s="38"/>
-      <c r="D183" s="139"/>
+      <c r="D183" s="135"/>
       <c r="E183" s="38"/>
     </row>
     <row r="184" spans="3:5">
       <c r="C184" s="38"/>
-      <c r="D184" s="139"/>
+      <c r="D184" s="135"/>
       <c r="E184" s="38"/>
     </row>
     <row r="185" spans="3:5">
       <c r="C185" s="38"/>
-      <c r="D185" s="139"/>
+      <c r="D185" s="135"/>
       <c r="E185" s="38"/>
     </row>
     <row r="186" spans="3:5">
       <c r="C186" s="38"/>
-      <c r="D186" s="139"/>
+      <c r="D186" s="135"/>
       <c r="E186" s="38"/>
     </row>
     <row r="187" spans="3:5">
       <c r="C187" s="38"/>
-      <c r="D187" s="139"/>
+      <c r="D187" s="135"/>
       <c r="E187" s="38"/>
     </row>
     <row r="188" spans="3:5">
       <c r="C188" s="38"/>
-      <c r="D188" s="139"/>
+      <c r="D188" s="135"/>
       <c r="E188" s="38"/>
     </row>
     <row r="189" spans="3:5">
       <c r="C189" s="38"/>
-      <c r="D189" s="139"/>
+      <c r="D189" s="135"/>
       <c r="E189" s="38"/>
     </row>
     <row r="190" spans="3:5">
       <c r="C190" s="38"/>
-      <c r="D190" s="139"/>
+      <c r="D190" s="135"/>
       <c r="E190" s="38"/>
     </row>
     <row r="191" spans="3:5">
       <c r="C191" s="38"/>
-      <c r="D191" s="139"/>
+      <c r="D191" s="135"/>
       <c r="E191" s="38"/>
     </row>
     <row r="192" spans="3:5">
       <c r="C192" s="38"/>
-      <c r="D192" s="139"/>
+      <c r="D192" s="135"/>
       <c r="E192" s="38"/>
     </row>
     <row r="193" spans="3:5">
       <c r="C193" s="38"/>
-      <c r="D193" s="139"/>
+      <c r="D193" s="135"/>
       <c r="E193" s="38"/>
     </row>
     <row r="194" spans="3:5">
       <c r="C194" s="38"/>
-      <c r="D194" s="139"/>
+      <c r="D194" s="135"/>
       <c r="E194" s="38"/>
     </row>
     <row r="195" spans="3:5">
       <c r="C195" s="38"/>
-      <c r="D195" s="139"/>
+      <c r="D195" s="135"/>
       <c r="E195" s="38"/>
     </row>
     <row r="196" spans="3:5">
       <c r="C196" s="38"/>
-      <c r="D196" s="139"/>
+      <c r="D196" s="135"/>
       <c r="E196" s="38"/>
     </row>
     <row r="197" spans="3:5">
       <c r="C197" s="38"/>
-      <c r="D197" s="139"/>
+      <c r="D197" s="135"/>
       <c r="E197" s="38"/>
     </row>
     <row r="198" spans="3:5">
       <c r="C198" s="38"/>
-      <c r="D198" s="139"/>
+      <c r="D198" s="135"/>
       <c r="E198" s="38"/>
     </row>
     <row r="199" spans="3:5">
       <c r="C199" s="38"/>
-      <c r="D199" s="139"/>
+      <c r="D199" s="135"/>
       <c r="E199" s="38"/>
     </row>
     <row r="200" spans="3:5">
       <c r="C200" s="38"/>
-      <c r="D200" s="139"/>
+      <c r="D200" s="135"/>
       <c r="E200" s="38"/>
     </row>
     <row r="201" spans="3:5">
       <c r="C201" s="38"/>
-      <c r="D201" s="139"/>
+      <c r="D201" s="135"/>
       <c r="E201" s="38"/>
     </row>
     <row r="202" spans="3:5">
       <c r="C202" s="38"/>
-      <c r="D202" s="139"/>
+      <c r="D202" s="135"/>
       <c r="E202" s="38"/>
     </row>
     <row r="203" spans="3:5">
       <c r="C203" s="38"/>
-      <c r="D203" s="139"/>
+      <c r="D203" s="135"/>
       <c r="E203" s="38"/>
     </row>
     <row r="204" spans="3:5">
       <c r="C204" s="38"/>
-      <c r="D204" s="139"/>
+      <c r="D204" s="135"/>
       <c r="E204" s="38"/>
     </row>
     <row r="205" spans="3:5">
       <c r="C205" s="38"/>
-      <c r="D205" s="139"/>
+      <c r="D205" s="135"/>
       <c r="E205" s="38"/>
     </row>
     <row r="206" spans="3:5">
       <c r="C206" s="38"/>
-      <c r="D206" s="139"/>
+      <c r="D206" s="135"/>
       <c r="E206" s="38"/>
     </row>
     <row r="207" spans="3:5">
       <c r="C207" s="38"/>
-      <c r="D207" s="139"/>
+      <c r="D207" s="135"/>
       <c r="E207" s="38"/>
     </row>
     <row r="208" spans="3:5">
       <c r="C208" s="38"/>
-      <c r="D208" s="139"/>
+      <c r="D208" s="135"/>
       <c r="E208" s="38"/>
     </row>
     <row r="209" spans="3:5">
       <c r="C209" s="38"/>
-      <c r="D209" s="139"/>
+      <c r="D209" s="135"/>
       <c r="E209" s="38"/>
     </row>
     <row r="210" spans="3:5">
       <c r="C210" s="38"/>
-      <c r="D210" s="139"/>
+      <c r="D210" s="135"/>
       <c r="E210" s="38"/>
     </row>
     <row r="211" spans="3:5">
       <c r="C211" s="38"/>
-      <c r="D211" s="139"/>
+      <c r="D211" s="135"/>
       <c r="E211" s="38"/>
     </row>
     <row r="212" spans="3:5">
       <c r="C212" s="38"/>
-      <c r="D212" s="139"/>
+      <c r="D212" s="135"/>
       <c r="E212" s="38"/>
     </row>
     <row r="213" spans="3:5">
       <c r="C213" s="38"/>
-      <c r="D213" s="139"/>
+      <c r="D213" s="135"/>
       <c r="E213" s="38"/>
     </row>
     <row r="214" spans="3:5">
       <c r="C214" s="38"/>
-      <c r="D214" s="139"/>
+      <c r="D214" s="135"/>
       <c r="E214" s="38"/>
     </row>
     <row r="215" spans="3:5">
       <c r="C215" s="38"/>
-      <c r="D215" s="139"/>
+      <c r="D215" s="135"/>
       <c r="E215" s="38"/>
     </row>
     <row r="216" spans="3:5">
       <c r="C216" s="38"/>
-      <c r="D216" s="139"/>
+      <c r="D216" s="135"/>
       <c r="E216" s="38"/>
     </row>
     <row r="217" spans="3:5">
       <c r="C217" s="38"/>
-      <c r="D217" s="139"/>
+      <c r="D217" s="135"/>
       <c r="E217" s="38"/>
     </row>
     <row r="218" spans="3:5">
       <c r="C218" s="38"/>
-      <c r="D218" s="139"/>
+      <c r="D218" s="135"/>
       <c r="E218" s="38"/>
     </row>
     <row r="219" spans="3:5">
       <c r="C219" s="38"/>
-      <c r="D219" s="139"/>
+      <c r="D219" s="135"/>
       <c r="E219" s="38"/>
     </row>
     <row r="220" spans="3:5">
       <c r="C220" s="38"/>
-      <c r="D220" s="139"/>
+      <c r="D220" s="135"/>
       <c r="E220" s="38"/>
     </row>
     <row r="221" spans="3:5">
       <c r="C221" s="38"/>
-      <c r="D221" s="139"/>
+      <c r="D221" s="135"/>
       <c r="E221" s="38"/>
     </row>
     <row r="222" spans="3:5">
       <c r="C222" s="38"/>
-      <c r="D222" s="139"/>
+      <c r="D222" s="135"/>
       <c r="E222" s="38"/>
     </row>
     <row r="223" spans="3:5">
       <c r="C223" s="38"/>
-      <c r="D223" s="139"/>
+      <c r="D223" s="135"/>
       <c r="E223" s="38"/>
     </row>
     <row r="224" spans="3:5">
       <c r="C224" s="38"/>
-      <c r="D224" s="139"/>
+      <c r="D224" s="135"/>
       <c r="E224" s="38"/>
     </row>
     <row r="225" spans="3:5">
       <c r="C225" s="38"/>
-      <c r="D225" s="139"/>
+      <c r="D225" s="135"/>
       <c r="E225" s="38"/>
     </row>
     <row r="226" spans="3:5">
       <c r="C226" s="38"/>
-      <c r="D226" s="139"/>
+      <c r="D226" s="135"/>
       <c r="E226" s="38"/>
     </row>
     <row r="227" spans="3:5">
       <c r="C227" s="38"/>
-      <c r="D227" s="139"/>
+      <c r="D227" s="135"/>
       <c r="E227" s="38"/>
     </row>
     <row r="228" spans="3:5">
       <c r="C228" s="38"/>
-      <c r="D228" s="139"/>
+      <c r="D228" s="135"/>
       <c r="E228" s="38"/>
     </row>
     <row r="229" spans="3:5">
@@ -10416,30 +10640,31 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="23">
+  <dataValidations count="24">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificNameID" prompt="An identifier for the nomenclatural (not taxonomic) details of a scientific name. Use WoRMs Aphia ID, in LSD format." sqref="B4" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identifiedBy" prompt="A list (if more than one, separated with | ) of names of people, groups, or organizations who assigned the Taxon to the subject." sqref="G4" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="dateIdentified_x0009_" prompt="The date on which the subject was identified as representing the Taxon." sqref="H4" xr:uid="{00000000-0002-0000-0400-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identificationRemarks" prompt="Comments or notes about the Identification." sqref="J4" xr:uid="{00000000-0002-0000-0400-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identificationReferences" prompt="A list (if more than one separated with | ) of references (publication, global unique identifier, URI) used in the Identification." sqref="I4" xr:uid="{00000000-0002-0000-0400-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identificationQualifier" prompt="A brief phrase or a standard term (&quot;cf.&quot;, &quot;aff.&quot;) to express the determiner's doubts about the Identification." sqref="K4" xr:uid="{00000000-0002-0000-0400-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="typeStatus" prompt="A list (if more than one, separated with | ) of nomenclatural types (type status, typified scientific name, publication) applied to the subject." sqref="L4" xr:uid="{00000000-0002-0000-0400-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identifiedBy" prompt="A list (if more than one, separated with | ) of names of people, groups, or organizations who assigned the Taxon to the subject." sqref="H4" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="dateIdentified_x0009_" prompt="The date on which the subject was identified as representing the Taxon." sqref="I4" xr:uid="{00000000-0002-0000-0400-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identificationRemarks" prompt="Comments or notes about the Identification." sqref="K4" xr:uid="{00000000-0002-0000-0400-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identificationReferences" prompt="A list (if more than one separated with | ) of references (publication, global unique identifier, URI) used in the Identification." sqref="J4" xr:uid="{00000000-0002-0000-0400-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="identificationQualifier" prompt="A brief phrase or a standard term (&quot;cf.&quot;, &quot;aff.&quot;) to express the determiner's doubts about the Identification." sqref="L4" xr:uid="{00000000-0002-0000-0400-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="typeStatus" prompt="A list (if more than one, separated with | ) of nomenclatural types (type status, typified scientific name, publication) applied to the subject." sqref="M4" xr:uid="{00000000-0002-0000-0400-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="occurrenceID" prompt="An identifier for the Occurrence (as opposed to a particular digital record of the occurrence). In the absence of a persistent global unique identifier, construct one from a combination of identifiers in the record that will most closely make the occurren" sqref="C4 D82:D97 D57:D59 D5:D52" xr:uid="{00000000-0002-0000-0400-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="catalogNumber" prompt="An identifier (preferably unique) for the record within the data set or collection. Mostly for museum collections." sqref="M4" xr:uid="{00000000-0002-0000-0400-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="occurrenceRemarks" prompt="Comments or notes about the Occurrence." sqref="N4" xr:uid="{00000000-0002-0000-0400-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="recordedBy" prompt="A list (concatenated and separated) of names of people, groups, or organizations responsible for recording the original Occurrence. The primary collector or observer, especially one who applies a personal identifier (recordNumber), should be listed first" sqref="O4" xr:uid="{00000000-0002-0000-0400-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="preparations" prompt="A list (concatenated and separated) of preparations and preservation methods for a specimen." sqref="Q4" xr:uid="{00000000-0002-0000-0400-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="associatedMedia" prompt="A list (concatenated and separated) of identifiers (publication, global unique identifier, URI) of media associated with the Occurrence." sqref="R4" xr:uid="{00000000-0002-0000-0400-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="associatedReferences" prompt="A list (concatenated and separated) of identifiers (publication, bibliographic reference, global unique identifier, URI) of literature associated with the Occurrence." sqref="S4" xr:uid="{00000000-0002-0000-0400-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="associatedSequences" prompt="A list (concatenated and separated) of identifiers (publication, global unique identifier, URI) of genetic sequence information associated with the Occurrence." sqref="T4" xr:uid="{00000000-0002-0000-0400-00000E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="modified" prompt="The most recent date-time on which the resource was changed." sqref="U4" xr:uid="{00000000-0002-0000-0400-00000F000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="collectionCode" prompt="The name, acronym, coden, or initialism identifying the collection or data set from which the record was derived." sqref="V4" xr:uid="{00000000-0002-0000-0400-000010000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="dataGeneralizations" prompt="Actions taken to make the shared data less specific or complete than in its original form. Suggests that alternative data of higher quality may be available on request." sqref="X4" xr:uid="{00000000-0002-0000-0400-000011000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="dynamicProperties" prompt="A list (if more than one, separated with | ) of additional measurements, facts, characteristics, or assertions about the record. Meant to provide a mechanism for structured content such as key-value pairs (eg: &quot;{temperaturedegC:5} | {salinitypss:35}&quot;" sqref="Y4" xr:uid="{00000000-0002-0000-0400-000012000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="catalogNumber" prompt="An identifier (preferably unique) for the record within the data set or collection. Mostly for museum collections." sqref="N4" xr:uid="{00000000-0002-0000-0400-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="occurrenceRemarks" prompt="Comments or notes about the Occurrence." sqref="O4" xr:uid="{00000000-0002-0000-0400-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="recordedBy" prompt="A list (concatenated and separated) of names of people, groups, or organizations responsible for recording the original Occurrence. The primary collector or observer, especially one who applies a personal identifier (recordNumber), should be listed first" sqref="P4" xr:uid="{00000000-0002-0000-0400-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="preparations" prompt="A list (concatenated and separated) of preparations and preservation methods for a specimen." sqref="R4" xr:uid="{00000000-0002-0000-0400-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="associatedMedia" prompt="A list (concatenated and separated) of identifiers (publication, global unique identifier, URI) of media associated with the Occurrence." sqref="S4" xr:uid="{00000000-0002-0000-0400-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="associatedReferences" prompt="A list (concatenated and separated) of identifiers (publication, bibliographic reference, global unique identifier, URI) of literature associated with the Occurrence." sqref="T4" xr:uid="{00000000-0002-0000-0400-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="associatedSequences" prompt="A list (concatenated and separated) of identifiers (publication, global unique identifier, URI) of genetic sequence information associated with the Occurrence." sqref="U4" xr:uid="{00000000-0002-0000-0400-00000E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="modified" prompt="The most recent date-time on which the resource was changed." sqref="V4" xr:uid="{00000000-0002-0000-0400-00000F000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="collectionCode" prompt="The name, acronym, coden, or initialism identifying the collection or data set from which the record was derived." sqref="W4" xr:uid="{00000000-0002-0000-0400-000010000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="dataGeneralizations" prompt="Actions taken to make the shared data less specific or complete than in its original form. Suggests that alternative data of higher quality may be available on request." sqref="Y4" xr:uid="{00000000-0002-0000-0400-000011000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="dynamicProperties" prompt="A list (if more than one, separated with | ) of additional measurements, facts, characteristics, or assertions about the record. Meant to provide a mechanism for structured content such as key-value pairs (eg: &quot;{temperaturedegC:5} | {salinitypss:35}&quot;" sqref="Z4" xr:uid="{00000000-0002-0000-0400-000012000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="eventID" prompt="An identifier for the set of information associated with an Event (something that occurs at a place and time)." sqref="A4" xr:uid="{00000000-0002-0000-0400-000013000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificName" prompt="The full scientific name, with authorship and date information if known. When forming part of an Identification, this should be the name in lowest level taxonomic rank that can be determined. This term should not contain identification qualifications, whi" sqref="D4" xr:uid="{00000000-0002-0000-0400-000014000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificNameAuthorship" prompt="The authorship information for the scientificName formatted according to the conventions of the applicable nomenclaturalCode." sqref="E4" xr:uid="{00000000-0002-0000-0400-000015000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonRank" prompt="The taxonomic rank of the most specific name in the scientificName. Recommended best practice is to use a controlled vocabulary. " sqref="F4" xr:uid="{00000000-0002-0000-0400-000016000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="acceptedNameUsageID" prompt="An identifier for the name usage (documented meaning of the name according to a source) of the currently valid (zoological) or accepted (botanical) taxon." sqref="G4" xr:uid="{988A6F03-81CC-1948-B5A7-8083A08A4AC2}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -10449,13 +10674,13 @@
           <x14:formula1>
             <xm:f>ContextDependents!$M$1:$M$2</xm:f>
           </x14:formula1>
-          <xm:sqref>P4</xm:sqref>
+          <xm:sqref>Q4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="basisOfRecord" prompt="The specific nature of the data record. Select from Vocabulary" xr:uid="{00000000-0002-0000-0400-000018000000}">
           <x14:formula1>
             <xm:f>ContextDependents!$O$1:$O$5</xm:f>
           </x14:formula1>
-          <xm:sqref>W4</xm:sqref>
+          <xm:sqref>X4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10472,7 +10697,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft"/>
+      <selection activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -10483,7 +10709,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="20">
       <c r="A1" s="75" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B1" s="90"/>
       <c r="C1" s="73"/>
@@ -10527,25 +10753,25 @@
         <v>117</v>
       </c>
       <c r="E3" s="88" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F3" s="88" t="s">
         <v>118</v>
       </c>
       <c r="G3" s="88" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H3" s="88" t="s">
         <v>120</v>
       </c>
       <c r="I3" s="88" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J3" s="88" t="s">
         <v>119</v>
       </c>
       <c r="K3" s="88" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L3" s="88" t="s">
         <v>122</v>
@@ -10553,14 +10779,14 @@
       <c r="M3" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="134" t="s">
-        <v>421</v>
+      <c r="N3" s="130" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="55"/>
       <c r="N4" s="35" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -10574,10 +10800,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:I39"/>
+  <dimension ref="B2:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="99" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10590,33 +10816,33 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="47" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="17" thickBot="1"/>
     <row r="4" spans="2:9" ht="17" thickBot="1">
       <c r="B4" s="50" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C4" s="101" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D4" s="102" t="s">
+        <v>377</v>
+      </c>
+      <c r="E4" s="102" t="s">
         <v>378</v>
       </c>
-      <c r="E4" s="102" t="s">
-        <v>379</v>
-      </c>
       <c r="F4" s="102" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="48" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C5" s="103"/>
       <c r="D5" s="104"/>
@@ -10629,7 +10855,7 @@
     </row>
     <row r="6" spans="2:9" ht="17" thickBot="1">
       <c r="B6" s="48" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C6" s="106"/>
       <c r="D6" s="107"/>
@@ -10642,25 +10868,25 @@
     </row>
     <row r="7" spans="2:9" ht="17" thickBot="1">
       <c r="B7" s="50" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D7" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>383</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>384</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="49" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="48" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C8" s="103"/>
       <c r="D8" s="104"/>
@@ -10673,7 +10899,7 @@
     </row>
     <row r="9" spans="2:9" ht="17" thickBot="1">
       <c r="B9" s="109" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C9" s="106"/>
       <c r="D9" s="107"/>
@@ -10689,34 +10915,34 @@
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="47" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="17" thickBot="1"/>
     <row r="15" spans="2:9">
       <c r="B15" s="92" t="s">
+        <v>422</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>423</v>
+      </c>
+      <c r="D15" s="93" t="s">
         <v>424</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="E15" s="94" t="s">
         <v>425</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="F15" s="195" t="s">
+        <v>432</v>
+      </c>
+      <c r="G15" s="92" t="s">
         <v>426</v>
       </c>
-      <c r="E15" s="94" t="s">
+      <c r="H15" s="93" t="s">
         <v>427</v>
       </c>
-      <c r="F15" s="203" t="s">
-        <v>434</v>
-      </c>
-      <c r="G15" s="92" t="s">
+      <c r="I15" s="94" t="s">
         <v>428</v>
-      </c>
-      <c r="H15" s="93" t="s">
-        <v>429</v>
-      </c>
-      <c r="I15" s="94" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="17" thickBot="1">
@@ -10724,7 +10950,7 @@
       <c r="C16" s="107"/>
       <c r="D16" s="107"/>
       <c r="E16" s="108"/>
-      <c r="F16" s="204"/>
+      <c r="F16" s="196"/>
       <c r="G16" s="95" t="str">
         <f>IF(ISBLANK(B16),"",AVERAGE(B16,D16))</f>
         <v/>
@@ -10738,210 +10964,254 @@
         <v/>
       </c>
     </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="47" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="17" thickBot="1"/>
     <row r="20" spans="2:9">
-      <c r="B20" s="47" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="17" thickBot="1"/>
-    <row r="22" spans="2:9">
-      <c r="B22" s="98" t="s">
+      <c r="B20" s="92" t="s">
+        <v>422</v>
+      </c>
+      <c r="C20" s="93" t="s">
+        <v>423</v>
+      </c>
+      <c r="D20" s="93" t="s">
+        <v>424</v>
+      </c>
+      <c r="E20" s="94" t="s">
+        <v>425</v>
+      </c>
+      <c r="F20" s="201" t="s">
+        <v>432</v>
+      </c>
+      <c r="G20" s="203" t="s">
+        <v>428</v>
+      </c>
+      <c r="H20" s="204"/>
+      <c r="I20" s="205"/>
+    </row>
+    <row r="21" spans="2:9" ht="17" thickBot="1">
+      <c r="B21" s="106"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="202"/>
+      <c r="G21" s="206" t="str">
+        <f>IF(ISBLANK(E21),"",CONCATENATE("POLYGON(",C21," ",B21,", ",E21," ",B21,",",  E21," ",D21,", ",C21," ",D21,")"))</f>
+        <v/>
+      </c>
+      <c r="H21" s="207"/>
+      <c r="I21" s="208"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="47" t="s">
         <v>431</v>
       </c>
-      <c r="C22" s="99"/>
-      <c r="D22" s="203" t="s">
-        <v>434</v>
-      </c>
-      <c r="E22" s="98" t="s">
+    </row>
+    <row r="24" spans="2:9" ht="17" thickBot="1"/>
+    <row r="25" spans="2:9">
+      <c r="B25" s="98" t="s">
+        <v>429</v>
+      </c>
+      <c r="C25" s="99"/>
+      <c r="D25" s="195" t="s">
         <v>432</v>
       </c>
-      <c r="F22" s="99"/>
-    </row>
-    <row r="23" spans="2:9" ht="17" thickBot="1">
-      <c r="B23" s="199"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="201" t="str">
-        <f>IF(ISBLANK(B23),"",B23*1.8288)</f>
+      <c r="E25" s="98" t="s">
+        <v>430</v>
+      </c>
+      <c r="F25" s="99"/>
+    </row>
+    <row r="26" spans="2:9" ht="17" thickBot="1">
+      <c r="B26" s="191"/>
+      <c r="C26" s="192"/>
+      <c r="D26" s="196"/>
+      <c r="E26" s="193" t="str">
+        <f>IF(ISBLANK(B26),"",B26*1.8288)</f>
         <v/>
       </c>
-      <c r="F23" s="202"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="47" t="s">
+      <c r="F26" s="194"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="47" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="17" thickBot="1"/>
+    <row r="31" spans="2:9" ht="20">
+      <c r="B31" s="75" t="s">
+        <v>372</v>
+      </c>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="142" t="s">
+        <v>340</v>
+      </c>
+      <c r="F31" s="143"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="144"/>
+    </row>
+    <row r="32" spans="2:9" ht="17" thickBot="1">
+      <c r="B32" s="145"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="148"/>
+    </row>
+    <row r="33" spans="2:9" ht="16" customHeight="1" thickBot="1">
+      <c r="B33" s="198" t="s">
+        <v>441</v>
+      </c>
+      <c r="C33" s="199"/>
+      <c r="D33" s="199"/>
+      <c r="E33" s="200"/>
+      <c r="F33" s="197"/>
+      <c r="G33" s="197"/>
+      <c r="H33" s="197"/>
+      <c r="I33" s="149" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="225" t="s">
+        <v>356</v>
+      </c>
+      <c r="C34" s="226"/>
+      <c r="D34" s="226"/>
+      <c r="E34" s="227"/>
+      <c r="F34" s="235"/>
+      <c r="G34" s="236"/>
+      <c r="H34" s="236"/>
+      <c r="I34" s="188"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="222" t="s">
+        <v>355</v>
+      </c>
+      <c r="C35" s="223"/>
+      <c r="D35" s="223"/>
+      <c r="E35" s="224"/>
+      <c r="F35" s="231"/>
+      <c r="G35" s="232"/>
+      <c r="H35" s="232"/>
+      <c r="I35" s="233"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="219" t="s">
+        <v>354</v>
+      </c>
+      <c r="C36" s="220"/>
+      <c r="D36" s="220"/>
+      <c r="E36" s="221"/>
+      <c r="F36" s="231"/>
+      <c r="G36" s="232"/>
+      <c r="H36" s="232"/>
+      <c r="I36" s="233"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="213"/>
+      <c r="C37" s="214"/>
+      <c r="D37" s="214"/>
+      <c r="E37" s="215"/>
+      <c r="F37" s="234"/>
+      <c r="G37" s="189"/>
+      <c r="H37" s="189"/>
+      <c r="I37" s="190"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="213"/>
+      <c r="C38" s="214"/>
+      <c r="D38" s="214"/>
+      <c r="E38" s="215"/>
+      <c r="F38" s="234"/>
+      <c r="G38" s="189"/>
+      <c r="H38" s="189"/>
+      <c r="I38" s="190"/>
+    </row>
+    <row r="39" spans="2:9" ht="17" thickBot="1">
+      <c r="B39" s="216" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" ht="17" thickBot="1"/>
-    <row r="28" spans="2:9" ht="20">
-      <c r="B28" s="75" t="s">
-        <v>373</v>
-      </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="148" t="s">
-        <v>340</v>
-      </c>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="150"/>
-    </row>
-    <row r="29" spans="2:9" ht="17" thickBot="1">
-      <c r="B29" s="151"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="153"/>
-      <c r="I29" s="154"/>
-    </row>
-    <row r="30" spans="2:9" ht="16" customHeight="1" thickBot="1">
-      <c r="B30" s="206" t="s">
-        <v>443</v>
-      </c>
-      <c r="C30" s="207"/>
-      <c r="D30" s="207"/>
-      <c r="E30" s="208"/>
-      <c r="F30" s="205"/>
-      <c r="G30" s="205"/>
-      <c r="H30" s="205"/>
-      <c r="I30" s="157" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="196" t="s">
-        <v>356</v>
-      </c>
-      <c r="C31" s="197"/>
-      <c r="D31" s="197"/>
-      <c r="E31" s="198"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="185"/>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="193" t="s">
-        <v>355</v>
-      </c>
-      <c r="C32" s="194"/>
-      <c r="D32" s="194"/>
-      <c r="E32" s="195"/>
-      <c r="F32" s="191"/>
-      <c r="G32" s="191"/>
-      <c r="H32" s="191"/>
-      <c r="I32" s="192"/>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="147" t="s">
-        <v>354</v>
-      </c>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="191"/>
-      <c r="G33" s="191"/>
-      <c r="H33" s="191"/>
-      <c r="I33" s="192"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="147"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="191"/>
-      <c r="G34" s="191"/>
-      <c r="H34" s="191"/>
-      <c r="I34" s="192"/>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="147"/>
-      <c r="C35" s="155"/>
-      <c r="D35" s="155"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="191"/>
-      <c r="G35" s="191"/>
-      <c r="H35" s="191"/>
-      <c r="I35" s="192"/>
-    </row>
-    <row r="36" spans="2:9" ht="17" thickBot="1">
-      <c r="B36" s="188" t="s">
-        <v>447</v>
-      </c>
-      <c r="C36" s="189"/>
-      <c r="D36" s="189"/>
-      <c r="E36" s="190"/>
-      <c r="F36" s="186"/>
-      <c r="G36" s="186"/>
-      <c r="H36" s="186"/>
-      <c r="I36" s="187"/>
-    </row>
-    <row r="37" spans="2:9" ht="17" thickBot="1">
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-    </row>
-    <row r="38" spans="2:9" ht="17" thickBot="1">
-      <c r="B38" s="170" t="s">
-        <v>446</v>
-      </c>
-      <c r="C38" s="171"/>
-      <c r="D38" s="158"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="159"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-    </row>
-    <row r="39" spans="2:9" ht="17" thickBot="1">
-      <c r="B39" s="167">
-        <f>F30</f>
-        <v>0</v>
-      </c>
-      <c r="C39" s="168">
-        <f>F31</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="168">
-        <f>F32</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="168">
+      <c r="C39" s="217"/>
+      <c r="D39" s="217"/>
+      <c r="E39" s="218"/>
+      <c r="F39" s="228"/>
+      <c r="G39" s="229"/>
+      <c r="H39" s="229"/>
+      <c r="I39" s="230"/>
+    </row>
+    <row r="40" spans="2:9" ht="17" thickBot="1">
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+    </row>
+    <row r="41" spans="2:9" ht="17" thickBot="1">
+      <c r="B41" s="159" t="s">
+        <v>444</v>
+      </c>
+      <c r="C41" s="160"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="151"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+    </row>
+    <row r="42" spans="2:9" ht="17" thickBot="1">
+      <c r="B42" s="156">
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="F39" s="169">
+      <c r="C42" s="157">
+        <f>F34</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="157">
+        <f>F35</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="157">
         <f>F36</f>
         <v>0</v>
       </c>
+      <c r="F42" s="158">
+        <f>F39</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
+  <mergeCells count="16">
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F33:I35"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F36:I38"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonImage" prompt="Image of the taxon. Don't forget to send to SponGIS!" sqref="F36" xr:uid="{00000000-0002-0000-0600-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonDescription" prompt="Brief description of the taxon if applicable, suited for the website." sqref="C33:E35 F33" xr:uid="{00000000-0002-0000-0600-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonRemarks" prompt="Comments or notes about the taxon or name." sqref="F32" xr:uid="{00000000-0002-0000-0600-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificName" prompt="The full scientific name only (additional authorship and date information if known, should be added to the field below)" sqref="F31" xr:uid="{00000000-0002-0000-0600-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificNameID" prompt="An identifier for the nomenclatural (not taxonomic) details of a scientific name. Match with WoRMS Aphia ID." sqref="F30" xr:uid="{00000000-0002-0000-0600-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonImage" prompt="Image of the taxon. Don't forget to send to SponGIS!" sqref="F39" xr:uid="{00000000-0002-0000-0600-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonDescription" prompt="Brief description of the taxon if applicable, suited for the website." sqref="C36:E38 F36" xr:uid="{00000000-0002-0000-0600-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="taxonRemarks" prompt="Comments or notes about the taxon or name." sqref="F35" xr:uid="{00000000-0002-0000-0600-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificName" prompt="The full scientific name only (additional authorship and date information if known, should be added to the field below)" sqref="F34" xr:uid="{00000000-0002-0000-0600-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="scientificNameID" prompt="An identifier for the nomenclatural (not taxonomic) details of a scientific name. Match with WoRMS Aphia ID." sqref="F33" xr:uid="{00000000-0002-0000-0600-000004000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I30" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="I33" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -10970,7 +11240,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="96.6640625" defaultRowHeight="16"/>
@@ -10988,7 +11258,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1">
       <c r="A1" s="209" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B1" s="209"/>
       <c r="C1" s="27"/>
@@ -11056,7 +11326,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="32">
+    <row r="6" spans="1:10" ht="34">
       <c r="A6" s="11" t="s">
         <v>188</v>
       </c>
@@ -11079,7 +11349,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="48">
+    <row r="7" spans="1:10" ht="51">
       <c r="A7" s="18" t="s">
         <v>143</v>
       </c>
@@ -11100,7 +11370,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="64">
+    <row r="8" spans="1:10" ht="68">
       <c r="A8" s="18" t="s">
         <v>143</v>
       </c>
@@ -11123,7 +11393,7 @@
         <v>42376</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="64">
+    <row r="9" spans="1:10" ht="68">
       <c r="A9" s="18" t="s">
         <v>143</v>
       </c>
@@ -11143,7 +11413,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="64">
+    <row r="10" spans="1:10" ht="68">
       <c r="A10" s="18" t="s">
         <v>137</v>
       </c>
@@ -11164,7 +11434,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="48">
+    <row r="11" spans="1:10" ht="51">
       <c r="A11" s="18" t="s">
         <v>137</v>
       </c>
@@ -11187,7 +11457,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="64">
+    <row r="12" spans="1:10" ht="68">
       <c r="A12" s="18" t="s">
         <v>137</v>
       </c>
@@ -11213,7 +11483,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="48">
+    <row r="13" spans="1:10" ht="51">
       <c r="A13" s="2" t="s">
         <v>63</v>
       </c>
@@ -11236,7 +11506,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="80">
+    <row r="14" spans="1:10" ht="85">
       <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
@@ -11262,7 +11532,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="48">
+    <row r="15" spans="1:10" ht="51">
       <c r="A15" s="2" t="s">
         <v>63</v>
       </c>
@@ -11300,7 +11570,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="96.6640625" defaultRowHeight="16"/>
@@ -11316,7 +11586,7 @@
     <col min="9" max="16384" width="96.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48">
+    <row r="1" spans="1:10" ht="50">
       <c r="A1" s="211" t="s">
         <v>80</v>
       </c>
@@ -11388,7 +11658,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="32">
+    <row r="6" spans="1:10" ht="34">
       <c r="A6" s="29" t="s">
         <v>177</v>
       </c>
@@ -11414,7 +11684,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="64">
+    <row r="7" spans="1:10" ht="68">
       <c r="A7" s="29" t="s">
         <v>177</v>
       </c>
@@ -11432,7 +11702,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="64">
+    <row r="8" spans="1:10" ht="68">
       <c r="A8" s="29" t="s">
         <v>177</v>
       </c>
@@ -11456,7 +11726,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="48">
+    <row r="9" spans="1:10" ht="51">
       <c r="A9" s="29" t="s">
         <v>177</v>
       </c>
@@ -11482,77 +11752,77 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="64">
+    <row r="10" spans="1:10" ht="68">
       <c r="A10" s="29" t="s">
         <v>177</v>
       </c>
       <c r="B10" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>450</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>452</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="9" t="s">
         <v>141</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H10" s="20" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="144">
+    <row r="11" spans="1:10" ht="153">
       <c r="A11" s="29" t="s">
         <v>177</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>141</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="32">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="34">
       <c r="A12" s="29" t="s">
         <v>177</v>
       </c>
       <c r="B12" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>141</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="32">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="34">
       <c r="A13" s="29" t="s">
         <v>177</v>
       </c>
@@ -11575,7 +11845,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="32">
+    <row r="14" spans="1:10" ht="34">
       <c r="A14" s="29" t="s">
         <v>177</v>
       </c>
@@ -11583,7 +11853,7 @@
         <v>88</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>227</v>
@@ -11598,7 +11868,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="32">
+    <row r="15" spans="1:10" ht="34">
       <c r="A15" s="11" t="s">
         <v>188</v>
       </c>
@@ -11618,7 +11888,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="48">
+    <row r="16" spans="1:10" ht="51">
       <c r="A16" s="11" t="s">
         <v>188</v>
       </c>
@@ -11626,7 +11896,7 @@
         <v>176</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>141</v>
